--- a/data/datos.xlsx
+++ b/data/datos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arath Reyes\Documents\GitHub\Bootstrapping\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E50A380-17E4-4F13-B696-5A6FE1F0E708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasas" sheetId="1" r:id="rId1"/>
@@ -66,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="104">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
@@ -81,99 +87,99 @@
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="0.0000%"/>
-    <numFmt numFmtId="173" formatCode="0.000%"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="0.00000"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="&quot;£&quot;#,##0.00;\-&quot;£&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="0.000000000000000000%"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="186" formatCode="dd\ mmmyy"/>
-    <numFmt numFmtId="187" formatCode="dd\ mmmyy\ hh:mm"/>
-    <numFmt numFmtId="188" formatCode="0.00_)"/>
-    <numFmt numFmtId="189" formatCode="#,##0\ &quot;DM&quot;;\-#,##0\ &quot;DM&quot;"/>
-    <numFmt numFmtId="190" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
-    <numFmt numFmtId="191" formatCode="_ &quot;\&quot;* #,##0_ ;_ &quot;\&quot;* \-#,##0_ ;_ &quot;\&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="192" formatCode="#.##"/>
-    <numFmt numFmtId="193" formatCode="_ &quot;\&quot;* #,##0.00_ ;_ &quot;\&quot;* \-#,##0.00_ ;_ &quot;\&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="194" formatCode="#,##0.000;[Red]&quot;-&quot;#,##0.000"/>
-    <numFmt numFmtId="195" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="196" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="197" formatCode="#,##0\ ;\(#,##0\);\-\ \ \ \ \ "/>
-    <numFmt numFmtId="198" formatCode="#,##0\ ;\(#,##0\);\–\ \ \ \ \ "/>
-    <numFmt numFmtId="199" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
-    <numFmt numFmtId="200" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="201" formatCode="_-&quot;VND&quot;* #,##0_-;\-&quot;VND&quot;* #,##0_-;_-&quot;VND&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="202" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="203" formatCode="#,##0.00\ &quot;FB&quot;;[Red]\-#,##0.00\ &quot;FB&quot;"/>
-    <numFmt numFmtId="204" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="205" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="206" formatCode="_-* #,##0\ _F_B_-;\-* #,##0\ _F_B_-;_-* &quot;-&quot;\ _F_B_-;_-@_-"/>
-    <numFmt numFmtId="207" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="208" formatCode="#,##0,"/>
-    <numFmt numFmtId="209" formatCode="#,##0\ &quot;$&quot;_);\(#,##0\ &quot;$&quot;\)"/>
-    <numFmt numFmtId="210" formatCode="#,##0\ \ \ ;[Red]\(#,##0\)\ \ ;\—\ \ \ \ "/>
-    <numFmt numFmtId="211" formatCode="#,##0.00\ \ "/>
-    <numFmt numFmtId="212" formatCode="#,##0.00\ "/>
-    <numFmt numFmtId="213" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="214" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="215" formatCode="_-&quot;F&quot;* #,##0_-;\-&quot;F&quot;* #,##0_-;_-&quot;F&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="216" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
-    <numFmt numFmtId="217" formatCode="_-&quot;F&quot;* #,##0.00_-;\-&quot;F&quot;* #,##0.00_-;_-&quot;F&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="218" formatCode="0.000000"/>
-    <numFmt numFmtId="219" formatCode="#,##0.0;\-#,##0.0;\-"/>
-    <numFmt numFmtId="220" formatCode="#,##0_);\(#,##0\);&quot;-  &quot;;&quot;  &quot;@"/>
-    <numFmt numFmtId="221" formatCode="0.0%;\-0.0%;\-"/>
-    <numFmt numFmtId="222" formatCode="0.0%"/>
-    <numFmt numFmtId="223" formatCode="#,##0_);[Red]\(#,##0\);\-_0_)"/>
-    <numFmt numFmtId="224" formatCode="#,##0.0,_);\(#,##0.0,\);\-_0_)"/>
-    <numFmt numFmtId="225" formatCode="#,##0;&quot;(&quot;#,##0&quot;)&quot;;&quot;-&quot;"/>
-    <numFmt numFmtId="226" formatCode="#,##0_);[Red]\(#,##0\);&quot;-&quot;_);[Blue]&quot;Error-&quot;@"/>
-    <numFmt numFmtId="227" formatCode="#,##0.0_);[Red]\(#,##0.0\);&quot;-&quot;_);[Blue]&quot;Error-&quot;@"/>
-    <numFmt numFmtId="228" formatCode="#,##0.00_);[Red]\(#,##0.00\);&quot;-&quot;_);[Blue]&quot;Error-&quot;@"/>
-    <numFmt numFmtId="229" formatCode="&quot;£&quot;* #,##0_);[Red]&quot;£&quot;* \(#,##0\);&quot;£&quot;* &quot;-&quot;_);[Blue]&quot;Error-&quot;@"/>
-    <numFmt numFmtId="230" formatCode="&quot;£&quot;* #,##0.0_);[Red]&quot;£&quot;* \(#,##0.0\);&quot;£&quot;* &quot;-&quot;_);[Blue]&quot;Error-&quot;@"/>
-    <numFmt numFmtId="231" formatCode="&quot;£&quot;* #,##0.00_);[Red]&quot;£&quot;* \(#,##0.00\);&quot;£&quot;* &quot;-&quot;_);[Blue]&quot;Error-&quot;@"/>
-    <numFmt numFmtId="232" formatCode="dd\ mmm\ yyyy_)"/>
-    <numFmt numFmtId="233" formatCode="dd/mm/yy_)"/>
-    <numFmt numFmtId="234" formatCode="0%_);[Red]\-0%_);0%_);[Blue]&quot;Error-&quot;@"/>
-    <numFmt numFmtId="235" formatCode="0.0%_);[Red]\-0.0%_);0.0%_);[Blue]&quot;Error-&quot;@"/>
-    <numFmt numFmtId="236" formatCode="0.00%_);[Red]\-0.00%_);0.00%_);[Blue]&quot;Error-&quot;@"/>
-    <numFmt numFmtId="237" formatCode="000"/>
-    <numFmt numFmtId="238" formatCode="mmm\ yy"/>
-    <numFmt numFmtId="239" formatCode="\ ;\ ;"/>
-    <numFmt numFmtId="240" formatCode="#,##0\ &quot;Kč&quot;;\-#,##0\ &quot;Kč&quot;"/>
-    <numFmt numFmtId="241" formatCode="#,##0.000"/>
-    <numFmt numFmtId="242" formatCode="d\ mmm\ yy"/>
-    <numFmt numFmtId="243" formatCode="#,##0.0,;[Red]\(#,##0.0,\);\-_)_0"/>
-    <numFmt numFmtId="244" formatCode="0%;\-0%;&quot;-&quot;"/>
-    <numFmt numFmtId="245" formatCode="_(* #,##0.00%_);_(* \(#,##0.00%\);_(* #,##0.00%_);_(@_)"/>
-    <numFmt numFmtId="246" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="247" formatCode="_-* #,##0.00\ \€_-;\-* #,##0.00\ \€_-;_-* &quot;-&quot;??\ \€_-;_-@_-"/>
-    <numFmt numFmtId="248" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
-    <numFmt numFmtId="249" formatCode="0.00&quot;%&quot;"/>
-    <numFmt numFmtId="250" formatCode="General_)"/>
-    <numFmt numFmtId="251" formatCode="[Red]&quot;£&quot;#,##0.00&quot;/mhr&quot;"/>
-    <numFmt numFmtId="252" formatCode="#,##0.0"/>
-    <numFmt numFmtId="253" formatCode="0.0"/>
-    <numFmt numFmtId="254" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="255" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
-    <numFmt numFmtId="256" formatCode="_-* #,##0\ &quot;F&quot;_-;\-* #,##0\ &quot;F&quot;_-;_-* &quot;-&quot;\ &quot;F&quot;_-;_-@_-"/>
-    <numFmt numFmtId="257" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
-    <numFmt numFmtId="258" formatCode="0.0%;\(0.0%\)"/>
-    <numFmt numFmtId="259" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="261" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="262" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="263" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="273" formatCode="[$-240A]hh:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="175" formatCode="&quot;£&quot;#,##0.00;\-&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="0.000000000000000000%"/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="184" formatCode="dd\ mmmyy"/>
+    <numFmt numFmtId="185" formatCode="dd\ mmmyy\ hh:mm"/>
+    <numFmt numFmtId="186" formatCode="0.00_)"/>
+    <numFmt numFmtId="187" formatCode="#,##0\ &quot;DM&quot;;\-#,##0\ &quot;DM&quot;"/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0\ _F_-;\-* #,##0\ _F_-;_-* &quot;-&quot;\ _F_-;_-@_-"/>
+    <numFmt numFmtId="189" formatCode="_ &quot;\&quot;* #,##0_ ;_ &quot;\&quot;* \-#,##0_ ;_ &quot;\&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="190" formatCode="#.##"/>
+    <numFmt numFmtId="191" formatCode="_ &quot;\&quot;* #,##0.00_ ;_ &quot;\&quot;* \-#,##0.00_ ;_ &quot;\&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="192" formatCode="#,##0.000;[Red]&quot;-&quot;#,##0.000"/>
+    <numFmt numFmtId="193" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="194" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="195" formatCode="#,##0\ ;\(#,##0\);\-\ \ \ \ \ "/>
+    <numFmt numFmtId="196" formatCode="#,##0\ ;\(#,##0\);\–\ \ \ \ \ "/>
+    <numFmt numFmtId="197" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
+    <numFmt numFmtId="198" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="199" formatCode="_-&quot;VND&quot;* #,##0_-;\-&quot;VND&quot;* #,##0_-;_-&quot;VND&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="200" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="201" formatCode="#,##0.00\ &quot;FB&quot;;[Red]\-#,##0.00\ &quot;FB&quot;"/>
+    <numFmt numFmtId="202" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="203" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="204" formatCode="_-* #,##0\ _F_B_-;\-* #,##0\ _F_B_-;_-* &quot;-&quot;\ _F_B_-;_-@_-"/>
+    <numFmt numFmtId="205" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="206" formatCode="#,##0,"/>
+    <numFmt numFmtId="207" formatCode="#,##0\ &quot;$&quot;_);\(#,##0\ &quot;$&quot;\)"/>
+    <numFmt numFmtId="208" formatCode="#,##0\ \ \ ;[Red]\(#,##0\)\ \ ;\—\ \ \ \ "/>
+    <numFmt numFmtId="209" formatCode="#,##0.00\ \ "/>
+    <numFmt numFmtId="210" formatCode="#,##0.00\ "/>
+    <numFmt numFmtId="211" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="212" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="213" formatCode="_-&quot;F&quot;* #,##0_-;\-&quot;F&quot;* #,##0_-;_-&quot;F&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="214" formatCode="#,##0\ &quot;F&quot;;[Red]\-#,##0\ &quot;F&quot;"/>
+    <numFmt numFmtId="215" formatCode="_-&quot;F&quot;* #,##0.00_-;\-&quot;F&quot;* #,##0.00_-;_-&quot;F&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="216" formatCode="0.000000"/>
+    <numFmt numFmtId="217" formatCode="#,##0.0;\-#,##0.0;\-"/>
+    <numFmt numFmtId="218" formatCode="#,##0_);\(#,##0\);&quot;-  &quot;;&quot;  &quot;@"/>
+    <numFmt numFmtId="219" formatCode="0.0%;\-0.0%;\-"/>
+    <numFmt numFmtId="220" formatCode="0.0%"/>
+    <numFmt numFmtId="221" formatCode="#,##0_);[Red]\(#,##0\);\-_0_)"/>
+    <numFmt numFmtId="222" formatCode="#,##0.0,_);\(#,##0.0,\);\-_0_)"/>
+    <numFmt numFmtId="223" formatCode="#,##0;&quot;(&quot;#,##0&quot;)&quot;;&quot;-&quot;"/>
+    <numFmt numFmtId="224" formatCode="#,##0_);[Red]\(#,##0\);&quot;-&quot;_);[Blue]&quot;Error-&quot;@"/>
+    <numFmt numFmtId="225" formatCode="#,##0.0_);[Red]\(#,##0.0\);&quot;-&quot;_);[Blue]&quot;Error-&quot;@"/>
+    <numFmt numFmtId="226" formatCode="#,##0.00_);[Red]\(#,##0.00\);&quot;-&quot;_);[Blue]&quot;Error-&quot;@"/>
+    <numFmt numFmtId="227" formatCode="&quot;£&quot;* #,##0_);[Red]&quot;£&quot;* \(#,##0\);&quot;£&quot;* &quot;-&quot;_);[Blue]&quot;Error-&quot;@"/>
+    <numFmt numFmtId="228" formatCode="&quot;£&quot;* #,##0.0_);[Red]&quot;£&quot;* \(#,##0.0\);&quot;£&quot;* &quot;-&quot;_);[Blue]&quot;Error-&quot;@"/>
+    <numFmt numFmtId="229" formatCode="&quot;£&quot;* #,##0.00_);[Red]&quot;£&quot;* \(#,##0.00\);&quot;£&quot;* &quot;-&quot;_);[Blue]&quot;Error-&quot;@"/>
+    <numFmt numFmtId="230" formatCode="dd\ mmm\ yyyy_)"/>
+    <numFmt numFmtId="231" formatCode="dd/mm/yy_)"/>
+    <numFmt numFmtId="232" formatCode="0%_);[Red]\-0%_);0%_);[Blue]&quot;Error-&quot;@"/>
+    <numFmt numFmtId="233" formatCode="0.0%_);[Red]\-0.0%_);0.0%_);[Blue]&quot;Error-&quot;@"/>
+    <numFmt numFmtId="234" formatCode="0.00%_);[Red]\-0.00%_);0.00%_);[Blue]&quot;Error-&quot;@"/>
+    <numFmt numFmtId="235" formatCode="000"/>
+    <numFmt numFmtId="236" formatCode="mmm\ yy"/>
+    <numFmt numFmtId="237" formatCode="\ ;\ ;"/>
+    <numFmt numFmtId="238" formatCode="#,##0\ &quot;Kč&quot;;\-#,##0\ &quot;Kč&quot;"/>
+    <numFmt numFmtId="239" formatCode="#,##0.000"/>
+    <numFmt numFmtId="240" formatCode="d\ mmm\ yy"/>
+    <numFmt numFmtId="241" formatCode="#,##0.0,;[Red]\(#,##0.0,\);\-_)_0"/>
+    <numFmt numFmtId="242" formatCode="0%;\-0%;&quot;-&quot;"/>
+    <numFmt numFmtId="243" formatCode="_(* #,##0.00%_);_(* \(#,##0.00%\);_(* #,##0.00%_);_(@_)"/>
+    <numFmt numFmtId="244" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="245" formatCode="_-* #,##0.00\ \€_-;\-* #,##0.00\ \€_-;_-* &quot;-&quot;??\ \€_-;_-@_-"/>
+    <numFmt numFmtId="246" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="247" formatCode="0.00&quot;%&quot;"/>
+    <numFmt numFmtId="248" formatCode="General_)"/>
+    <numFmt numFmtId="249" formatCode="[Red]&quot;£&quot;#,##0.00&quot;/mhr&quot;"/>
+    <numFmt numFmtId="250" formatCode="#,##0.0"/>
+    <numFmt numFmtId="251" formatCode="0.0"/>
+    <numFmt numFmtId="252" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="253" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
+    <numFmt numFmtId="254" formatCode="_-* #,##0\ &quot;F&quot;_-;\-* #,##0\ &quot;F&quot;_-;_-* &quot;-&quot;\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="255" formatCode="_-* #,##0.00\ &quot;F&quot;_-;\-* #,##0.00\ &quot;F&quot;_-;_-* &quot;-&quot;??\ &quot;F&quot;_-;_-@_-"/>
+    <numFmt numFmtId="256" formatCode="0.0%;\(0.0%\)"/>
+    <numFmt numFmtId="257" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="258" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="259" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="260" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="261" formatCode="[$-240A]hh:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="209">
+  <fonts count="208">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1466,13 +1472,6 @@
       <sz val="7.5"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="63"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -2636,8 +2635,8 @@
     </xf>
     <xf numFmtId="0" fontId="179" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="249" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="219" fontId="48" fillId="33" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="247" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="217" fontId="48" fillId="33" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0"/>
@@ -2667,9 +2666,9 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="74" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="74" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="74" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="74" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2697,18 +2696,18 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
@@ -2720,7 +2719,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="top"/>
@@ -2793,59 +2792,59 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0"/>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="248" fontId="181" fillId="0" borderId="0"/>
+    <xf numFmtId="248" fontId="181" fillId="0" borderId="0"/>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="250" fontId="181" fillId="0" borderId="0"/>
-    <xf numFmtId="250" fontId="181" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
@@ -2853,52 +2852,52 @@
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
@@ -2910,22 +2909,22 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
@@ -2956,19 +2955,19 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0"/>
@@ -2981,7 +2980,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
@@ -2994,13 +2993,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
@@ -3022,28 +3021,28 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="249" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="251" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
@@ -3056,16 +3055,16 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="191" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="86" fillId="34" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3240,14 +3239,14 @@
     <xf numFmtId="0" fontId="35" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="91" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="190" fontId="94" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="191" fontId="91" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="191" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="192" fontId="94" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="91" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="194" fontId="94" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3258,13 +3257,13 @@
     <xf numFmtId="49" fontId="32" fillId="0" borderId="10" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="195" fontId="91" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="91" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="195" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="196" fontId="91" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="194" fontId="91" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="196" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="252" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="194" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="250" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="57" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
@@ -3279,56 +3278,56 @@
     <xf numFmtId="4" fontId="183" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="183" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="197" fontId="95" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="195" fontId="95" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="198" fontId="95" fillId="0" borderId="14" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="196" fontId="95" fillId="0" borderId="14" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="221" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="219" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="222" fontId="161" fillId="34" borderId="0"/>
-    <xf numFmtId="219" fontId="161" fillId="34" borderId="0"/>
+    <xf numFmtId="217" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="220" fontId="161" fillId="34" borderId="0"/>
+    <xf numFmtId="217" fontId="161" fillId="34" borderId="0"/>
+    <xf numFmtId="221" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="222" fontId="162" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="223" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="224" fontId="162" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="225" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="253" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="253" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="253" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="251" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="251" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="251" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="59" borderId="0"/>
+    <xf numFmtId="224" fontId="155" fillId="0" borderId="0"/>
+    <xf numFmtId="225" fontId="155" fillId="0" borderId="0"/>
     <xf numFmtId="226" fontId="155" fillId="0" borderId="0"/>
+    <xf numFmtId="224" fontId="155" fillId="0" borderId="16"/>
+    <xf numFmtId="225" fontId="155" fillId="0" borderId="16"/>
+    <xf numFmtId="226" fontId="155" fillId="0" borderId="16"/>
     <xf numFmtId="227" fontId="155" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="228" fontId="155" fillId="0" borderId="0"/>
-    <xf numFmtId="226" fontId="155" fillId="0" borderId="16"/>
+    <xf numFmtId="229" fontId="155" fillId="0" borderId="0"/>
     <xf numFmtId="227" fontId="155" fillId="0" borderId="16"/>
     <xf numFmtId="228" fontId="155" fillId="0" borderId="16"/>
-    <xf numFmtId="229" fontId="155" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="230" fontId="155" fillId="0" borderId="0"/>
-    <xf numFmtId="231" fontId="155" fillId="0" borderId="0"/>
     <xf numFmtId="229" fontId="155" fillId="0" borderId="16"/>
-    <xf numFmtId="230" fontId="155" fillId="0" borderId="16"/>
-    <xf numFmtId="231" fontId="155" fillId="0" borderId="16"/>
-    <xf numFmtId="232" fontId="155" fillId="0" borderId="0">
+    <xf numFmtId="230" fontId="155" fillId="0" borderId="0">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="233" fontId="155" fillId="0" borderId="0">
+    <xf numFmtId="231" fontId="155" fillId="0" borderId="0">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="232" fontId="155" fillId="0" borderId="0"/>
+    <xf numFmtId="233" fontId="155" fillId="0" borderId="0"/>
     <xf numFmtId="234" fontId="155" fillId="0" borderId="0"/>
-    <xf numFmtId="235" fontId="155" fillId="0" borderId="0"/>
-    <xf numFmtId="236" fontId="155" fillId="0" borderId="0"/>
+    <xf numFmtId="232" fontId="155" fillId="0" borderId="16"/>
+    <xf numFmtId="233" fontId="155" fillId="0" borderId="16"/>
     <xf numFmtId="234" fontId="155" fillId="0" borderId="16"/>
-    <xf numFmtId="235" fontId="155" fillId="0" borderId="16"/>
-    <xf numFmtId="236" fontId="155" fillId="0" borderId="16"/>
     <xf numFmtId="0" fontId="55" fillId="59" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="60" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="60" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3344,7 +3343,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="163" fillId="0" borderId="19" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="185" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="185" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="185" fillId="0" borderId="0"/>
@@ -3355,9 +3354,9 @@
     <xf numFmtId="0" fontId="185" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3368,14 +3367,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="63" borderId="21"/>
-    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="254" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="254" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="254" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="252" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="252" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="252" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="59" borderId="22">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="224" fontId="155" fillId="64" borderId="23">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="225" fontId="155" fillId="64" borderId="23">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="226" fontId="155" fillId="64" borderId="23">
       <protection locked="0"/>
     </xf>
@@ -3388,17 +3393,11 @@
     <xf numFmtId="229" fontId="155" fillId="64" borderId="23">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="230" fontId="155" fillId="64" borderId="23">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="231" fontId="155" fillId="64" borderId="23">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="232" fontId="155" fillId="34" borderId="23">
+    <xf numFmtId="230" fontId="155" fillId="34" borderId="23">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="233" fontId="155" fillId="34" borderId="23">
+    <xf numFmtId="231" fontId="155" fillId="34" borderId="23">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -3410,20 +3409,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="232" fontId="155" fillId="64" borderId="23">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="233" fontId="155" fillId="64" borderId="23">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="234" fontId="155" fillId="64" borderId="23">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="235" fontId="155" fillId="64" borderId="23">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="236" fontId="155" fillId="64" borderId="23">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="155" fillId="66" borderId="23">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="237" fontId="155" fillId="64" borderId="23">
+    <xf numFmtId="235" fontId="155" fillId="64" borderId="23">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -3444,12 +3443,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="186" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="14" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="15" fontId="162" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="238" fontId="162" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="56" fillId="59" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="236" fontId="162" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="56" fillId="59" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="163" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3464,79 +3463,79 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="186" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="5" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="5" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="207" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="207" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="207" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="207" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="207" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="207" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="207" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="207" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="70" fillId="46" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3563,8 +3562,8 @@
     <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3572,7 +3571,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
@@ -3581,7 +3580,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
@@ -3607,12 +3606,12 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="43" borderId="0">
       <alignment horizontal="right" shrinkToFit="1"/>
@@ -3662,7 +3661,7 @@
     <xf numFmtId="164" fontId="108" fillId="76" borderId="20" applyNumberFormat="0" applyAlignment="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="239" fontId="21" fillId="0" borderId="0" applyAlignment="0">
+    <xf numFmtId="237" fontId="21" fillId="0" borderId="0" applyAlignment="0">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
@@ -3671,14 +3670,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="48" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="41" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="209" fontId="109" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="207" fontId="109" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="39" fontId="32" fillId="0" borderId="10" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
@@ -3745,22 +3744,22 @@
     <xf numFmtId="0" fontId="61" fillId="79" borderId="11">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="240" fontId="163" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="238" fontId="163" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="255" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="241" fontId="48" fillId="0" borderId="10" applyFill="0" applyProtection="0">
+    <xf numFmtId="188" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="253" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="239" fontId="48" fillId="0" borderId="10" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="241" fontId="32" fillId="0" borderId="10" applyFill="0" applyProtection="0">
+    <xf numFmtId="239" fontId="32" fillId="0" borderId="10" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="111" fillId="0" borderId="15"/>
@@ -3768,10 +3767,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="48" fillId="0" borderId="32"/>
+    <xf numFmtId="177" fontId="48" fillId="0" borderId="32"/>
     <xf numFmtId="44" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="256" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="257" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="254" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="255" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="169" fillId="0" borderId="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="left"/>
@@ -3786,7 +3785,7 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="72" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="72" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
@@ -3815,7 +3814,7 @@
     <xf numFmtId="0" fontId="48" fillId="43" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="43" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="43" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="210" fontId="95" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="208" fontId="95" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
@@ -3825,21 +3824,21 @@
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="242" fontId="171" fillId="0" borderId="16" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="240" fontId="171" fillId="0" borderId="16" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="95" fillId="33" borderId="34" applyBorder="0"/>
     <xf numFmtId="3" fontId="171" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="243" fontId="171" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="241" fontId="171" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="171" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="171" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="171" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="60" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="258" fontId="190" fillId="0" borderId="0">
+    <xf numFmtId="256" fontId="190" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="259" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="244" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="257" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="242" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="163" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3950,7 +3949,7 @@
     <xf numFmtId="0" fontId="53" fillId="59" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="59" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="59" borderId="0"/>
-    <xf numFmtId="245" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="243" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
@@ -3991,12 +3990,12 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="185" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
@@ -4062,97 +4061,97 @@
     <xf numFmtId="0" fontId="172" fillId="34" borderId="20">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="122" fillId="0" borderId="42">
+    <xf numFmtId="177" fontId="122" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="82" fillId="0" borderId="42">
+    <xf numFmtId="173" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="211" fontId="123" fillId="0" borderId="42">
+    <xf numFmtId="209" fontId="123" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="82" fillId="0" borderId="42">
@@ -4170,16 +4169,16 @@
     <xf numFmtId="6" fontId="82" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="122" fillId="0" borderId="42">
+    <xf numFmtId="177" fontId="122" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="122" fillId="0" borderId="42">
+    <xf numFmtId="177" fontId="122" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="122" fillId="0" borderId="42">
+    <xf numFmtId="177" fontId="122" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="122" fillId="0" borderId="42">
+    <xf numFmtId="177" fontId="122" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="82" fillId="0" borderId="42">
@@ -4207,7 +4206,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="212" fontId="124" fillId="0" borderId="42">
+    <xf numFmtId="210" fontId="124" fillId="0" borderId="42">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="169" fillId="0" borderId="0">
@@ -4259,10 +4258,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="5" fontId="109" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="246" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="244" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="122" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="122" fillId="0" borderId="20"/>
+    <xf numFmtId="175" fontId="122" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="122" fillId="0" borderId="20"/>
     <xf numFmtId="164" fontId="127" fillId="91" borderId="34">
       <alignment vertical="top"/>
     </xf>
@@ -4282,10 +4281,10 @@
     <xf numFmtId="0" fontId="133" fillId="0" borderId="10">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="213" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="247" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="248" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="214" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="211" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="245" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="246" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="212" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4385,19 +4384,19 @@
     <xf numFmtId="0" fontId="154" fillId="60" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="156" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="196" fontId="157" fillId="77" borderId="50">
+    <xf numFmtId="193" fontId="156" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="194" fontId="157" fillId="77" borderId="50">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="156" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="194" fontId="156" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="155" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="155" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0"/>
+    <xf numFmtId="213" fontId="155" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="214" fontId="79" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="215" fontId="155" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="216" fontId="79" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="217" fontId="155" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyProtection="0"/>
@@ -4436,349 +4435,349 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="186" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="33" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="201" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="199" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="101" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="198" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="184" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="184" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="33" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="197" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="201" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4788,38 +4787,38 @@
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="200" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="200" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4841,59 +4840,59 @@
     <xf numFmtId="43" fontId="200" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="200" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="200" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4901,9 +4900,9 @@
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4921,62 +4920,62 @@
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5136,7 +5135,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="191" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="84" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
@@ -5254,24 +5253,24 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="273" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="273" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="273" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="273" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="273" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="273" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="261" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="261" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="261" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="261" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="261" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="261" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyProtection="0"/>
@@ -5377,7 +5376,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="206" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="206" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -5385,7 +5384,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="206" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="206" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -5393,7 +5392,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="206" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="206" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -5438,8 +5437,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="263" fontId="48" fillId="0" borderId="32"/>
-    <xf numFmtId="263" fontId="48" fillId="0" borderId="32"/>
+    <xf numFmtId="260" fontId="48" fillId="0" borderId="32"/>
+    <xf numFmtId="260" fontId="48" fillId="0" borderId="32"/>
     <xf numFmtId="44" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="62" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5503,10 +5502,10 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
@@ -5579,11 +5578,11 @@
     <xf numFmtId="0" fontId="200" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
@@ -5839,13 +5838,13 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="82" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="263" fontId="122" fillId="0" borderId="42">
+    <xf numFmtId="260" fontId="122" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5899,8 +5898,8 @@
     <xf numFmtId="0" fontId="31" fillId="95" borderId="54" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="261" fontId="122" fillId="0" borderId="0"/>
-    <xf numFmtId="262" fontId="122" fillId="0" borderId="20"/>
+    <xf numFmtId="258" fontId="122" fillId="0" borderId="0"/>
+    <xf numFmtId="259" fontId="122" fillId="0" borderId="20"/>
     <xf numFmtId="5" fontId="127" fillId="91" borderId="34">
       <alignment vertical="top"/>
     </xf>
@@ -5981,7 +5980,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="85" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="85" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
@@ -5990,8 +5989,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="249" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="219" fontId="48" fillId="33" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="247" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="217" fontId="48" fillId="33" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
@@ -6014,200 +6013,200 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0"/>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0">
@@ -6219,7 +6218,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
@@ -6231,13 +6230,13 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
@@ -6259,25 +6258,25 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="172" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="249" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="251" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6292,39 +6291,39 @@
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="252" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="221" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="250" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="219" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="221" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="223" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="225" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="253" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="253" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="253" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="251" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="251" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="251" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="63" borderId="21"/>
-    <xf numFmtId="254" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="254" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="254" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="252" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="252" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="252" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="14" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="48" fillId="0" borderId="10" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
@@ -6333,7 +6332,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="218" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="216" fontId="48" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
@@ -6362,11 +6361,11 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="48" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -6392,18 +6391,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="78" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="241" fontId="48" fillId="0" borderId="10" applyFill="0" applyProtection="0">
+    <xf numFmtId="239" fontId="48" fillId="0" borderId="10" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="48" fillId="0" borderId="32"/>
-    <xf numFmtId="179" fontId="48" fillId="0" borderId="32"/>
+    <xf numFmtId="177" fontId="48" fillId="0" borderId="32"/>
+    <xf numFmtId="177" fontId="48" fillId="0" borderId="32"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
@@ -6421,8 +6420,8 @@
     <xf numFmtId="37" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="259" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="244" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="257" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="242" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6456,7 +6455,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="122" fillId="0" borderId="42">
+    <xf numFmtId="177" fontId="122" fillId="0" borderId="42">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="125" fillId="90" borderId="0">
@@ -6468,10 +6467,10 @@
     <xf numFmtId="49" fontId="48" fillId="0" borderId="10" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="122" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="122" fillId="0" borderId="20"/>
-    <xf numFmtId="247" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="248" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="122" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="122" fillId="0" borderId="20"/>
+    <xf numFmtId="245" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="246" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="85" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
@@ -6481,20 +6480,20 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6523,28 +6522,28 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="43" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="43" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="48" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="71" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -6639,7 +6638,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="61" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6662,2766 +6661,2766 @@
     <xf numFmtId="15" fontId="48" fillId="33" borderId="0" xfId="1843" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2760">
-    <cellStyle name=" 1" xfId="2"/>
-    <cellStyle name=" 1 2" xfId="1845"/>
-    <cellStyle name=" 1 2 2" xfId="1846"/>
-    <cellStyle name=" 1 2 3" xfId="2380"/>
-    <cellStyle name=" 1 3" xfId="1847"/>
-    <cellStyle name=" 1 4" xfId="1848"/>
-    <cellStyle name=" 1 5" xfId="1849"/>
-    <cellStyle name=" 1 6" xfId="2381"/>
-    <cellStyle name=" 1 7" xfId="1844"/>
-    <cellStyle name="_x000a_386grabber=M" xfId="3"/>
-    <cellStyle name="_x000a_bidires=100_x000d_" xfId="4"/>
-    <cellStyle name="_x000a_bidires=100_x000d_ 2" xfId="2382"/>
-    <cellStyle name="&quot;Percent&quot;" xfId="5"/>
-    <cellStyle name="&quot;Percent&quot; 2" xfId="2383"/>
-    <cellStyle name="# ###,#" xfId="6"/>
-    <cellStyle name="# ###,# 2" xfId="2384"/>
-    <cellStyle name="%" xfId="7"/>
-    <cellStyle name="% 2" xfId="8"/>
-    <cellStyle name="% 2 2" xfId="1840"/>
-    <cellStyle name="% 2 3" xfId="1839"/>
-    <cellStyle name="% 2 4" xfId="1838"/>
-    <cellStyle name="% 2 5" xfId="1841"/>
-    <cellStyle name="% 3" xfId="1837"/>
-    <cellStyle name="% 3 2" xfId="1836"/>
-    <cellStyle name="% 3 3" xfId="1835"/>
-    <cellStyle name="% 3 4" xfId="1834"/>
-    <cellStyle name="% 4" xfId="1833"/>
-    <cellStyle name="%_AjustesPorColat" xfId="9"/>
-    <cellStyle name="%_BBGData" xfId="10"/>
-    <cellStyle name="%_BBGData 2" xfId="2385"/>
-    <cellStyle name="%_BBGData_USD eoniaBasis" xfId="11"/>
-    <cellStyle name="%_BBGData_USD eoniaBasis 2" xfId="2386"/>
-    <cellStyle name="%_BBV" xfId="1832"/>
-    <cellStyle name="%_BRL_USD_BASIS" xfId="12"/>
-    <cellStyle name="%_BRL_USD_BASIS 2" xfId="1831"/>
-    <cellStyle name="%_CLP" xfId="13"/>
-    <cellStyle name="%_CLP 2" xfId="2387"/>
-    <cellStyle name="%_CLP_USD_BASIS" xfId="14"/>
-    <cellStyle name="%_CLP_USD_BASIS 2" xfId="1830"/>
-    <cellStyle name="%_COP" xfId="15"/>
-    <cellStyle name="%_COP 2" xfId="2388"/>
-    <cellStyle name="%_COP_USD_BASIS" xfId="16"/>
-    <cellStyle name="%_COP_USD_BASIS 2" xfId="1829"/>
-    <cellStyle name="%_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN" xfId="17"/>
-    <cellStyle name="%_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN 2" xfId="1828"/>
-    <cellStyle name="%_curvas" xfId="1827"/>
-    <cellStyle name="%_Curves" xfId="18"/>
-    <cellStyle name="%_Curves 2" xfId="1826"/>
-    <cellStyle name="%_Curves_BBG" xfId="19"/>
-    <cellStyle name="%_Curves_BBG 2" xfId="2389"/>
-    <cellStyle name="%_DataforMurex" xfId="20"/>
-    <cellStyle name="%_DataforMurex 2" xfId="2390"/>
-    <cellStyle name="%_Ejercicio" xfId="21"/>
-    <cellStyle name="%_Ejercicio 2" xfId="2391"/>
-    <cellStyle name="%_FXDefinition" xfId="22"/>
-    <cellStyle name="%_FXDefinition 2" xfId="2392"/>
-    <cellStyle name="%_MktData" xfId="23"/>
-    <cellStyle name="%_MktData 2" xfId="2393"/>
-    <cellStyle name="%_MXNStd" xfId="24"/>
-    <cellStyle name="%_MXNStd 2" xfId="1825"/>
-    <cellStyle name="%_NuevaCalculadoraCurvas" xfId="25"/>
-    <cellStyle name="%_NuevaCalculadoraCurvas 2" xfId="1824"/>
-    <cellStyle name="%_NuevaCalculadoraCurvas_2" xfId="26"/>
-    <cellStyle name="%_NuevaCalculadoraCurvas_2 2" xfId="1823"/>
-    <cellStyle name="%_PEN_USD_BASIS" xfId="27"/>
-    <cellStyle name="%_PEN_USD_BASIS 2" xfId="1822"/>
-    <cellStyle name="%_REALTIME_EURUSD" xfId="28"/>
-    <cellStyle name="%_REALTIME_EURUSD 2" xfId="2394"/>
-    <cellStyle name="%_TIIE" xfId="29"/>
-    <cellStyle name="%_TIIE 2" xfId="2395"/>
-    <cellStyle name="%_TIIE USDBasis" xfId="30"/>
-    <cellStyle name="%_TIIE USDBasis 2" xfId="1821"/>
-    <cellStyle name="%_USD" xfId="31"/>
-    <cellStyle name="%_USD 2" xfId="2396"/>
-    <cellStyle name="%_USD eoniaBasis" xfId="32"/>
-    <cellStyle name="%_USD eoniaBasis 2" xfId="2397"/>
-    <cellStyle name="%_USD_1" xfId="33"/>
-    <cellStyle name="%_USD_1 2" xfId="1820"/>
-    <cellStyle name="%_USD_6M" xfId="34"/>
-    <cellStyle name="%_USD_6M 2" xfId="1819"/>
-    <cellStyle name="%_USD3M" xfId="35"/>
-    <cellStyle name="%_USD3M 2" xfId="1818"/>
-    <cellStyle name="%_VOLINT" xfId="1817"/>
-    <cellStyle name="%_ZLARGO" xfId="1816"/>
-    <cellStyle name="??" xfId="36"/>
-    <cellStyle name="?? [0.00]_ Att. 1- Cover" xfId="37"/>
-    <cellStyle name="?? [0]" xfId="38"/>
-    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="39"/>
-    <cellStyle name="??&amp;O?&amp;H?_x0008_??_x0007__x0001__x0001_" xfId="40"/>
-    <cellStyle name="?_x001d_??%U©÷u&amp;H©÷9_x0008_?_x0009_s_x000a__x0007__x0001__x0001_" xfId="41"/>
-    <cellStyle name="?_x001d_??%U©÷u&amp;H©÷9_x0008_?_x0009_s_x000a__x0007__x0001__x0001_ 2" xfId="1815"/>
-    <cellStyle name="???? [0.00]_PRODUCT DETAIL Q1" xfId="42"/>
-    <cellStyle name="????_PRODUCT DETAIL Q1" xfId="43"/>
-    <cellStyle name="???[0]_?? DI" xfId="44"/>
-    <cellStyle name="???_?? DI" xfId="45"/>
-    <cellStyle name="??[0]_BRE" xfId="46"/>
-    <cellStyle name="??_ Att. 1- Cover" xfId="47"/>
-    <cellStyle name="??A? [0]_ÿÿÿÿÿÿ_1_¢¬???¢â? " xfId="48"/>
-    <cellStyle name="??A?_ÿÿÿÿÿÿ_1_¢¬???¢â? " xfId="49"/>
-    <cellStyle name="?¡±¢¥?_?¨ù??¢´¢¥_¢¬???¢â? " xfId="50"/>
-    <cellStyle name="?ðÇ%U?&amp;H?_x0008_?s_x000a__x0007__x0001__x0001_" xfId="51"/>
-    <cellStyle name="?ðÇ%U?&amp;H?_x0008_?s_x000a__x0007__x0001__x0001_ 2" xfId="1814"/>
-    <cellStyle name="?W?_laroux" xfId="52"/>
-    <cellStyle name="[0]_Chi phÝ kh¸c_V" xfId="53"/>
-    <cellStyle name="_050513 SPC cost model rev 13" xfId="54"/>
-    <cellStyle name="_110920 - 18m Gold KO Call" xfId="55"/>
-    <cellStyle name="_110920 - 18m Gold KO Call 2" xfId="56"/>
-    <cellStyle name="_110920 - 18m Gold KO Call 2 2" xfId="2398"/>
-    <cellStyle name="_110920 - 18m Gold KO Call 3" xfId="57"/>
-    <cellStyle name="_110920 - 18m Gold KO Call 3 2" xfId="2399"/>
-    <cellStyle name="_110920 - 18m Gold KO Call 4" xfId="2400"/>
-    <cellStyle name="_20080930 PayMech_1" xfId="58"/>
-    <cellStyle name="_20080930 PayMech_1 2" xfId="2401"/>
-    <cellStyle name="_201006  NI Roads Cost Model BAFO 05d srnb RBC" xfId="59"/>
-    <cellStyle name="_201006  NI Roads Cost Model BAFO 05d srnb RBC 2" xfId="2402"/>
-    <cellStyle name="_3월 개설과정리스트_수주과정 제외" xfId="60"/>
-    <cellStyle name="_Aluminio" xfId="61"/>
-    <cellStyle name="_Aluminio 2" xfId="62"/>
-    <cellStyle name="_Aluminio 2 2" xfId="2403"/>
-    <cellStyle name="_Aluminio 3" xfId="63"/>
-    <cellStyle name="_Aluminio 3 2" xfId="2404"/>
-    <cellStyle name="_Aluminio 4" xfId="2405"/>
-    <cellStyle name="_Asset Definitions" xfId="64"/>
-    <cellStyle name="_Asset Definitions 2" xfId="65"/>
-    <cellStyle name="_Asset Definitions 2 2" xfId="2406"/>
-    <cellStyle name="_Asset Definitions 3" xfId="66"/>
-    <cellStyle name="_Asset Definitions 3 2" xfId="2407"/>
-    <cellStyle name="_Asset Definitions 4" xfId="2408"/>
-    <cellStyle name="_Bang Chi tieu (2)" xfId="67"/>
-    <cellStyle name="_Book1" xfId="68"/>
-    <cellStyle name="_Book1 2" xfId="1813"/>
-    <cellStyle name="_Book1_1" xfId="69"/>
-    <cellStyle name="_Book1_1 2" xfId="1812"/>
-    <cellStyle name="_Book1_1_BBGData" xfId="70"/>
-    <cellStyle name="_Book1_1_BBGData 2" xfId="1811"/>
-    <cellStyle name="_Book1_1_CLP" xfId="71"/>
-    <cellStyle name="_Book1_1_CLP 2" xfId="1810"/>
-    <cellStyle name="_Book1_1_COP" xfId="72"/>
-    <cellStyle name="_Book1_1_COP 2" xfId="1809"/>
-    <cellStyle name="_Book1_1_CRD Blotter" xfId="73"/>
-    <cellStyle name="_Book1_1_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN" xfId="74"/>
-    <cellStyle name="_Book1_1_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN 2" xfId="1808"/>
-    <cellStyle name="_Book1_1_Curves" xfId="75"/>
-    <cellStyle name="_Book1_1_Curves 2" xfId="1807"/>
-    <cellStyle name="_Book1_1_Curves_BBG" xfId="76"/>
-    <cellStyle name="_Book1_1_Curves_BBG 2" xfId="1806"/>
-    <cellStyle name="_Book1_1_Ejercicio" xfId="77"/>
-    <cellStyle name="_Book1_1_MktData" xfId="78"/>
-    <cellStyle name="_Book1_1_MktData 2" xfId="1805"/>
-    <cellStyle name="_Book1_1_NuevaCalculadoraCurvas" xfId="79"/>
-    <cellStyle name="_Book1_1_NuevaCalculadoraCurvas 2" xfId="1804"/>
-    <cellStyle name="_Book1_1_NuevaCalculadoraCurvas_2" xfId="80"/>
-    <cellStyle name="_Book1_1_NuevaCalculadoraCurvas_2 2" xfId="1803"/>
-    <cellStyle name="_Book1_1_TIIE" xfId="81"/>
-    <cellStyle name="_Book1_1_TIIE 2" xfId="1802"/>
-    <cellStyle name="_Book1_1_USD" xfId="82"/>
-    <cellStyle name="_Book1_1_USD 2" xfId="1801"/>
-    <cellStyle name="_Book1_BBGData" xfId="83"/>
-    <cellStyle name="_Book1_BBGData 2" xfId="1800"/>
-    <cellStyle name="_Book1_CLP" xfId="84"/>
-    <cellStyle name="_Book1_CLP 2" xfId="1799"/>
-    <cellStyle name="_Book1_COP" xfId="85"/>
-    <cellStyle name="_Book1_COP 2" xfId="1798"/>
-    <cellStyle name="_Book1_CRD Blotter" xfId="86"/>
-    <cellStyle name="_Book1_CRD Blotter 2" xfId="2409"/>
-    <cellStyle name="_Book1_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN" xfId="87"/>
-    <cellStyle name="_Book1_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN 2" xfId="1797"/>
-    <cellStyle name="_Book1_Curves" xfId="88"/>
-    <cellStyle name="_Book1_Curves 2" xfId="1796"/>
-    <cellStyle name="_Book1_Curves_BBG" xfId="89"/>
-    <cellStyle name="_Book1_Curves_BBG 2" xfId="1795"/>
-    <cellStyle name="_Book1_Ejercicio" xfId="90"/>
-    <cellStyle name="_Book1_Ejercicio 2" xfId="2410"/>
-    <cellStyle name="_Book1_MktData" xfId="91"/>
-    <cellStyle name="_Book1_MktData 2" xfId="1794"/>
-    <cellStyle name="_Book1_NuevaCalculadoraCurvas" xfId="92"/>
-    <cellStyle name="_Book1_NuevaCalculadoraCurvas 2" xfId="1793"/>
-    <cellStyle name="_Book1_NuevaCalculadoraCurvas_2" xfId="93"/>
-    <cellStyle name="_Book1_NuevaCalculadoraCurvas_2 2" xfId="1792"/>
-    <cellStyle name="_Book1_TIIE" xfId="94"/>
-    <cellStyle name="_Book1_TIIE 2" xfId="1791"/>
-    <cellStyle name="_Book1_USD" xfId="95"/>
-    <cellStyle name="_Book1_USD 2" xfId="1790"/>
-    <cellStyle name="_Book16" xfId="96"/>
-    <cellStyle name="_Book17" xfId="97"/>
-    <cellStyle name="_Book2" xfId="98"/>
-    <cellStyle name="_Book2 2" xfId="1789"/>
-    <cellStyle name="_Book2_BBGData" xfId="99"/>
-    <cellStyle name="_Book2_BBGData 2" xfId="1788"/>
-    <cellStyle name="_Book2_CLP" xfId="100"/>
-    <cellStyle name="_Book2_CLP 2" xfId="1787"/>
-    <cellStyle name="_Book2_COP" xfId="101"/>
-    <cellStyle name="_Book2_COP 2" xfId="1786"/>
-    <cellStyle name="_Book2_CRD Blotter" xfId="102"/>
-    <cellStyle name="_Book2_CRD Blotter 2" xfId="2411"/>
-    <cellStyle name="_Book2_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN" xfId="103"/>
-    <cellStyle name="_Book2_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN 2" xfId="1785"/>
-    <cellStyle name="_Book2_Curves" xfId="104"/>
-    <cellStyle name="_Book2_Curves 2" xfId="1784"/>
-    <cellStyle name="_Book2_Curves_BBG" xfId="105"/>
-    <cellStyle name="_Book2_Curves_BBG 2" xfId="1783"/>
-    <cellStyle name="_Book2_Ejercicio" xfId="106"/>
-    <cellStyle name="_Book2_Ejercicio 2" xfId="2412"/>
-    <cellStyle name="_Book2_MktData" xfId="107"/>
-    <cellStyle name="_Book2_MktData 2" xfId="1782"/>
-    <cellStyle name="_Book2_NuevaCalculadoraCurvas" xfId="108"/>
-    <cellStyle name="_Book2_NuevaCalculadoraCurvas 2" xfId="1781"/>
-    <cellStyle name="_Book2_NuevaCalculadoraCurvas_2" xfId="109"/>
-    <cellStyle name="_Book2_NuevaCalculadoraCurvas_2 2" xfId="1780"/>
-    <cellStyle name="_Book2_TIIE" xfId="110"/>
-    <cellStyle name="_Book2_TIIE 2" xfId="1779"/>
-    <cellStyle name="_Book2_USD" xfId="111"/>
-    <cellStyle name="_Book2_USD 2" xfId="1778"/>
-    <cellStyle name="_Brent" xfId="112"/>
-    <cellStyle name="_Brent 2" xfId="113"/>
-    <cellStyle name="_Brent 2 2" xfId="2413"/>
-    <cellStyle name="_Brent 3" xfId="114"/>
-    <cellStyle name="_Brent 3 2" xfId="2414"/>
-    <cellStyle name="_Brent 4" xfId="2415"/>
-    <cellStyle name="_CFeonia" xfId="1777"/>
-    <cellStyle name="_CFeonia 2" xfId="1776"/>
-    <cellStyle name="_CJ_김유지" xfId="115"/>
-    <cellStyle name="_Cobre" xfId="116"/>
-    <cellStyle name="_Cobre 2" xfId="117"/>
-    <cellStyle name="_Cobre 2 2" xfId="2416"/>
-    <cellStyle name="_Cobre 3" xfId="118"/>
-    <cellStyle name="_Cobre 3 2" xfId="2417"/>
-    <cellStyle name="_Cobre 4" xfId="2418"/>
-    <cellStyle name="_Cobre_1" xfId="119"/>
-    <cellStyle name="_Colombian Season" xfId="2419"/>
-    <cellStyle name="_ComIndexDay" xfId="120"/>
-    <cellStyle name="_ComIndexDay 2" xfId="121"/>
-    <cellStyle name="_ComIndexDay 2 2" xfId="2420"/>
-    <cellStyle name="_ComIndexDay 3" xfId="122"/>
-    <cellStyle name="_ComIndexDay 3 2" xfId="2421"/>
-    <cellStyle name="_ComIndexDay 4" xfId="2422"/>
-    <cellStyle name="_Copy of Bid_FM_1905_ÖHtmodell für fin sect &amp; ass book" xfId="123"/>
-    <cellStyle name="_Copy of Bid_FM_1905_ÖHtmodell für fin sect &amp; ass book 2" xfId="2423"/>
-    <cellStyle name="_CurvasCVA" xfId="124"/>
-    <cellStyle name="_CurvasCVA 2" xfId="2424"/>
-    <cellStyle name="_Curves_Info" xfId="125"/>
-    <cellStyle name="_Curves_Info 2" xfId="2425"/>
-    <cellStyle name="_Data" xfId="126"/>
-    <cellStyle name="_Data 2" xfId="2426"/>
-    <cellStyle name="_data_CurvasCVA" xfId="127"/>
-    <cellStyle name="_data_Curves_Info" xfId="128"/>
-    <cellStyle name="_Data_IRCURVE" xfId="129"/>
-    <cellStyle name="_Data_IRCURVE 2" xfId="2427"/>
-    <cellStyle name="_ECall_KO130_GC1_1y_BPI" xfId="130"/>
-    <cellStyle name="_ECall_KO130_GC1_1y_BPI 2" xfId="131"/>
-    <cellStyle name="_ECall_KO130_GC1_1y_BPI 2 2" xfId="2428"/>
-    <cellStyle name="_ECall_KO130_GC1_1y_BPI 3" xfId="132"/>
-    <cellStyle name="_ECall_KO130_GC1_1y_BPI 3 2" xfId="2429"/>
-    <cellStyle name="_ECall_KO130_GC1_1y_BPI 4" xfId="2430"/>
-    <cellStyle name="_Edinburgh Schools Project FM Inputs 160305" xfId="133"/>
-    <cellStyle name="_Edinburgh Schools Project FM Inputs 160305 2" xfId="2431"/>
-    <cellStyle name="_EdiSch FM Cost Model BBCPL Template ITN v2 2" xfId="134"/>
-    <cellStyle name="_EdiSch FM Cost Model BBCPL Template ITN v3.3" xfId="135"/>
-    <cellStyle name="_EdiSch FM Pro Formae ITN v4.2 MV1 incl Tynecastle_sg" xfId="136"/>
-    <cellStyle name="_EdiSch FM Pro Formae ITN v4.2 STD_sg" xfId="137"/>
-    <cellStyle name="_EUR6M" xfId="1775"/>
-    <cellStyle name="_Fin" xfId="138"/>
-    <cellStyle name="_Fin 2" xfId="2432"/>
-    <cellStyle name="_Fixings" xfId="139"/>
-    <cellStyle name="_Fixings 2" xfId="140"/>
-    <cellStyle name="_Fixings 2 2" xfId="2433"/>
-    <cellStyle name="_Fixings 3" xfId="141"/>
-    <cellStyle name="_Fixings 3 2" xfId="2434"/>
-    <cellStyle name="_Fixings 4" xfId="2435"/>
-    <cellStyle name="_FM 20080916_v1" xfId="142"/>
-    <cellStyle name="_FM 20080916_v1 2" xfId="2436"/>
-    <cellStyle name="_FM_20080514_v1_MRA freez" xfId="143"/>
-    <cellStyle name="_FM_20080514_v1_MRA freez 2" xfId="2437"/>
-    <cellStyle name="_Formblätter" xfId="144"/>
-    <cellStyle name="_Formblätter 2" xfId="2438"/>
-    <cellStyle name="_FwdAccumulatorTargetgold" xfId="145"/>
-    <cellStyle name="_FwdAccumulatorTargetgold 2" xfId="146"/>
-    <cellStyle name="_FwdAccumulatorTargetgold 2 2" xfId="2439"/>
-    <cellStyle name="_FwdAccumulatorTargetgold 3" xfId="147"/>
-    <cellStyle name="_FwdAccumulatorTargetgold 3 2" xfId="2440"/>
-    <cellStyle name="_FwdAccumulatorTargetgold 4" xfId="2441"/>
-    <cellStyle name="_FX" xfId="148"/>
-    <cellStyle name="_FX 2" xfId="149"/>
-    <cellStyle name="_FX 2 2" xfId="2442"/>
-    <cellStyle name="_FX 3" xfId="150"/>
-    <cellStyle name="_FX 3 2" xfId="2443"/>
-    <cellStyle name="_FX 4" xfId="2444"/>
-    <cellStyle name="_Gas" xfId="151"/>
-    <cellStyle name="_Gas 2" xfId="152"/>
-    <cellStyle name="_Gas 2 2" xfId="2445"/>
-    <cellStyle name="_Gas 3" xfId="153"/>
-    <cellStyle name="_Gas 3 2" xfId="2446"/>
-    <cellStyle name="_Gas 4" xfId="2447"/>
-    <cellStyle name="_GENERICO" xfId="154"/>
-    <cellStyle name="_GENERICO 2" xfId="2448"/>
-    <cellStyle name="_GENERICO_AMCo DB" xfId="155"/>
-    <cellStyle name="_GENERICO_AMCo DB 2" xfId="2449"/>
-    <cellStyle name="_GENERICO_FoHF DB" xfId="156"/>
-    <cellStyle name="_GENERICO_FoHF DB 2" xfId="2450"/>
-    <cellStyle name="_GO" xfId="157"/>
-    <cellStyle name="_GO 2" xfId="158"/>
-    <cellStyle name="_GO 2 2" xfId="2451"/>
-    <cellStyle name="_GO 3" xfId="159"/>
-    <cellStyle name="_GO 3 2" xfId="2452"/>
-    <cellStyle name="_GO 4" xfId="2453"/>
-    <cellStyle name="_Int. Rates" xfId="160"/>
-    <cellStyle name="_Int. Rates 2" xfId="161"/>
-    <cellStyle name="_Int. Rates 2 2" xfId="2454"/>
-    <cellStyle name="_Int. Rates 3" xfId="162"/>
-    <cellStyle name="_Int. Rates 3 2" xfId="2455"/>
-    <cellStyle name="_Int. Rates 4" xfId="2456"/>
-    <cellStyle name="_IRCURVE" xfId="163"/>
-    <cellStyle name="_IRCURVE 2" xfId="2457"/>
-    <cellStyle name="_Jump Correlations" xfId="164"/>
-    <cellStyle name="_Jump Correlations 2" xfId="165"/>
-    <cellStyle name="_Jump Correlations 2 2" xfId="2458"/>
-    <cellStyle name="_Jump Correlations 3" xfId="166"/>
-    <cellStyle name="_Jump Correlations 3 2" xfId="2459"/>
-    <cellStyle name="_Jump Correlations 4" xfId="2460"/>
-    <cellStyle name="_Jump Definitions" xfId="167"/>
-    <cellStyle name="_Jump Definitions 2" xfId="168"/>
-    <cellStyle name="_Jump Definitions 2 2" xfId="2461"/>
-    <cellStyle name="_Jump Definitions 3" xfId="169"/>
-    <cellStyle name="_Jump Definitions 3 2" xfId="2462"/>
-    <cellStyle name="_Jump Definitions 4" xfId="2463"/>
-    <cellStyle name="_Kappa" xfId="2645"/>
-    <cellStyle name="_LGMBermudanSwaption" xfId="2646"/>
-    <cellStyle name="_LGMConfig" xfId="2647"/>
-    <cellStyle name="_Listas" xfId="170"/>
-    <cellStyle name="_Listas_AMCo DB" xfId="171"/>
-    <cellStyle name="_Listas_AMCo DB 2" xfId="2464"/>
-    <cellStyle name="_Listas_FoHF DB" xfId="172"/>
-    <cellStyle name="_Listas_FoHF DB 2" xfId="2465"/>
-    <cellStyle name="_M6ms_Tolna Consortium_Final Financial Model_FC_160708_sponsors" xfId="173"/>
-    <cellStyle name="_M6ms_Tolna Consortium_Final Financial Model_FC_160708_sponsors 2" xfId="2466"/>
-    <cellStyle name="_M6ms_Tolna Consortium_Final Financial Model_Refi_310708_AF Schedules" xfId="174"/>
-    <cellStyle name="_M6ms_Tolna Consortium_Final Financial Model_Refi_310708_AF Schedules 2" xfId="2467"/>
-    <cellStyle name="_MultiWindow_Asian_Gold" xfId="175"/>
-    <cellStyle name="_MultiWindow_Asian_Gold 2" xfId="176"/>
-    <cellStyle name="_MultiWindow_Asian_Gold 2 2" xfId="2468"/>
-    <cellStyle name="_MultiWindow_Asian_Gold 3" xfId="177"/>
-    <cellStyle name="_MultiWindow_Asian_Gold 3 2" xfId="2469"/>
-    <cellStyle name="_MultiWindow_Asian_Gold 4" xfId="2470"/>
-    <cellStyle name="_Oldham Proforma_LM" xfId="178"/>
-    <cellStyle name="_Product Definition" xfId="179"/>
-    <cellStyle name="_Product Definition 2" xfId="2471"/>
-    <cellStyle name="_REALTIME_USDARS" xfId="180"/>
-    <cellStyle name="_REALTIME_USDARS 2" xfId="2472"/>
-    <cellStyle name="_REALTIME_USDCLF" xfId="181"/>
-    <cellStyle name="_REALTIME_USDCLF 2" xfId="2473"/>
-    <cellStyle name="_REALTIME_USDCLP" xfId="182"/>
-    <cellStyle name="_REALTIME_USDCLP 2" xfId="2474"/>
-    <cellStyle name="_REALTIME_USDCOP" xfId="183"/>
-    <cellStyle name="_REALTIME_USDCOP 2" xfId="2475"/>
-    <cellStyle name="_REALTIME_USDMXN" xfId="184"/>
-    <cellStyle name="_REALTIME_USDMXN 2" xfId="2476"/>
-    <cellStyle name="_REALTIME_USDPEN" xfId="185"/>
-    <cellStyle name="_REALTIME_USDPEN 2" xfId="2477"/>
-    <cellStyle name="_RES" xfId="186"/>
-    <cellStyle name="_RES 2" xfId="2478"/>
-    <cellStyle name="_Risk Control Asset Definitions" xfId="187"/>
-    <cellStyle name="_Risk Control Asset Definitions 2" xfId="188"/>
-    <cellStyle name="_Risk Control Asset Definitions 2 2" xfId="2479"/>
-    <cellStyle name="_Risk Control Asset Definitions 3" xfId="189"/>
-    <cellStyle name="_Risk Control Asset Definitions 3 2" xfId="2480"/>
-    <cellStyle name="_Risk Control Asset Definitions 4" xfId="2481"/>
-    <cellStyle name="_SA Lifecycle Inputs" xfId="190"/>
-    <cellStyle name="_Sheet1" xfId="191"/>
-    <cellStyle name="_Sheet1 2" xfId="192"/>
-    <cellStyle name="_Sheet1 2 2" xfId="2482"/>
-    <cellStyle name="_Sheet1 3" xfId="193"/>
-    <cellStyle name="_Sheet1 3 2" xfId="2483"/>
-    <cellStyle name="_Sheet1 4" xfId="2484"/>
-    <cellStyle name="_Spread Pricer Old" xfId="2648"/>
-    <cellStyle name="_Stochastic IR Definitions" xfId="194"/>
-    <cellStyle name="_Stochastic IR Definitions 2" xfId="195"/>
-    <cellStyle name="_Stochastic IR Definitions 2 2" xfId="2485"/>
-    <cellStyle name="_Stochastic IR Definitions 3" xfId="196"/>
-    <cellStyle name="_Stochastic IR Definitions 3 2" xfId="2486"/>
-    <cellStyle name="_Stochastic IR Definitions 4" xfId="2487"/>
-    <cellStyle name="_SVI Definitions" xfId="197"/>
-    <cellStyle name="_SVI Definitions 2" xfId="198"/>
-    <cellStyle name="_SVI Definitions 2 2" xfId="2488"/>
-    <cellStyle name="_SVI Definitions 3" xfId="199"/>
-    <cellStyle name="_SVI Definitions 3 2" xfId="2489"/>
-    <cellStyle name="_SVI Definitions 4" xfId="2490"/>
-    <cellStyle name="_USD-CLP" xfId="200"/>
-    <cellStyle name="_USD-CLP 2" xfId="2491"/>
-    <cellStyle name="_ValoracionSwaps" xfId="201"/>
-    <cellStyle name="_ValoracionSwaps 2" xfId="202"/>
-    <cellStyle name="_ValoracionSwaps 2 2" xfId="2492"/>
-    <cellStyle name="_ValoracionSwaps 3" xfId="203"/>
-    <cellStyle name="_ValoracionSwaps 3 2" xfId="2493"/>
-    <cellStyle name="_ValoracionSwaps 4" xfId="2494"/>
-    <cellStyle name="~1" xfId="204"/>
-    <cellStyle name="˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙_x0008_" xfId="205"/>
-    <cellStyle name="˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙_x0008_ 2" xfId="2495"/>
-    <cellStyle name="’E‰Y [0.00]_laroux" xfId="206"/>
-    <cellStyle name="’E‰Y_laroux" xfId="207"/>
-    <cellStyle name="£ BP" xfId="208"/>
-    <cellStyle name="£ BP 2" xfId="209"/>
-    <cellStyle name="£ BP 2 2" xfId="2496"/>
-    <cellStyle name="£ BP 3" xfId="210"/>
-    <cellStyle name="£ BP 3 2" xfId="2497"/>
-    <cellStyle name="£ BP 4" xfId="2498"/>
-    <cellStyle name="£/mhr" xfId="211"/>
-    <cellStyle name="£/mhr 2" xfId="2499"/>
-    <cellStyle name="¥ JY" xfId="212"/>
-    <cellStyle name="¥ JY 2" xfId="213"/>
-    <cellStyle name="¥ JY 2 2" xfId="2500"/>
-    <cellStyle name="¥ JY 3" xfId="214"/>
-    <cellStyle name="¥ JY 3 2" xfId="2501"/>
-    <cellStyle name="¥ JY 4" xfId="2502"/>
-    <cellStyle name="=C:\WINNT35\SYSTEM32\COMMAND.COM" xfId="215"/>
-    <cellStyle name="=C:\WINNT35\SYSTEM32\COMMAND.COM 2" xfId="216"/>
-    <cellStyle name="=C:\WINNT35\SYSTEM32\COMMAND.COM 3" xfId="2503"/>
-    <cellStyle name="_x000b_À_x000d__x0014__x0016_À_x0018__x001a_À_x001d_" xfId="217"/>
-    <cellStyle name="_x000b_À_x000d__x0014__x0016_À_x0018__x001a_À_x001d_ 2" xfId="218"/>
-    <cellStyle name="_x000b_À_x000d__x0014__x0016_À_x0018__x001a_À_x001d_ 2 2" xfId="1774"/>
-    <cellStyle name="_x000b_À_x000d__x0014__x0016_À_x0018__x001a_À_x001d_ 3" xfId="1773"/>
-    <cellStyle name="_x000b_À_x000d__x0014__x0016_À_x0018__x001a_À_x001d__BBGData" xfId="219"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="220"/>
-    <cellStyle name="1" xfId="221"/>
-    <cellStyle name="1 10" xfId="1772"/>
-    <cellStyle name="1 11" xfId="1771"/>
-    <cellStyle name="1 12" xfId="1770"/>
-    <cellStyle name="1 13" xfId="1769"/>
-    <cellStyle name="1 14" xfId="1768"/>
-    <cellStyle name="1 14 2" xfId="1767"/>
-    <cellStyle name="1 14 3" xfId="1766"/>
-    <cellStyle name="1 15" xfId="1765"/>
-    <cellStyle name="1 15 2" xfId="1764"/>
-    <cellStyle name="1 15 3" xfId="1763"/>
-    <cellStyle name="1 16" xfId="1762"/>
-    <cellStyle name="1 16 2" xfId="1761"/>
-    <cellStyle name="1 16 2 2" xfId="1760"/>
-    <cellStyle name="1 17" xfId="1759"/>
-    <cellStyle name="1 17 2" xfId="1758"/>
-    <cellStyle name="1 18" xfId="1757"/>
-    <cellStyle name="1 18 2" xfId="1756"/>
-    <cellStyle name="1 19" xfId="1755"/>
-    <cellStyle name="1 19 2" xfId="1754"/>
-    <cellStyle name="1 2" xfId="222"/>
-    <cellStyle name="1 2 2" xfId="1753"/>
-    <cellStyle name="1 2 3" xfId="1752"/>
-    <cellStyle name="1 20" xfId="1751"/>
-    <cellStyle name="1 20 2" xfId="1750"/>
-    <cellStyle name="1 21" xfId="1749"/>
-    <cellStyle name="1 21 2" xfId="1748"/>
-    <cellStyle name="1 22" xfId="1747"/>
-    <cellStyle name="1 23" xfId="1746"/>
-    <cellStyle name="1 3" xfId="223"/>
-    <cellStyle name="1 3 2" xfId="1745"/>
-    <cellStyle name="1 3 3" xfId="1744"/>
-    <cellStyle name="1 3 3 2" xfId="2649"/>
-    <cellStyle name="1 3_BBV" xfId="1743"/>
-    <cellStyle name="1 4" xfId="224"/>
-    <cellStyle name="1 4 2" xfId="1742"/>
-    <cellStyle name="1 4 3" xfId="1741"/>
-    <cellStyle name="1 4_BBV" xfId="1740"/>
-    <cellStyle name="1 5" xfId="225"/>
-    <cellStyle name="1 5 2" xfId="1739"/>
-    <cellStyle name="1 5_BBV" xfId="1738"/>
-    <cellStyle name="1 6" xfId="1737"/>
-    <cellStyle name="1 6 2" xfId="1736"/>
-    <cellStyle name="1 6 3" xfId="1735"/>
-    <cellStyle name="1 7" xfId="1734"/>
-    <cellStyle name="1 7 2" xfId="1733"/>
-    <cellStyle name="1 7 2 2" xfId="1732"/>
-    <cellStyle name="1 7 2 3" xfId="1731"/>
-    <cellStyle name="1 7 3" xfId="1730"/>
-    <cellStyle name="1 8" xfId="1729"/>
-    <cellStyle name="1 8 2" xfId="1728"/>
-    <cellStyle name="1 8 2 2" xfId="1727"/>
-    <cellStyle name="1 9" xfId="1726"/>
-    <cellStyle name="1 9 2" xfId="1725"/>
-    <cellStyle name="1_Assets Data" xfId="2650"/>
-    <cellStyle name="1_BasicSpreadProducts" xfId="2651"/>
-    <cellStyle name="1_BasicSpreadProducts (1)" xfId="2652"/>
-    <cellStyle name="1_BasicSpreadProducts (2)" xfId="2653"/>
-    <cellStyle name="1_CMS_Common" xfId="2654"/>
-    <cellStyle name="1_Copula_Pricer" xfId="2655"/>
-    <cellStyle name="1_CopulaDataNormDisplacedUSD" xfId="2656"/>
-    <cellStyle name="1_DataforMurex" xfId="226"/>
-    <cellStyle name="1_DataforMurex 2" xfId="2504"/>
-    <cellStyle name="1_DataFormurex_MxvsCalc_4" xfId="227"/>
-    <cellStyle name="1_GBP" xfId="1724"/>
-    <cellStyle name="1_LGMRangeAccrual" xfId="2657"/>
-    <cellStyle name="1_OneRef Pricer" xfId="2658"/>
-    <cellStyle name="1_REALTIME_EURUSD" xfId="228"/>
-    <cellStyle name="1_REALTIME_USDARS" xfId="229"/>
-    <cellStyle name="1_REALTIME_USDCLF" xfId="230"/>
-    <cellStyle name="1_REALTIME_USDCLP" xfId="231"/>
-    <cellStyle name="1_REALTIME_USDCOP" xfId="232"/>
-    <cellStyle name="1_REALTIME_USDEUR" xfId="233"/>
-    <cellStyle name="1_REALTIME_USDMXN" xfId="234"/>
-    <cellStyle name="1_REALTIME_USDPEN" xfId="235"/>
-    <cellStyle name="1_Spread Pricer" xfId="2659"/>
-    <cellStyle name="1_Spread Pricer Old" xfId="2660"/>
-    <cellStyle name="1_Spread Pricer Old_BasicSpreadProducts" xfId="2661"/>
-    <cellStyle name="1_TripleRangeAccrual" xfId="2662"/>
-    <cellStyle name="1_TripleRangeAccrual (2)" xfId="2663"/>
-    <cellStyle name="1_TripleRangeAccrual (3)" xfId="2664"/>
-    <cellStyle name="1_USD-CLP" xfId="236"/>
-    <cellStyle name="2" xfId="237"/>
-    <cellStyle name="20 % - Accent1" xfId="2665"/>
-    <cellStyle name="20 % - Accent2" xfId="2666"/>
-    <cellStyle name="20 % - Accent3" xfId="2667"/>
-    <cellStyle name="20 % - Accent4" xfId="2668"/>
-    <cellStyle name="20 % - Accent5" xfId="2669"/>
-    <cellStyle name="20 % - Accent6" xfId="2670"/>
-    <cellStyle name="20% - Accent1" xfId="238"/>
-    <cellStyle name="20% - Accent1 2" xfId="1723"/>
-    <cellStyle name="20% - Accent1 3" xfId="1722"/>
-    <cellStyle name="20% - Accent1 4" xfId="1721"/>
-    <cellStyle name="20% - Accent1 5" xfId="1720"/>
-    <cellStyle name="20% - Accent2" xfId="239"/>
-    <cellStyle name="20% - Accent2 2" xfId="1719"/>
-    <cellStyle name="20% - Accent2 3" xfId="1718"/>
-    <cellStyle name="20% - Accent2 4" xfId="1717"/>
-    <cellStyle name="20% - Accent2 5" xfId="1716"/>
-    <cellStyle name="20% - Accent3" xfId="240"/>
-    <cellStyle name="20% - Accent3 2" xfId="1715"/>
-    <cellStyle name="20% - Accent3 3" xfId="1714"/>
-    <cellStyle name="20% - Accent3 4" xfId="1713"/>
-    <cellStyle name="20% - Accent3 5" xfId="1712"/>
-    <cellStyle name="20% - Accent4" xfId="241"/>
-    <cellStyle name="20% - Accent4 2" xfId="1711"/>
-    <cellStyle name="20% - Accent4 3" xfId="1710"/>
-    <cellStyle name="20% - Accent4 4" xfId="1709"/>
-    <cellStyle name="20% - Accent4 5" xfId="1708"/>
-    <cellStyle name="20% - Accent5" xfId="242"/>
-    <cellStyle name="20% - Accent5 2" xfId="1707"/>
-    <cellStyle name="20% - Accent5 3" xfId="1706"/>
-    <cellStyle name="20% - Accent5 4" xfId="1705"/>
-    <cellStyle name="20% - Accent5 5" xfId="1704"/>
-    <cellStyle name="20% - Accent6" xfId="243"/>
-    <cellStyle name="20% - Accent6 2" xfId="1703"/>
-    <cellStyle name="20% - Accent6 3" xfId="1702"/>
-    <cellStyle name="20% - Accent6 4" xfId="1701"/>
-    <cellStyle name="20% - Accent6 5" xfId="1700"/>
-    <cellStyle name="20% - Akzent1" xfId="244"/>
-    <cellStyle name="20% - Akzent1 2" xfId="2505"/>
-    <cellStyle name="20% - Akzent2" xfId="245"/>
-    <cellStyle name="20% - Akzent2 2" xfId="2506"/>
-    <cellStyle name="20% - Akzent3" xfId="246"/>
-    <cellStyle name="20% - Akzent3 2" xfId="2507"/>
-    <cellStyle name="20% - Akzent4" xfId="247"/>
-    <cellStyle name="20% - Akzent4 2" xfId="2508"/>
-    <cellStyle name="20% - Akzent5" xfId="248"/>
-    <cellStyle name="20% - Akzent5 2" xfId="2509"/>
-    <cellStyle name="20% - Akzent6" xfId="249"/>
-    <cellStyle name="20% - Akzent6 2" xfId="2510"/>
-    <cellStyle name="20% - Énfasis1 2" xfId="251"/>
-    <cellStyle name="20% - Énfasis1 3" xfId="252"/>
-    <cellStyle name="20% - Énfasis1 4" xfId="253"/>
-    <cellStyle name="20% - Énfasis1 5" xfId="250"/>
-    <cellStyle name="20% - Énfasis2 2" xfId="255"/>
-    <cellStyle name="20% - Énfasis2 3" xfId="256"/>
-    <cellStyle name="20% - Énfasis2 4" xfId="257"/>
-    <cellStyle name="20% - Énfasis2 5" xfId="254"/>
-    <cellStyle name="20% - Énfasis3 2" xfId="259"/>
-    <cellStyle name="20% - Énfasis3 3" xfId="260"/>
-    <cellStyle name="20% - Énfasis3 4" xfId="261"/>
-    <cellStyle name="20% - Énfasis3 5" xfId="258"/>
-    <cellStyle name="20% - Énfasis4 2" xfId="263"/>
-    <cellStyle name="20% - Énfasis4 3" xfId="264"/>
-    <cellStyle name="20% - Énfasis4 4" xfId="265"/>
-    <cellStyle name="20% - Énfasis4 5" xfId="262"/>
-    <cellStyle name="20% - Énfasis5 2" xfId="267"/>
-    <cellStyle name="20% - Énfasis5 3" xfId="268"/>
-    <cellStyle name="20% - Énfasis5 4" xfId="269"/>
-    <cellStyle name="20% - Énfasis5 5" xfId="266"/>
-    <cellStyle name="20% - Énfasis6 2" xfId="271"/>
-    <cellStyle name="20% - Énfasis6 3" xfId="272"/>
-    <cellStyle name="20% - Énfasis6 4" xfId="273"/>
-    <cellStyle name="20% - Énfasis6 5" xfId="270"/>
-    <cellStyle name="20% - 강조색1" xfId="274"/>
-    <cellStyle name="20% - 강조색2" xfId="275"/>
-    <cellStyle name="20% - 강조색3" xfId="276"/>
-    <cellStyle name="20% - 강조색4" xfId="277"/>
-    <cellStyle name="20% - 강조색5" xfId="278"/>
-    <cellStyle name="20% - 강조색6" xfId="279"/>
-    <cellStyle name="3" xfId="280"/>
-    <cellStyle name="4" xfId="281"/>
-    <cellStyle name="40 % - Accent1" xfId="2671"/>
-    <cellStyle name="40 % - Accent2" xfId="2672"/>
-    <cellStyle name="40 % - Accent3" xfId="2673"/>
-    <cellStyle name="40 % - Accent4" xfId="2674"/>
-    <cellStyle name="40 % - Accent5" xfId="2675"/>
-    <cellStyle name="40 % - Accent6" xfId="2676"/>
-    <cellStyle name="40% - Accent1" xfId="282"/>
-    <cellStyle name="40% - Accent1 2" xfId="1699"/>
-    <cellStyle name="40% - Accent1 3" xfId="1698"/>
-    <cellStyle name="40% - Accent1 4" xfId="1697"/>
-    <cellStyle name="40% - Accent1 5" xfId="1696"/>
-    <cellStyle name="40% - Accent2" xfId="283"/>
-    <cellStyle name="40% - Accent2 2" xfId="1695"/>
-    <cellStyle name="40% - Accent2 3" xfId="1694"/>
-    <cellStyle name="40% - Accent2 4" xfId="1693"/>
-    <cellStyle name="40% - Accent2 5" xfId="1692"/>
-    <cellStyle name="40% - Accent3" xfId="284"/>
-    <cellStyle name="40% - Accent3 2" xfId="1691"/>
-    <cellStyle name="40% - Accent3 3" xfId="1690"/>
-    <cellStyle name="40% - Accent3 4" xfId="1689"/>
-    <cellStyle name="40% - Accent3 5" xfId="1688"/>
-    <cellStyle name="40% - Accent4" xfId="285"/>
-    <cellStyle name="40% - Accent4 2" xfId="1687"/>
-    <cellStyle name="40% - Accent4 3" xfId="1686"/>
-    <cellStyle name="40% - Accent4 4" xfId="1685"/>
-    <cellStyle name="40% - Accent4 5" xfId="1684"/>
-    <cellStyle name="40% - Accent5" xfId="286"/>
-    <cellStyle name="40% - Accent5 2" xfId="1683"/>
-    <cellStyle name="40% - Accent5 3" xfId="1682"/>
-    <cellStyle name="40% - Accent5 4" xfId="1681"/>
-    <cellStyle name="40% - Accent5 5" xfId="1680"/>
-    <cellStyle name="40% - Accent6" xfId="287"/>
-    <cellStyle name="40% - Accent6 2" xfId="1679"/>
-    <cellStyle name="40% - Accent6 3" xfId="1678"/>
-    <cellStyle name="40% - Accent6 4" xfId="1677"/>
-    <cellStyle name="40% - Accent6 5" xfId="1676"/>
-    <cellStyle name="40% - Akzent1" xfId="288"/>
-    <cellStyle name="40% - Akzent1 2" xfId="2511"/>
-    <cellStyle name="40% - Akzent2" xfId="289"/>
-    <cellStyle name="40% - Akzent2 2" xfId="2512"/>
-    <cellStyle name="40% - Akzent3" xfId="290"/>
-    <cellStyle name="40% - Akzent3 2" xfId="2513"/>
-    <cellStyle name="40% - Akzent4" xfId="291"/>
-    <cellStyle name="40% - Akzent4 2" xfId="2514"/>
-    <cellStyle name="40% - Akzent5" xfId="292"/>
-    <cellStyle name="40% - Akzent5 2" xfId="2515"/>
-    <cellStyle name="40% - Akzent6" xfId="293"/>
-    <cellStyle name="40% - Akzent6 2" xfId="2516"/>
-    <cellStyle name="40% - Énfasis1 2" xfId="295"/>
-    <cellStyle name="40% - Énfasis1 3" xfId="296"/>
-    <cellStyle name="40% - Énfasis1 4" xfId="297"/>
-    <cellStyle name="40% - Énfasis1 5" xfId="294"/>
-    <cellStyle name="40% - Énfasis2 2" xfId="299"/>
-    <cellStyle name="40% - Énfasis2 3" xfId="300"/>
-    <cellStyle name="40% - Énfasis2 4" xfId="301"/>
-    <cellStyle name="40% - Énfasis2 5" xfId="298"/>
-    <cellStyle name="40% - Énfasis3 2" xfId="303"/>
-    <cellStyle name="40% - Énfasis3 3" xfId="304"/>
-    <cellStyle name="40% - Énfasis3 4" xfId="305"/>
-    <cellStyle name="40% - Énfasis3 5" xfId="302"/>
-    <cellStyle name="40% - Énfasis4 2" xfId="307"/>
-    <cellStyle name="40% - Énfasis4 3" xfId="308"/>
-    <cellStyle name="40% - Énfasis4 4" xfId="309"/>
-    <cellStyle name="40% - Énfasis4 5" xfId="306"/>
-    <cellStyle name="40% - Énfasis5 2" xfId="311"/>
-    <cellStyle name="40% - Énfasis5 3" xfId="312"/>
-    <cellStyle name="40% - Énfasis5 4" xfId="313"/>
-    <cellStyle name="40% - Énfasis5 5" xfId="310"/>
-    <cellStyle name="40% - Énfasis6 2" xfId="315"/>
-    <cellStyle name="40% - Énfasis6 3" xfId="316"/>
-    <cellStyle name="40% - Énfasis6 4" xfId="317"/>
-    <cellStyle name="40% - Énfasis6 5" xfId="314"/>
-    <cellStyle name="40% - 강조색1" xfId="318"/>
-    <cellStyle name="40% - 강조색2" xfId="319"/>
-    <cellStyle name="40% - 강조색3" xfId="320"/>
-    <cellStyle name="40% - 강조색4" xfId="321"/>
-    <cellStyle name="40% - 강조색5" xfId="322"/>
-    <cellStyle name="40% - 강조색6" xfId="323"/>
-    <cellStyle name="60 % - Accent1" xfId="2677"/>
-    <cellStyle name="60 % - Accent2" xfId="2678"/>
-    <cellStyle name="60 % - Accent3" xfId="2679"/>
-    <cellStyle name="60 % - Accent4" xfId="2680"/>
-    <cellStyle name="60 % - Accent5" xfId="2681"/>
-    <cellStyle name="60 % - Accent6" xfId="2682"/>
-    <cellStyle name="60% - Accent1" xfId="324"/>
-    <cellStyle name="60% - Accent1 2" xfId="1675"/>
-    <cellStyle name="60% - Accent1 3" xfId="1674"/>
-    <cellStyle name="60% - Accent1 4" xfId="1673"/>
-    <cellStyle name="60% - Accent1 5" xfId="1672"/>
-    <cellStyle name="60% - Accent2" xfId="325"/>
-    <cellStyle name="60% - Accent2 2" xfId="1671"/>
-    <cellStyle name="60% - Accent2 3" xfId="1670"/>
-    <cellStyle name="60% - Accent2 4" xfId="1669"/>
-    <cellStyle name="60% - Accent2 5" xfId="1668"/>
-    <cellStyle name="60% - Accent3" xfId="326"/>
-    <cellStyle name="60% - Accent3 2" xfId="1667"/>
-    <cellStyle name="60% - Accent3 3" xfId="1666"/>
-    <cellStyle name="60% - Accent3 4" xfId="1665"/>
-    <cellStyle name="60% - Accent3 5" xfId="1664"/>
-    <cellStyle name="60% - Accent4" xfId="327"/>
-    <cellStyle name="60% - Accent4 2" xfId="1663"/>
-    <cellStyle name="60% - Accent4 3" xfId="1662"/>
-    <cellStyle name="60% - Accent4 4" xfId="1661"/>
-    <cellStyle name="60% - Accent4 5" xfId="1660"/>
-    <cellStyle name="60% - Accent5" xfId="328"/>
-    <cellStyle name="60% - Accent5 2" xfId="1659"/>
-    <cellStyle name="60% - Accent5 3" xfId="1658"/>
-    <cellStyle name="60% - Accent5 4" xfId="1657"/>
-    <cellStyle name="60% - Accent5 5" xfId="1656"/>
-    <cellStyle name="60% - Accent6" xfId="329"/>
-    <cellStyle name="60% - Accent6 2" xfId="1655"/>
-    <cellStyle name="60% - Accent6 3" xfId="1654"/>
-    <cellStyle name="60% - Accent6 4" xfId="1653"/>
-    <cellStyle name="60% - Accent6 5" xfId="1652"/>
-    <cellStyle name="60% - Akzent1" xfId="330"/>
-    <cellStyle name="60% - Akzent2" xfId="331"/>
-    <cellStyle name="60% - Akzent3" xfId="332"/>
-    <cellStyle name="60% - Akzent4" xfId="333"/>
-    <cellStyle name="60% - Akzent5" xfId="334"/>
-    <cellStyle name="60% - Akzent6" xfId="335"/>
-    <cellStyle name="60% - Énfasis1 2" xfId="337"/>
-    <cellStyle name="60% - Énfasis1 3" xfId="338"/>
-    <cellStyle name="60% - Énfasis1 4" xfId="339"/>
-    <cellStyle name="60% - Énfasis1 5" xfId="336"/>
-    <cellStyle name="60% - Énfasis2 2" xfId="341"/>
-    <cellStyle name="60% - Énfasis2 3" xfId="342"/>
-    <cellStyle name="60% - Énfasis2 4" xfId="343"/>
-    <cellStyle name="60% - Énfasis2 5" xfId="340"/>
-    <cellStyle name="60% - Énfasis3 2" xfId="345"/>
-    <cellStyle name="60% - Énfasis3 3" xfId="346"/>
-    <cellStyle name="60% - Énfasis3 4" xfId="347"/>
-    <cellStyle name="60% - Énfasis3 5" xfId="344"/>
-    <cellStyle name="60% - Énfasis4 2" xfId="349"/>
-    <cellStyle name="60% - Énfasis4 3" xfId="350"/>
-    <cellStyle name="60% - Énfasis4 4" xfId="351"/>
-    <cellStyle name="60% - Énfasis4 5" xfId="348"/>
-    <cellStyle name="60% - Énfasis5 2" xfId="353"/>
-    <cellStyle name="60% - Énfasis5 3" xfId="354"/>
-    <cellStyle name="60% - Énfasis5 4" xfId="355"/>
-    <cellStyle name="60% - Énfasis5 5" xfId="352"/>
-    <cellStyle name="60% - Énfasis6 2" xfId="357"/>
-    <cellStyle name="60% - Énfasis6 3" xfId="358"/>
-    <cellStyle name="60% - Énfasis6 4" xfId="359"/>
-    <cellStyle name="60% - Énfasis6 5" xfId="356"/>
-    <cellStyle name="60% - 강조색1" xfId="360"/>
-    <cellStyle name="60% - 강조색2" xfId="361"/>
-    <cellStyle name="60% - 강조색3" xfId="362"/>
-    <cellStyle name="60% - 강조색4" xfId="363"/>
-    <cellStyle name="60% - 강조색5" xfId="364"/>
-    <cellStyle name="60% - 강조색6" xfId="365"/>
-    <cellStyle name="aaa" xfId="366"/>
-    <cellStyle name="Accent1" xfId="367"/>
-    <cellStyle name="Accent1 2" xfId="1651"/>
-    <cellStyle name="Accent1 3" xfId="1650"/>
-    <cellStyle name="Accent1 4" xfId="1649"/>
-    <cellStyle name="Accent1 5" xfId="1648"/>
-    <cellStyle name="Accent2" xfId="368"/>
-    <cellStyle name="Accent2 2" xfId="1647"/>
-    <cellStyle name="Accent2 3" xfId="1646"/>
-    <cellStyle name="Accent2 4" xfId="1645"/>
-    <cellStyle name="Accent2 5" xfId="1644"/>
-    <cellStyle name="Accent3" xfId="369"/>
-    <cellStyle name="Accent3 2" xfId="1643"/>
-    <cellStyle name="Accent3 3" xfId="1642"/>
-    <cellStyle name="Accent3 4" xfId="1641"/>
-    <cellStyle name="Accent3 5" xfId="1640"/>
-    <cellStyle name="Accent4" xfId="370"/>
-    <cellStyle name="Accent4 2" xfId="1639"/>
-    <cellStyle name="Accent4 3" xfId="1638"/>
-    <cellStyle name="Accent4 4" xfId="1637"/>
-    <cellStyle name="Accent4 5" xfId="1636"/>
-    <cellStyle name="Accent5" xfId="371"/>
-    <cellStyle name="Accent5 2" xfId="1635"/>
-    <cellStyle name="Accent5 3" xfId="1634"/>
-    <cellStyle name="Accent5 4" xfId="1633"/>
-    <cellStyle name="Accent5 5" xfId="1632"/>
-    <cellStyle name="Accent6" xfId="372"/>
-    <cellStyle name="Accent6 2" xfId="1631"/>
-    <cellStyle name="Accent6 3" xfId="1630"/>
-    <cellStyle name="Accent6 4" xfId="1629"/>
-    <cellStyle name="Accent6 5" xfId="1628"/>
-    <cellStyle name="ÅëÈ­ [0]_      " xfId="373"/>
-    <cellStyle name="AeE­ [0]_INQUIRY ¿?¾÷AßAø " xfId="374"/>
-    <cellStyle name="ÅëÈ­ [0]_laroux" xfId="375"/>
-    <cellStyle name="AeE­ [0]_PERSONAL" xfId="376"/>
-    <cellStyle name="ÅëÈ­_      " xfId="377"/>
-    <cellStyle name="AeE­_INQUIRY ¿?¾÷AßAø " xfId="378"/>
-    <cellStyle name="ÅëÈ­_laroux" xfId="379"/>
-    <cellStyle name="AeE­_PERSONAL" xfId="380"/>
-    <cellStyle name="Akzent1" xfId="381"/>
-    <cellStyle name="Akzent2" xfId="382"/>
-    <cellStyle name="Akzent3" xfId="383"/>
-    <cellStyle name="Akzent4" xfId="384"/>
-    <cellStyle name="Akzent5" xfId="385"/>
-    <cellStyle name="Akzent6" xfId="386"/>
-    <cellStyle name="ALIGNMENT" xfId="387"/>
-    <cellStyle name="ALIGNMENT 2" xfId="1627"/>
-    <cellStyle name="articolo" xfId="388"/>
-    <cellStyle name="ÄÞ¸¶ [0]_      " xfId="389"/>
-    <cellStyle name="AÞ¸¶ [0]_INQUIRY ¿?¾÷AßAø " xfId="390"/>
-    <cellStyle name="ÄÞ¸¶ [0]_laroux" xfId="391"/>
-    <cellStyle name="ÄÞ¸¶_      " xfId="392"/>
-    <cellStyle name="AÞ¸¶_INQUIRY ¿?¾÷AßAø " xfId="393"/>
-    <cellStyle name="ÄÞ¸¶_laroux" xfId="394"/>
-    <cellStyle name="aum" xfId="395"/>
-    <cellStyle name="aum 2" xfId="2517"/>
-    <cellStyle name="Ausgabe" xfId="396"/>
-    <cellStyle name="Auto_OpenAuto_CloseExtractD" xfId="397"/>
-    <cellStyle name="Availability" xfId="398"/>
-    <cellStyle name="Avertissement" xfId="2683"/>
-    <cellStyle name="background" xfId="399"/>
-    <cellStyle name="background 2" xfId="400"/>
-    <cellStyle name="background 2 2" xfId="1626"/>
-    <cellStyle name="background 2 3" xfId="1625"/>
-    <cellStyle name="background 2 4" xfId="1624"/>
-    <cellStyle name="background 2_BBV" xfId="1623"/>
-    <cellStyle name="background 3" xfId="1622"/>
-    <cellStyle name="background 3 2" xfId="2684"/>
-    <cellStyle name="background 4" xfId="2685"/>
-    <cellStyle name="background 4 2" xfId="2686"/>
-    <cellStyle name="background_12577900" xfId="401"/>
-    <cellStyle name="Bad" xfId="402"/>
-    <cellStyle name="Bad 2" xfId="1621"/>
-    <cellStyle name="Bad 3" xfId="1620"/>
-    <cellStyle name="Bad 4" xfId="1619"/>
-    <cellStyle name="Bad 5" xfId="1618"/>
-    <cellStyle name="banner" xfId="403"/>
-    <cellStyle name="Berechnung" xfId="404"/>
-    <cellStyle name="Body" xfId="1617"/>
-    <cellStyle name="Body 2" xfId="1616"/>
-    <cellStyle name="Body 2 2" xfId="1615"/>
-    <cellStyle name="Body 2_BBV" xfId="1614"/>
-    <cellStyle name="Body 3" xfId="1613"/>
-    <cellStyle name="Body 4" xfId="1612"/>
-    <cellStyle name="Body 4 2" xfId="1611"/>
-    <cellStyle name="Body 4 2 2" xfId="1610"/>
-    <cellStyle name="Body 5" xfId="1609"/>
-    <cellStyle name="Body 5 2" xfId="1608"/>
-    <cellStyle name="body01" xfId="405"/>
-    <cellStyle name="body02" xfId="406"/>
-    <cellStyle name="Bold/Border" xfId="407"/>
-    <cellStyle name="Bottom bold border" xfId="408"/>
-    <cellStyle name="Bottom single border" xfId="409"/>
-    <cellStyle name="BPC %" xfId="410"/>
-    <cellStyle name="BPC % 2" xfId="2518"/>
-    <cellStyle name="BPC abs" xfId="411"/>
-    <cellStyle name="BPC abs 2" xfId="2519"/>
-    <cellStyle name="BPC Input %" xfId="412"/>
-    <cellStyle name="BPC Input abs" xfId="413"/>
-    <cellStyle name="Brackets 0" xfId="414"/>
-    <cellStyle name="Brackets 0 2" xfId="2520"/>
-    <cellStyle name="Brackets T's 1" xfId="415"/>
-    <cellStyle name="brakcomma" xfId="416"/>
-    <cellStyle name="brakcomma 2" xfId="2521"/>
-    <cellStyle name="Buena 2" xfId="417"/>
-    <cellStyle name="Buena 3" xfId="418"/>
-    <cellStyle name="Bullet" xfId="419"/>
-    <cellStyle name="Bullet 2" xfId="420"/>
-    <cellStyle name="Bullet 2 2" xfId="2522"/>
-    <cellStyle name="Bullet 3" xfId="421"/>
-    <cellStyle name="Bullet 3 2" xfId="2523"/>
-    <cellStyle name="Bullet 4" xfId="2524"/>
-    <cellStyle name="C?AØ_¿?¾÷CoE² " xfId="422"/>
-    <cellStyle name="Ç¥ÁØ_      " xfId="423"/>
-    <cellStyle name="C￥AØ_¿μ¾÷CoE² " xfId="424"/>
-    <cellStyle name="Ç¥ÁØ_laroux" xfId="425"/>
-    <cellStyle name="calc" xfId="426"/>
-    <cellStyle name="CALC Amount" xfId="427"/>
-    <cellStyle name="CALC Amount [1]" xfId="428"/>
-    <cellStyle name="CALC Amount [2]" xfId="429"/>
-    <cellStyle name="CALC Amount Total" xfId="430"/>
-    <cellStyle name="CALC Amount Total [1]" xfId="431"/>
-    <cellStyle name="CALC Amount Total [2]" xfId="432"/>
-    <cellStyle name="CALC Currency" xfId="433"/>
-    <cellStyle name="Calc Currency (0)" xfId="434"/>
-    <cellStyle name="CALC Currency [1]" xfId="435"/>
-    <cellStyle name="CALC Currency [2]" xfId="436"/>
-    <cellStyle name="CALC Currency Total" xfId="437"/>
-    <cellStyle name="CALC Currency Total [1]" xfId="438"/>
-    <cellStyle name="CALC Currency Total [2]" xfId="439"/>
-    <cellStyle name="CALC Date Long" xfId="440"/>
-    <cellStyle name="CALC Date Short" xfId="441"/>
-    <cellStyle name="CALC Percent" xfId="442"/>
-    <cellStyle name="CALC Percent [1]" xfId="443"/>
-    <cellStyle name="CALC Percent [2]" xfId="444"/>
-    <cellStyle name="CALC Percent Total" xfId="445"/>
-    <cellStyle name="CALC Percent Total [1]" xfId="446"/>
-    <cellStyle name="CALC Percent Total [2]" xfId="447"/>
-    <cellStyle name="Calcul" xfId="2687"/>
-    <cellStyle name="calculated" xfId="448"/>
-    <cellStyle name="Calculation" xfId="449"/>
-    <cellStyle name="Calculation 2" xfId="1607"/>
-    <cellStyle name="Calculation 3" xfId="1606"/>
-    <cellStyle name="Calculation 4" xfId="1605"/>
-    <cellStyle name="Calculation 5" xfId="1604"/>
-    <cellStyle name="Cálculo 2" xfId="451"/>
-    <cellStyle name="Cálculo 3" xfId="452"/>
-    <cellStyle name="Cálculo 4" xfId="453"/>
-    <cellStyle name="Cálculo 5" xfId="450"/>
-    <cellStyle name="Cambiar to&amp;do" xfId="454"/>
-    <cellStyle name="Cambiar to&amp;do 2" xfId="455"/>
-    <cellStyle name="Cambiar to&amp;do 2 2" xfId="1603"/>
-    <cellStyle name="Cambiar to&amp;do 3" xfId="2688"/>
-    <cellStyle name="Cambiar to&amp;do 3 2" xfId="2689"/>
-    <cellStyle name="Cambiar to&amp;do 4" xfId="2690"/>
-    <cellStyle name="Cambiar to&amp;do 4 2" xfId="2691"/>
-    <cellStyle name="Cambiar to&amp;do_AjustesPorColat" xfId="456"/>
-    <cellStyle name="category" xfId="457"/>
-    <cellStyle name="Celda de comprobación 2" xfId="458"/>
-    <cellStyle name="Celda de comprobación 3" xfId="459"/>
-    <cellStyle name="Celda vinculada 2" xfId="460"/>
-    <cellStyle name="Celda vinculada 3" xfId="461"/>
-    <cellStyle name="Celkem" xfId="462"/>
-    <cellStyle name="Cellule liée" xfId="2692"/>
-    <cellStyle name="Check Cell 2" xfId="1602"/>
-    <cellStyle name="Check Cell 3" xfId="1601"/>
-    <cellStyle name="Check Cell 4" xfId="1600"/>
-    <cellStyle name="Check Cell 5" xfId="1599"/>
-    <cellStyle name="Chi phÝ kh¸c_Book1" xfId="463"/>
-    <cellStyle name="Comma  - Style1" xfId="464"/>
-    <cellStyle name="Comma  - Style2" xfId="465"/>
-    <cellStyle name="Comma  - Style3" xfId="466"/>
-    <cellStyle name="Comma  - Style4" xfId="467"/>
-    <cellStyle name="Comma  - Style5" xfId="468"/>
-    <cellStyle name="Comma  - Style6" xfId="469"/>
-    <cellStyle name="Comma  - Style7" xfId="470"/>
-    <cellStyle name="Comma  - Style8" xfId="471"/>
-    <cellStyle name="Comma [0] 2" xfId="472"/>
-    <cellStyle name="Comma [0] 2 2" xfId="1597"/>
-    <cellStyle name="Comma [0] 2 3" xfId="1598"/>
-    <cellStyle name="Comma 10" xfId="1596"/>
-    <cellStyle name="Comma 10 2" xfId="1595"/>
-    <cellStyle name="Comma 10 2 2" xfId="1594"/>
-    <cellStyle name="Comma 10 2 3" xfId="1593"/>
-    <cellStyle name="Comma 10 2 4" xfId="1592"/>
-    <cellStyle name="Comma 10 3" xfId="1591"/>
-    <cellStyle name="Comma 10 3 2" xfId="1590"/>
-    <cellStyle name="Comma 10 3 2 2" xfId="1589"/>
-    <cellStyle name="Comma 10 3 2 3" xfId="1588"/>
-    <cellStyle name="Comma 10 3 3" xfId="1587"/>
-    <cellStyle name="Comma 10 3 4" xfId="1586"/>
-    <cellStyle name="Comma 10 4" xfId="1585"/>
-    <cellStyle name="Comma 10 5" xfId="1584"/>
-    <cellStyle name="Comma 10 6" xfId="1583"/>
-    <cellStyle name="Comma 11" xfId="1582"/>
-    <cellStyle name="Comma 11 2" xfId="1581"/>
-    <cellStyle name="Comma 11 2 2" xfId="1580"/>
-    <cellStyle name="Comma 11 2 3" xfId="1579"/>
-    <cellStyle name="Comma 11 3" xfId="1578"/>
-    <cellStyle name="Comma 11 3 2" xfId="1577"/>
-    <cellStyle name="Comma 11 3 2 2" xfId="1576"/>
-    <cellStyle name="Comma 11 3 2 3" xfId="1575"/>
-    <cellStyle name="Comma 11 3 3" xfId="1574"/>
-    <cellStyle name="Comma 11 3 4" xfId="1573"/>
-    <cellStyle name="Comma 11 4" xfId="1572"/>
-    <cellStyle name="Comma 11 5" xfId="1571"/>
-    <cellStyle name="Comma 12" xfId="1570"/>
-    <cellStyle name="Comma 12 2" xfId="2525"/>
-    <cellStyle name="Comma 13" xfId="1569"/>
-    <cellStyle name="Comma 13 2" xfId="1568"/>
-    <cellStyle name="Comma 13 2 2" xfId="1567"/>
-    <cellStyle name="Comma 13 2 3" xfId="1566"/>
-    <cellStyle name="Comma 13 3" xfId="1565"/>
-    <cellStyle name="Comma 13 3 2" xfId="1564"/>
-    <cellStyle name="Comma 13 3 2 2" xfId="1563"/>
-    <cellStyle name="Comma 13 3 2 3" xfId="1562"/>
-    <cellStyle name="Comma 13 3 3" xfId="1561"/>
-    <cellStyle name="Comma 13 3 4" xfId="1560"/>
-    <cellStyle name="Comma 13 4" xfId="1559"/>
-    <cellStyle name="Comma 13 5" xfId="1558"/>
-    <cellStyle name="Comma 14" xfId="1557"/>
-    <cellStyle name="Comma 14 2" xfId="2526"/>
-    <cellStyle name="Comma 15" xfId="1556"/>
-    <cellStyle name="Comma 15 2" xfId="1555"/>
-    <cellStyle name="Comma 15 2 2" xfId="1554"/>
-    <cellStyle name="Comma 15 2 3" xfId="1553"/>
-    <cellStyle name="Comma 15 3" xfId="1552"/>
-    <cellStyle name="Comma 15 4" xfId="1551"/>
-    <cellStyle name="Comma 16" xfId="1550"/>
-    <cellStyle name="Comma 16 2" xfId="2527"/>
-    <cellStyle name="Comma 17" xfId="1549"/>
-    <cellStyle name="Comma 17 2" xfId="1548"/>
-    <cellStyle name="Comma 17 2 2" xfId="1547"/>
-    <cellStyle name="Comma 17 2 3" xfId="1546"/>
-    <cellStyle name="Comma 17 3" xfId="1545"/>
-    <cellStyle name="Comma 17 4" xfId="1544"/>
-    <cellStyle name="Comma 18" xfId="1543"/>
-    <cellStyle name="Comma 18 2" xfId="2528"/>
-    <cellStyle name="Comma 19" xfId="1542"/>
-    <cellStyle name="Comma 19 2" xfId="1541"/>
-    <cellStyle name="Comma 19 2 2" xfId="1540"/>
-    <cellStyle name="Comma 19 2 3" xfId="1539"/>
-    <cellStyle name="Comma 19 3" xfId="1538"/>
-    <cellStyle name="Comma 19 4" xfId="1537"/>
-    <cellStyle name="Comma 2" xfId="473"/>
-    <cellStyle name="Comma 2 2" xfId="1536"/>
-    <cellStyle name="Comma 2 2 2" xfId="1535"/>
-    <cellStyle name="Comma 2 2 2 2" xfId="1534"/>
-    <cellStyle name="Comma 2 2 2 3" xfId="1533"/>
-    <cellStyle name="Comma 2 2 2 4" xfId="1532"/>
-    <cellStyle name="Comma 2 2 3" xfId="1531"/>
-    <cellStyle name="Comma 2 2 3 2" xfId="1530"/>
-    <cellStyle name="Comma 2 2 3 3" xfId="1529"/>
-    <cellStyle name="Comma 2 2 3 3 2" xfId="1528"/>
-    <cellStyle name="Comma 2 2 4" xfId="1527"/>
-    <cellStyle name="Comma 2 2 5" xfId="1526"/>
-    <cellStyle name="Comma 2 2 6" xfId="1525"/>
-    <cellStyle name="Comma 2 2 6 2" xfId="1524"/>
-    <cellStyle name="Comma 2 2 7" xfId="1523"/>
-    <cellStyle name="Comma 2 2 7 2" xfId="1522"/>
-    <cellStyle name="Comma 2 2 8" xfId="1521"/>
-    <cellStyle name="Comma 2 3" xfId="1520"/>
-    <cellStyle name="Comma 2 3 2" xfId="1519"/>
-    <cellStyle name="Comma 2 3 3" xfId="1518"/>
-    <cellStyle name="Comma 2 3 4" xfId="1517"/>
-    <cellStyle name="Comma 2 4" xfId="1516"/>
-    <cellStyle name="Comma 2 4 2" xfId="2693"/>
-    <cellStyle name="Comma 2 5" xfId="1515"/>
-    <cellStyle name="Comma 2 6" xfId="1514"/>
-    <cellStyle name="Comma 2 7" xfId="1842"/>
-    <cellStyle name="Comma 20" xfId="1513"/>
-    <cellStyle name="Comma 20 2" xfId="2529"/>
-    <cellStyle name="Comma 21" xfId="1512"/>
-    <cellStyle name="Comma 21 2" xfId="1511"/>
-    <cellStyle name="Comma 21 2 2" xfId="1510"/>
-    <cellStyle name="Comma 21 2 3" xfId="1509"/>
-    <cellStyle name="Comma 21 3" xfId="1508"/>
-    <cellStyle name="Comma 21 4" xfId="1507"/>
-    <cellStyle name="Comma 22" xfId="1506"/>
-    <cellStyle name="Comma 22 2" xfId="2530"/>
-    <cellStyle name="Comma 23" xfId="1505"/>
-    <cellStyle name="Comma 23 2" xfId="1504"/>
-    <cellStyle name="Comma 23 2 2" xfId="1503"/>
-    <cellStyle name="Comma 23 2 3" xfId="1502"/>
-    <cellStyle name="Comma 23 3" xfId="1501"/>
-    <cellStyle name="Comma 23 4" xfId="1500"/>
-    <cellStyle name="Comma 24" xfId="1499"/>
-    <cellStyle name="Comma 24 2" xfId="2531"/>
-    <cellStyle name="Comma 25" xfId="1498"/>
-    <cellStyle name="Comma 25 2" xfId="1497"/>
-    <cellStyle name="Comma 25 2 2" xfId="1496"/>
-    <cellStyle name="Comma 25 2 3" xfId="1495"/>
-    <cellStyle name="Comma 25 3" xfId="1494"/>
-    <cellStyle name="Comma 25 4" xfId="1493"/>
-    <cellStyle name="Comma 26" xfId="1492"/>
-    <cellStyle name="Comma 26 2" xfId="2532"/>
-    <cellStyle name="Comma 27" xfId="1491"/>
-    <cellStyle name="Comma 27 2" xfId="2533"/>
-    <cellStyle name="Comma 28" xfId="1490"/>
-    <cellStyle name="Comma 28 2" xfId="2534"/>
-    <cellStyle name="Comma 29" xfId="1489"/>
-    <cellStyle name="Comma 29 2" xfId="1488"/>
-    <cellStyle name="Comma 29 3" xfId="1487"/>
-    <cellStyle name="Comma 3" xfId="474"/>
-    <cellStyle name="Comma 3 2" xfId="1486"/>
-    <cellStyle name="Comma 3 2 2" xfId="1485"/>
-    <cellStyle name="Comma 3 2 3" xfId="1484"/>
-    <cellStyle name="Comma 3 2 4" xfId="1483"/>
-    <cellStyle name="Comma 3 3" xfId="1482"/>
-    <cellStyle name="Comma 3 4" xfId="1481"/>
-    <cellStyle name="Comma 3 5" xfId="1480"/>
-    <cellStyle name="Comma 3 6" xfId="1479"/>
-    <cellStyle name="Comma 3 7" xfId="1478"/>
-    <cellStyle name="Comma 3 8" xfId="1477"/>
-    <cellStyle name="Comma 30" xfId="1476"/>
-    <cellStyle name="Comma 30 2" xfId="1475"/>
-    <cellStyle name="Comma 30 3" xfId="1474"/>
-    <cellStyle name="Comma 31" xfId="1473"/>
-    <cellStyle name="Comma 31 2" xfId="1472"/>
-    <cellStyle name="Comma 31 3" xfId="1471"/>
-    <cellStyle name="Comma 32" xfId="1470"/>
-    <cellStyle name="Comma 32 2" xfId="1469"/>
-    <cellStyle name="Comma 32 3" xfId="1468"/>
-    <cellStyle name="Comma 33" xfId="1467"/>
-    <cellStyle name="Comma 33 2" xfId="1466"/>
-    <cellStyle name="Comma 33 3" xfId="2535"/>
-    <cellStyle name="Comma 34" xfId="1465"/>
-    <cellStyle name="Comma 35" xfId="1464"/>
-    <cellStyle name="Comma 36" xfId="1463"/>
-    <cellStyle name="Comma 37" xfId="1462"/>
-    <cellStyle name="Comma 38" xfId="1461"/>
-    <cellStyle name="Comma 39" xfId="1460"/>
-    <cellStyle name="Comma 4" xfId="475"/>
-    <cellStyle name="Comma 4 2" xfId="1458"/>
-    <cellStyle name="Comma 4 3" xfId="1457"/>
-    <cellStyle name="Comma 4 3 2" xfId="2694"/>
-    <cellStyle name="Comma 4 4" xfId="1456"/>
-    <cellStyle name="Comma 4 5" xfId="1455"/>
-    <cellStyle name="Comma 4 6" xfId="1454"/>
-    <cellStyle name="Comma 4 7" xfId="1459"/>
-    <cellStyle name="Comma 40" xfId="1453"/>
-    <cellStyle name="Comma 41" xfId="1452"/>
-    <cellStyle name="Comma 42" xfId="1451"/>
-    <cellStyle name="Comma 43" xfId="1450"/>
-    <cellStyle name="Comma 44" xfId="1449"/>
-    <cellStyle name="Comma 45" xfId="1448"/>
-    <cellStyle name="Comma 46" xfId="1447"/>
-    <cellStyle name="Comma 46 2" xfId="1446"/>
-    <cellStyle name="Comma 46 3" xfId="1445"/>
-    <cellStyle name="Comma 47" xfId="1444"/>
-    <cellStyle name="Comma 47 2" xfId="1443"/>
-    <cellStyle name="Comma 47 3" xfId="1442"/>
-    <cellStyle name="Comma 48" xfId="1441"/>
-    <cellStyle name="Comma 48 2" xfId="1440"/>
-    <cellStyle name="Comma 48 3" xfId="1439"/>
-    <cellStyle name="Comma 49" xfId="1438"/>
-    <cellStyle name="Comma 5" xfId="476"/>
-    <cellStyle name="Comma 5 2" xfId="1437"/>
-    <cellStyle name="Comma 5 2 2" xfId="1436"/>
-    <cellStyle name="Comma 5 2 3" xfId="1435"/>
-    <cellStyle name="Comma 5 3" xfId="1434"/>
-    <cellStyle name="Comma 5 3 2" xfId="1433"/>
-    <cellStyle name="Comma 5 3 3" xfId="1432"/>
-    <cellStyle name="Comma 5 3 3 2" xfId="2695"/>
-    <cellStyle name="Comma 5 3 4" xfId="2696"/>
-    <cellStyle name="Comma 5 4" xfId="1431"/>
-    <cellStyle name="Comma 5 4 2" xfId="1430"/>
-    <cellStyle name="Comma 5 4 3" xfId="1429"/>
-    <cellStyle name="Comma 5 5" xfId="1428"/>
-    <cellStyle name="Comma 5 6" xfId="1427"/>
-    <cellStyle name="Comma 50" xfId="1426"/>
-    <cellStyle name="Comma 50 2" xfId="1425"/>
-    <cellStyle name="Comma 50 2 2" xfId="1424"/>
-    <cellStyle name="Comma 50 3" xfId="1423"/>
-    <cellStyle name="Comma 50 4" xfId="1422"/>
-    <cellStyle name="Comma 51" xfId="1421"/>
-    <cellStyle name="Comma 51 2" xfId="1420"/>
-    <cellStyle name="Comma 51 3" xfId="1419"/>
-    <cellStyle name="Comma 52" xfId="1418"/>
-    <cellStyle name="Comma 52 2" xfId="1417"/>
-    <cellStyle name="Comma 52 3" xfId="1416"/>
-    <cellStyle name="Comma 53" xfId="1415"/>
-    <cellStyle name="Comma 54" xfId="1414"/>
-    <cellStyle name="Comma 55" xfId="1413"/>
-    <cellStyle name="Comma 55 2" xfId="1412"/>
-    <cellStyle name="Comma 56" xfId="1411"/>
-    <cellStyle name="Comma 56 2" xfId="1410"/>
-    <cellStyle name="Comma 57" xfId="1409"/>
-    <cellStyle name="Comma 58" xfId="1408"/>
-    <cellStyle name="Comma 59" xfId="1407"/>
-    <cellStyle name="Comma 6" xfId="477"/>
-    <cellStyle name="Comma 6 2" xfId="1405"/>
-    <cellStyle name="Comma 6 3" xfId="1404"/>
-    <cellStyle name="Comma 6 4" xfId="1406"/>
-    <cellStyle name="Comma 60" xfId="1403"/>
-    <cellStyle name="Comma 60 2" xfId="1402"/>
-    <cellStyle name="Comma 61" xfId="1401"/>
-    <cellStyle name="Comma 62" xfId="1400"/>
-    <cellStyle name="Comma 62 2" xfId="1399"/>
-    <cellStyle name="Comma 63" xfId="1398"/>
-    <cellStyle name="Comma 63 2" xfId="1397"/>
-    <cellStyle name="Comma 64" xfId="1396"/>
-    <cellStyle name="Comma 64 2" xfId="1395"/>
-    <cellStyle name="Comma 65" xfId="1394"/>
-    <cellStyle name="Comma 66" xfId="1393"/>
-    <cellStyle name="Comma 67" xfId="1392"/>
-    <cellStyle name="Comma 68" xfId="1391"/>
-    <cellStyle name="Comma 69" xfId="1390"/>
-    <cellStyle name="Comma 7" xfId="1389"/>
-    <cellStyle name="Comma 7 2" xfId="1388"/>
-    <cellStyle name="Comma 7 2 2" xfId="1387"/>
-    <cellStyle name="Comma 7 2 3" xfId="1386"/>
-    <cellStyle name="Comma 7 3" xfId="1385"/>
-    <cellStyle name="Comma 7 3 2" xfId="1384"/>
-    <cellStyle name="Comma 7 3 2 2" xfId="1383"/>
-    <cellStyle name="Comma 7 3 2 3" xfId="1382"/>
-    <cellStyle name="Comma 7 3 3" xfId="1381"/>
-    <cellStyle name="Comma 7 3 4" xfId="1380"/>
-    <cellStyle name="Comma 7 4" xfId="1379"/>
-    <cellStyle name="Comma 7 5" xfId="1378"/>
-    <cellStyle name="Comma 70" xfId="2379"/>
-    <cellStyle name="Comma 71" xfId="2536"/>
-    <cellStyle name="Comma 72" xfId="2537"/>
-    <cellStyle name="Comma 8" xfId="1377"/>
-    <cellStyle name="Comma 8 2" xfId="1376"/>
-    <cellStyle name="Comma 8 2 2" xfId="1375"/>
-    <cellStyle name="Comma 8 2 3" xfId="1374"/>
-    <cellStyle name="Comma 8 3" xfId="1373"/>
-    <cellStyle name="Comma 8 3 2" xfId="1372"/>
-    <cellStyle name="Comma 8 3 2 2" xfId="1371"/>
-    <cellStyle name="Comma 8 3 2 3" xfId="1370"/>
-    <cellStyle name="Comma 8 3 3" xfId="1369"/>
-    <cellStyle name="Comma 8 3 4" xfId="1368"/>
-    <cellStyle name="Comma 8 4" xfId="1367"/>
-    <cellStyle name="Comma 8 5" xfId="1366"/>
-    <cellStyle name="Comma 9" xfId="1365"/>
-    <cellStyle name="Comma 9 2" xfId="1364"/>
-    <cellStyle name="Comma 9 2 2" xfId="1363"/>
-    <cellStyle name="Comma 9 2 3" xfId="1362"/>
-    <cellStyle name="Comma 9 3" xfId="1361"/>
-    <cellStyle name="Comma 9 3 2" xfId="1360"/>
-    <cellStyle name="Comma 9 3 2 2" xfId="1359"/>
-    <cellStyle name="Comma 9 3 2 3" xfId="1358"/>
-    <cellStyle name="Comma 9 3 3" xfId="1357"/>
-    <cellStyle name="Comma 9 3 4" xfId="1356"/>
-    <cellStyle name="Comma 9 4" xfId="1355"/>
-    <cellStyle name="Comma 9 5" xfId="1354"/>
-    <cellStyle name="comma zerodec" xfId="478"/>
-    <cellStyle name="comma zerodec 2" xfId="1353"/>
-    <cellStyle name="Comma0" xfId="479"/>
-    <cellStyle name="Comma0 2" xfId="1352"/>
-    <cellStyle name="Comma0 2 2" xfId="1351"/>
-    <cellStyle name="Comma0 2 3" xfId="1350"/>
-    <cellStyle name="Comma0 3" xfId="1349"/>
-    <cellStyle name="Comma0 3 2" xfId="1348"/>
-    <cellStyle name="Comma0_00.Carlos101.Multicurve.spl" xfId="1347"/>
-    <cellStyle name="Commentaire" xfId="2697"/>
-    <cellStyle name="cong" xfId="480"/>
-    <cellStyle name="Constant (do not change)" xfId="481"/>
-    <cellStyle name="Criteria" xfId="482"/>
-    <cellStyle name="Criteria 2" xfId="2538"/>
-    <cellStyle name="Currency0" xfId="483"/>
-    <cellStyle name="Currency0 2" xfId="1346"/>
-    <cellStyle name="Currency0 2 2" xfId="1345"/>
-    <cellStyle name="Currency0 2 3" xfId="1344"/>
-    <cellStyle name="Currency0 3" xfId="1343"/>
-    <cellStyle name="Currency0 3 2" xfId="1342"/>
-    <cellStyle name="Currency0_00.Carlos101.Multicurve.spl" xfId="1341"/>
-    <cellStyle name="Currency1" xfId="484"/>
-    <cellStyle name="Currency1 2" xfId="1340"/>
-    <cellStyle name="Dash" xfId="485"/>
-    <cellStyle name="Dash 2" xfId="486"/>
-    <cellStyle name="Dash 2 2" xfId="2539"/>
-    <cellStyle name="Dash 3" xfId="487"/>
-    <cellStyle name="Dash 3 2" xfId="2540"/>
-    <cellStyle name="Dash 4" xfId="2541"/>
-    <cellStyle name="data" xfId="488"/>
-    <cellStyle name="DATA Amount" xfId="489"/>
-    <cellStyle name="DATA Amount [1]" xfId="490"/>
-    <cellStyle name="DATA Amount [2]" xfId="491"/>
-    <cellStyle name="DATA Currency" xfId="492"/>
-    <cellStyle name="DATA Currency [1]" xfId="493"/>
-    <cellStyle name="DATA Currency [2]" xfId="494"/>
-    <cellStyle name="DATA Date Long" xfId="495"/>
-    <cellStyle name="DATA Date Short" xfId="496"/>
-    <cellStyle name="DATA List" xfId="497"/>
-    <cellStyle name="DATA Memo" xfId="498"/>
-    <cellStyle name="DATA Percent" xfId="499"/>
-    <cellStyle name="DATA Percent [1]" xfId="500"/>
-    <cellStyle name="DATA Percent [2]" xfId="501"/>
-    <cellStyle name="DATA Text" xfId="502"/>
-    <cellStyle name="DATA Version" xfId="503"/>
-    <cellStyle name="data_3000" xfId="504"/>
-    <cellStyle name="Data1" xfId="505"/>
-    <cellStyle name="Data2" xfId="506"/>
-    <cellStyle name="Data2 2" xfId="1339"/>
-    <cellStyle name="Data3" xfId="507"/>
-    <cellStyle name="Data3 2" xfId="1338"/>
-    <cellStyle name="Data4" xfId="508"/>
-    <cellStyle name="Data5" xfId="509"/>
-    <cellStyle name="date" xfId="510"/>
-    <cellStyle name="date 2" xfId="511"/>
-    <cellStyle name="date 2 2" xfId="1336"/>
-    <cellStyle name="date 2 3" xfId="1335"/>
-    <cellStyle name="date 2 4" xfId="1334"/>
-    <cellStyle name="Date 2 5" xfId="1333"/>
-    <cellStyle name="Date 2 6" xfId="1332"/>
-    <cellStyle name="Date 2 7" xfId="1337"/>
-    <cellStyle name="date 3" xfId="1331"/>
-    <cellStyle name="Date 3 2" xfId="1330"/>
-    <cellStyle name="date 3 3" xfId="1329"/>
-    <cellStyle name="Date 3 4" xfId="1328"/>
-    <cellStyle name="Date 4" xfId="1327"/>
-    <cellStyle name="date 4 2" xfId="2698"/>
-    <cellStyle name="date_BBV" xfId="1326"/>
-    <cellStyle name="DateFormat" xfId="512"/>
-    <cellStyle name="DateFormat 2" xfId="2542"/>
-    <cellStyle name="DateModel" xfId="513"/>
-    <cellStyle name="DatePeriodic" xfId="514"/>
-    <cellStyle name="datetime" xfId="515"/>
-    <cellStyle name="Datum" xfId="516"/>
-    <cellStyle name="DAUDE" xfId="517"/>
-    <cellStyle name="descrizione" xfId="518"/>
-    <cellStyle name="descrizione 2" xfId="2543"/>
-    <cellStyle name="descrizione articolo" xfId="519"/>
-    <cellStyle name="Dezimal [0]_~0027840" xfId="520"/>
-    <cellStyle name="Dezimal_99_alone_dec" xfId="521"/>
-    <cellStyle name="Dollar (zero dec)" xfId="522"/>
-    <cellStyle name="Dollar (zero dec) 2" xfId="1325"/>
-    <cellStyle name="Dziesi?tny [0]_Invoices2001Slovakia" xfId="523"/>
-    <cellStyle name="Dziesi?tny_Invoices2001Slovakia" xfId="524"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia" xfId="525"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia" xfId="526"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia 2" xfId="1324"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia 2" xfId="1323"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien" xfId="527"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien" xfId="528"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 10" xfId="1322"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 10" xfId="1321"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 11" xfId="1320"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 11" xfId="1319"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 12" xfId="1318"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 12" xfId="1317"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 13" xfId="1316"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 13" xfId="1315"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 14" xfId="1314"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 14" xfId="1313"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 15" xfId="1312"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 15" xfId="1311"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 2" xfId="1310"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 2" xfId="1309"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 3" xfId="1308"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 3" xfId="1307"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 4" xfId="1306"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 4" xfId="1305"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 5" xfId="1304"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 5" xfId="1303"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 6" xfId="1302"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 6" xfId="1301"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 7" xfId="1300"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 7" xfId="1299"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 8" xfId="1298"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 8" xfId="1297"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 9" xfId="1296"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 9" xfId="1295"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1" xfId="529"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1" xfId="530"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 10" xfId="1294"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 10" xfId="1293"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 11" xfId="1292"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 11" xfId="1291"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 12" xfId="1290"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 12" xfId="1289"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 13" xfId="1288"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 13" xfId="1287"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 14" xfId="1286"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 14" xfId="1285"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 15" xfId="1284"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 15" xfId="1283"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 2" xfId="1282"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 2" xfId="1281"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 3" xfId="1280"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 3" xfId="1279"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 4" xfId="1278"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 4" xfId="1277"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 5" xfId="1276"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 5" xfId="1275"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 6" xfId="1274"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 6" xfId="1273"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 7" xfId="1272"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 7" xfId="1271"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 8" xfId="1270"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 8" xfId="1269"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 9" xfId="1268"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 9" xfId="1267"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1" xfId="531"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1" xfId="532"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1 2" xfId="1266"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1 2" xfId="1265"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1" xfId="533"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1" xfId="534"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 10" xfId="1264"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 10" xfId="1263"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 11" xfId="1262"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 11" xfId="1261"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 12" xfId="1260"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 12" xfId="1259"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 13" xfId="1258"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 13" xfId="1257"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 14" xfId="1256"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 14" xfId="1255"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 15" xfId="1254"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 15" xfId="1253"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 2" xfId="1252"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 2" xfId="1251"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 3" xfId="1250"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 3" xfId="1249"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 4" xfId="1248"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 4" xfId="1247"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 5" xfId="1246"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 5" xfId="1245"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 6" xfId="1244"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 6" xfId="1243"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 7" xfId="1242"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 7" xfId="1241"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 8" xfId="1240"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 8" xfId="1239"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 9" xfId="1238"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 9" xfId="1237"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1_Book1" xfId="535"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1_Book1" xfId="536"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_2" xfId="537"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_2" xfId="538"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_DT d-uong" xfId="539"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Nhµ ®Ó xe" xfId="540"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Nha bao ve(28-7-05)" xfId="541"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Nha bao ve(28-7-05)" xfId="542"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_NHA de xe nguyen du" xfId="543"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_NHA de xe nguyen du" xfId="544"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Nhalamviec VTC(25-1-05)" xfId="545"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Nhalamviec VTC(25-1-05)" xfId="546"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Nhalamviec VTC(25-1-05) 2" xfId="1236"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Nhalamviec VTC(25-1-05) 2" xfId="1235"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_t.nuoc(12-10-06)" xfId="547"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_TDT KHANH HOA" xfId="548"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_TDT quangngai" xfId="549"/>
-    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_TDT quangngai" xfId="550"/>
-    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_TMDT(10-5-06)" xfId="551"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia" xfId="552"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia" xfId="553"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia 2" xfId="1234"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia 2" xfId="1233"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien" xfId="554"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien" xfId="555"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 10" xfId="1232"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 10" xfId="1231"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 11" xfId="1230"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 11" xfId="1229"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 12" xfId="1228"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 12" xfId="1227"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 13" xfId="1226"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 13" xfId="1225"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 14" xfId="1224"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 14" xfId="1223"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 15" xfId="1222"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 15" xfId="1221"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 2" xfId="1220"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 2" xfId="1219"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 3" xfId="1218"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 3" xfId="1217"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 4" xfId="1216"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 4" xfId="1215"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 5" xfId="1214"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 5" xfId="1213"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 6" xfId="1212"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 6" xfId="1211"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 7" xfId="1210"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 7" xfId="1209"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 8" xfId="1208"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 8" xfId="1207"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 9" xfId="1206"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 9" xfId="1205"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1" xfId="556"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1" xfId="557"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 10" xfId="1204"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 10" xfId="1203"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 11" xfId="1202"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 11" xfId="1201"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 12" xfId="1200"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 12" xfId="1199"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 13" xfId="1198"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 13" xfId="1197"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 14" xfId="1196"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 14" xfId="1195"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 15" xfId="1194"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 15" xfId="1193"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 2" xfId="1192"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 2" xfId="1191"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 3" xfId="1190"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 3" xfId="1189"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 4" xfId="1188"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 4" xfId="1187"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 5" xfId="1186"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 5" xfId="1185"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 6" xfId="1184"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 6" xfId="1183"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 7" xfId="1182"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 7" xfId="1181"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 8" xfId="1180"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 8" xfId="1179"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 9" xfId="1178"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 9" xfId="1177"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1" xfId="558"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1" xfId="559"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1 2" xfId="1176"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1 2" xfId="1175"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1" xfId="560"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1" xfId="561"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 10" xfId="1174"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 10" xfId="1173"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 11" xfId="1172"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 11" xfId="1171"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 12" xfId="1170"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 12" xfId="1169"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 13" xfId="1168"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 13" xfId="1167"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 14" xfId="1166"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 14" xfId="1165"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 15" xfId="1164"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 15" xfId="1163"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 2" xfId="1162"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 2" xfId="1161"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 3" xfId="1160"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 3" xfId="1159"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 4" xfId="1158"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 4" xfId="1157"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 5" xfId="1156"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 5" xfId="1155"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 6" xfId="1154"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 6" xfId="1153"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 7" xfId="1152"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 7" xfId="1151"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 8" xfId="1150"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 8" xfId="1149"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 9" xfId="1148"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 9" xfId="1147"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1_Book1" xfId="562"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1_Book1" xfId="563"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_2" xfId="564"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_2" xfId="565"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_DT d-uong" xfId="566"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Nhµ ®Ó xe" xfId="567"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Nha bao ve(28-7-05)" xfId="568"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Nha bao ve(28-7-05)" xfId="569"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_NHA de xe nguyen du" xfId="570"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_NHA de xe nguyen du" xfId="571"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Nhalamviec VTC(25-1-05)" xfId="572"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Nhalamviec VTC(25-1-05)" xfId="573"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_Nhalamviec VTC(25-1-05) 2" xfId="1146"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Nhalamviec VTC(25-1-05) 2" xfId="1145"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_t.nuoc(12-10-06)" xfId="574"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_TDT KHANH HOA" xfId="575"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_TDT quangngai" xfId="576"/>
-    <cellStyle name="Dziesiętny_Invoices2001Slovakia_TDT quangngai" xfId="577"/>
-    <cellStyle name="Dziesietny_Invoices2001Slovakia_TMDT(10-5-06)" xfId="578"/>
-    <cellStyle name="Eingabe" xfId="579"/>
-    <cellStyle name="Encabezado" xfId="580"/>
-    <cellStyle name="Encabezado 10" xfId="1144"/>
-    <cellStyle name="Encabezado 11" xfId="2699"/>
-    <cellStyle name="Encabezado 2" xfId="581"/>
-    <cellStyle name="Encabezado 2 2" xfId="1143"/>
-    <cellStyle name="Encabezado 2 3" xfId="1142"/>
-    <cellStyle name="Encabezado 2 3 2" xfId="2700"/>
-    <cellStyle name="Encabezado 2 4" xfId="2701"/>
-    <cellStyle name="Encabezado 2 4 2" xfId="2702"/>
-    <cellStyle name="Encabezado 3" xfId="582"/>
-    <cellStyle name="Encabezado 3 2" xfId="2544"/>
-    <cellStyle name="Encabezado 4 2" xfId="583"/>
-    <cellStyle name="Encabezado 4 3" xfId="584"/>
-    <cellStyle name="Encabezado 5" xfId="585"/>
-    <cellStyle name="Encabezado 5 2" xfId="1141"/>
-    <cellStyle name="Encabezado 5_BBV" xfId="1140"/>
-    <cellStyle name="Encabezado 6" xfId="586"/>
-    <cellStyle name="Encabezado 6 2" xfId="1139"/>
-    <cellStyle name="Encabezado 6 2 2" xfId="1138"/>
-    <cellStyle name="Encabezado 7" xfId="1137"/>
-    <cellStyle name="Encabezado 7 2" xfId="1136"/>
-    <cellStyle name="Encabezado 8" xfId="1135"/>
-    <cellStyle name="Encabezado 8 2" xfId="1134"/>
-    <cellStyle name="Encabezado 9" xfId="1133"/>
-    <cellStyle name="Énfasis1 2" xfId="588"/>
-    <cellStyle name="Énfasis1 3" xfId="589"/>
-    <cellStyle name="Énfasis1 4" xfId="590"/>
-    <cellStyle name="Énfasis1 5" xfId="587"/>
-    <cellStyle name="Énfasis2 2" xfId="592"/>
-    <cellStyle name="Énfasis2 3" xfId="593"/>
-    <cellStyle name="Énfasis2 4" xfId="594"/>
-    <cellStyle name="Énfasis2 5" xfId="591"/>
-    <cellStyle name="Énfasis3 2" xfId="596"/>
-    <cellStyle name="Énfasis3 3" xfId="597"/>
-    <cellStyle name="Énfasis3 4" xfId="598"/>
-    <cellStyle name="Énfasis3 5" xfId="595"/>
-    <cellStyle name="Énfasis4 2" xfId="600"/>
-    <cellStyle name="Énfasis4 3" xfId="601"/>
-    <cellStyle name="Énfasis4 4" xfId="602"/>
-    <cellStyle name="Énfasis4 5" xfId="599"/>
-    <cellStyle name="Énfasis5 2" xfId="604"/>
-    <cellStyle name="Énfasis5 3" xfId="605"/>
-    <cellStyle name="Énfasis5 4" xfId="606"/>
-    <cellStyle name="Énfasis5 5" xfId="603"/>
-    <cellStyle name="Énfasis6 2" xfId="608"/>
-    <cellStyle name="Énfasis6 3" xfId="609"/>
-    <cellStyle name="Énfasis6 4" xfId="610"/>
-    <cellStyle name="Énfasis6 5" xfId="607"/>
-    <cellStyle name="EnMiles" xfId="611"/>
-    <cellStyle name="EnMiles 2" xfId="612"/>
-    <cellStyle name="EnMiles 2 2" xfId="1132"/>
-    <cellStyle name="EnMiles 3" xfId="1131"/>
-    <cellStyle name="Entrada 2" xfId="613"/>
-    <cellStyle name="Entrada 3" xfId="614"/>
-    <cellStyle name="Entrée" xfId="2703"/>
-    <cellStyle name="Ergebnis" xfId="615"/>
-    <cellStyle name="Erklärender Text" xfId="616"/>
-    <cellStyle name="Estilo 1" xfId="617"/>
-    <cellStyle name="Estilo 1 2" xfId="618"/>
-    <cellStyle name="Estilo 1 2 2" xfId="2545"/>
-    <cellStyle name="Estilo 1 3" xfId="619"/>
-    <cellStyle name="Estilo 1 3 2" xfId="2546"/>
-    <cellStyle name="Estilo 1 4" xfId="620"/>
-    <cellStyle name="Estilo 1 4 2" xfId="2547"/>
-    <cellStyle name="Estilo 1 5" xfId="621"/>
-    <cellStyle name="Estilo 1 5 2" xfId="2548"/>
-    <cellStyle name="Estilo 1 6" xfId="2549"/>
-    <cellStyle name="Estilo 10" xfId="622"/>
-    <cellStyle name="Estilo 10 2" xfId="2550"/>
-    <cellStyle name="Estilo 11" xfId="623"/>
-    <cellStyle name="Estilo 11 2" xfId="2551"/>
-    <cellStyle name="Estilo 12" xfId="624"/>
-    <cellStyle name="Estilo 12 2" xfId="2552"/>
-    <cellStyle name="Estilo 13" xfId="625"/>
-    <cellStyle name="Estilo 13 2" xfId="2553"/>
-    <cellStyle name="Estilo 14" xfId="626"/>
-    <cellStyle name="Estilo 14 2" xfId="2554"/>
-    <cellStyle name="Estilo 15" xfId="627"/>
-    <cellStyle name="Estilo 15 2" xfId="2555"/>
-    <cellStyle name="Estilo 16" xfId="628"/>
-    <cellStyle name="Estilo 16 2" xfId="2556"/>
-    <cellStyle name="Estilo 2" xfId="629"/>
-    <cellStyle name="Estilo 2 2" xfId="2557"/>
-    <cellStyle name="Estilo 3" xfId="630"/>
-    <cellStyle name="Estilo 3 2" xfId="2558"/>
-    <cellStyle name="Estilo 4" xfId="631"/>
-    <cellStyle name="Estilo 4 2" xfId="2559"/>
-    <cellStyle name="Estilo 5" xfId="632"/>
-    <cellStyle name="Estilo 5 2" xfId="2560"/>
-    <cellStyle name="Estilo 6" xfId="633"/>
-    <cellStyle name="Estilo 6 2" xfId="2561"/>
-    <cellStyle name="Estilo 7" xfId="634"/>
-    <cellStyle name="Estilo 7 2" xfId="2562"/>
-    <cellStyle name="Estilo 8" xfId="635"/>
-    <cellStyle name="Estilo 8 2" xfId="2563"/>
-    <cellStyle name="Estilo 9" xfId="636"/>
-    <cellStyle name="Estilo 9 2" xfId="2564"/>
-    <cellStyle name="Euro" xfId="637"/>
-    <cellStyle name="Euro 10" xfId="1130"/>
-    <cellStyle name="Euro 10 2" xfId="1129"/>
-    <cellStyle name="Euro 11" xfId="1128"/>
-    <cellStyle name="Euro 11 2" xfId="1127"/>
-    <cellStyle name="Euro 12" xfId="1126"/>
-    <cellStyle name="Euro 13" xfId="1125"/>
-    <cellStyle name="Euro 14" xfId="1124"/>
-    <cellStyle name="Euro 15" xfId="2704"/>
-    <cellStyle name="Euro 2" xfId="638"/>
-    <cellStyle name="Euro 2 2" xfId="1123"/>
-    <cellStyle name="Euro 2 3" xfId="1122"/>
-    <cellStyle name="Euro 2 3 2" xfId="2705"/>
-    <cellStyle name="Euro 2 4" xfId="1121"/>
-    <cellStyle name="Euro 2 4 2" xfId="2706"/>
-    <cellStyle name="Euro 2 5" xfId="1120"/>
-    <cellStyle name="Euro 3" xfId="639"/>
-    <cellStyle name="Euro 3 2" xfId="2565"/>
-    <cellStyle name="Euro 4" xfId="640"/>
-    <cellStyle name="Euro 4 2" xfId="1119"/>
-    <cellStyle name="Euro 4 3" xfId="1118"/>
-    <cellStyle name="Euro 5" xfId="641"/>
-    <cellStyle name="Euro 5 2" xfId="1117"/>
-    <cellStyle name="Euro 5 3" xfId="1116"/>
-    <cellStyle name="Euro 6" xfId="1115"/>
-    <cellStyle name="Euro 6 2" xfId="1114"/>
-    <cellStyle name="Euro 7" xfId="1113"/>
-    <cellStyle name="Euro 7 2" xfId="1112"/>
-    <cellStyle name="Euro 7 3" xfId="1111"/>
-    <cellStyle name="Euro 8" xfId="1110"/>
-    <cellStyle name="Euro 8 2" xfId="1109"/>
-    <cellStyle name="Euro 8 2 2" xfId="1108"/>
-    <cellStyle name="Euro 9" xfId="1107"/>
-    <cellStyle name="Euro 9 2" xfId="1106"/>
-    <cellStyle name="Euro_colateral" xfId="642"/>
-    <cellStyle name="Explanatory Text" xfId="643"/>
-    <cellStyle name="Explanatory Text 2" xfId="1105"/>
-    <cellStyle name="Explanatory Text 3" xfId="1104"/>
-    <cellStyle name="Explanatory Text 4" xfId="1103"/>
-    <cellStyle name="Explanatory Text 5" xfId="1102"/>
-    <cellStyle name="ExtractionInfoDataStyle" xfId="644"/>
-    <cellStyle name="ExtractionInfoHeaderStyle" xfId="645"/>
-    <cellStyle name="EY House" xfId="646"/>
-    <cellStyle name="F2" xfId="647"/>
-    <cellStyle name="F2 2" xfId="1101"/>
-    <cellStyle name="F2 2 2" xfId="1100"/>
-    <cellStyle name="F2 2 3" xfId="1099"/>
-    <cellStyle name="F2 2 4" xfId="1098"/>
-    <cellStyle name="F2 2_BBV" xfId="1097"/>
-    <cellStyle name="F2 3" xfId="1096"/>
-    <cellStyle name="F2 3 2" xfId="1095"/>
-    <cellStyle name="F2_curvas" xfId="1094"/>
-    <cellStyle name="F3" xfId="648"/>
-    <cellStyle name="F3 2" xfId="1093"/>
-    <cellStyle name="F3 2 2" xfId="1092"/>
-    <cellStyle name="F3 2 3" xfId="1091"/>
-    <cellStyle name="F3 2_BBV" xfId="1090"/>
-    <cellStyle name="F3 3" xfId="1089"/>
-    <cellStyle name="F3 3 2" xfId="1088"/>
-    <cellStyle name="F3_00.Carlos101.Multicurve.spl" xfId="1087"/>
-    <cellStyle name="F4" xfId="649"/>
-    <cellStyle name="F4 2" xfId="1086"/>
-    <cellStyle name="F4 2 2" xfId="1085"/>
-    <cellStyle name="F4 2 3" xfId="1084"/>
-    <cellStyle name="F4 2 4" xfId="1083"/>
-    <cellStyle name="F4 2_BBV" xfId="1082"/>
-    <cellStyle name="F4 3" xfId="1081"/>
-    <cellStyle name="F4 3 2" xfId="1080"/>
-    <cellStyle name="F4_curvas" xfId="1079"/>
-    <cellStyle name="F5" xfId="650"/>
-    <cellStyle name="F5 2" xfId="1078"/>
-    <cellStyle name="F5 3" xfId="1077"/>
-    <cellStyle name="F5 3 2" xfId="1076"/>
-    <cellStyle name="F5 4" xfId="1075"/>
-    <cellStyle name="F5_BBV" xfId="1074"/>
-    <cellStyle name="F6" xfId="651"/>
-    <cellStyle name="F6 2" xfId="1073"/>
-    <cellStyle name="F6 2 2" xfId="1072"/>
-    <cellStyle name="F6 2 3" xfId="1071"/>
-    <cellStyle name="F6 2 4" xfId="1070"/>
-    <cellStyle name="F6 2_BBV" xfId="1069"/>
-    <cellStyle name="F6 3" xfId="1850"/>
-    <cellStyle name="F6 3 2" xfId="1851"/>
-    <cellStyle name="F6_curvas" xfId="1852"/>
-    <cellStyle name="F7" xfId="652"/>
-    <cellStyle name="F7 2" xfId="1853"/>
-    <cellStyle name="F7 2 2" xfId="1854"/>
-    <cellStyle name="F7 2 3" xfId="1855"/>
-    <cellStyle name="F7 2 4" xfId="1856"/>
-    <cellStyle name="F7 2_BBV" xfId="1857"/>
-    <cellStyle name="F7 3" xfId="1858"/>
-    <cellStyle name="F7 3 2" xfId="1859"/>
-    <cellStyle name="F7_curvas" xfId="1860"/>
-    <cellStyle name="F8" xfId="653"/>
-    <cellStyle name="F8 2" xfId="1861"/>
-    <cellStyle name="F8 2 2" xfId="1862"/>
-    <cellStyle name="F8 2 3" xfId="1863"/>
-    <cellStyle name="F8 2 4" xfId="1864"/>
-    <cellStyle name="F8 2_BBV" xfId="1865"/>
-    <cellStyle name="F8 3" xfId="1866"/>
-    <cellStyle name="F8 3 2" xfId="1867"/>
-    <cellStyle name="F8_curvas" xfId="1868"/>
-    <cellStyle name="Finanční0" xfId="654"/>
-    <cellStyle name="Fixed" xfId="655"/>
-    <cellStyle name="Fixed 2" xfId="1869"/>
-    <cellStyle name="Fixed 2 2" xfId="1870"/>
-    <cellStyle name="Fixed 2 3" xfId="1871"/>
-    <cellStyle name="Fixed 3" xfId="1872"/>
-    <cellStyle name="Fixed 3 2" xfId="1873"/>
-    <cellStyle name="Fixed_00.Carlos101.Multicurve.spl" xfId="1874"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="656"/>
-    <cellStyle name="gia" xfId="657"/>
-    <cellStyle name="Good 2" xfId="1875"/>
-    <cellStyle name="Good 3" xfId="1876"/>
-    <cellStyle name="Good 4" xfId="1877"/>
-    <cellStyle name="Good 5" xfId="1878"/>
-    <cellStyle name="Grey" xfId="658"/>
-    <cellStyle name="Grey 2" xfId="659"/>
-    <cellStyle name="Grey 2 2" xfId="1880"/>
-    <cellStyle name="Grey 2 2 2" xfId="2566"/>
-    <cellStyle name="Grey 2 3" xfId="2567"/>
-    <cellStyle name="Grey 2 4" xfId="1879"/>
-    <cellStyle name="Grey 2_BBV" xfId="1881"/>
-    <cellStyle name="Grey 3" xfId="1882"/>
-    <cellStyle name="Grey_AjustesPorColat" xfId="660"/>
-    <cellStyle name="Gut" xfId="661"/>
-    <cellStyle name="Header" xfId="662"/>
-    <cellStyle name="Header0" xfId="663"/>
-    <cellStyle name="Header1" xfId="664"/>
-    <cellStyle name="Header2" xfId="665"/>
-    <cellStyle name="Heading 1" xfId="666"/>
-    <cellStyle name="Heading 1 2" xfId="1883"/>
-    <cellStyle name="Heading 1 2 2" xfId="1884"/>
-    <cellStyle name="Heading 1 3" xfId="1885"/>
-    <cellStyle name="Heading 1 3 2" xfId="1886"/>
-    <cellStyle name="Heading 1 4" xfId="1887"/>
-    <cellStyle name="Heading 1 5" xfId="1888"/>
-    <cellStyle name="Heading 2" xfId="667"/>
-    <cellStyle name="Heading 2 2" xfId="1889"/>
-    <cellStyle name="Heading 2 2 2" xfId="1890"/>
-    <cellStyle name="Heading 2 3" xfId="1891"/>
-    <cellStyle name="Heading 2 3 2" xfId="1892"/>
-    <cellStyle name="Heading 2 4" xfId="1893"/>
-    <cellStyle name="Heading 2 5" xfId="1894"/>
-    <cellStyle name="Heading 3" xfId="668"/>
-    <cellStyle name="Heading 3 2" xfId="1895"/>
-    <cellStyle name="Heading 3 3" xfId="1896"/>
-    <cellStyle name="Heading 3 4" xfId="1897"/>
-    <cellStyle name="Heading 3 5" xfId="1898"/>
-    <cellStyle name="Heading 4 2" xfId="1899"/>
-    <cellStyle name="Heading 4 3" xfId="1900"/>
-    <cellStyle name="Heading 4 4" xfId="1901"/>
-    <cellStyle name="Heading 4 5" xfId="1902"/>
-    <cellStyle name="HEADING1" xfId="669"/>
-    <cellStyle name="HEADING2" xfId="670"/>
-    <cellStyle name="headline01" xfId="671"/>
-    <cellStyle name="headoption" xfId="672"/>
-    <cellStyle name="headoption 2" xfId="1903"/>
-    <cellStyle name="Hidden" xfId="673"/>
-    <cellStyle name="Hipervínculo 2" xfId="674"/>
-    <cellStyle name="HSBC Percent" xfId="675"/>
-    <cellStyle name="HSBC Percent 2" xfId="2568"/>
-    <cellStyle name="HSBC Ratio" xfId="676"/>
-    <cellStyle name="HSBC Ratio 2" xfId="2569"/>
-    <cellStyle name="HSBC_SheetTitle" xfId="1904"/>
-    <cellStyle name="Hyperlink 2" xfId="677"/>
-    <cellStyle name="Hyperlink 2 2" xfId="1905"/>
-    <cellStyle name="Hyperlink 2 2 2" xfId="1906"/>
-    <cellStyle name="Hyperlink 2 2 3" xfId="1907"/>
-    <cellStyle name="Hyperlink 2 2 4" xfId="1908"/>
-    <cellStyle name="Hyperlink 2 3" xfId="1909"/>
-    <cellStyle name="Hyperlink 2 3 2" xfId="1910"/>
-    <cellStyle name="Hyperlink 2 3 3" xfId="1911"/>
-    <cellStyle name="Hyperlink 2 4" xfId="1912"/>
-    <cellStyle name="Hyperlink 2 5" xfId="1913"/>
-    <cellStyle name="Hyperlink 2 6" xfId="1914"/>
-    <cellStyle name="Hyperlink 3" xfId="1915"/>
-    <cellStyle name="Hyperlink 3 2" xfId="1916"/>
-    <cellStyle name="Hyperlink 3 3" xfId="1917"/>
-    <cellStyle name="Hyperlink 4" xfId="1918"/>
-    <cellStyle name="Hyperlink 5" xfId="1919"/>
-    <cellStyle name="Hyperlink 6" xfId="1920"/>
-    <cellStyle name="Hyperlink_CurvasBloombergLatamAsia" xfId="2570"/>
-    <cellStyle name="i phÝ kh¸c_B¶ng 2" xfId="678"/>
-    <cellStyle name="I.3" xfId="679"/>
-    <cellStyle name="I.3 2" xfId="1921"/>
-    <cellStyle name="ï-¾È»ê_BiÓu TB" xfId="680"/>
-    <cellStyle name="importo" xfId="681"/>
-    <cellStyle name="Incorrecto 2" xfId="683"/>
-    <cellStyle name="Incorrecto 3" xfId="684"/>
-    <cellStyle name="Incorrecto 4" xfId="685"/>
-    <cellStyle name="Incorrecto 5" xfId="682"/>
-    <cellStyle name="Input [yellow]" xfId="686"/>
-    <cellStyle name="Input [yellow] 2" xfId="687"/>
-    <cellStyle name="Input [yellow] 2 2" xfId="1923"/>
-    <cellStyle name="Input [yellow] 2 2 2" xfId="2571"/>
-    <cellStyle name="Input [yellow] 2 3" xfId="2572"/>
-    <cellStyle name="Input [yellow] 2 4" xfId="1922"/>
-    <cellStyle name="Input [yellow] 2_BBV" xfId="1924"/>
-    <cellStyle name="Input [yellow] 3" xfId="1925"/>
-    <cellStyle name="Input [yellow]_AjustesPorColat" xfId="688"/>
-    <cellStyle name="input 10" xfId="2573"/>
-    <cellStyle name="input 11" xfId="2574"/>
-    <cellStyle name="input 2" xfId="1926"/>
-    <cellStyle name="input 3" xfId="1927"/>
-    <cellStyle name="Input 4" xfId="1928"/>
-    <cellStyle name="Input 5" xfId="1929"/>
-    <cellStyle name="Input 6" xfId="1930"/>
-    <cellStyle name="Input 7" xfId="1931"/>
-    <cellStyle name="input 8" xfId="1932"/>
-    <cellStyle name="input 9" xfId="1933"/>
-    <cellStyle name="Input%" xfId="689"/>
-    <cellStyle name="Input% 2" xfId="690"/>
-    <cellStyle name="Input% 2 2" xfId="2575"/>
-    <cellStyle name="Input% 3" xfId="2707"/>
-    <cellStyle name="Input% 3 2" xfId="2708"/>
-    <cellStyle name="Input% 4" xfId="2709"/>
-    <cellStyle name="Input% 4 2" xfId="2710"/>
-    <cellStyle name="Input%_AjustesPorColat" xfId="691"/>
-    <cellStyle name="InputDate" xfId="692"/>
-    <cellStyle name="InputDate 2" xfId="693"/>
-    <cellStyle name="InputDate 2 2" xfId="2576"/>
-    <cellStyle name="InputDate 3" xfId="2711"/>
-    <cellStyle name="InputDate 3 2" xfId="2712"/>
-    <cellStyle name="InputDate 4" xfId="2713"/>
-    <cellStyle name="InputDate 4 2" xfId="2714"/>
-    <cellStyle name="InputDate_AjustesPorColat" xfId="694"/>
-    <cellStyle name="InputDecimal" xfId="695"/>
-    <cellStyle name="InputDecimal 2" xfId="696"/>
-    <cellStyle name="InputDecimal 2 2" xfId="2577"/>
-    <cellStyle name="InputDecimal 3" xfId="2715"/>
-    <cellStyle name="InputDecimal 3 2" xfId="2716"/>
-    <cellStyle name="InputDecimal 4" xfId="2717"/>
-    <cellStyle name="InputDecimal 4 2" xfId="2718"/>
-    <cellStyle name="InputDecimal_AjustesPorColat" xfId="697"/>
-    <cellStyle name="InputValue" xfId="698"/>
-    <cellStyle name="InputValue 2" xfId="699"/>
-    <cellStyle name="InputValue 2 2" xfId="2578"/>
-    <cellStyle name="InputValue 3" xfId="2719"/>
-    <cellStyle name="InputValue 3 2" xfId="2720"/>
-    <cellStyle name="InputValue 4" xfId="2721"/>
-    <cellStyle name="InputValue 4 2" xfId="2722"/>
-    <cellStyle name="InputValue_AjustesPorColat" xfId="700"/>
-    <cellStyle name="Insatisfaisant" xfId="2723"/>
-    <cellStyle name="invoice 8_g1" xfId="701"/>
-    <cellStyle name="kh¸c_Bang Chi tieu" xfId="702"/>
-    <cellStyle name="khanh" xfId="703"/>
-    <cellStyle name="KPMG Heading 1" xfId="704"/>
-    <cellStyle name="KPMG Heading 2" xfId="705"/>
-    <cellStyle name="KPMG Heading 3" xfId="706"/>
-    <cellStyle name="KPMG Heading 4" xfId="707"/>
-    <cellStyle name="KPMG Normal" xfId="708"/>
-    <cellStyle name="KPMG Normal Text" xfId="709"/>
-    <cellStyle name="label" xfId="710"/>
-    <cellStyle name="LABEL Normal" xfId="711"/>
-    <cellStyle name="LABEL Note" xfId="712"/>
-    <cellStyle name="LABEL Units" xfId="713"/>
-    <cellStyle name="label_12577900" xfId="714"/>
-    <cellStyle name="Lauren" xfId="715"/>
-    <cellStyle name="Lauren 2" xfId="2579"/>
-    <cellStyle name="Linked Cell 2" xfId="1934"/>
-    <cellStyle name="Linked Cell 3" xfId="1935"/>
-    <cellStyle name="Linked Cell 4" xfId="1936"/>
-    <cellStyle name="Linked Cell 5" xfId="1937"/>
-    <cellStyle name="main_input" xfId="716"/>
-    <cellStyle name="Měna0" xfId="717"/>
-    <cellStyle name="Migliaia (0)_ANPRE" xfId="718"/>
-    <cellStyle name="Millares [0] 2" xfId="719"/>
-    <cellStyle name="Millares [0] 2 2" xfId="2580"/>
-    <cellStyle name="Millares [0] 3" xfId="720"/>
-    <cellStyle name="Millares [0] 3 2" xfId="2581"/>
-    <cellStyle name="Millares 2" xfId="721"/>
-    <cellStyle name="Millares 2 2" xfId="2582"/>
-    <cellStyle name="Millares 3" xfId="722"/>
-    <cellStyle name="Millares 3 2" xfId="2583"/>
-    <cellStyle name="Millares 4" xfId="723"/>
-    <cellStyle name="Millares 4 2" xfId="2584"/>
-    <cellStyle name="Millares 5" xfId="724"/>
-    <cellStyle name="Millares 5 2" xfId="2585"/>
-    <cellStyle name="Millares 6" xfId="725"/>
-    <cellStyle name="Millares 6 2" xfId="2586"/>
-    <cellStyle name="Millares 7" xfId="726"/>
-    <cellStyle name="Millares 8" xfId="2759"/>
-    <cellStyle name="Milliers [0]_Basis" xfId="727"/>
-    <cellStyle name="Milliers_Basis" xfId="728"/>
-    <cellStyle name="misure" xfId="729"/>
-    <cellStyle name="misure 2" xfId="2587"/>
-    <cellStyle name="misure totali" xfId="730"/>
-    <cellStyle name="Model" xfId="731"/>
-    <cellStyle name="Modifiable" xfId="732"/>
-    <cellStyle name="Modifiable 2" xfId="1938"/>
-    <cellStyle name="moi" xfId="733"/>
-    <cellStyle name="moi 2" xfId="1940"/>
-    <cellStyle name="moi 2 2" xfId="2588"/>
-    <cellStyle name="moi 3" xfId="2589"/>
-    <cellStyle name="moi 4" xfId="1939"/>
-    <cellStyle name="Moneda 2" xfId="734"/>
-    <cellStyle name="Moneda 2 2" xfId="1941"/>
-    <cellStyle name="Monétaire [0]_Basis" xfId="735"/>
-    <cellStyle name="Monétaire_Basis" xfId="736"/>
-    <cellStyle name="n" xfId="737"/>
-    <cellStyle name="n 2" xfId="1942"/>
-    <cellStyle name="n_AjustesPorColat" xfId="738"/>
-    <cellStyle name="n_FXDefinition" xfId="739"/>
-    <cellStyle name="Neutral 2" xfId="741"/>
-    <cellStyle name="Neutral 3" xfId="740"/>
-    <cellStyle name="Neutral 3 2" xfId="1943"/>
-    <cellStyle name="Neutral 4" xfId="1944"/>
-    <cellStyle name="Neutral 5" xfId="1945"/>
-    <cellStyle name="Neutre" xfId="2724"/>
-    <cellStyle name="New Times Roman" xfId="742"/>
-    <cellStyle name="Next holiday" xfId="743"/>
-    <cellStyle name="No Border" xfId="744"/>
-    <cellStyle name="no dec" xfId="745"/>
-    <cellStyle name="No-definido" xfId="746"/>
-    <cellStyle name="No-definido 2" xfId="747"/>
-    <cellStyle name="No-definido 2 2" xfId="1946"/>
-    <cellStyle name="No-definido 2 3" xfId="1947"/>
-    <cellStyle name="No-definido 2 4" xfId="1948"/>
-    <cellStyle name="No-definido 2_BBV" xfId="1949"/>
-    <cellStyle name="No-definido 3" xfId="1950"/>
-    <cellStyle name="No-definido 3 2" xfId="1951"/>
-    <cellStyle name="No-definido 4" xfId="2725"/>
-    <cellStyle name="No-definido 4 2" xfId="2726"/>
-    <cellStyle name="No-definido 5" xfId="2727"/>
-    <cellStyle name="No-definido_AjustesPorColat" xfId="748"/>
+    <cellStyle name=" 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name=" 1 2" xfId="1845" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name=" 1 2 2" xfId="1846" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name=" 1 2 3" xfId="2380" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name=" 1 3" xfId="1847" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name=" 1 4" xfId="1848" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name=" 1 5" xfId="1849" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name=" 1 6" xfId="2381" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name=" 1 7" xfId="1844" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="_x000a_386grabber=M" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="_x000a_bidires=100_x000d_" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="_x000a_bidires=100_x000d_ 2" xfId="2382" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="&quot;Percent&quot;" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="&quot;Percent&quot; 2" xfId="2383" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="# ###,#" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="# ###,# 2" xfId="2384" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="%" xfId="7" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="% 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="% 2 2" xfId="1840" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="% 2 3" xfId="1839" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="% 2 4" xfId="1838" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="% 2 5" xfId="1841" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="% 3" xfId="1837" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="% 3 2" xfId="1836" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="% 3 3" xfId="1835" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="% 3 4" xfId="1834" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="% 4" xfId="1833" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="%_AjustesPorColat" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="%_BBGData" xfId="10" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="%_BBGData 2" xfId="2385" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="%_BBGData_USD eoniaBasis" xfId="11" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="%_BBGData_USD eoniaBasis 2" xfId="2386" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="%_BBV" xfId="1832" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="%_BRL_USD_BASIS" xfId="12" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="%_BRL_USD_BASIS 2" xfId="1831" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="%_CLP" xfId="13" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="%_CLP 2" xfId="2387" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="%_CLP_USD_BASIS" xfId="14" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="%_CLP_USD_BASIS 2" xfId="1830" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="%_COP" xfId="15" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="%_COP 2" xfId="2388" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="%_COP_USD_BASIS" xfId="16" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="%_COP_USD_BASIS 2" xfId="1829" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="%_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN" xfId="17" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="%_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN 2" xfId="1828" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="%_curvas" xfId="1827" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="%_Curves" xfId="18" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="%_Curves 2" xfId="1826" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="%_Curves_BBG" xfId="19" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="%_Curves_BBG 2" xfId="2389" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="%_DataforMurex" xfId="20" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="%_DataforMurex 2" xfId="2390" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="%_Ejercicio" xfId="21" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="%_Ejercicio 2" xfId="2391" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="%_FXDefinition" xfId="22" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="%_FXDefinition 2" xfId="2392" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="%_MktData" xfId="23" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="%_MktData 2" xfId="2393" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="%_MXNStd" xfId="24" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="%_MXNStd 2" xfId="1825" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="%_NuevaCalculadoraCurvas" xfId="25" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="%_NuevaCalculadoraCurvas 2" xfId="1824" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="%_NuevaCalculadoraCurvas_2" xfId="26" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="%_NuevaCalculadoraCurvas_2 2" xfId="1823" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="%_PEN_USD_BASIS" xfId="27" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="%_PEN_USD_BASIS 2" xfId="1822" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="%_REALTIME_EURUSD" xfId="28" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="%_REALTIME_EURUSD 2" xfId="2394" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="%_TIIE" xfId="29" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="%_TIIE 2" xfId="2395" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="%_TIIE USDBasis" xfId="30" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="%_TIIE USDBasis 2" xfId="1821" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="%_USD" xfId="31" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="%_USD 2" xfId="2396" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="%_USD eoniaBasis" xfId="32" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="%_USD eoniaBasis 2" xfId="2397" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="%_USD_1" xfId="33" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="%_USD_1 2" xfId="1820" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="%_USD_6M" xfId="34" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="%_USD_6M 2" xfId="1819" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="%_USD3M" xfId="35" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="%_USD3M 2" xfId="1818" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="%_VOLINT" xfId="1817" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="%_ZLARGO" xfId="1816" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="??" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="?? [0.00]_ Att. 1- Cover" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="?? [0]" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="??&amp;O?&amp;H?_x0008__x000f__x0007_?_x0007__x0001__x0001_" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="??&amp;O?&amp;H?_x0008_??_x0007__x0001__x0001_" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="?_x001d_??%U©÷u&amp;H©÷9_x0008_?_x0009_s_x000a__x0007__x0001__x0001_" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="?_x001d_??%U©÷u&amp;H©÷9_x0008_?_x0009_s_x000a__x0007__x0001__x0001_ 2" xfId="1815" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="???? [0.00]_PRODUCT DETAIL Q1" xfId="42" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="????_PRODUCT DETAIL Q1" xfId="43" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="???[0]_?? DI" xfId="44" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="???_?? DI" xfId="45" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="??[0]_BRE" xfId="46" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="??_ Att. 1- Cover" xfId="47" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="??A? [0]_ÿÿÿÿÿÿ_1_¢¬???¢â? " xfId="48" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="??A?_ÿÿÿÿÿÿ_1_¢¬???¢â? " xfId="49" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="?¡±¢¥?_?¨ù??¢´¢¥_¢¬???¢â? " xfId="50" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="?ðÇ%U?&amp;H?_x0008_?s_x000a__x0007__x0001__x0001_" xfId="51" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="?ðÇ%U?&amp;H?_x0008_?s_x000a__x0007__x0001__x0001_ 2" xfId="1814" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="?W?_laroux" xfId="52" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="[0]_Chi phÝ kh¸c_V" xfId="53" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="_050513 SPC cost model rev 13" xfId="54" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="_110920 - 18m Gold KO Call" xfId="55" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="_110920 - 18m Gold KO Call 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="_110920 - 18m Gold KO Call 2 2" xfId="2398" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="_110920 - 18m Gold KO Call 3" xfId="57" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="_110920 - 18m Gold KO Call 3 2" xfId="2399" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="_110920 - 18m Gold KO Call 4" xfId="2400" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="_20080930 PayMech_1" xfId="58" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="_20080930 PayMech_1 2" xfId="2401" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="_201006  NI Roads Cost Model BAFO 05d srnb RBC" xfId="59" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="_201006  NI Roads Cost Model BAFO 05d srnb RBC 2" xfId="2402" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="_3월 개설과정리스트_수주과정 제외" xfId="60" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="_Aluminio" xfId="61" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="_Aluminio 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="_Aluminio 2 2" xfId="2403" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="_Aluminio 3" xfId="63" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="_Aluminio 3 2" xfId="2404" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="_Aluminio 4" xfId="2405" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="_Asset Definitions" xfId="64" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="_Asset Definitions 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="_Asset Definitions 2 2" xfId="2406" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="_Asset Definitions 3" xfId="66" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="_Asset Definitions 3 2" xfId="2407" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="_Asset Definitions 4" xfId="2408" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="_Bang Chi tieu (2)" xfId="67" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="_Book1" xfId="68" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="_Book1 2" xfId="1813" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="_Book1_1" xfId="69" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="_Book1_1 2" xfId="1812" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="_Book1_1_BBGData" xfId="70" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="_Book1_1_BBGData 2" xfId="1811" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="_Book1_1_CLP" xfId="71" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="_Book1_1_CLP 2" xfId="1810" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="_Book1_1_COP" xfId="72" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="_Book1_1_COP 2" xfId="1809" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="_Book1_1_CRD Blotter" xfId="73" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="_Book1_1_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN" xfId="74" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="_Book1_1_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN 2" xfId="1808" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="_Book1_1_Curves" xfId="75" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="_Book1_1_Curves 2" xfId="1807" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="_Book1_1_Curves_BBG" xfId="76" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="_Book1_1_Curves_BBG 2" xfId="1806" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="_Book1_1_Ejercicio" xfId="77" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="_Book1_1_MktData" xfId="78" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="_Book1_1_MktData 2" xfId="1805" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="_Book1_1_NuevaCalculadoraCurvas" xfId="79" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="_Book1_1_NuevaCalculadoraCurvas 2" xfId="1804" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="_Book1_1_NuevaCalculadoraCurvas_2" xfId="80" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="_Book1_1_NuevaCalculadoraCurvas_2 2" xfId="1803" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="_Book1_1_TIIE" xfId="81" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="_Book1_1_TIIE 2" xfId="1802" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="_Book1_1_USD" xfId="82" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="_Book1_1_USD 2" xfId="1801" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="_Book1_BBGData" xfId="83" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="_Book1_BBGData 2" xfId="1800" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="_Book1_CLP" xfId="84" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="_Book1_CLP 2" xfId="1799" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="_Book1_COP" xfId="85" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="_Book1_COP 2" xfId="1798" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="_Book1_CRD Blotter" xfId="86" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="_Book1_CRD Blotter 2" xfId="2409" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="_Book1_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN" xfId="87" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="_Book1_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN 2" xfId="1797" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="_Book1_Curves" xfId="88" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="_Book1_Curves 2" xfId="1796" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="_Book1_Curves_BBG" xfId="89" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="_Book1_Curves_BBG 2" xfId="1795" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="_Book1_Ejercicio" xfId="90" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="_Book1_Ejercicio 2" xfId="2410" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="_Book1_MktData" xfId="91" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="_Book1_MktData 2" xfId="1794" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="_Book1_NuevaCalculadoraCurvas" xfId="92" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="_Book1_NuevaCalculadoraCurvas 2" xfId="1793" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="_Book1_NuevaCalculadoraCurvas_2" xfId="93" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="_Book1_NuevaCalculadoraCurvas_2 2" xfId="1792" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="_Book1_TIIE" xfId="94" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="_Book1_TIIE 2" xfId="1791" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="_Book1_USD" xfId="95" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="_Book1_USD 2" xfId="1790" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="_Book16" xfId="96" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="_Book17" xfId="97" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="_Book2" xfId="98" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="_Book2 2" xfId="1789" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="_Book2_BBGData" xfId="99" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="_Book2_BBGData 2" xfId="1788" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="_Book2_CLP" xfId="100" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="_Book2_CLP 2" xfId="1787" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="_Book2_COP" xfId="101" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="_Book2_COP 2" xfId="1786" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="_Book2_CRD Blotter" xfId="102" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="_Book2_CRD Blotter 2" xfId="2411" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="_Book2_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN" xfId="103" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="_Book2_Cuadre Curvas Murex3 - USD,GBP,EUR,PEN 2" xfId="1785" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="_Book2_Curves" xfId="104" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="_Book2_Curves 2" xfId="1784" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="_Book2_Curves_BBG" xfId="105" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="_Book2_Curves_BBG 2" xfId="1783" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="_Book2_Ejercicio" xfId="106" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="_Book2_Ejercicio 2" xfId="2412" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="_Book2_MktData" xfId="107" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="_Book2_MktData 2" xfId="1782" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="_Book2_NuevaCalculadoraCurvas" xfId="108" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="_Book2_NuevaCalculadoraCurvas 2" xfId="1781" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="_Book2_NuevaCalculadoraCurvas_2" xfId="109" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="_Book2_NuevaCalculadoraCurvas_2 2" xfId="1780" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="_Book2_TIIE" xfId="110" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="_Book2_TIIE 2" xfId="1779" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="_Book2_USD" xfId="111" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="_Book2_USD 2" xfId="1778" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="_Brent" xfId="112" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="_Brent 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="_Brent 2 2" xfId="2413" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="_Brent 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="_Brent 3 2" xfId="2414" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="_Brent 4" xfId="2415" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="_CFeonia" xfId="1777" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="_CFeonia 2" xfId="1776" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="_CJ_김유지" xfId="115" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="_Cobre" xfId="116" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="_Cobre 2" xfId="117" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="_Cobre 2 2" xfId="2416" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="_Cobre 3" xfId="118" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="_Cobre 3 2" xfId="2417" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="_Cobre 4" xfId="2418" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="_Cobre_1" xfId="119" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="_Colombian Season" xfId="2419" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="_ComIndexDay" xfId="120" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="_ComIndexDay 2" xfId="121" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="_ComIndexDay 2 2" xfId="2420" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="_ComIndexDay 3" xfId="122" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="_ComIndexDay 3 2" xfId="2421" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="_ComIndexDay 4" xfId="2422" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="_Copy of Bid_FM_1905_ÖHtmodell für fin sect &amp; ass book" xfId="123" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="_Copy of Bid_FM_1905_ÖHtmodell für fin sect &amp; ass book 2" xfId="2423" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="_CurvasCVA" xfId="124" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="_CurvasCVA 2" xfId="2424" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="_Curves_Info" xfId="125" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="_Curves_Info 2" xfId="2425" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="_Data" xfId="126" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="_Data 2" xfId="2426" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="_data_CurvasCVA" xfId="127" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="_data_Curves_Info" xfId="128" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="_Data_IRCURVE" xfId="129" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="_Data_IRCURVE 2" xfId="2427" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="_ECall_KO130_GC1_1y_BPI" xfId="130" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="_ECall_KO130_GC1_1y_BPI 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="_ECall_KO130_GC1_1y_BPI 2 2" xfId="2428" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="_ECall_KO130_GC1_1y_BPI 3" xfId="132" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="_ECall_KO130_GC1_1y_BPI 3 2" xfId="2429" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="_ECall_KO130_GC1_1y_BPI 4" xfId="2430" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="_Edinburgh Schools Project FM Inputs 160305" xfId="133" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="_Edinburgh Schools Project FM Inputs 160305 2" xfId="2431" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="_EdiSch FM Cost Model BBCPL Template ITN v2 2" xfId="134" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="_EdiSch FM Cost Model BBCPL Template ITN v3.3" xfId="135" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="_EdiSch FM Pro Formae ITN v4.2 MV1 incl Tynecastle_sg" xfId="136" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="_EdiSch FM Pro Formae ITN v4.2 STD_sg" xfId="137" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="_EUR6M" xfId="1775" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="_Fin" xfId="138" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="_Fin 2" xfId="2432" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="_Fixings" xfId="139" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="_Fixings 2" xfId="140" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="_Fixings 2 2" xfId="2433" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="_Fixings 3" xfId="141" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="_Fixings 3 2" xfId="2434" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="_Fixings 4" xfId="2435" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="_FM 20080916_v1" xfId="142" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="_FM 20080916_v1 2" xfId="2436" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="_FM_20080514_v1_MRA freez" xfId="143" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="_FM_20080514_v1_MRA freez 2" xfId="2437" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="_Formblätter" xfId="144" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="_Formblätter 2" xfId="2438" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="_FwdAccumulatorTargetgold" xfId="145" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="_FwdAccumulatorTargetgold 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="_FwdAccumulatorTargetgold 2 2" xfId="2439" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="_FwdAccumulatorTargetgold 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="_FwdAccumulatorTargetgold 3 2" xfId="2440" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="_FwdAccumulatorTargetgold 4" xfId="2441" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="_FX" xfId="148" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="_FX 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="_FX 2 2" xfId="2442" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="_FX 3" xfId="150" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="_FX 3 2" xfId="2443" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="_FX 4" xfId="2444" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="_Gas" xfId="151" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="_Gas 2" xfId="152" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="_Gas 2 2" xfId="2445" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="_Gas 3" xfId="153" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="_Gas 3 2" xfId="2446" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="_Gas 4" xfId="2447" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="_GENERICO" xfId="154" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="_GENERICO 2" xfId="2448" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="_GENERICO_AMCo DB" xfId="155" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="_GENERICO_AMCo DB 2" xfId="2449" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="_GENERICO_FoHF DB" xfId="156" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="_GENERICO_FoHF DB 2" xfId="2450" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="_GO" xfId="157" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="_GO 2" xfId="158" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="_GO 2 2" xfId="2451" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="_GO 3" xfId="159" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="_GO 3 2" xfId="2452" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="_GO 4" xfId="2453" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="_Int. Rates" xfId="160" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="_Int. Rates 2" xfId="161" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="_Int. Rates 2 2" xfId="2454" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="_Int. Rates 3" xfId="162" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="_Int. Rates 3 2" xfId="2455" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="_Int. Rates 4" xfId="2456" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="_IRCURVE" xfId="163" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="_IRCURVE 2" xfId="2457" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="_Jump Correlations" xfId="164" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="_Jump Correlations 2" xfId="165" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="_Jump Correlations 2 2" xfId="2458" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="_Jump Correlations 3" xfId="166" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="_Jump Correlations 3 2" xfId="2459" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="_Jump Correlations 4" xfId="2460" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="_Jump Definitions" xfId="167" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="_Jump Definitions 2" xfId="168" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="_Jump Definitions 2 2" xfId="2461" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="_Jump Definitions 3" xfId="169" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="_Jump Definitions 3 2" xfId="2462" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="_Jump Definitions 4" xfId="2463" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="_Kappa" xfId="2645" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="_LGMBermudanSwaption" xfId="2646" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="_LGMConfig" xfId="2647" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="_Listas" xfId="170" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="_Listas_AMCo DB" xfId="171" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="_Listas_AMCo DB 2" xfId="2464" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="_Listas_FoHF DB" xfId="172" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="_Listas_FoHF DB 2" xfId="2465" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="_M6ms_Tolna Consortium_Final Financial Model_FC_160708_sponsors" xfId="173" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="_M6ms_Tolna Consortium_Final Financial Model_FC_160708_sponsors 2" xfId="2466" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="_M6ms_Tolna Consortium_Final Financial Model_Refi_310708_AF Schedules" xfId="174" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="_M6ms_Tolna Consortium_Final Financial Model_Refi_310708_AF Schedules 2" xfId="2467" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="_MultiWindow_Asian_Gold" xfId="175" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="_MultiWindow_Asian_Gold 2" xfId="176" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="_MultiWindow_Asian_Gold 2 2" xfId="2468" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="_MultiWindow_Asian_Gold 3" xfId="177" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="_MultiWindow_Asian_Gold 3 2" xfId="2469" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="_MultiWindow_Asian_Gold 4" xfId="2470" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="_Oldham Proforma_LM" xfId="178" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="_Product Definition" xfId="179" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="_Product Definition 2" xfId="2471" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="_REALTIME_USDARS" xfId="180" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="_REALTIME_USDARS 2" xfId="2472" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="_REALTIME_USDCLF" xfId="181" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="_REALTIME_USDCLF 2" xfId="2473" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="_REALTIME_USDCLP" xfId="182" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="_REALTIME_USDCLP 2" xfId="2474" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="_REALTIME_USDCOP" xfId="183" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="_REALTIME_USDCOP 2" xfId="2475" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="_REALTIME_USDMXN" xfId="184" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="_REALTIME_USDMXN 2" xfId="2476" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="_REALTIME_USDPEN" xfId="185" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="_REALTIME_USDPEN 2" xfId="2477" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="_RES" xfId="186" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="_RES 2" xfId="2478" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="_Risk Control Asset Definitions" xfId="187" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="_Risk Control Asset Definitions 2" xfId="188" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="_Risk Control Asset Definitions 2 2" xfId="2479" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="_Risk Control Asset Definitions 3" xfId="189" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="_Risk Control Asset Definitions 3 2" xfId="2480" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="_Risk Control Asset Definitions 4" xfId="2481" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="_SA Lifecycle Inputs" xfId="190" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="_Sheet1" xfId="191" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="_Sheet1 2" xfId="192" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="_Sheet1 2 2" xfId="2482" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="_Sheet1 3" xfId="193" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="_Sheet1 3 2" xfId="2483" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="_Sheet1 4" xfId="2484" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="_Spread Pricer Old" xfId="2648" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="_Stochastic IR Definitions" xfId="194" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="_Stochastic IR Definitions 2" xfId="195" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="_Stochastic IR Definitions 2 2" xfId="2485" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="_Stochastic IR Definitions 3" xfId="196" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="_Stochastic IR Definitions 3 2" xfId="2486" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="_Stochastic IR Definitions 4" xfId="2487" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="_SVI Definitions" xfId="197" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="_SVI Definitions 2" xfId="198" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="_SVI Definitions 2 2" xfId="2488" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="_SVI Definitions 3" xfId="199" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="_SVI Definitions 3 2" xfId="2489" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="_SVI Definitions 4" xfId="2490" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="_USD-CLP" xfId="200" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="_USD-CLP 2" xfId="2491" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="_ValoracionSwaps" xfId="201" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="_ValoracionSwaps 2" xfId="202" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="_ValoracionSwaps 2 2" xfId="2492" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="_ValoracionSwaps 3" xfId="203" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="_ValoracionSwaps 3 2" xfId="2493" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="_ValoracionSwaps 4" xfId="2494" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="~1" xfId="204" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙_x0008_" xfId="205" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙˙_x0008_ 2" xfId="2495" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="’E‰Y [0.00]_laroux" xfId="206" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="’E‰Y_laroux" xfId="207" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="£ BP" xfId="208" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="£ BP 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="£ BP 2 2" xfId="2496" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="£ BP 3" xfId="210" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="£ BP 3 2" xfId="2497" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="£ BP 4" xfId="2498" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="£/mhr" xfId="211" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="£/mhr 2" xfId="2499" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="¥ JY" xfId="212" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="¥ JY 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="¥ JY 2 2" xfId="2500" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="¥ JY 3" xfId="214" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="¥ JY 3 2" xfId="2501" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="¥ JY 4" xfId="2502" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="=C:\WINNT35\SYSTEM32\COMMAND.COM" xfId="215" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="=C:\WINNT35\SYSTEM32\COMMAND.COM 2" xfId="216" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="=C:\WINNT35\SYSTEM32\COMMAND.COM 3" xfId="2503" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="_x000b_À_x000d__x0014__x0016_À_x0018__x001a_À_x001d_" xfId="217" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="_x000b_À_x000d__x0014__x0016_À_x0018__x001a_À_x001d_ 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="_x000b_À_x000d__x0014__x0016_À_x0018__x001a_À_x001d_ 2 2" xfId="1774" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="_x000b_À_x000d__x0014__x0016_À_x0018__x001a_À_x001d_ 3" xfId="1773" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="_x000b_À_x000d__x0014__x0016_À_x0018__x001a_À_x001d__BBGData" xfId="219" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="220" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="1" xfId="221" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="1 10" xfId="1772" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="1 11" xfId="1771" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="1 12" xfId="1770" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="1 13" xfId="1769" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="1 14" xfId="1768" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="1 14 2" xfId="1767" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="1 14 3" xfId="1766" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="1 15" xfId="1765" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="1 15 2" xfId="1764" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="1 15 3" xfId="1763" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="1 16" xfId="1762" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="1 16 2" xfId="1761" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="1 16 2 2" xfId="1760" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="1 17" xfId="1759" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="1 17 2" xfId="1758" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="1 18" xfId="1757" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="1 18 2" xfId="1756" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="1 19" xfId="1755" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="1 19 2" xfId="1754" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="1 2" xfId="222" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="1 2 2" xfId="1753" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="1 2 3" xfId="1752" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="1 20" xfId="1751" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="1 20 2" xfId="1750" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="1 21" xfId="1749" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="1 21 2" xfId="1748" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="1 22" xfId="1747" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="1 23" xfId="1746" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="1 3" xfId="223" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="1 3 2" xfId="1745" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="1 3 3" xfId="1744" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="1 3 3 2" xfId="2649" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="1 3_BBV" xfId="1743" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="1 4" xfId="224" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="1 4 2" xfId="1742" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="1 4 3" xfId="1741" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="1 4_BBV" xfId="1740" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="1 5" xfId="225" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="1 5 2" xfId="1739" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="1 5_BBV" xfId="1738" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="1 6" xfId="1737" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="1 6 2" xfId="1736" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="1 6 3" xfId="1735" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="1 7" xfId="1734" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="1 7 2" xfId="1733" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="1 7 2 2" xfId="1732" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="1 7 2 3" xfId="1731" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="1 7 3" xfId="1730" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="1 8" xfId="1729" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="1 8 2" xfId="1728" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="1 8 2 2" xfId="1727" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="1 9" xfId="1726" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="1 9 2" xfId="1725" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="1_Assets Data" xfId="2650" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="1_BasicSpreadProducts" xfId="2651" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="1_BasicSpreadProducts (1)" xfId="2652" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="1_BasicSpreadProducts (2)" xfId="2653" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="1_CMS_Common" xfId="2654" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="1_Copula_Pricer" xfId="2655" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="1_CopulaDataNormDisplacedUSD" xfId="2656" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="1_DataforMurex" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="1_DataforMurex 2" xfId="2504" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="1_DataFormurex_MxvsCalc_4" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="1_GBP" xfId="1724" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="1_LGMRangeAccrual" xfId="2657" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="1_OneRef Pricer" xfId="2658" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="1_REALTIME_EURUSD" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="1_REALTIME_USDARS" xfId="229" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="1_REALTIME_USDCLF" xfId="230" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="1_REALTIME_USDCLP" xfId="231" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="1_REALTIME_USDCOP" xfId="232" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="1_REALTIME_USDEUR" xfId="233" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="1_REALTIME_USDMXN" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="1_REALTIME_USDPEN" xfId="235" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="1_Spread Pricer" xfId="2659" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="1_Spread Pricer Old" xfId="2660" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="1_Spread Pricer Old_BasicSpreadProducts" xfId="2661" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="1_TripleRangeAccrual" xfId="2662" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="1_TripleRangeAccrual (2)" xfId="2663" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="1_TripleRangeAccrual (3)" xfId="2664" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="1_USD-CLP" xfId="236" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="2" xfId="237" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="20 % - Accent1" xfId="2665" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="20 % - Accent2" xfId="2666" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="20 % - Accent3" xfId="2667" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="20 % - Accent4" xfId="2668" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="20 % - Accent5" xfId="2669" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="20 % - Accent6" xfId="2670" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="20% - Accent1" xfId="238" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="1723" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="1722" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="20% - Accent1 4" xfId="1721" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="20% - Accent1 5" xfId="1720" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="20% - Accent2" xfId="239" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="1719" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="1718" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="20% - Accent2 4" xfId="1717" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="20% - Accent2 5" xfId="1716" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="20% - Accent3" xfId="240" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="1715" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="20% - Accent3 3" xfId="1714" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="20% - Accent3 4" xfId="1713" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="20% - Accent3 5" xfId="1712" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="20% - Accent4" xfId="241" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="1711" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="20% - Accent4 3" xfId="1710" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="20% - Accent4 4" xfId="1709" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="20% - Accent4 5" xfId="1708" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="20% - Accent5" xfId="242" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="1707" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="20% - Accent5 3" xfId="1706" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="20% - Accent5 4" xfId="1705" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="20% - Accent5 5" xfId="1704" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="20% - Accent6" xfId="243" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="1703" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="20% - Accent6 3" xfId="1702" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="20% - Accent6 4" xfId="1701" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="20% - Accent6 5" xfId="1700" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="20% - Akzent1" xfId="244" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="20% - Akzent1 2" xfId="2505" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="20% - Akzent2" xfId="245" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="20% - Akzent2 2" xfId="2506" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="20% - Akzent3" xfId="246" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="20% - Akzent3 2" xfId="2507" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="20% - Akzent4" xfId="247" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="20% - Akzent4 2" xfId="2508" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="20% - Akzent5" xfId="248" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="20% - Akzent5 2" xfId="2509" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="20% - Akzent6" xfId="249" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="20% - Akzent6 2" xfId="2510" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="251" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="20% - Énfasis1 3" xfId="252" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="20% - Énfasis1 4" xfId="253" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="20% - Énfasis1 5" xfId="250" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="255" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="20% - Énfasis2 3" xfId="256" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="20% - Énfasis2 4" xfId="257" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="20% - Énfasis2 5" xfId="254" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="20% - Énfasis3 3" xfId="260" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="20% - Énfasis3 4" xfId="261" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="20% - Énfasis3 5" xfId="258" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="20% - Énfasis4 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="20% - Énfasis4 4" xfId="265" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="20% - Énfasis4 5" xfId="262" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="267" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="20% - Énfasis5 3" xfId="268" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="20% - Énfasis5 4" xfId="269" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="20% - Énfasis5 5" xfId="266" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="271" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="20% - Énfasis6 3" xfId="272" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="20% - Énfasis6 4" xfId="273" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="20% - Énfasis6 5" xfId="270" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="20% - 강조색1" xfId="274" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="20% - 강조색2" xfId="275" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="20% - 강조색3" xfId="276" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="20% - 강조색4" xfId="277" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="20% - 강조색5" xfId="278" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="20% - 강조색6" xfId="279" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="3" xfId="280" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="4" xfId="281" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="40 % - Accent1" xfId="2671" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="40 % - Accent2" xfId="2672" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="40 % - Accent3" xfId="2673" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="40 % - Accent4" xfId="2674" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="40 % - Accent5" xfId="2675" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="40 % - Accent6" xfId="2676" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="40% - Accent1" xfId="282" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="1699" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="1698" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="40% - Accent1 4" xfId="1697" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="40% - Accent1 5" xfId="1696" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="40% - Accent2" xfId="283" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="1695" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="40% - Accent2 3" xfId="1694" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="40% - Accent2 4" xfId="1693" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="40% - Accent2 5" xfId="1692" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="40% - Accent3" xfId="284" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="1691" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="40% - Accent3 3" xfId="1690" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="40% - Accent3 4" xfId="1689" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="40% - Accent3 5" xfId="1688" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="40% - Accent4" xfId="285" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="1687" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="40% - Accent4 3" xfId="1686" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="40% - Accent4 4" xfId="1685" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="40% - Accent4 5" xfId="1684" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="40% - Accent5" xfId="286" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="1683" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="40% - Accent5 3" xfId="1682" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="40% - Accent5 4" xfId="1681" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="40% - Accent5 5" xfId="1680" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="40% - Accent6" xfId="287" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="1679" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="40% - Accent6 3" xfId="1678" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="40% - Accent6 4" xfId="1677" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="40% - Accent6 5" xfId="1676" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="40% - Akzent1" xfId="288" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="40% - Akzent1 2" xfId="2511" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="40% - Akzent2" xfId="289" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="40% - Akzent2 2" xfId="2512" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="40% - Akzent3" xfId="290" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="40% - Akzent3 2" xfId="2513" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="40% - Akzent4" xfId="291" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="40% - Akzent4 2" xfId="2514" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="40% - Akzent5" xfId="292" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="40% - Akzent5 2" xfId="2515" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="40% - Akzent6" xfId="293" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="40% - Akzent6 2" xfId="2516" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="40% - Énfasis1 3" xfId="296" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="40% - Énfasis1 4" xfId="297" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="40% - Énfasis1 5" xfId="294" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="40% - Énfasis2 3" xfId="300" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="40% - Énfasis2 4" xfId="301" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="40% - Énfasis2 5" xfId="298" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="303" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="40% - Énfasis3 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="40% - Énfasis3 4" xfId="305" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="40% - Énfasis3 5" xfId="302" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="40% - Énfasis4 3" xfId="308" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="40% - Énfasis4 4" xfId="309" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="40% - Énfasis4 5" xfId="306" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="40% - Énfasis5 3" xfId="312" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="40% - Énfasis5 4" xfId="313" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="40% - Énfasis5 5" xfId="310" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="315" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="40% - Énfasis6 3" xfId="316" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="40% - Énfasis6 4" xfId="317" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="40% - Énfasis6 5" xfId="314" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="40% - 강조색1" xfId="318" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="40% - 강조색2" xfId="319" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="40% - 강조색3" xfId="320" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="40% - 강조색4" xfId="321" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="40% - 강조색5" xfId="322" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="40% - 강조색6" xfId="323" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="60 % - Accent1" xfId="2677" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="60 % - Accent2" xfId="2678" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="60 % - Accent3" xfId="2679" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="60 % - Accent4" xfId="2680" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="60 % - Accent5" xfId="2681" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="60 % - Accent6" xfId="2682" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="60% - Accent1" xfId="324" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="1675" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
+    <cellStyle name="60% - Accent1 3" xfId="1674" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="60% - Accent1 4" xfId="1673" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="60% - Accent1 5" xfId="1672" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="60% - Accent2" xfId="325" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="1671" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="60% - Accent2 3" xfId="1670" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="60% - Accent2 4" xfId="1669" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="60% - Accent2 5" xfId="1668" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
+    <cellStyle name="60% - Accent3" xfId="326" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="1667" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="60% - Accent3 3" xfId="1666" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="60% - Accent3 4" xfId="1665" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="60% - Accent3 5" xfId="1664" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="60% - Accent4" xfId="327" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="1663" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="60% - Accent4 3" xfId="1662" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
+    <cellStyle name="60% - Accent4 4" xfId="1661" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="60% - Accent4 5" xfId="1660" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="60% - Accent5" xfId="328" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="1659" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="60% - Accent5 3" xfId="1658" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="60% - Accent5 4" xfId="1657" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
+    <cellStyle name="60% - Accent5 5" xfId="1656" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="60% - Accent6" xfId="329" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="1655" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="60% - Accent6 3" xfId="1654" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="60% - Accent6 4" xfId="1653" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="60% - Accent6 5" xfId="1652" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
+    <cellStyle name="60% - Akzent1" xfId="330" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="60% - Akzent2" xfId="331" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="60% - Akzent3" xfId="332" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="60% - Akzent4" xfId="333" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="60% - Akzent5" xfId="334" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="60% - Akzent6" xfId="335" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="337" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="60% - Énfasis1 3" xfId="338" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="60% - Énfasis1 4" xfId="339" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="60% - Énfasis1 5" xfId="336" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="341" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="60% - Énfasis2 3" xfId="342" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="60% - Énfasis2 4" xfId="343" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="60% - Énfasis2 5" xfId="340" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="345" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="60% - Énfasis3 3" xfId="346" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="60% - Énfasis3 4" xfId="347" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="60% - Énfasis3 5" xfId="344" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="349" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="60% - Énfasis4 3" xfId="350" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="60% - Énfasis4 4" xfId="351" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="60% - Énfasis4 5" xfId="348" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="353" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="60% - Énfasis5 3" xfId="354" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="60% - Énfasis5 4" xfId="355" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="60% - Énfasis5 5" xfId="352" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="357" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="60% - Énfasis6 3" xfId="358" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
+    <cellStyle name="60% - Énfasis6 4" xfId="359" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="60% - Énfasis6 5" xfId="356" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
+    <cellStyle name="60% - 강조색1" xfId="360" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
+    <cellStyle name="60% - 강조색2" xfId="361" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="60% - 강조색3" xfId="362" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
+    <cellStyle name="60% - 강조색4" xfId="363" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="60% - 강조색5" xfId="364" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
+    <cellStyle name="60% - 강조색6" xfId="365" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
+    <cellStyle name="aaa" xfId="366" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
+    <cellStyle name="Accent1" xfId="367" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="Accent1 2" xfId="1651" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
+    <cellStyle name="Accent1 3" xfId="1650" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
+    <cellStyle name="Accent1 4" xfId="1649" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="Accent1 5" xfId="1648" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
+    <cellStyle name="Accent2" xfId="368" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="Accent2 2" xfId="1647" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
+    <cellStyle name="Accent2 3" xfId="1646" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
+    <cellStyle name="Accent2 4" xfId="1645" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
+    <cellStyle name="Accent2 5" xfId="1644" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="Accent3" xfId="369" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
+    <cellStyle name="Accent3 2" xfId="1643" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
+    <cellStyle name="Accent3 3" xfId="1642" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="Accent3 4" xfId="1641" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
+    <cellStyle name="Accent3 5" xfId="1640" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="Accent4" xfId="370" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
+    <cellStyle name="Accent4 2" xfId="1639" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
+    <cellStyle name="Accent4 3" xfId="1638" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
+    <cellStyle name="Accent4 4" xfId="1637" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="Accent4 5" xfId="1636" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
+    <cellStyle name="Accent5" xfId="371" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
+    <cellStyle name="Accent5 2" xfId="1635" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
+    <cellStyle name="Accent5 3" xfId="1634" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
+    <cellStyle name="Accent5 4" xfId="1633" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="Accent5 5" xfId="1632" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
+    <cellStyle name="Accent6" xfId="372" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
+    <cellStyle name="Accent6 2" xfId="1631" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
+    <cellStyle name="Accent6 3" xfId="1630" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
+    <cellStyle name="Accent6 4" xfId="1629" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
+    <cellStyle name="Accent6 5" xfId="1628" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
+    <cellStyle name="ÅëÈ­ [0]_      " xfId="373" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
+    <cellStyle name="AeE­ [0]_INQUIRY ¿?¾÷AßAø " xfId="374" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
+    <cellStyle name="ÅëÈ­ [0]_laroux" xfId="375" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
+    <cellStyle name="AeE­ [0]_PERSONAL" xfId="376" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
+    <cellStyle name="ÅëÈ­_      " xfId="377" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
+    <cellStyle name="AeE­_INQUIRY ¿?¾÷AßAø " xfId="378" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
+    <cellStyle name="ÅëÈ­_laroux" xfId="379" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
+    <cellStyle name="AeE­_PERSONAL" xfId="380" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
+    <cellStyle name="Akzent1" xfId="381" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
+    <cellStyle name="Akzent2" xfId="382" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
+    <cellStyle name="Akzent3" xfId="383" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
+    <cellStyle name="Akzent4" xfId="384" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
+    <cellStyle name="Akzent5" xfId="385" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
+    <cellStyle name="Akzent6" xfId="386" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
+    <cellStyle name="ALIGNMENT" xfId="387" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
+    <cellStyle name="ALIGNMENT 2" xfId="1627" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
+    <cellStyle name="articolo" xfId="388" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
+    <cellStyle name="ÄÞ¸¶ [0]_      " xfId="389" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
+    <cellStyle name="AÞ¸¶ [0]_INQUIRY ¿?¾÷AßAø " xfId="390" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
+    <cellStyle name="ÄÞ¸¶ [0]_laroux" xfId="391" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
+    <cellStyle name="ÄÞ¸¶_      " xfId="392" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
+    <cellStyle name="AÞ¸¶_INQUIRY ¿?¾÷AßAø " xfId="393" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
+    <cellStyle name="ÄÞ¸¶_laroux" xfId="394" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="aum" xfId="395" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
+    <cellStyle name="aum 2" xfId="2517" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Ausgabe" xfId="396" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
+    <cellStyle name="Auto_OpenAuto_CloseExtractD" xfId="397" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
+    <cellStyle name="Availability" xfId="398" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
+    <cellStyle name="Avertissement" xfId="2683" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
+    <cellStyle name="background" xfId="399" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="background 2" xfId="400" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
+    <cellStyle name="background 2 2" xfId="1626" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
+    <cellStyle name="background 2 3" xfId="1625" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
+    <cellStyle name="background 2 4" xfId="1624" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="background 2_BBV" xfId="1623" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
+    <cellStyle name="background 3" xfId="1622" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="background 3 2" xfId="2684" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
+    <cellStyle name="background 4" xfId="2685" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
+    <cellStyle name="background 4 2" xfId="2686" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="background_12577900" xfId="401" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
+    <cellStyle name="Bad" xfId="402" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Bad 2" xfId="1621" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
+    <cellStyle name="Bad 3" xfId="1620" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Bad 4" xfId="1619" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="Bad 5" xfId="1618" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="banner" xfId="403" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Berechnung" xfId="404" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="Body" xfId="1617" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="Body 2" xfId="1616" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="Body 2 2" xfId="1615" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Body 2_BBV" xfId="1614" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="Body 3" xfId="1613" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="Body 4" xfId="1612" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Body 4 2" xfId="1611" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="Body 4 2 2" xfId="1610" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Body 5" xfId="1609" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="Body 5 2" xfId="1608" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="body01" xfId="405" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="body02" xfId="406" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Bold/Border" xfId="407" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="Bottom bold border" xfId="408" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Bottom single border" xfId="409" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="BPC %" xfId="410" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="BPC % 2" xfId="2518" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="BPC abs" xfId="411" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
+    <cellStyle name="BPC abs 2" xfId="2519" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="BPC Input %" xfId="412" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
+    <cellStyle name="BPC Input abs" xfId="413" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Brackets 0" xfId="414" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
+    <cellStyle name="Brackets 0 2" xfId="2520" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="Brackets T's 1" xfId="415" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="brakcomma" xfId="416" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="brakcomma 2" xfId="2521" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Buena 2" xfId="417" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="Buena 3" xfId="418" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="Bullet" xfId="419" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="Bullet 2" xfId="420" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Bullet 2 2" xfId="2522" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="Bullet 3" xfId="421" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="Bullet 3 2" xfId="2523" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Bullet 4" xfId="2524" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="C?AØ_¿?¾÷CoE² " xfId="422" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Ç¥ÁØ_      " xfId="423" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="C￥AØ_¿μ¾÷CoE² " xfId="424" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="Ç¥ÁØ_laroux" xfId="425" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="calc" xfId="426" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="CALC Amount" xfId="427" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="CALC Amount [1]" xfId="428" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="CALC Amount [2]" xfId="429" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="CALC Amount Total" xfId="430" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="CALC Amount Total [1]" xfId="431" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="CALC Amount Total [2]" xfId="432" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="CALC Currency" xfId="433" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="434" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="CALC Currency [1]" xfId="435" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="CALC Currency [2]" xfId="436" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="CALC Currency Total" xfId="437" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="CALC Currency Total [1]" xfId="438" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="CALC Currency Total [2]" xfId="439" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="CALC Date Long" xfId="440" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="CALC Date Short" xfId="441" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="CALC Percent" xfId="442" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
+    <cellStyle name="CALC Percent [1]" xfId="443" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="CALC Percent [2]" xfId="444" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="CALC Percent Total" xfId="445" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="CALC Percent Total [1]" xfId="446" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="CALC Percent Total [2]" xfId="447" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Calcul" xfId="2687" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="calculated" xfId="448" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Calculation" xfId="449" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="Calculation 2" xfId="1607" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="Calculation 3" xfId="1606" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="Calculation 4" xfId="1605" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Calculation 5" xfId="1604" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="Cálculo 2" xfId="451" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="Cálculo 3" xfId="452" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Cálculo 4" xfId="453" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="Cálculo 5" xfId="450" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Cambiar to&amp;do" xfId="454" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="Cambiar to&amp;do 2" xfId="455" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="Cambiar to&amp;do 2 2" xfId="1603" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Cambiar to&amp;do 3" xfId="2688" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Cambiar to&amp;do 3 2" xfId="2689" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="Cambiar to&amp;do 4" xfId="2690" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="Cambiar to&amp;do 4 2" xfId="2691" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Cambiar to&amp;do_AjustesPorColat" xfId="456" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="category" xfId="457" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Celda de comprobación 2" xfId="458" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="Celda de comprobación 3" xfId="459" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="Celda vinculada 2" xfId="460" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="Celda vinculada 3" xfId="461" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Celkem" xfId="462" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="Cellule liée" xfId="2692" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="Check Cell 2" xfId="1602" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Check Cell 3" xfId="1601" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="Check Cell 4" xfId="1600" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Check Cell 5" xfId="1599" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="Chi phÝ kh¸c_Book1" xfId="463" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Comma  - Style1" xfId="464" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Comma  - Style2" xfId="465" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Comma  - Style3" xfId="466" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Comma  - Style4" xfId="467" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Comma  - Style5" xfId="468" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Comma  - Style6" xfId="469" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Comma  - Style7" xfId="470" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Comma  - Style8" xfId="471" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Comma [0] 2" xfId="472" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Comma [0] 2 2" xfId="1597" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Comma [0] 2 3" xfId="1598" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Comma 10" xfId="1596" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
+    <cellStyle name="Comma 10 2" xfId="1595" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
+    <cellStyle name="Comma 10 2 2" xfId="1594" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Comma 10 2 3" xfId="1593" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="Comma 10 2 4" xfId="1592" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Comma 10 3" xfId="1591" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="Comma 10 3 2" xfId="1590" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="Comma 10 3 2 2" xfId="1589" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="Comma 10 3 2 3" xfId="1588" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Comma 10 3 3" xfId="1587" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="Comma 10 3 4" xfId="1586" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="Comma 10 4" xfId="1585" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Comma 10 5" xfId="1584" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="Comma 10 6" xfId="1583" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Comma 11" xfId="1582" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="Comma 11 2" xfId="1581" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="Comma 11 2 2" xfId="1580" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="Comma 11 2 3" xfId="1579" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Comma 11 3" xfId="1578" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="Comma 11 3 2" xfId="1577" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="Comma 11 3 2 2" xfId="1576" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Comma 11 3 2 3" xfId="1575" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Comma 11 3 3" xfId="1574" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Comma 11 3 4" xfId="1573" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Comma 11 4" xfId="1572" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Comma 11 5" xfId="1571" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Comma 12" xfId="1570" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Comma 12 2" xfId="2525" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Comma 13" xfId="1569" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Comma 13 2" xfId="1568" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Comma 13 2 2" xfId="1567" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Comma 13 2 3" xfId="1566" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Comma 13 3" xfId="1565" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Comma 13 3 2" xfId="1564" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Comma 13 3 2 2" xfId="1563" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Comma 13 3 2 3" xfId="1562" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Comma 13 3 3" xfId="1561" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Comma 13 3 4" xfId="1560" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Comma 13 4" xfId="1559" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Comma 13 5" xfId="1558" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="Comma 14" xfId="1557" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Comma 14 2" xfId="2526" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="Comma 15" xfId="1556" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Comma 15 2" xfId="1555" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Comma 15 2 2" xfId="1554" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Comma 15 2 3" xfId="1553" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
+    <cellStyle name="Comma 15 3" xfId="1552" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="Comma 15 4" xfId="1551" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Comma 16" xfId="1550" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Comma 16 2" xfId="2527" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Comma 17" xfId="1549" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="Comma 17 2" xfId="1548" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="Comma 17 2 2" xfId="1547" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="Comma 17 2 3" xfId="1546" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Comma 17 3" xfId="1545" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Comma 17 4" xfId="1544" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Comma 18" xfId="1543" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Comma 18 2" xfId="2528" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Comma 19" xfId="1542" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Comma 19 2" xfId="1541" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Comma 19 2 2" xfId="1540" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Comma 19 2 3" xfId="1539" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Comma 19 3" xfId="1538" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Comma 19 4" xfId="1537" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Comma 2" xfId="473" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Comma 2 2" xfId="1536" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="1535" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Comma 2 2 2 2" xfId="1534" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Comma 2 2 2 3" xfId="1533" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Comma 2 2 2 4" xfId="1532" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Comma 2 2 3" xfId="1531" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Comma 2 2 3 2" xfId="1530" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Comma 2 2 3 3" xfId="1529" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Comma 2 2 3 3 2" xfId="1528" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Comma 2 2 4" xfId="1527" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Comma 2 2 5" xfId="1526" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Comma 2 2 6" xfId="1525" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Comma 2 2 6 2" xfId="1524" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="Comma 2 2 7" xfId="1523" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="Comma 2 2 7 2" xfId="1522" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Comma 2 2 8" xfId="1521" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Comma 2 3" xfId="1520" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="Comma 2 3 2" xfId="1519" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="Comma 2 3 3" xfId="1518" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Comma 2 3 4" xfId="1517" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="Comma 2 4" xfId="1516" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Comma 2 4 2" xfId="2693" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="Comma 2 5" xfId="1515" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="Comma 2 6" xfId="1514" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="Comma 2 7" xfId="1842" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Comma 20" xfId="1513" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="Comma 20 2" xfId="2529" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Comma 21" xfId="1512" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Comma 21 2" xfId="1511" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="Comma 21 2 2" xfId="1510" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Comma 21 2 3" xfId="1509" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Comma 21 3" xfId="1508" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Comma 21 4" xfId="1507" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="Comma 22" xfId="1506" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Comma 22 2" xfId="2530" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="Comma 23" xfId="1505" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Comma 23 2" xfId="1504" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Comma 23 2 2" xfId="1503" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="Comma 23 2 3" xfId="1502" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="Comma 23 3" xfId="1501" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="Comma 23 4" xfId="1500" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="Comma 24" xfId="1499" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="Comma 24 2" xfId="2531" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Comma 25" xfId="1498" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="Comma 25 2" xfId="1497" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="Comma 25 2 2" xfId="1496" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="Comma 25 2 3" xfId="1495" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="Comma 25 3" xfId="1494" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Comma 25 4" xfId="1493" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="Comma 26" xfId="1492" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="Comma 26 2" xfId="2532" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="Comma 27" xfId="1491" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Comma 27 2" xfId="2533" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="Comma 28" xfId="1490" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="Comma 28 2" xfId="2534" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="Comma 29" xfId="1489" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Comma 29 2" xfId="1488" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Comma 29 3" xfId="1487" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="Comma 3" xfId="474" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Comma 3 2" xfId="1486" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="Comma 3 2 2" xfId="1485" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Comma 3 2 3" xfId="1484" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="Comma 3 2 4" xfId="1483" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="Comma 3 3" xfId="1482" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Comma 3 4" xfId="1481" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="Comma 3 5" xfId="1480" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="Comma 3 6" xfId="1479" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="Comma 3 7" xfId="1478" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="Comma 3 8" xfId="1477" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="Comma 30" xfId="1476" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="Comma 30 2" xfId="1475" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="Comma 30 3" xfId="1474" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="Comma 31" xfId="1473" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Comma 31 2" xfId="1472" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="Comma 31 3" xfId="1471" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Comma 32" xfId="1470" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="Comma 32 2" xfId="1469" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="Comma 32 3" xfId="1468" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="Comma 33" xfId="1467" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Comma 33 2" xfId="1466" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="Comma 33 3" xfId="2535" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="Comma 34" xfId="1465" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="Comma 35" xfId="1464" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="Comma 36" xfId="1463" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Comma 37" xfId="1462" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="Comma 38" xfId="1461" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="Comma 39" xfId="1460" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="Comma 4" xfId="475" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="Comma 4 2" xfId="1458" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="Comma 4 3" xfId="1457" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="Comma 4 3 2" xfId="2694" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Comma 4 4" xfId="1456" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="Comma 4 5" xfId="1455" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Comma 4 6" xfId="1454" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="Comma 4 7" xfId="1459" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Comma 40" xfId="1453" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Comma 41" xfId="1452" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Comma 42" xfId="1451" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="Comma 43" xfId="1450" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="Comma 44" xfId="1449" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Comma 45" xfId="1448" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Comma 46" xfId="1447" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Comma 46 2" xfId="1446" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="Comma 46 3" xfId="1445" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Comma 47" xfId="1444" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Comma 47 2" xfId="1443" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Comma 47 3" xfId="1442" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Comma 48" xfId="1441" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="Comma 48 2" xfId="1440" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Comma 48 3" xfId="1439" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="Comma 49" xfId="1438" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Comma 5" xfId="476" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Comma 5 2" xfId="1437" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="Comma 5 2 2" xfId="1436" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="Comma 5 2 3" xfId="1435" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Comma 5 3" xfId="1434" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Comma 5 3 2" xfId="1433" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Comma 5 3 3" xfId="1432" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Comma 5 3 3 2" xfId="2695" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="Comma 5 3 4" xfId="2696" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Comma 5 4" xfId="1431" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Comma 5 4 2" xfId="1430" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="Comma 5 4 3" xfId="1429" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Comma 5 5" xfId="1428" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Comma 5 6" xfId="1427" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="Comma 50" xfId="1426" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="Comma 50 2" xfId="1425" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Comma 50 2 2" xfId="1424" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Comma 50 3" xfId="1423" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Comma 50 4" xfId="1422" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
+    <cellStyle name="Comma 51" xfId="1421" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
+    <cellStyle name="Comma 51 2" xfId="1420" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="Comma 51 3" xfId="1419" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Comma 52" xfId="1418" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
+    <cellStyle name="Comma 52 2" xfId="1417" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="Comma 52 3" xfId="1416" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Comma 53" xfId="1415" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="Comma 54" xfId="1414" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="Comma 55" xfId="1413" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="Comma 55 2" xfId="1412" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
+    <cellStyle name="Comma 56" xfId="1411" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
+    <cellStyle name="Comma 56 2" xfId="1410" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="Comma 57" xfId="1409" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="Comma 58" xfId="1408" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="Comma 59" xfId="1407" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="Comma 6" xfId="477" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
+    <cellStyle name="Comma 6 2" xfId="1405" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="Comma 6 3" xfId="1404" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="Comma 6 4" xfId="1406" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="Comma 60" xfId="1403" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
+    <cellStyle name="Comma 60 2" xfId="1402" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="Comma 61" xfId="1401" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="Comma 62" xfId="1400" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="Comma 62 2" xfId="1399" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="Comma 63" xfId="1398" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="Comma 63 2" xfId="1397" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="Comma 64" xfId="1396" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
+    <cellStyle name="Comma 64 2" xfId="1395" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
+    <cellStyle name="Comma 65" xfId="1394" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
+    <cellStyle name="Comma 66" xfId="1393" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Comma 67" xfId="1392" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="Comma 68" xfId="1391" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
+    <cellStyle name="Comma 69" xfId="1390" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Comma 7" xfId="1389" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="Comma 7 2" xfId="1388" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="Comma 7 2 2" xfId="1387" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
+    <cellStyle name="Comma 7 2 3" xfId="1386" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
+    <cellStyle name="Comma 7 3" xfId="1385" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
+    <cellStyle name="Comma 7 3 2" xfId="1384" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Comma 7 3 2 2" xfId="1383" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
+    <cellStyle name="Comma 7 3 2 3" xfId="1382" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Comma 7 3 3" xfId="1381" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Comma 7 3 4" xfId="1380" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
+    <cellStyle name="Comma 7 4" xfId="1379" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Comma 7 5" xfId="1378" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
+    <cellStyle name="Comma 70" xfId="2379" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="Comma 71" xfId="2536" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="Comma 72" xfId="2537" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="Comma 8" xfId="1377" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
+    <cellStyle name="Comma 8 2" xfId="1376" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="Comma 8 2 2" xfId="1375" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Comma 8 2 3" xfId="1374" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
+    <cellStyle name="Comma 8 3" xfId="1373" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Comma 8 3 2" xfId="1372" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
+    <cellStyle name="Comma 8 3 2 2" xfId="1371" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
+    <cellStyle name="Comma 8 3 2 3" xfId="1370" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
+    <cellStyle name="Comma 8 3 3" xfId="1369" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Comma 8 3 4" xfId="1368" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Comma 8 4" xfId="1367" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Comma 8 5" xfId="1366" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="Comma 9" xfId="1365" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
+    <cellStyle name="Comma 9 2" xfId="1364" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="Comma 9 2 2" xfId="1363" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="Comma 9 2 3" xfId="1362" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
+    <cellStyle name="Comma 9 3" xfId="1361" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
+    <cellStyle name="Comma 9 3 2" xfId="1360" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="Comma 9 3 2 2" xfId="1359" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
+    <cellStyle name="Comma 9 3 2 3" xfId="1358" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
+    <cellStyle name="Comma 9 3 3" xfId="1357" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
+    <cellStyle name="Comma 9 3 4" xfId="1356" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
+    <cellStyle name="Comma 9 4" xfId="1355" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="Comma 9 5" xfId="1354" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
+    <cellStyle name="comma zerodec" xfId="478" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
+    <cellStyle name="comma zerodec 2" xfId="1353" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="Comma0" xfId="479" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="Comma0 2" xfId="1352" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
+    <cellStyle name="Comma0 2 2" xfId="1351" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="Comma0 2 3" xfId="1350" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="Comma0 3" xfId="1349" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="Comma0 3 2" xfId="1348" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="Comma0_00.Carlos101.Multicurve.spl" xfId="1347" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
+    <cellStyle name="Commentaire" xfId="2697" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
+    <cellStyle name="cong" xfId="480" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="Constant (do not change)" xfId="481" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="Criteria" xfId="482" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
+    <cellStyle name="Criteria 2" xfId="2538" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="Currency0" xfId="483" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="Currency0 2" xfId="1346" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
+    <cellStyle name="Currency0 2 2" xfId="1345" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="Currency0 2 3" xfId="1344" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="Currency0 3" xfId="1343" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="Currency0 3 2" xfId="1342" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
+    <cellStyle name="Currency0_00.Carlos101.Multicurve.spl" xfId="1341" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
+    <cellStyle name="Currency1" xfId="484" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
+    <cellStyle name="Currency1 2" xfId="1340" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
+    <cellStyle name="Dash" xfId="485" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="Dash 2" xfId="486" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
+    <cellStyle name="Dash 2 2" xfId="2539" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
+    <cellStyle name="Dash 3" xfId="487" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
+    <cellStyle name="Dash 3 2" xfId="2540" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
+    <cellStyle name="Dash 4" xfId="2541" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
+    <cellStyle name="data" xfId="488" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="DATA Amount" xfId="489" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
+    <cellStyle name="DATA Amount [1]" xfId="490" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
+    <cellStyle name="DATA Amount [2]" xfId="491" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
+    <cellStyle name="DATA Currency" xfId="492" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
+    <cellStyle name="DATA Currency [1]" xfId="493" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="DATA Currency [2]" xfId="494" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
+    <cellStyle name="DATA Date Long" xfId="495" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
+    <cellStyle name="DATA Date Short" xfId="496" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
+    <cellStyle name="DATA List" xfId="497" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="DATA Memo" xfId="498" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
+    <cellStyle name="DATA Percent" xfId="499" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
+    <cellStyle name="DATA Percent [1]" xfId="500" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
+    <cellStyle name="DATA Percent [2]" xfId="501" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
+    <cellStyle name="DATA Text" xfId="502" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="DATA Version" xfId="503" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
+    <cellStyle name="data_3000" xfId="504" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
+    <cellStyle name="Data1" xfId="505" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
+    <cellStyle name="Data2" xfId="506" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
+    <cellStyle name="Data2 2" xfId="1339" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
+    <cellStyle name="Data3" xfId="507" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
+    <cellStyle name="Data3 2" xfId="1338" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="Data4" xfId="508" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
+    <cellStyle name="Data5" xfId="509" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
+    <cellStyle name="date" xfId="510" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
+    <cellStyle name="date 2" xfId="511" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
+    <cellStyle name="date 2 2" xfId="1336" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
+    <cellStyle name="date 2 3" xfId="1335" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
+    <cellStyle name="date 2 4" xfId="1334" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
+    <cellStyle name="Date 2 5" xfId="1333" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
+    <cellStyle name="Date 2 6" xfId="1332" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="Date 2 7" xfId="1337" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
+    <cellStyle name="date 3" xfId="1331" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
+    <cellStyle name="Date 3 2" xfId="1330" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
+    <cellStyle name="date 3 3" xfId="1329" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
+    <cellStyle name="Date 3 4" xfId="1328" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
+    <cellStyle name="Date 4" xfId="1327" xr:uid="{00000000-0005-0000-0000-0000DF040000}"/>
+    <cellStyle name="date 4 2" xfId="2698" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
+    <cellStyle name="date_BBV" xfId="1326" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
+    <cellStyle name="DateFormat" xfId="512" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
+    <cellStyle name="DateFormat 2" xfId="2542" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
+    <cellStyle name="DateModel" xfId="513" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
+    <cellStyle name="DatePeriodic" xfId="514" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
+    <cellStyle name="datetime" xfId="515" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
+    <cellStyle name="Datum" xfId="516" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
+    <cellStyle name="DAUDE" xfId="517" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
+    <cellStyle name="descrizione" xfId="518" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
+    <cellStyle name="descrizione 2" xfId="2543" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
+    <cellStyle name="descrizione articolo" xfId="519" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
+    <cellStyle name="Dezimal [0]_~0027840" xfId="520" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
+    <cellStyle name="Dezimal_99_alone_dec" xfId="521" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
+    <cellStyle name="Dollar (zero dec)" xfId="522" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
+    <cellStyle name="Dollar (zero dec) 2" xfId="1325" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
+    <cellStyle name="Dziesi?tny [0]_Invoices2001Slovakia" xfId="523" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
+    <cellStyle name="Dziesi?tny_Invoices2001Slovakia" xfId="524" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia" xfId="525" xr:uid="{00000000-0005-0000-0000-0000F2040000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia" xfId="526" xr:uid="{00000000-0005-0000-0000-0000F3040000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia 2" xfId="1324" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia 2" xfId="1323" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien" xfId="527" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien" xfId="528" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 10" xfId="1322" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 10" xfId="1321" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 11" xfId="1320" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 11" xfId="1319" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 12" xfId="1318" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 12" xfId="1317" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 13" xfId="1316" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 13" xfId="1315" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 14" xfId="1314" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 14" xfId="1313" xr:uid="{00000000-0005-0000-0000-000001050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 15" xfId="1312" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 15" xfId="1311" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 2" xfId="1310" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 2" xfId="1309" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 3" xfId="1308" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 3" xfId="1307" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 4" xfId="1306" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 4" xfId="1305" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 5" xfId="1304" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 5" xfId="1303" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 6" xfId="1302" xr:uid="{00000000-0005-0000-0000-00000C050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 6" xfId="1301" xr:uid="{00000000-0005-0000-0000-00000D050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 7" xfId="1300" xr:uid="{00000000-0005-0000-0000-00000E050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 7" xfId="1299" xr:uid="{00000000-0005-0000-0000-00000F050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 8" xfId="1298" xr:uid="{00000000-0005-0000-0000-000010050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 8" xfId="1297" xr:uid="{00000000-0005-0000-0000-000011050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 9" xfId="1296" xr:uid="{00000000-0005-0000-0000-000012050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_01_Nha so 1_Dien 9" xfId="1295" xr:uid="{00000000-0005-0000-0000-000013050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1" xfId="529" xr:uid="{00000000-0005-0000-0000-000014050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1" xfId="530" xr:uid="{00000000-0005-0000-0000-000015050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 10" xfId="1294" xr:uid="{00000000-0005-0000-0000-000016050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 10" xfId="1293" xr:uid="{00000000-0005-0000-0000-000017050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 11" xfId="1292" xr:uid="{00000000-0005-0000-0000-000018050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 11" xfId="1291" xr:uid="{00000000-0005-0000-0000-000019050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 12" xfId="1290" xr:uid="{00000000-0005-0000-0000-00001A050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 12" xfId="1289" xr:uid="{00000000-0005-0000-0000-00001B050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 13" xfId="1288" xr:uid="{00000000-0005-0000-0000-00001C050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 13" xfId="1287" xr:uid="{00000000-0005-0000-0000-00001D050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 14" xfId="1286" xr:uid="{00000000-0005-0000-0000-00001E050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 14" xfId="1285" xr:uid="{00000000-0005-0000-0000-00001F050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 15" xfId="1284" xr:uid="{00000000-0005-0000-0000-000020050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 15" xfId="1283" xr:uid="{00000000-0005-0000-0000-000021050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 2" xfId="1282" xr:uid="{00000000-0005-0000-0000-000022050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 2" xfId="1281" xr:uid="{00000000-0005-0000-0000-000023050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 3" xfId="1280" xr:uid="{00000000-0005-0000-0000-000024050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 3" xfId="1279" xr:uid="{00000000-0005-0000-0000-000025050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 4" xfId="1278" xr:uid="{00000000-0005-0000-0000-000026050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 4" xfId="1277" xr:uid="{00000000-0005-0000-0000-000027050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 5" xfId="1276" xr:uid="{00000000-0005-0000-0000-000028050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 5" xfId="1275" xr:uid="{00000000-0005-0000-0000-000029050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 6" xfId="1274" xr:uid="{00000000-0005-0000-0000-00002A050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 6" xfId="1273" xr:uid="{00000000-0005-0000-0000-00002B050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 7" xfId="1272" xr:uid="{00000000-0005-0000-0000-00002C050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 7" xfId="1271" xr:uid="{00000000-0005-0000-0000-00002D050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 8" xfId="1270" xr:uid="{00000000-0005-0000-0000-00002E050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 8" xfId="1269" xr:uid="{00000000-0005-0000-0000-00002F050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 9" xfId="1268" xr:uid="{00000000-0005-0000-0000-000030050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_10_Nha so 10_Dien1 9" xfId="1267" xr:uid="{00000000-0005-0000-0000-000031050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1" xfId="531" xr:uid="{00000000-0005-0000-0000-000032050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1" xfId="532" xr:uid="{00000000-0005-0000-0000-000033050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1 2" xfId="1266" xr:uid="{00000000-0005-0000-0000-000034050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1 2" xfId="1265" xr:uid="{00000000-0005-0000-0000-000035050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1" xfId="533" xr:uid="{00000000-0005-0000-0000-000036050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1" xfId="534" xr:uid="{00000000-0005-0000-0000-000037050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 10" xfId="1264" xr:uid="{00000000-0005-0000-0000-000038050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 10" xfId="1263" xr:uid="{00000000-0005-0000-0000-000039050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 11" xfId="1262" xr:uid="{00000000-0005-0000-0000-00003A050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 11" xfId="1261" xr:uid="{00000000-0005-0000-0000-00003B050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 12" xfId="1260" xr:uid="{00000000-0005-0000-0000-00003C050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 12" xfId="1259" xr:uid="{00000000-0005-0000-0000-00003D050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 13" xfId="1258" xr:uid="{00000000-0005-0000-0000-00003E050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 13" xfId="1257" xr:uid="{00000000-0005-0000-0000-00003F050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 14" xfId="1256" xr:uid="{00000000-0005-0000-0000-000040050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 14" xfId="1255" xr:uid="{00000000-0005-0000-0000-000041050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 15" xfId="1254" xr:uid="{00000000-0005-0000-0000-000042050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 15" xfId="1253" xr:uid="{00000000-0005-0000-0000-000043050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 2" xfId="1252" xr:uid="{00000000-0005-0000-0000-000044050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 2" xfId="1251" xr:uid="{00000000-0005-0000-0000-000045050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 3" xfId="1250" xr:uid="{00000000-0005-0000-0000-000046050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 3" xfId="1249" xr:uid="{00000000-0005-0000-0000-000047050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 4" xfId="1248" xr:uid="{00000000-0005-0000-0000-000048050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 4" xfId="1247" xr:uid="{00000000-0005-0000-0000-000049050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 5" xfId="1246" xr:uid="{00000000-0005-0000-0000-00004A050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 5" xfId="1245" xr:uid="{00000000-0005-0000-0000-00004B050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 6" xfId="1244" xr:uid="{00000000-0005-0000-0000-00004C050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 6" xfId="1243" xr:uid="{00000000-0005-0000-0000-00004D050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 7" xfId="1242" xr:uid="{00000000-0005-0000-0000-00004E050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 7" xfId="1241" xr:uid="{00000000-0005-0000-0000-00004F050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 8" xfId="1240" xr:uid="{00000000-0005-0000-0000-000050050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 8" xfId="1239" xr:uid="{00000000-0005-0000-0000-000051050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1 9" xfId="1238" xr:uid="{00000000-0005-0000-0000-000052050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1 9" xfId="1237" xr:uid="{00000000-0005-0000-0000-000053050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_1_Book1" xfId="535" xr:uid="{00000000-0005-0000-0000-000054050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_1_Book1" xfId="536" xr:uid="{00000000-0005-0000-0000-000055050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Book1_2" xfId="537" xr:uid="{00000000-0005-0000-0000-000056050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Book1_2" xfId="538" xr:uid="{00000000-0005-0000-0000-000057050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_DT d-uong" xfId="539" xr:uid="{00000000-0005-0000-0000-000058050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Nhµ ®Ó xe" xfId="540" xr:uid="{00000000-0005-0000-0000-000059050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Nha bao ve(28-7-05)" xfId="541" xr:uid="{00000000-0005-0000-0000-00005A050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Nha bao ve(28-7-05)" xfId="542" xr:uid="{00000000-0005-0000-0000-00005B050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_NHA de xe nguyen du" xfId="543" xr:uid="{00000000-0005-0000-0000-00005C050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_NHA de xe nguyen du" xfId="544" xr:uid="{00000000-0005-0000-0000-00005D050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Nhalamviec VTC(25-1-05)" xfId="545" xr:uid="{00000000-0005-0000-0000-00005E050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Nhalamviec VTC(25-1-05)" xfId="546" xr:uid="{00000000-0005-0000-0000-00005F050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_Nhalamviec VTC(25-1-05) 2" xfId="1236" xr:uid="{00000000-0005-0000-0000-000060050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_Nhalamviec VTC(25-1-05) 2" xfId="1235" xr:uid="{00000000-0005-0000-0000-000061050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_t.nuoc(12-10-06)" xfId="547" xr:uid="{00000000-0005-0000-0000-000062050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_TDT KHANH HOA" xfId="548" xr:uid="{00000000-0005-0000-0000-000063050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_TDT quangngai" xfId="549" xr:uid="{00000000-0005-0000-0000-000064050000}"/>
+    <cellStyle name="Dziesiętny [0]_Invoices2001Slovakia_TDT quangngai" xfId="550" xr:uid="{00000000-0005-0000-0000-000065050000}"/>
+    <cellStyle name="Dziesietny [0]_Invoices2001Slovakia_TMDT(10-5-06)" xfId="551" xr:uid="{00000000-0005-0000-0000-000066050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia" xfId="552" xr:uid="{00000000-0005-0000-0000-000067050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia" xfId="553" xr:uid="{00000000-0005-0000-0000-000068050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia 2" xfId="1234" xr:uid="{00000000-0005-0000-0000-000069050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia 2" xfId="1233" xr:uid="{00000000-0005-0000-0000-00006A050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien" xfId="554" xr:uid="{00000000-0005-0000-0000-00006B050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien" xfId="555" xr:uid="{00000000-0005-0000-0000-00006C050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 10" xfId="1232" xr:uid="{00000000-0005-0000-0000-00006D050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 10" xfId="1231" xr:uid="{00000000-0005-0000-0000-00006E050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 11" xfId="1230" xr:uid="{00000000-0005-0000-0000-00006F050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 11" xfId="1229" xr:uid="{00000000-0005-0000-0000-000070050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 12" xfId="1228" xr:uid="{00000000-0005-0000-0000-000071050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 12" xfId="1227" xr:uid="{00000000-0005-0000-0000-000072050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 13" xfId="1226" xr:uid="{00000000-0005-0000-0000-000073050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 13" xfId="1225" xr:uid="{00000000-0005-0000-0000-000074050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 14" xfId="1224" xr:uid="{00000000-0005-0000-0000-000075050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 14" xfId="1223" xr:uid="{00000000-0005-0000-0000-000076050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 15" xfId="1222" xr:uid="{00000000-0005-0000-0000-000077050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 15" xfId="1221" xr:uid="{00000000-0005-0000-0000-000078050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 2" xfId="1220" xr:uid="{00000000-0005-0000-0000-000079050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 2" xfId="1219" xr:uid="{00000000-0005-0000-0000-00007A050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 3" xfId="1218" xr:uid="{00000000-0005-0000-0000-00007B050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 3" xfId="1217" xr:uid="{00000000-0005-0000-0000-00007C050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 4" xfId="1216" xr:uid="{00000000-0005-0000-0000-00007D050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 4" xfId="1215" xr:uid="{00000000-0005-0000-0000-00007E050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 5" xfId="1214" xr:uid="{00000000-0005-0000-0000-00007F050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 5" xfId="1213" xr:uid="{00000000-0005-0000-0000-000080050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 6" xfId="1212" xr:uid="{00000000-0005-0000-0000-000081050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 6" xfId="1211" xr:uid="{00000000-0005-0000-0000-000082050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 7" xfId="1210" xr:uid="{00000000-0005-0000-0000-000083050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 7" xfId="1209" xr:uid="{00000000-0005-0000-0000-000084050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 8" xfId="1208" xr:uid="{00000000-0005-0000-0000-000085050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 8" xfId="1207" xr:uid="{00000000-0005-0000-0000-000086050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_01_Nha so 1_Dien 9" xfId="1206" xr:uid="{00000000-0005-0000-0000-000087050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_01_Nha so 1_Dien 9" xfId="1205" xr:uid="{00000000-0005-0000-0000-000088050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1" xfId="556" xr:uid="{00000000-0005-0000-0000-000089050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1" xfId="557" xr:uid="{00000000-0005-0000-0000-00008A050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 10" xfId="1204" xr:uid="{00000000-0005-0000-0000-00008B050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 10" xfId="1203" xr:uid="{00000000-0005-0000-0000-00008C050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 11" xfId="1202" xr:uid="{00000000-0005-0000-0000-00008D050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 11" xfId="1201" xr:uid="{00000000-0005-0000-0000-00008E050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 12" xfId="1200" xr:uid="{00000000-0005-0000-0000-00008F050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 12" xfId="1199" xr:uid="{00000000-0005-0000-0000-000090050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 13" xfId="1198" xr:uid="{00000000-0005-0000-0000-000091050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 13" xfId="1197" xr:uid="{00000000-0005-0000-0000-000092050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 14" xfId="1196" xr:uid="{00000000-0005-0000-0000-000093050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 14" xfId="1195" xr:uid="{00000000-0005-0000-0000-000094050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 15" xfId="1194" xr:uid="{00000000-0005-0000-0000-000095050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 15" xfId="1193" xr:uid="{00000000-0005-0000-0000-000096050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 2" xfId="1192" xr:uid="{00000000-0005-0000-0000-000097050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 2" xfId="1191" xr:uid="{00000000-0005-0000-0000-000098050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 3" xfId="1190" xr:uid="{00000000-0005-0000-0000-000099050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 3" xfId="1189" xr:uid="{00000000-0005-0000-0000-00009A050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 4" xfId="1188" xr:uid="{00000000-0005-0000-0000-00009B050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 4" xfId="1187" xr:uid="{00000000-0005-0000-0000-00009C050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 5" xfId="1186" xr:uid="{00000000-0005-0000-0000-00009D050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 5" xfId="1185" xr:uid="{00000000-0005-0000-0000-00009E050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 6" xfId="1184" xr:uid="{00000000-0005-0000-0000-00009F050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 6" xfId="1183" xr:uid="{00000000-0005-0000-0000-0000A0050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 7" xfId="1182" xr:uid="{00000000-0005-0000-0000-0000A1050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 7" xfId="1181" xr:uid="{00000000-0005-0000-0000-0000A2050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 8" xfId="1180" xr:uid="{00000000-0005-0000-0000-0000A3050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 8" xfId="1179" xr:uid="{00000000-0005-0000-0000-0000A4050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_10_Nha so 10_Dien1 9" xfId="1178" xr:uid="{00000000-0005-0000-0000-0000A5050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_10_Nha so 10_Dien1 9" xfId="1177" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1" xfId="558" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1" xfId="559" xr:uid="{00000000-0005-0000-0000-0000A8050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1 2" xfId="1176" xr:uid="{00000000-0005-0000-0000-0000A9050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1 2" xfId="1175" xr:uid="{00000000-0005-0000-0000-0000AA050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1" xfId="560" xr:uid="{00000000-0005-0000-0000-0000AB050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1" xfId="561" xr:uid="{00000000-0005-0000-0000-0000AC050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 10" xfId="1174" xr:uid="{00000000-0005-0000-0000-0000AD050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 10" xfId="1173" xr:uid="{00000000-0005-0000-0000-0000AE050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 11" xfId="1172" xr:uid="{00000000-0005-0000-0000-0000AF050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 11" xfId="1171" xr:uid="{00000000-0005-0000-0000-0000B0050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 12" xfId="1170" xr:uid="{00000000-0005-0000-0000-0000B1050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 12" xfId="1169" xr:uid="{00000000-0005-0000-0000-0000B2050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 13" xfId="1168" xr:uid="{00000000-0005-0000-0000-0000B3050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 13" xfId="1167" xr:uid="{00000000-0005-0000-0000-0000B4050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 14" xfId="1166" xr:uid="{00000000-0005-0000-0000-0000B5050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 14" xfId="1165" xr:uid="{00000000-0005-0000-0000-0000B6050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 15" xfId="1164" xr:uid="{00000000-0005-0000-0000-0000B7050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 15" xfId="1163" xr:uid="{00000000-0005-0000-0000-0000B8050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 2" xfId="1162" xr:uid="{00000000-0005-0000-0000-0000B9050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 2" xfId="1161" xr:uid="{00000000-0005-0000-0000-0000BA050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 3" xfId="1160" xr:uid="{00000000-0005-0000-0000-0000BB050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 3" xfId="1159" xr:uid="{00000000-0005-0000-0000-0000BC050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 4" xfId="1158" xr:uid="{00000000-0005-0000-0000-0000BD050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 4" xfId="1157" xr:uid="{00000000-0005-0000-0000-0000BE050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 5" xfId="1156" xr:uid="{00000000-0005-0000-0000-0000BF050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 5" xfId="1155" xr:uid="{00000000-0005-0000-0000-0000C0050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 6" xfId="1154" xr:uid="{00000000-0005-0000-0000-0000C1050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 6" xfId="1153" xr:uid="{00000000-0005-0000-0000-0000C2050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 7" xfId="1152" xr:uid="{00000000-0005-0000-0000-0000C3050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 7" xfId="1151" xr:uid="{00000000-0005-0000-0000-0000C4050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 8" xfId="1150" xr:uid="{00000000-0005-0000-0000-0000C5050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 8" xfId="1149" xr:uid="{00000000-0005-0000-0000-0000C6050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1 9" xfId="1148" xr:uid="{00000000-0005-0000-0000-0000C7050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1 9" xfId="1147" xr:uid="{00000000-0005-0000-0000-0000C8050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_1_Book1" xfId="562" xr:uid="{00000000-0005-0000-0000-0000C9050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_1_Book1" xfId="563" xr:uid="{00000000-0005-0000-0000-0000CA050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Book1_2" xfId="564" xr:uid="{00000000-0005-0000-0000-0000CB050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Book1_2" xfId="565" xr:uid="{00000000-0005-0000-0000-0000CC050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_DT d-uong" xfId="566" xr:uid="{00000000-0005-0000-0000-0000CD050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Nhµ ®Ó xe" xfId="567" xr:uid="{00000000-0005-0000-0000-0000CE050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Nha bao ve(28-7-05)" xfId="568" xr:uid="{00000000-0005-0000-0000-0000CF050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Nha bao ve(28-7-05)" xfId="569" xr:uid="{00000000-0005-0000-0000-0000D0050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_NHA de xe nguyen du" xfId="570" xr:uid="{00000000-0005-0000-0000-0000D1050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_NHA de xe nguyen du" xfId="571" xr:uid="{00000000-0005-0000-0000-0000D2050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Nhalamviec VTC(25-1-05)" xfId="572" xr:uid="{00000000-0005-0000-0000-0000D3050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Nhalamviec VTC(25-1-05)" xfId="573" xr:uid="{00000000-0005-0000-0000-0000D4050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_Nhalamviec VTC(25-1-05) 2" xfId="1146" xr:uid="{00000000-0005-0000-0000-0000D5050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_Nhalamviec VTC(25-1-05) 2" xfId="1145" xr:uid="{00000000-0005-0000-0000-0000D6050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_t.nuoc(12-10-06)" xfId="574" xr:uid="{00000000-0005-0000-0000-0000D7050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_TDT KHANH HOA" xfId="575" xr:uid="{00000000-0005-0000-0000-0000D8050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_TDT quangngai" xfId="576" xr:uid="{00000000-0005-0000-0000-0000D9050000}"/>
+    <cellStyle name="Dziesiętny_Invoices2001Slovakia_TDT quangngai" xfId="577" xr:uid="{00000000-0005-0000-0000-0000DA050000}"/>
+    <cellStyle name="Dziesietny_Invoices2001Slovakia_TMDT(10-5-06)" xfId="578" xr:uid="{00000000-0005-0000-0000-0000DB050000}"/>
+    <cellStyle name="Eingabe" xfId="579" xr:uid="{00000000-0005-0000-0000-0000DC050000}"/>
+    <cellStyle name="Encabezado" xfId="580" xr:uid="{00000000-0005-0000-0000-0000DD050000}"/>
+    <cellStyle name="Encabezado 10" xfId="1144" xr:uid="{00000000-0005-0000-0000-0000DE050000}"/>
+    <cellStyle name="Encabezado 11" xfId="2699" xr:uid="{00000000-0005-0000-0000-0000DF050000}"/>
+    <cellStyle name="Encabezado 2" xfId="581" xr:uid="{00000000-0005-0000-0000-0000E0050000}"/>
+    <cellStyle name="Encabezado 2 2" xfId="1143" xr:uid="{00000000-0005-0000-0000-0000E1050000}"/>
+    <cellStyle name="Encabezado 2 3" xfId="1142" xr:uid="{00000000-0005-0000-0000-0000E2050000}"/>
+    <cellStyle name="Encabezado 2 3 2" xfId="2700" xr:uid="{00000000-0005-0000-0000-0000E3050000}"/>
+    <cellStyle name="Encabezado 2 4" xfId="2701" xr:uid="{00000000-0005-0000-0000-0000E4050000}"/>
+    <cellStyle name="Encabezado 2 4 2" xfId="2702" xr:uid="{00000000-0005-0000-0000-0000E5050000}"/>
+    <cellStyle name="Encabezado 3" xfId="582" xr:uid="{00000000-0005-0000-0000-0000E6050000}"/>
+    <cellStyle name="Encabezado 3 2" xfId="2544" xr:uid="{00000000-0005-0000-0000-0000E7050000}"/>
+    <cellStyle name="Encabezado 4 2" xfId="583" xr:uid="{00000000-0005-0000-0000-0000E8050000}"/>
+    <cellStyle name="Encabezado 4 3" xfId="584" xr:uid="{00000000-0005-0000-0000-0000E9050000}"/>
+    <cellStyle name="Encabezado 5" xfId="585" xr:uid="{00000000-0005-0000-0000-0000EA050000}"/>
+    <cellStyle name="Encabezado 5 2" xfId="1141" xr:uid="{00000000-0005-0000-0000-0000EB050000}"/>
+    <cellStyle name="Encabezado 5_BBV" xfId="1140" xr:uid="{00000000-0005-0000-0000-0000EC050000}"/>
+    <cellStyle name="Encabezado 6" xfId="586" xr:uid="{00000000-0005-0000-0000-0000ED050000}"/>
+    <cellStyle name="Encabezado 6 2" xfId="1139" xr:uid="{00000000-0005-0000-0000-0000EE050000}"/>
+    <cellStyle name="Encabezado 6 2 2" xfId="1138" xr:uid="{00000000-0005-0000-0000-0000EF050000}"/>
+    <cellStyle name="Encabezado 7" xfId="1137" xr:uid="{00000000-0005-0000-0000-0000F0050000}"/>
+    <cellStyle name="Encabezado 7 2" xfId="1136" xr:uid="{00000000-0005-0000-0000-0000F1050000}"/>
+    <cellStyle name="Encabezado 8" xfId="1135" xr:uid="{00000000-0005-0000-0000-0000F2050000}"/>
+    <cellStyle name="Encabezado 8 2" xfId="1134" xr:uid="{00000000-0005-0000-0000-0000F3050000}"/>
+    <cellStyle name="Encabezado 9" xfId="1133" xr:uid="{00000000-0005-0000-0000-0000F4050000}"/>
+    <cellStyle name="Énfasis1 2" xfId="588" xr:uid="{00000000-0005-0000-0000-0000F5050000}"/>
+    <cellStyle name="Énfasis1 3" xfId="589" xr:uid="{00000000-0005-0000-0000-0000F6050000}"/>
+    <cellStyle name="Énfasis1 4" xfId="590" xr:uid="{00000000-0005-0000-0000-0000F7050000}"/>
+    <cellStyle name="Énfasis1 5" xfId="587" xr:uid="{00000000-0005-0000-0000-0000F8050000}"/>
+    <cellStyle name="Énfasis2 2" xfId="592" xr:uid="{00000000-0005-0000-0000-0000F9050000}"/>
+    <cellStyle name="Énfasis2 3" xfId="593" xr:uid="{00000000-0005-0000-0000-0000FA050000}"/>
+    <cellStyle name="Énfasis2 4" xfId="594" xr:uid="{00000000-0005-0000-0000-0000FB050000}"/>
+    <cellStyle name="Énfasis2 5" xfId="591" xr:uid="{00000000-0005-0000-0000-0000FC050000}"/>
+    <cellStyle name="Énfasis3 2" xfId="596" xr:uid="{00000000-0005-0000-0000-0000FD050000}"/>
+    <cellStyle name="Énfasis3 3" xfId="597" xr:uid="{00000000-0005-0000-0000-0000FE050000}"/>
+    <cellStyle name="Énfasis3 4" xfId="598" xr:uid="{00000000-0005-0000-0000-0000FF050000}"/>
+    <cellStyle name="Énfasis3 5" xfId="595" xr:uid="{00000000-0005-0000-0000-000000060000}"/>
+    <cellStyle name="Énfasis4 2" xfId="600" xr:uid="{00000000-0005-0000-0000-000001060000}"/>
+    <cellStyle name="Énfasis4 3" xfId="601" xr:uid="{00000000-0005-0000-0000-000002060000}"/>
+    <cellStyle name="Énfasis4 4" xfId="602" xr:uid="{00000000-0005-0000-0000-000003060000}"/>
+    <cellStyle name="Énfasis4 5" xfId="599" xr:uid="{00000000-0005-0000-0000-000004060000}"/>
+    <cellStyle name="Énfasis5 2" xfId="604" xr:uid="{00000000-0005-0000-0000-000005060000}"/>
+    <cellStyle name="Énfasis5 3" xfId="605" xr:uid="{00000000-0005-0000-0000-000006060000}"/>
+    <cellStyle name="Énfasis5 4" xfId="606" xr:uid="{00000000-0005-0000-0000-000007060000}"/>
+    <cellStyle name="Énfasis5 5" xfId="603" xr:uid="{00000000-0005-0000-0000-000008060000}"/>
+    <cellStyle name="Énfasis6 2" xfId="608" xr:uid="{00000000-0005-0000-0000-000009060000}"/>
+    <cellStyle name="Énfasis6 3" xfId="609" xr:uid="{00000000-0005-0000-0000-00000A060000}"/>
+    <cellStyle name="Énfasis6 4" xfId="610" xr:uid="{00000000-0005-0000-0000-00000B060000}"/>
+    <cellStyle name="Énfasis6 5" xfId="607" xr:uid="{00000000-0005-0000-0000-00000C060000}"/>
+    <cellStyle name="EnMiles" xfId="611" xr:uid="{00000000-0005-0000-0000-00000D060000}"/>
+    <cellStyle name="EnMiles 2" xfId="612" xr:uid="{00000000-0005-0000-0000-00000E060000}"/>
+    <cellStyle name="EnMiles 2 2" xfId="1132" xr:uid="{00000000-0005-0000-0000-00000F060000}"/>
+    <cellStyle name="EnMiles 3" xfId="1131" xr:uid="{00000000-0005-0000-0000-000010060000}"/>
+    <cellStyle name="Entrada 2" xfId="613" xr:uid="{00000000-0005-0000-0000-000011060000}"/>
+    <cellStyle name="Entrada 3" xfId="614" xr:uid="{00000000-0005-0000-0000-000012060000}"/>
+    <cellStyle name="Entrée" xfId="2703" xr:uid="{00000000-0005-0000-0000-000013060000}"/>
+    <cellStyle name="Ergebnis" xfId="615" xr:uid="{00000000-0005-0000-0000-000014060000}"/>
+    <cellStyle name="Erklärender Text" xfId="616" xr:uid="{00000000-0005-0000-0000-000015060000}"/>
+    <cellStyle name="Estilo 1" xfId="617" xr:uid="{00000000-0005-0000-0000-000016060000}"/>
+    <cellStyle name="Estilo 1 2" xfId="618" xr:uid="{00000000-0005-0000-0000-000017060000}"/>
+    <cellStyle name="Estilo 1 2 2" xfId="2545" xr:uid="{00000000-0005-0000-0000-000018060000}"/>
+    <cellStyle name="Estilo 1 3" xfId="619" xr:uid="{00000000-0005-0000-0000-000019060000}"/>
+    <cellStyle name="Estilo 1 3 2" xfId="2546" xr:uid="{00000000-0005-0000-0000-00001A060000}"/>
+    <cellStyle name="Estilo 1 4" xfId="620" xr:uid="{00000000-0005-0000-0000-00001B060000}"/>
+    <cellStyle name="Estilo 1 4 2" xfId="2547" xr:uid="{00000000-0005-0000-0000-00001C060000}"/>
+    <cellStyle name="Estilo 1 5" xfId="621" xr:uid="{00000000-0005-0000-0000-00001D060000}"/>
+    <cellStyle name="Estilo 1 5 2" xfId="2548" xr:uid="{00000000-0005-0000-0000-00001E060000}"/>
+    <cellStyle name="Estilo 1 6" xfId="2549" xr:uid="{00000000-0005-0000-0000-00001F060000}"/>
+    <cellStyle name="Estilo 10" xfId="622" xr:uid="{00000000-0005-0000-0000-000020060000}"/>
+    <cellStyle name="Estilo 10 2" xfId="2550" xr:uid="{00000000-0005-0000-0000-000021060000}"/>
+    <cellStyle name="Estilo 11" xfId="623" xr:uid="{00000000-0005-0000-0000-000022060000}"/>
+    <cellStyle name="Estilo 11 2" xfId="2551" xr:uid="{00000000-0005-0000-0000-000023060000}"/>
+    <cellStyle name="Estilo 12" xfId="624" xr:uid="{00000000-0005-0000-0000-000024060000}"/>
+    <cellStyle name="Estilo 12 2" xfId="2552" xr:uid="{00000000-0005-0000-0000-000025060000}"/>
+    <cellStyle name="Estilo 13" xfId="625" xr:uid="{00000000-0005-0000-0000-000026060000}"/>
+    <cellStyle name="Estilo 13 2" xfId="2553" xr:uid="{00000000-0005-0000-0000-000027060000}"/>
+    <cellStyle name="Estilo 14" xfId="626" xr:uid="{00000000-0005-0000-0000-000028060000}"/>
+    <cellStyle name="Estilo 14 2" xfId="2554" xr:uid="{00000000-0005-0000-0000-000029060000}"/>
+    <cellStyle name="Estilo 15" xfId="627" xr:uid="{00000000-0005-0000-0000-00002A060000}"/>
+    <cellStyle name="Estilo 15 2" xfId="2555" xr:uid="{00000000-0005-0000-0000-00002B060000}"/>
+    <cellStyle name="Estilo 16" xfId="628" xr:uid="{00000000-0005-0000-0000-00002C060000}"/>
+    <cellStyle name="Estilo 16 2" xfId="2556" xr:uid="{00000000-0005-0000-0000-00002D060000}"/>
+    <cellStyle name="Estilo 2" xfId="629" xr:uid="{00000000-0005-0000-0000-00002E060000}"/>
+    <cellStyle name="Estilo 2 2" xfId="2557" xr:uid="{00000000-0005-0000-0000-00002F060000}"/>
+    <cellStyle name="Estilo 3" xfId="630" xr:uid="{00000000-0005-0000-0000-000030060000}"/>
+    <cellStyle name="Estilo 3 2" xfId="2558" xr:uid="{00000000-0005-0000-0000-000031060000}"/>
+    <cellStyle name="Estilo 4" xfId="631" xr:uid="{00000000-0005-0000-0000-000032060000}"/>
+    <cellStyle name="Estilo 4 2" xfId="2559" xr:uid="{00000000-0005-0000-0000-000033060000}"/>
+    <cellStyle name="Estilo 5" xfId="632" xr:uid="{00000000-0005-0000-0000-000034060000}"/>
+    <cellStyle name="Estilo 5 2" xfId="2560" xr:uid="{00000000-0005-0000-0000-000035060000}"/>
+    <cellStyle name="Estilo 6" xfId="633" xr:uid="{00000000-0005-0000-0000-000036060000}"/>
+    <cellStyle name="Estilo 6 2" xfId="2561" xr:uid="{00000000-0005-0000-0000-000037060000}"/>
+    <cellStyle name="Estilo 7" xfId="634" xr:uid="{00000000-0005-0000-0000-000038060000}"/>
+    <cellStyle name="Estilo 7 2" xfId="2562" xr:uid="{00000000-0005-0000-0000-000039060000}"/>
+    <cellStyle name="Estilo 8" xfId="635" xr:uid="{00000000-0005-0000-0000-00003A060000}"/>
+    <cellStyle name="Estilo 8 2" xfId="2563" xr:uid="{00000000-0005-0000-0000-00003B060000}"/>
+    <cellStyle name="Estilo 9" xfId="636" xr:uid="{00000000-0005-0000-0000-00003C060000}"/>
+    <cellStyle name="Estilo 9 2" xfId="2564" xr:uid="{00000000-0005-0000-0000-00003D060000}"/>
+    <cellStyle name="Euro" xfId="637" xr:uid="{00000000-0005-0000-0000-00003E060000}"/>
+    <cellStyle name="Euro 10" xfId="1130" xr:uid="{00000000-0005-0000-0000-00003F060000}"/>
+    <cellStyle name="Euro 10 2" xfId="1129" xr:uid="{00000000-0005-0000-0000-000040060000}"/>
+    <cellStyle name="Euro 11" xfId="1128" xr:uid="{00000000-0005-0000-0000-000041060000}"/>
+    <cellStyle name="Euro 11 2" xfId="1127" xr:uid="{00000000-0005-0000-0000-000042060000}"/>
+    <cellStyle name="Euro 12" xfId="1126" xr:uid="{00000000-0005-0000-0000-000043060000}"/>
+    <cellStyle name="Euro 13" xfId="1125" xr:uid="{00000000-0005-0000-0000-000044060000}"/>
+    <cellStyle name="Euro 14" xfId="1124" xr:uid="{00000000-0005-0000-0000-000045060000}"/>
+    <cellStyle name="Euro 15" xfId="2704" xr:uid="{00000000-0005-0000-0000-000046060000}"/>
+    <cellStyle name="Euro 2" xfId="638" xr:uid="{00000000-0005-0000-0000-000047060000}"/>
+    <cellStyle name="Euro 2 2" xfId="1123" xr:uid="{00000000-0005-0000-0000-000048060000}"/>
+    <cellStyle name="Euro 2 3" xfId="1122" xr:uid="{00000000-0005-0000-0000-000049060000}"/>
+    <cellStyle name="Euro 2 3 2" xfId="2705" xr:uid="{00000000-0005-0000-0000-00004A060000}"/>
+    <cellStyle name="Euro 2 4" xfId="1121" xr:uid="{00000000-0005-0000-0000-00004B060000}"/>
+    <cellStyle name="Euro 2 4 2" xfId="2706" xr:uid="{00000000-0005-0000-0000-00004C060000}"/>
+    <cellStyle name="Euro 2 5" xfId="1120" xr:uid="{00000000-0005-0000-0000-00004D060000}"/>
+    <cellStyle name="Euro 3" xfId="639" xr:uid="{00000000-0005-0000-0000-00004E060000}"/>
+    <cellStyle name="Euro 3 2" xfId="2565" xr:uid="{00000000-0005-0000-0000-00004F060000}"/>
+    <cellStyle name="Euro 4" xfId="640" xr:uid="{00000000-0005-0000-0000-000050060000}"/>
+    <cellStyle name="Euro 4 2" xfId="1119" xr:uid="{00000000-0005-0000-0000-000051060000}"/>
+    <cellStyle name="Euro 4 3" xfId="1118" xr:uid="{00000000-0005-0000-0000-000052060000}"/>
+    <cellStyle name="Euro 5" xfId="641" xr:uid="{00000000-0005-0000-0000-000053060000}"/>
+    <cellStyle name="Euro 5 2" xfId="1117" xr:uid="{00000000-0005-0000-0000-000054060000}"/>
+    <cellStyle name="Euro 5 3" xfId="1116" xr:uid="{00000000-0005-0000-0000-000055060000}"/>
+    <cellStyle name="Euro 6" xfId="1115" xr:uid="{00000000-0005-0000-0000-000056060000}"/>
+    <cellStyle name="Euro 6 2" xfId="1114" xr:uid="{00000000-0005-0000-0000-000057060000}"/>
+    <cellStyle name="Euro 7" xfId="1113" xr:uid="{00000000-0005-0000-0000-000058060000}"/>
+    <cellStyle name="Euro 7 2" xfId="1112" xr:uid="{00000000-0005-0000-0000-000059060000}"/>
+    <cellStyle name="Euro 7 3" xfId="1111" xr:uid="{00000000-0005-0000-0000-00005A060000}"/>
+    <cellStyle name="Euro 8" xfId="1110" xr:uid="{00000000-0005-0000-0000-00005B060000}"/>
+    <cellStyle name="Euro 8 2" xfId="1109" xr:uid="{00000000-0005-0000-0000-00005C060000}"/>
+    <cellStyle name="Euro 8 2 2" xfId="1108" xr:uid="{00000000-0005-0000-0000-00005D060000}"/>
+    <cellStyle name="Euro 9" xfId="1107" xr:uid="{00000000-0005-0000-0000-00005E060000}"/>
+    <cellStyle name="Euro 9 2" xfId="1106" xr:uid="{00000000-0005-0000-0000-00005F060000}"/>
+    <cellStyle name="Euro_colateral" xfId="642" xr:uid="{00000000-0005-0000-0000-000060060000}"/>
+    <cellStyle name="Explanatory Text" xfId="643" xr:uid="{00000000-0005-0000-0000-000061060000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="1105" xr:uid="{00000000-0005-0000-0000-000062060000}"/>
+    <cellStyle name="Explanatory Text 3" xfId="1104" xr:uid="{00000000-0005-0000-0000-000063060000}"/>
+    <cellStyle name="Explanatory Text 4" xfId="1103" xr:uid="{00000000-0005-0000-0000-000064060000}"/>
+    <cellStyle name="Explanatory Text 5" xfId="1102" xr:uid="{00000000-0005-0000-0000-000065060000}"/>
+    <cellStyle name="ExtractionInfoDataStyle" xfId="644" xr:uid="{00000000-0005-0000-0000-000066060000}"/>
+    <cellStyle name="ExtractionInfoHeaderStyle" xfId="645" xr:uid="{00000000-0005-0000-0000-000067060000}"/>
+    <cellStyle name="EY House" xfId="646" xr:uid="{00000000-0005-0000-0000-000068060000}"/>
+    <cellStyle name="F2" xfId="647" xr:uid="{00000000-0005-0000-0000-000069060000}"/>
+    <cellStyle name="F2 2" xfId="1101" xr:uid="{00000000-0005-0000-0000-00006A060000}"/>
+    <cellStyle name="F2 2 2" xfId="1100" xr:uid="{00000000-0005-0000-0000-00006B060000}"/>
+    <cellStyle name="F2 2 3" xfId="1099" xr:uid="{00000000-0005-0000-0000-00006C060000}"/>
+    <cellStyle name="F2 2 4" xfId="1098" xr:uid="{00000000-0005-0000-0000-00006D060000}"/>
+    <cellStyle name="F2 2_BBV" xfId="1097" xr:uid="{00000000-0005-0000-0000-00006E060000}"/>
+    <cellStyle name="F2 3" xfId="1096" xr:uid="{00000000-0005-0000-0000-00006F060000}"/>
+    <cellStyle name="F2 3 2" xfId="1095" xr:uid="{00000000-0005-0000-0000-000070060000}"/>
+    <cellStyle name="F2_curvas" xfId="1094" xr:uid="{00000000-0005-0000-0000-000071060000}"/>
+    <cellStyle name="F3" xfId="648" xr:uid="{00000000-0005-0000-0000-000072060000}"/>
+    <cellStyle name="F3 2" xfId="1093" xr:uid="{00000000-0005-0000-0000-000073060000}"/>
+    <cellStyle name="F3 2 2" xfId="1092" xr:uid="{00000000-0005-0000-0000-000074060000}"/>
+    <cellStyle name="F3 2 3" xfId="1091" xr:uid="{00000000-0005-0000-0000-000075060000}"/>
+    <cellStyle name="F3 2_BBV" xfId="1090" xr:uid="{00000000-0005-0000-0000-000076060000}"/>
+    <cellStyle name="F3 3" xfId="1089" xr:uid="{00000000-0005-0000-0000-000077060000}"/>
+    <cellStyle name="F3 3 2" xfId="1088" xr:uid="{00000000-0005-0000-0000-000078060000}"/>
+    <cellStyle name="F3_00.Carlos101.Multicurve.spl" xfId="1087" xr:uid="{00000000-0005-0000-0000-000079060000}"/>
+    <cellStyle name="F4" xfId="649" xr:uid="{00000000-0005-0000-0000-00007A060000}"/>
+    <cellStyle name="F4 2" xfId="1086" xr:uid="{00000000-0005-0000-0000-00007B060000}"/>
+    <cellStyle name="F4 2 2" xfId="1085" xr:uid="{00000000-0005-0000-0000-00007C060000}"/>
+    <cellStyle name="F4 2 3" xfId="1084" xr:uid="{00000000-0005-0000-0000-00007D060000}"/>
+    <cellStyle name="F4 2 4" xfId="1083" xr:uid="{00000000-0005-0000-0000-00007E060000}"/>
+    <cellStyle name="F4 2_BBV" xfId="1082" xr:uid="{00000000-0005-0000-0000-00007F060000}"/>
+    <cellStyle name="F4 3" xfId="1081" xr:uid="{00000000-0005-0000-0000-000080060000}"/>
+    <cellStyle name="F4 3 2" xfId="1080" xr:uid="{00000000-0005-0000-0000-000081060000}"/>
+    <cellStyle name="F4_curvas" xfId="1079" xr:uid="{00000000-0005-0000-0000-000082060000}"/>
+    <cellStyle name="F5" xfId="650" xr:uid="{00000000-0005-0000-0000-000083060000}"/>
+    <cellStyle name="F5 2" xfId="1078" xr:uid="{00000000-0005-0000-0000-000084060000}"/>
+    <cellStyle name="F5 3" xfId="1077" xr:uid="{00000000-0005-0000-0000-000085060000}"/>
+    <cellStyle name="F5 3 2" xfId="1076" xr:uid="{00000000-0005-0000-0000-000086060000}"/>
+    <cellStyle name="F5 4" xfId="1075" xr:uid="{00000000-0005-0000-0000-000087060000}"/>
+    <cellStyle name="F5_BBV" xfId="1074" xr:uid="{00000000-0005-0000-0000-000088060000}"/>
+    <cellStyle name="F6" xfId="651" xr:uid="{00000000-0005-0000-0000-000089060000}"/>
+    <cellStyle name="F6 2" xfId="1073" xr:uid="{00000000-0005-0000-0000-00008A060000}"/>
+    <cellStyle name="F6 2 2" xfId="1072" xr:uid="{00000000-0005-0000-0000-00008B060000}"/>
+    <cellStyle name="F6 2 3" xfId="1071" xr:uid="{00000000-0005-0000-0000-00008C060000}"/>
+    <cellStyle name="F6 2 4" xfId="1070" xr:uid="{00000000-0005-0000-0000-00008D060000}"/>
+    <cellStyle name="F6 2_BBV" xfId="1069" xr:uid="{00000000-0005-0000-0000-00008E060000}"/>
+    <cellStyle name="F6 3" xfId="1850" xr:uid="{00000000-0005-0000-0000-00008F060000}"/>
+    <cellStyle name="F6 3 2" xfId="1851" xr:uid="{00000000-0005-0000-0000-000090060000}"/>
+    <cellStyle name="F6_curvas" xfId="1852" xr:uid="{00000000-0005-0000-0000-000091060000}"/>
+    <cellStyle name="F7" xfId="652" xr:uid="{00000000-0005-0000-0000-000092060000}"/>
+    <cellStyle name="F7 2" xfId="1853" xr:uid="{00000000-0005-0000-0000-000093060000}"/>
+    <cellStyle name="F7 2 2" xfId="1854" xr:uid="{00000000-0005-0000-0000-000094060000}"/>
+    <cellStyle name="F7 2 3" xfId="1855" xr:uid="{00000000-0005-0000-0000-000095060000}"/>
+    <cellStyle name="F7 2 4" xfId="1856" xr:uid="{00000000-0005-0000-0000-000096060000}"/>
+    <cellStyle name="F7 2_BBV" xfId="1857" xr:uid="{00000000-0005-0000-0000-000097060000}"/>
+    <cellStyle name="F7 3" xfId="1858" xr:uid="{00000000-0005-0000-0000-000098060000}"/>
+    <cellStyle name="F7 3 2" xfId="1859" xr:uid="{00000000-0005-0000-0000-000099060000}"/>
+    <cellStyle name="F7_curvas" xfId="1860" xr:uid="{00000000-0005-0000-0000-00009A060000}"/>
+    <cellStyle name="F8" xfId="653" xr:uid="{00000000-0005-0000-0000-00009B060000}"/>
+    <cellStyle name="F8 2" xfId="1861" xr:uid="{00000000-0005-0000-0000-00009C060000}"/>
+    <cellStyle name="F8 2 2" xfId="1862" xr:uid="{00000000-0005-0000-0000-00009D060000}"/>
+    <cellStyle name="F8 2 3" xfId="1863" xr:uid="{00000000-0005-0000-0000-00009E060000}"/>
+    <cellStyle name="F8 2 4" xfId="1864" xr:uid="{00000000-0005-0000-0000-00009F060000}"/>
+    <cellStyle name="F8 2_BBV" xfId="1865" xr:uid="{00000000-0005-0000-0000-0000A0060000}"/>
+    <cellStyle name="F8 3" xfId="1866" xr:uid="{00000000-0005-0000-0000-0000A1060000}"/>
+    <cellStyle name="F8 3 2" xfId="1867" xr:uid="{00000000-0005-0000-0000-0000A2060000}"/>
+    <cellStyle name="F8_curvas" xfId="1868" xr:uid="{00000000-0005-0000-0000-0000A3060000}"/>
+    <cellStyle name="Finanční0" xfId="654" xr:uid="{00000000-0005-0000-0000-0000A4060000}"/>
+    <cellStyle name="Fixed" xfId="655" xr:uid="{00000000-0005-0000-0000-0000A5060000}"/>
+    <cellStyle name="Fixed 2" xfId="1869" xr:uid="{00000000-0005-0000-0000-0000A6060000}"/>
+    <cellStyle name="Fixed 2 2" xfId="1870" xr:uid="{00000000-0005-0000-0000-0000A7060000}"/>
+    <cellStyle name="Fixed 2 3" xfId="1871" xr:uid="{00000000-0005-0000-0000-0000A8060000}"/>
+    <cellStyle name="Fixed 3" xfId="1872" xr:uid="{00000000-0005-0000-0000-0000A9060000}"/>
+    <cellStyle name="Fixed 3 2" xfId="1873" xr:uid="{00000000-0005-0000-0000-0000AA060000}"/>
+    <cellStyle name="Fixed_00.Carlos101.Multicurve.spl" xfId="1874" xr:uid="{00000000-0005-0000-0000-0000AB060000}"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="656" xr:uid="{00000000-0005-0000-0000-0000AC060000}"/>
+    <cellStyle name="gia" xfId="657" xr:uid="{00000000-0005-0000-0000-0000AD060000}"/>
+    <cellStyle name="Good 2" xfId="1875" xr:uid="{00000000-0005-0000-0000-0000AE060000}"/>
+    <cellStyle name="Good 3" xfId="1876" xr:uid="{00000000-0005-0000-0000-0000AF060000}"/>
+    <cellStyle name="Good 4" xfId="1877" xr:uid="{00000000-0005-0000-0000-0000B0060000}"/>
+    <cellStyle name="Good 5" xfId="1878" xr:uid="{00000000-0005-0000-0000-0000B1060000}"/>
+    <cellStyle name="Grey" xfId="658" xr:uid="{00000000-0005-0000-0000-0000B2060000}"/>
+    <cellStyle name="Grey 2" xfId="659" xr:uid="{00000000-0005-0000-0000-0000B3060000}"/>
+    <cellStyle name="Grey 2 2" xfId="1880" xr:uid="{00000000-0005-0000-0000-0000B4060000}"/>
+    <cellStyle name="Grey 2 2 2" xfId="2566" xr:uid="{00000000-0005-0000-0000-0000B5060000}"/>
+    <cellStyle name="Grey 2 3" xfId="2567" xr:uid="{00000000-0005-0000-0000-0000B6060000}"/>
+    <cellStyle name="Grey 2 4" xfId="1879" xr:uid="{00000000-0005-0000-0000-0000B7060000}"/>
+    <cellStyle name="Grey 2_BBV" xfId="1881" xr:uid="{00000000-0005-0000-0000-0000B8060000}"/>
+    <cellStyle name="Grey 3" xfId="1882" xr:uid="{00000000-0005-0000-0000-0000B9060000}"/>
+    <cellStyle name="Grey_AjustesPorColat" xfId="660" xr:uid="{00000000-0005-0000-0000-0000BA060000}"/>
+    <cellStyle name="Gut" xfId="661" xr:uid="{00000000-0005-0000-0000-0000BB060000}"/>
+    <cellStyle name="Header" xfId="662" xr:uid="{00000000-0005-0000-0000-0000BC060000}"/>
+    <cellStyle name="Header0" xfId="663" xr:uid="{00000000-0005-0000-0000-0000BD060000}"/>
+    <cellStyle name="Header1" xfId="664" xr:uid="{00000000-0005-0000-0000-0000BE060000}"/>
+    <cellStyle name="Header2" xfId="665" xr:uid="{00000000-0005-0000-0000-0000BF060000}"/>
+    <cellStyle name="Heading 1" xfId="666" xr:uid="{00000000-0005-0000-0000-0000C0060000}"/>
+    <cellStyle name="Heading 1 2" xfId="1883" xr:uid="{00000000-0005-0000-0000-0000C1060000}"/>
+    <cellStyle name="Heading 1 2 2" xfId="1884" xr:uid="{00000000-0005-0000-0000-0000C2060000}"/>
+    <cellStyle name="Heading 1 3" xfId="1885" xr:uid="{00000000-0005-0000-0000-0000C3060000}"/>
+    <cellStyle name="Heading 1 3 2" xfId="1886" xr:uid="{00000000-0005-0000-0000-0000C4060000}"/>
+    <cellStyle name="Heading 1 4" xfId="1887" xr:uid="{00000000-0005-0000-0000-0000C5060000}"/>
+    <cellStyle name="Heading 1 5" xfId="1888" xr:uid="{00000000-0005-0000-0000-0000C6060000}"/>
+    <cellStyle name="Heading 2" xfId="667" xr:uid="{00000000-0005-0000-0000-0000C7060000}"/>
+    <cellStyle name="Heading 2 2" xfId="1889" xr:uid="{00000000-0005-0000-0000-0000C8060000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="1890" xr:uid="{00000000-0005-0000-0000-0000C9060000}"/>
+    <cellStyle name="Heading 2 3" xfId="1891" xr:uid="{00000000-0005-0000-0000-0000CA060000}"/>
+    <cellStyle name="Heading 2 3 2" xfId="1892" xr:uid="{00000000-0005-0000-0000-0000CB060000}"/>
+    <cellStyle name="Heading 2 4" xfId="1893" xr:uid="{00000000-0005-0000-0000-0000CC060000}"/>
+    <cellStyle name="Heading 2 5" xfId="1894" xr:uid="{00000000-0005-0000-0000-0000CD060000}"/>
+    <cellStyle name="Heading 3" xfId="668" xr:uid="{00000000-0005-0000-0000-0000CE060000}"/>
+    <cellStyle name="Heading 3 2" xfId="1895" xr:uid="{00000000-0005-0000-0000-0000CF060000}"/>
+    <cellStyle name="Heading 3 3" xfId="1896" xr:uid="{00000000-0005-0000-0000-0000D0060000}"/>
+    <cellStyle name="Heading 3 4" xfId="1897" xr:uid="{00000000-0005-0000-0000-0000D1060000}"/>
+    <cellStyle name="Heading 3 5" xfId="1898" xr:uid="{00000000-0005-0000-0000-0000D2060000}"/>
+    <cellStyle name="Heading 4 2" xfId="1899" xr:uid="{00000000-0005-0000-0000-0000D3060000}"/>
+    <cellStyle name="Heading 4 3" xfId="1900" xr:uid="{00000000-0005-0000-0000-0000D4060000}"/>
+    <cellStyle name="Heading 4 4" xfId="1901" xr:uid="{00000000-0005-0000-0000-0000D5060000}"/>
+    <cellStyle name="Heading 4 5" xfId="1902" xr:uid="{00000000-0005-0000-0000-0000D6060000}"/>
+    <cellStyle name="HEADING1" xfId="669" xr:uid="{00000000-0005-0000-0000-0000D7060000}"/>
+    <cellStyle name="HEADING2" xfId="670" xr:uid="{00000000-0005-0000-0000-0000D8060000}"/>
+    <cellStyle name="headline01" xfId="671" xr:uid="{00000000-0005-0000-0000-0000D9060000}"/>
+    <cellStyle name="headoption" xfId="672" xr:uid="{00000000-0005-0000-0000-0000DA060000}"/>
+    <cellStyle name="headoption 2" xfId="1903" xr:uid="{00000000-0005-0000-0000-0000DB060000}"/>
+    <cellStyle name="Hidden" xfId="673" xr:uid="{00000000-0005-0000-0000-0000DC060000}"/>
+    <cellStyle name="Hipervínculo 2" xfId="674" xr:uid="{00000000-0005-0000-0000-0000DD060000}"/>
+    <cellStyle name="HSBC Percent" xfId="675" xr:uid="{00000000-0005-0000-0000-0000DE060000}"/>
+    <cellStyle name="HSBC Percent 2" xfId="2568" xr:uid="{00000000-0005-0000-0000-0000DF060000}"/>
+    <cellStyle name="HSBC Ratio" xfId="676" xr:uid="{00000000-0005-0000-0000-0000E0060000}"/>
+    <cellStyle name="HSBC Ratio 2" xfId="2569" xr:uid="{00000000-0005-0000-0000-0000E1060000}"/>
+    <cellStyle name="HSBC_SheetTitle" xfId="1904" xr:uid="{00000000-0005-0000-0000-0000E2060000}"/>
+    <cellStyle name="Hyperlink 2" xfId="677" xr:uid="{00000000-0005-0000-0000-0000E3060000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="1905" xr:uid="{00000000-0005-0000-0000-0000E4060000}"/>
+    <cellStyle name="Hyperlink 2 2 2" xfId="1906" xr:uid="{00000000-0005-0000-0000-0000E5060000}"/>
+    <cellStyle name="Hyperlink 2 2 3" xfId="1907" xr:uid="{00000000-0005-0000-0000-0000E6060000}"/>
+    <cellStyle name="Hyperlink 2 2 4" xfId="1908" xr:uid="{00000000-0005-0000-0000-0000E7060000}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="1909" xr:uid="{00000000-0005-0000-0000-0000E8060000}"/>
+    <cellStyle name="Hyperlink 2 3 2" xfId="1910" xr:uid="{00000000-0005-0000-0000-0000E9060000}"/>
+    <cellStyle name="Hyperlink 2 3 3" xfId="1911" xr:uid="{00000000-0005-0000-0000-0000EA060000}"/>
+    <cellStyle name="Hyperlink 2 4" xfId="1912" xr:uid="{00000000-0005-0000-0000-0000EB060000}"/>
+    <cellStyle name="Hyperlink 2 5" xfId="1913" xr:uid="{00000000-0005-0000-0000-0000EC060000}"/>
+    <cellStyle name="Hyperlink 2 6" xfId="1914" xr:uid="{00000000-0005-0000-0000-0000ED060000}"/>
+    <cellStyle name="Hyperlink 3" xfId="1915" xr:uid="{00000000-0005-0000-0000-0000EE060000}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="1916" xr:uid="{00000000-0005-0000-0000-0000EF060000}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="1917" xr:uid="{00000000-0005-0000-0000-0000F0060000}"/>
+    <cellStyle name="Hyperlink 4" xfId="1918" xr:uid="{00000000-0005-0000-0000-0000F1060000}"/>
+    <cellStyle name="Hyperlink 5" xfId="1919" xr:uid="{00000000-0005-0000-0000-0000F2060000}"/>
+    <cellStyle name="Hyperlink 6" xfId="1920" xr:uid="{00000000-0005-0000-0000-0000F3060000}"/>
+    <cellStyle name="Hyperlink_CurvasBloombergLatamAsia" xfId="2570" xr:uid="{00000000-0005-0000-0000-0000F4060000}"/>
+    <cellStyle name="i phÝ kh¸c_B¶ng 2" xfId="678" xr:uid="{00000000-0005-0000-0000-0000F5060000}"/>
+    <cellStyle name="I.3" xfId="679" xr:uid="{00000000-0005-0000-0000-0000F6060000}"/>
+    <cellStyle name="I.3 2" xfId="1921" xr:uid="{00000000-0005-0000-0000-0000F7060000}"/>
+    <cellStyle name="ï-¾È»ê_BiÓu TB" xfId="680" xr:uid="{00000000-0005-0000-0000-0000F8060000}"/>
+    <cellStyle name="importo" xfId="681" xr:uid="{00000000-0005-0000-0000-0000F9060000}"/>
+    <cellStyle name="Incorrecto 2" xfId="683" xr:uid="{00000000-0005-0000-0000-0000FA060000}"/>
+    <cellStyle name="Incorrecto 3" xfId="684" xr:uid="{00000000-0005-0000-0000-0000FB060000}"/>
+    <cellStyle name="Incorrecto 4" xfId="685" xr:uid="{00000000-0005-0000-0000-0000FC060000}"/>
+    <cellStyle name="Incorrecto 5" xfId="682" xr:uid="{00000000-0005-0000-0000-0000FD060000}"/>
+    <cellStyle name="Input [yellow]" xfId="686" xr:uid="{00000000-0005-0000-0000-0000FE060000}"/>
+    <cellStyle name="Input [yellow] 2" xfId="687" xr:uid="{00000000-0005-0000-0000-0000FF060000}"/>
+    <cellStyle name="Input [yellow] 2 2" xfId="1923" xr:uid="{00000000-0005-0000-0000-000000070000}"/>
+    <cellStyle name="Input [yellow] 2 2 2" xfId="2571" xr:uid="{00000000-0005-0000-0000-000001070000}"/>
+    <cellStyle name="Input [yellow] 2 3" xfId="2572" xr:uid="{00000000-0005-0000-0000-000002070000}"/>
+    <cellStyle name="Input [yellow] 2 4" xfId="1922" xr:uid="{00000000-0005-0000-0000-000003070000}"/>
+    <cellStyle name="Input [yellow] 2_BBV" xfId="1924" xr:uid="{00000000-0005-0000-0000-000004070000}"/>
+    <cellStyle name="Input [yellow] 3" xfId="1925" xr:uid="{00000000-0005-0000-0000-000005070000}"/>
+    <cellStyle name="Input [yellow]_AjustesPorColat" xfId="688" xr:uid="{00000000-0005-0000-0000-000006070000}"/>
+    <cellStyle name="input 10" xfId="2573" xr:uid="{00000000-0005-0000-0000-000007070000}"/>
+    <cellStyle name="input 11" xfId="2574" xr:uid="{00000000-0005-0000-0000-000008070000}"/>
+    <cellStyle name="input 2" xfId="1926" xr:uid="{00000000-0005-0000-0000-000009070000}"/>
+    <cellStyle name="input 3" xfId="1927" xr:uid="{00000000-0005-0000-0000-00000A070000}"/>
+    <cellStyle name="Input 4" xfId="1928" xr:uid="{00000000-0005-0000-0000-00000B070000}"/>
+    <cellStyle name="Input 5" xfId="1929" xr:uid="{00000000-0005-0000-0000-00000C070000}"/>
+    <cellStyle name="Input 6" xfId="1930" xr:uid="{00000000-0005-0000-0000-00000D070000}"/>
+    <cellStyle name="Input 7" xfId="1931" xr:uid="{00000000-0005-0000-0000-00000E070000}"/>
+    <cellStyle name="input 8" xfId="1932" xr:uid="{00000000-0005-0000-0000-00000F070000}"/>
+    <cellStyle name="input 9" xfId="1933" xr:uid="{00000000-0005-0000-0000-000010070000}"/>
+    <cellStyle name="Input%" xfId="689" xr:uid="{00000000-0005-0000-0000-000011070000}"/>
+    <cellStyle name="Input% 2" xfId="690" xr:uid="{00000000-0005-0000-0000-000012070000}"/>
+    <cellStyle name="Input% 2 2" xfId="2575" xr:uid="{00000000-0005-0000-0000-000013070000}"/>
+    <cellStyle name="Input% 3" xfId="2707" xr:uid="{00000000-0005-0000-0000-000014070000}"/>
+    <cellStyle name="Input% 3 2" xfId="2708" xr:uid="{00000000-0005-0000-0000-000015070000}"/>
+    <cellStyle name="Input% 4" xfId="2709" xr:uid="{00000000-0005-0000-0000-000016070000}"/>
+    <cellStyle name="Input% 4 2" xfId="2710" xr:uid="{00000000-0005-0000-0000-000017070000}"/>
+    <cellStyle name="Input%_AjustesPorColat" xfId="691" xr:uid="{00000000-0005-0000-0000-000018070000}"/>
+    <cellStyle name="InputDate" xfId="692" xr:uid="{00000000-0005-0000-0000-000019070000}"/>
+    <cellStyle name="InputDate 2" xfId="693" xr:uid="{00000000-0005-0000-0000-00001A070000}"/>
+    <cellStyle name="InputDate 2 2" xfId="2576" xr:uid="{00000000-0005-0000-0000-00001B070000}"/>
+    <cellStyle name="InputDate 3" xfId="2711" xr:uid="{00000000-0005-0000-0000-00001C070000}"/>
+    <cellStyle name="InputDate 3 2" xfId="2712" xr:uid="{00000000-0005-0000-0000-00001D070000}"/>
+    <cellStyle name="InputDate 4" xfId="2713" xr:uid="{00000000-0005-0000-0000-00001E070000}"/>
+    <cellStyle name="InputDate 4 2" xfId="2714" xr:uid="{00000000-0005-0000-0000-00001F070000}"/>
+    <cellStyle name="InputDate_AjustesPorColat" xfId="694" xr:uid="{00000000-0005-0000-0000-000020070000}"/>
+    <cellStyle name="InputDecimal" xfId="695" xr:uid="{00000000-0005-0000-0000-000021070000}"/>
+    <cellStyle name="InputDecimal 2" xfId="696" xr:uid="{00000000-0005-0000-0000-000022070000}"/>
+    <cellStyle name="InputDecimal 2 2" xfId="2577" xr:uid="{00000000-0005-0000-0000-000023070000}"/>
+    <cellStyle name="InputDecimal 3" xfId="2715" xr:uid="{00000000-0005-0000-0000-000024070000}"/>
+    <cellStyle name="InputDecimal 3 2" xfId="2716" xr:uid="{00000000-0005-0000-0000-000025070000}"/>
+    <cellStyle name="InputDecimal 4" xfId="2717" xr:uid="{00000000-0005-0000-0000-000026070000}"/>
+    <cellStyle name="InputDecimal 4 2" xfId="2718" xr:uid="{00000000-0005-0000-0000-000027070000}"/>
+    <cellStyle name="InputDecimal_AjustesPorColat" xfId="697" xr:uid="{00000000-0005-0000-0000-000028070000}"/>
+    <cellStyle name="InputValue" xfId="698" xr:uid="{00000000-0005-0000-0000-000029070000}"/>
+    <cellStyle name="InputValue 2" xfId="699" xr:uid="{00000000-0005-0000-0000-00002A070000}"/>
+    <cellStyle name="InputValue 2 2" xfId="2578" xr:uid="{00000000-0005-0000-0000-00002B070000}"/>
+    <cellStyle name="InputValue 3" xfId="2719" xr:uid="{00000000-0005-0000-0000-00002C070000}"/>
+    <cellStyle name="InputValue 3 2" xfId="2720" xr:uid="{00000000-0005-0000-0000-00002D070000}"/>
+    <cellStyle name="InputValue 4" xfId="2721" xr:uid="{00000000-0005-0000-0000-00002E070000}"/>
+    <cellStyle name="InputValue 4 2" xfId="2722" xr:uid="{00000000-0005-0000-0000-00002F070000}"/>
+    <cellStyle name="InputValue_AjustesPorColat" xfId="700" xr:uid="{00000000-0005-0000-0000-000030070000}"/>
+    <cellStyle name="Insatisfaisant" xfId="2723" xr:uid="{00000000-0005-0000-0000-000031070000}"/>
+    <cellStyle name="invoice 8_g1" xfId="701" xr:uid="{00000000-0005-0000-0000-000032070000}"/>
+    <cellStyle name="kh¸c_Bang Chi tieu" xfId="702" xr:uid="{00000000-0005-0000-0000-000033070000}"/>
+    <cellStyle name="khanh" xfId="703" xr:uid="{00000000-0005-0000-0000-000034070000}"/>
+    <cellStyle name="KPMG Heading 1" xfId="704" xr:uid="{00000000-0005-0000-0000-000035070000}"/>
+    <cellStyle name="KPMG Heading 2" xfId="705" xr:uid="{00000000-0005-0000-0000-000036070000}"/>
+    <cellStyle name="KPMG Heading 3" xfId="706" xr:uid="{00000000-0005-0000-0000-000037070000}"/>
+    <cellStyle name="KPMG Heading 4" xfId="707" xr:uid="{00000000-0005-0000-0000-000038070000}"/>
+    <cellStyle name="KPMG Normal" xfId="708" xr:uid="{00000000-0005-0000-0000-000039070000}"/>
+    <cellStyle name="KPMG Normal Text" xfId="709" xr:uid="{00000000-0005-0000-0000-00003A070000}"/>
+    <cellStyle name="label" xfId="710" xr:uid="{00000000-0005-0000-0000-00003B070000}"/>
+    <cellStyle name="LABEL Normal" xfId="711" xr:uid="{00000000-0005-0000-0000-00003C070000}"/>
+    <cellStyle name="LABEL Note" xfId="712" xr:uid="{00000000-0005-0000-0000-00003D070000}"/>
+    <cellStyle name="LABEL Units" xfId="713" xr:uid="{00000000-0005-0000-0000-00003E070000}"/>
+    <cellStyle name="label_12577900" xfId="714" xr:uid="{00000000-0005-0000-0000-00003F070000}"/>
+    <cellStyle name="Lauren" xfId="715" xr:uid="{00000000-0005-0000-0000-000040070000}"/>
+    <cellStyle name="Lauren 2" xfId="2579" xr:uid="{00000000-0005-0000-0000-000041070000}"/>
+    <cellStyle name="Linked Cell 2" xfId="1934" xr:uid="{00000000-0005-0000-0000-000042070000}"/>
+    <cellStyle name="Linked Cell 3" xfId="1935" xr:uid="{00000000-0005-0000-0000-000043070000}"/>
+    <cellStyle name="Linked Cell 4" xfId="1936" xr:uid="{00000000-0005-0000-0000-000044070000}"/>
+    <cellStyle name="Linked Cell 5" xfId="1937" xr:uid="{00000000-0005-0000-0000-000045070000}"/>
+    <cellStyle name="main_input" xfId="716" xr:uid="{00000000-0005-0000-0000-000046070000}"/>
+    <cellStyle name="Měna0" xfId="717" xr:uid="{00000000-0005-0000-0000-000047070000}"/>
+    <cellStyle name="Migliaia (0)_ANPRE" xfId="718" xr:uid="{00000000-0005-0000-0000-000048070000}"/>
+    <cellStyle name="Millares [0] 2" xfId="719" xr:uid="{00000000-0005-0000-0000-000049070000}"/>
+    <cellStyle name="Millares [0] 2 2" xfId="2580" xr:uid="{00000000-0005-0000-0000-00004A070000}"/>
+    <cellStyle name="Millares [0] 3" xfId="720" xr:uid="{00000000-0005-0000-0000-00004B070000}"/>
+    <cellStyle name="Millares [0] 3 2" xfId="2581" xr:uid="{00000000-0005-0000-0000-00004C070000}"/>
+    <cellStyle name="Millares 2" xfId="721" xr:uid="{00000000-0005-0000-0000-00004D070000}"/>
+    <cellStyle name="Millares 2 2" xfId="2582" xr:uid="{00000000-0005-0000-0000-00004E070000}"/>
+    <cellStyle name="Millares 3" xfId="722" xr:uid="{00000000-0005-0000-0000-00004F070000}"/>
+    <cellStyle name="Millares 3 2" xfId="2583" xr:uid="{00000000-0005-0000-0000-000050070000}"/>
+    <cellStyle name="Millares 4" xfId="723" xr:uid="{00000000-0005-0000-0000-000051070000}"/>
+    <cellStyle name="Millares 4 2" xfId="2584" xr:uid="{00000000-0005-0000-0000-000052070000}"/>
+    <cellStyle name="Millares 5" xfId="724" xr:uid="{00000000-0005-0000-0000-000053070000}"/>
+    <cellStyle name="Millares 5 2" xfId="2585" xr:uid="{00000000-0005-0000-0000-000054070000}"/>
+    <cellStyle name="Millares 6" xfId="725" xr:uid="{00000000-0005-0000-0000-000055070000}"/>
+    <cellStyle name="Millares 6 2" xfId="2586" xr:uid="{00000000-0005-0000-0000-000056070000}"/>
+    <cellStyle name="Millares 7" xfId="726" xr:uid="{00000000-0005-0000-0000-000057070000}"/>
+    <cellStyle name="Millares 8" xfId="2759" xr:uid="{00000000-0005-0000-0000-000058070000}"/>
+    <cellStyle name="Milliers [0]_Basis" xfId="727" xr:uid="{00000000-0005-0000-0000-000059070000}"/>
+    <cellStyle name="Milliers_Basis" xfId="728" xr:uid="{00000000-0005-0000-0000-00005A070000}"/>
+    <cellStyle name="misure" xfId="729" xr:uid="{00000000-0005-0000-0000-00005B070000}"/>
+    <cellStyle name="misure 2" xfId="2587" xr:uid="{00000000-0005-0000-0000-00005C070000}"/>
+    <cellStyle name="misure totali" xfId="730" xr:uid="{00000000-0005-0000-0000-00005D070000}"/>
+    <cellStyle name="Model" xfId="731" xr:uid="{00000000-0005-0000-0000-00005E070000}"/>
+    <cellStyle name="Modifiable" xfId="732" xr:uid="{00000000-0005-0000-0000-00005F070000}"/>
+    <cellStyle name="Modifiable 2" xfId="1938" xr:uid="{00000000-0005-0000-0000-000060070000}"/>
+    <cellStyle name="moi" xfId="733" xr:uid="{00000000-0005-0000-0000-000061070000}"/>
+    <cellStyle name="moi 2" xfId="1940" xr:uid="{00000000-0005-0000-0000-000062070000}"/>
+    <cellStyle name="moi 2 2" xfId="2588" xr:uid="{00000000-0005-0000-0000-000063070000}"/>
+    <cellStyle name="moi 3" xfId="2589" xr:uid="{00000000-0005-0000-0000-000064070000}"/>
+    <cellStyle name="moi 4" xfId="1939" xr:uid="{00000000-0005-0000-0000-000065070000}"/>
+    <cellStyle name="Moneda 2" xfId="734" xr:uid="{00000000-0005-0000-0000-000066070000}"/>
+    <cellStyle name="Moneda 2 2" xfId="1941" xr:uid="{00000000-0005-0000-0000-000067070000}"/>
+    <cellStyle name="Monétaire [0]_Basis" xfId="735" xr:uid="{00000000-0005-0000-0000-000068070000}"/>
+    <cellStyle name="Monétaire_Basis" xfId="736" xr:uid="{00000000-0005-0000-0000-000069070000}"/>
+    <cellStyle name="n" xfId="737" xr:uid="{00000000-0005-0000-0000-00006A070000}"/>
+    <cellStyle name="n 2" xfId="1942" xr:uid="{00000000-0005-0000-0000-00006B070000}"/>
+    <cellStyle name="n_AjustesPorColat" xfId="738" xr:uid="{00000000-0005-0000-0000-00006C070000}"/>
+    <cellStyle name="n_FXDefinition" xfId="739" xr:uid="{00000000-0005-0000-0000-00006D070000}"/>
+    <cellStyle name="Neutral 2" xfId="741" xr:uid="{00000000-0005-0000-0000-00006E070000}"/>
+    <cellStyle name="Neutral 3" xfId="740" xr:uid="{00000000-0005-0000-0000-00006F070000}"/>
+    <cellStyle name="Neutral 3 2" xfId="1943" xr:uid="{00000000-0005-0000-0000-000070070000}"/>
+    <cellStyle name="Neutral 4" xfId="1944" xr:uid="{00000000-0005-0000-0000-000071070000}"/>
+    <cellStyle name="Neutral 5" xfId="1945" xr:uid="{00000000-0005-0000-0000-000072070000}"/>
+    <cellStyle name="Neutre" xfId="2724" xr:uid="{00000000-0005-0000-0000-000073070000}"/>
+    <cellStyle name="New Times Roman" xfId="742" xr:uid="{00000000-0005-0000-0000-000074070000}"/>
+    <cellStyle name="Next holiday" xfId="743" xr:uid="{00000000-0005-0000-0000-000075070000}"/>
+    <cellStyle name="No Border" xfId="744" xr:uid="{00000000-0005-0000-0000-000076070000}"/>
+    <cellStyle name="no dec" xfId="745" xr:uid="{00000000-0005-0000-0000-000077070000}"/>
+    <cellStyle name="No-definido" xfId="746" xr:uid="{00000000-0005-0000-0000-000078070000}"/>
+    <cellStyle name="No-definido 2" xfId="747" xr:uid="{00000000-0005-0000-0000-000079070000}"/>
+    <cellStyle name="No-definido 2 2" xfId="1946" xr:uid="{00000000-0005-0000-0000-00007A070000}"/>
+    <cellStyle name="No-definido 2 3" xfId="1947" xr:uid="{00000000-0005-0000-0000-00007B070000}"/>
+    <cellStyle name="No-definido 2 4" xfId="1948" xr:uid="{00000000-0005-0000-0000-00007C070000}"/>
+    <cellStyle name="No-definido 2_BBV" xfId="1949" xr:uid="{00000000-0005-0000-0000-00007D070000}"/>
+    <cellStyle name="No-definido 3" xfId="1950" xr:uid="{00000000-0005-0000-0000-00007E070000}"/>
+    <cellStyle name="No-definido 3 2" xfId="1951" xr:uid="{00000000-0005-0000-0000-00007F070000}"/>
+    <cellStyle name="No-definido 4" xfId="2725" xr:uid="{00000000-0005-0000-0000-000080070000}"/>
+    <cellStyle name="No-definido 4 2" xfId="2726" xr:uid="{00000000-0005-0000-0000-000081070000}"/>
+    <cellStyle name="No-definido 5" xfId="2727" xr:uid="{00000000-0005-0000-0000-000082070000}"/>
+    <cellStyle name="No-definido_AjustesPorColat" xfId="748" xr:uid="{00000000-0005-0000-0000-000083070000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="749"/>
-    <cellStyle name="Normal - Style1 2" xfId="1952"/>
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 10 2" xfId="1954"/>
-    <cellStyle name="Normal 10 3" xfId="1955"/>
-    <cellStyle name="Normal 10 3 2" xfId="1956"/>
-    <cellStyle name="Normal 10 4" xfId="1953"/>
-    <cellStyle name="Normal 100" xfId="1957"/>
-    <cellStyle name="Normal 101" xfId="1958"/>
-    <cellStyle name="Normal 101 2" xfId="1959"/>
-    <cellStyle name="Normal 102" xfId="1960"/>
-    <cellStyle name="Normal 103" xfId="1961"/>
-    <cellStyle name="Normal 104" xfId="1962"/>
-    <cellStyle name="Normal 105" xfId="1963"/>
-    <cellStyle name="Normal 106" xfId="1964"/>
-    <cellStyle name="Normal 107" xfId="1965"/>
-    <cellStyle name="Normal 108" xfId="1966"/>
-    <cellStyle name="Normal 109" xfId="1967"/>
-    <cellStyle name="Normal 11" xfId="1068"/>
-    <cellStyle name="Normal 11 2" xfId="1968"/>
-    <cellStyle name="Normal 110" xfId="1969"/>
-    <cellStyle name="Normal 111" xfId="1970"/>
-    <cellStyle name="Normal 112" xfId="1971"/>
-    <cellStyle name="Normal 112 2" xfId="750"/>
-    <cellStyle name="Normal 112 2 2" xfId="1972"/>
-    <cellStyle name="Normal 113" xfId="1973"/>
-    <cellStyle name="Normal 114" xfId="1974"/>
-    <cellStyle name="Normal 115" xfId="1975"/>
-    <cellStyle name="Normal 116" xfId="1976"/>
-    <cellStyle name="Normal 117" xfId="1977"/>
-    <cellStyle name="Normal 118" xfId="1978"/>
-    <cellStyle name="Normal 119" xfId="1979"/>
-    <cellStyle name="Normal 12" xfId="1980"/>
-    <cellStyle name="Normal 120" xfId="1981"/>
-    <cellStyle name="Normal 121" xfId="1982"/>
-    <cellStyle name="Normal 122" xfId="1983"/>
-    <cellStyle name="Normal 123" xfId="1984"/>
-    <cellStyle name="Normal 124" xfId="1985"/>
-    <cellStyle name="Normal 125" xfId="1986"/>
-    <cellStyle name="Normal 126" xfId="1987"/>
-    <cellStyle name="Normal 127" xfId="2590"/>
-    <cellStyle name="Normal 128" xfId="2591"/>
-    <cellStyle name="Normal 129" xfId="2728"/>
-    <cellStyle name="Normal 13" xfId="1988"/>
-    <cellStyle name="Normal 13 2" xfId="1989"/>
-    <cellStyle name="Normal 13 3" xfId="1990"/>
-    <cellStyle name="Normal 13 3 2" xfId="1991"/>
-    <cellStyle name="Normal 130" xfId="2729"/>
-    <cellStyle name="Normal 14" xfId="1992"/>
-    <cellStyle name="Normal 15" xfId="1993"/>
-    <cellStyle name="Normal 15 2" xfId="1994"/>
-    <cellStyle name="Normal 15 3" xfId="1995"/>
-    <cellStyle name="Normal 15 3 2" xfId="1996"/>
-    <cellStyle name="Normal 16" xfId="1997"/>
-    <cellStyle name="Normal 17" xfId="1998"/>
-    <cellStyle name="Normal 17 2" xfId="1999"/>
-    <cellStyle name="Normal 18" xfId="2000"/>
-    <cellStyle name="Normal 19" xfId="2001"/>
-    <cellStyle name="Normal 19 2" xfId="2002"/>
-    <cellStyle name="Normal 2" xfId="751"/>
-    <cellStyle name="Normal 2 2" xfId="752"/>
-    <cellStyle name="Normal 2 2 2" xfId="2003"/>
-    <cellStyle name="Normal 2 2 3" xfId="2004"/>
-    <cellStyle name="Normal 2 3" xfId="753"/>
-    <cellStyle name="Normal 2 3 2" xfId="2592"/>
-    <cellStyle name="Normal 2 4" xfId="754"/>
-    <cellStyle name="Normal 2 4 2" xfId="2593"/>
-    <cellStyle name="Normal 2 4 3" xfId="2005"/>
-    <cellStyle name="Normal 2 5" xfId="755"/>
-    <cellStyle name="Normal 2 5 2" xfId="2594"/>
-    <cellStyle name="Normal 2 5 3" xfId="2006"/>
-    <cellStyle name="Normal 2 6" xfId="2007"/>
-    <cellStyle name="Normal 2 6 2" xfId="2595"/>
-    <cellStyle name="Normal 2_12577900" xfId="756"/>
-    <cellStyle name="Normal 20" xfId="2008"/>
-    <cellStyle name="Normal 21" xfId="2009"/>
-    <cellStyle name="Normal 21 2" xfId="2010"/>
-    <cellStyle name="Normal 22" xfId="2011"/>
-    <cellStyle name="Normal 23" xfId="2012"/>
-    <cellStyle name="Normal 23 2" xfId="2013"/>
-    <cellStyle name="Normal 24" xfId="2014"/>
-    <cellStyle name="Normal 25" xfId="2015"/>
-    <cellStyle name="Normal 25 2" xfId="2016"/>
-    <cellStyle name="Normal 26" xfId="2017"/>
-    <cellStyle name="Normal 27" xfId="2018"/>
-    <cellStyle name="Normal 27 2" xfId="2019"/>
-    <cellStyle name="Normal 28" xfId="2020"/>
-    <cellStyle name="Normal 29" xfId="2021"/>
-    <cellStyle name="Normal 3" xfId="757"/>
-    <cellStyle name="Normal 3 2" xfId="2022"/>
-    <cellStyle name="Normal 3 2 2" xfId="2023"/>
-    <cellStyle name="Normal 3 2 3" xfId="2024"/>
-    <cellStyle name="Normal 3 2 4" xfId="2025"/>
-    <cellStyle name="Normal 3 3" xfId="2026"/>
-    <cellStyle name="Normal 3 4" xfId="2027"/>
-    <cellStyle name="Normal 30" xfId="2028"/>
-    <cellStyle name="Normal 31" xfId="2029"/>
-    <cellStyle name="Normal 32" xfId="2030"/>
-    <cellStyle name="Normal 33" xfId="2031"/>
-    <cellStyle name="Normal 34" xfId="2032"/>
-    <cellStyle name="Normal 35" xfId="2033"/>
-    <cellStyle name="Normal 36" xfId="2034"/>
-    <cellStyle name="Normal 37" xfId="758"/>
-    <cellStyle name="Normal 37 2" xfId="2035"/>
-    <cellStyle name="Normal 38" xfId="2036"/>
-    <cellStyle name="Normal 39" xfId="2037"/>
-    <cellStyle name="Normal 4" xfId="759"/>
-    <cellStyle name="Normal 4 2" xfId="2039"/>
-    <cellStyle name="Normal 4 2 2" xfId="2040"/>
-    <cellStyle name="Normal 4 2 3" xfId="2041"/>
-    <cellStyle name="Normal 4 2 4" xfId="2042"/>
-    <cellStyle name="Normal 4 3" xfId="2043"/>
-    <cellStyle name="Normal 4 4" xfId="2038"/>
-    <cellStyle name="Normal 40" xfId="2044"/>
-    <cellStyle name="Normal 41" xfId="2045"/>
-    <cellStyle name="Normal 42" xfId="2046"/>
-    <cellStyle name="Normal 43" xfId="2047"/>
-    <cellStyle name="Normal 44" xfId="2048"/>
-    <cellStyle name="Normal 45" xfId="2049"/>
-    <cellStyle name="Normal 46" xfId="2050"/>
-    <cellStyle name="Normal 47" xfId="2051"/>
-    <cellStyle name="Normal 48" xfId="2052"/>
-    <cellStyle name="Normal 49" xfId="2053"/>
-    <cellStyle name="Normal 5" xfId="760"/>
-    <cellStyle name="Normal 5 2" xfId="2055"/>
-    <cellStyle name="Normal 5 2 2" xfId="2596"/>
-    <cellStyle name="Normal 5 3" xfId="2056"/>
-    <cellStyle name="Normal 5 3 2" xfId="2057"/>
-    <cellStyle name="Normal 5 4" xfId="2054"/>
-    <cellStyle name="Normal 50" xfId="2058"/>
-    <cellStyle name="Normal 51" xfId="2059"/>
-    <cellStyle name="Normal 52" xfId="2060"/>
-    <cellStyle name="Normal 53" xfId="2061"/>
-    <cellStyle name="Normal 54" xfId="2062"/>
-    <cellStyle name="Normal 55" xfId="2063"/>
-    <cellStyle name="Normal 56" xfId="2064"/>
-    <cellStyle name="Normal 57" xfId="2065"/>
-    <cellStyle name="Normal 58" xfId="2066"/>
-    <cellStyle name="Normal 59" xfId="2067"/>
-    <cellStyle name="Normal 6" xfId="761"/>
-    <cellStyle name="Normal 6 2" xfId="2068"/>
-    <cellStyle name="Normal 6 3" xfId="2069"/>
-    <cellStyle name="Normal 6 4" xfId="2070"/>
-    <cellStyle name="Normal 60" xfId="2071"/>
-    <cellStyle name="Normal 61" xfId="2072"/>
-    <cellStyle name="Normal 62" xfId="2073"/>
-    <cellStyle name="Normal 63" xfId="2074"/>
-    <cellStyle name="Normal 64" xfId="2075"/>
-    <cellStyle name="Normal 64 2" xfId="2076"/>
-    <cellStyle name="Normal 64 3" xfId="2077"/>
-    <cellStyle name="Normal 64 4" xfId="2078"/>
-    <cellStyle name="Normal 65" xfId="2079"/>
-    <cellStyle name="Normal 66" xfId="2080"/>
-    <cellStyle name="Normal 66 2" xfId="2081"/>
-    <cellStyle name="Normal 66 3" xfId="2082"/>
-    <cellStyle name="Normal 67" xfId="2083"/>
-    <cellStyle name="Normal 67 2" xfId="2084"/>
-    <cellStyle name="Normal 67 3" xfId="2085"/>
-    <cellStyle name="Normal 68" xfId="2086"/>
-    <cellStyle name="Normal 68 2" xfId="2087"/>
-    <cellStyle name="Normal 69" xfId="2088"/>
-    <cellStyle name="Normal 7" xfId="762"/>
-    <cellStyle name="Normal 7 2" xfId="2090"/>
-    <cellStyle name="Normal 7 3" xfId="2091"/>
-    <cellStyle name="Normal 7 3 2" xfId="2092"/>
-    <cellStyle name="Normal 7 4" xfId="2093"/>
-    <cellStyle name="Normal 7 5" xfId="2094"/>
-    <cellStyle name="Normal 7 6" xfId="2095"/>
-    <cellStyle name="Normal 7 7" xfId="2089"/>
-    <cellStyle name="Normal 70" xfId="2096"/>
-    <cellStyle name="Normal 70 2" xfId="2097"/>
-    <cellStyle name="Normal 71" xfId="2098"/>
-    <cellStyle name="Normal 71 2" xfId="2099"/>
-    <cellStyle name="Normal 72" xfId="2100"/>
-    <cellStyle name="Normal 72 2" xfId="2101"/>
-    <cellStyle name="Normal 73" xfId="2102"/>
-    <cellStyle name="Normal 74" xfId="2103"/>
-    <cellStyle name="Normal 74 2" xfId="2104"/>
-    <cellStyle name="Normal 75" xfId="2105"/>
-    <cellStyle name="Normal 76" xfId="2106"/>
-    <cellStyle name="Normal 77" xfId="2107"/>
-    <cellStyle name="Normal 78" xfId="2108"/>
-    <cellStyle name="Normal 79" xfId="2109"/>
-    <cellStyle name="Normal 8" xfId="763"/>
-    <cellStyle name="Normal 8 2" xfId="2111"/>
-    <cellStyle name="Normal 8 2 2" xfId="2597"/>
-    <cellStyle name="Normal 8 3" xfId="2112"/>
-    <cellStyle name="Normal 8 3 2" xfId="2113"/>
-    <cellStyle name="Normal 8 4" xfId="2598"/>
-    <cellStyle name="Normal 8 5" xfId="2110"/>
-    <cellStyle name="Normal 80" xfId="2114"/>
-    <cellStyle name="Normal 81" xfId="2115"/>
-    <cellStyle name="Normal 82" xfId="2116"/>
-    <cellStyle name="Normal 83" xfId="2117"/>
-    <cellStyle name="Normal 84" xfId="2118"/>
-    <cellStyle name="Normal 85" xfId="2119"/>
-    <cellStyle name="Normal 86" xfId="2120"/>
-    <cellStyle name="Normal 87" xfId="2121"/>
-    <cellStyle name="Normal 88" xfId="2122"/>
-    <cellStyle name="Normal 89" xfId="2123"/>
-    <cellStyle name="Normal 9" xfId="764"/>
-    <cellStyle name="Normal 9 2" xfId="2125"/>
-    <cellStyle name="Normal 9 3" xfId="2599"/>
-    <cellStyle name="Normal 9 4" xfId="2124"/>
-    <cellStyle name="Normal 90" xfId="2126"/>
-    <cellStyle name="Normal 90 2" xfId="2730"/>
-    <cellStyle name="Normal 90 3" xfId="2731"/>
-    <cellStyle name="Normal 90 3 2" xfId="2732"/>
-    <cellStyle name="Normal 90 3 3" xfId="2733"/>
-    <cellStyle name="Normal 90 3 3 2" xfId="2734"/>
-    <cellStyle name="Normal 90 3 4" xfId="2735"/>
-    <cellStyle name="Normal 91" xfId="2127"/>
-    <cellStyle name="Normal 92" xfId="2128"/>
-    <cellStyle name="Normal 93" xfId="2129"/>
-    <cellStyle name="Normal 94" xfId="2130"/>
-    <cellStyle name="Normal 95" xfId="2131"/>
-    <cellStyle name="Normal 96" xfId="2132"/>
-    <cellStyle name="Normal 97" xfId="2133"/>
-    <cellStyle name="Normal 98" xfId="2134"/>
-    <cellStyle name="Normal 99" xfId="2135"/>
-    <cellStyle name="Normál_0427_Paks-Szekszárd_építményjegyzék_2007_11_29" xfId="765"/>
-    <cellStyle name="Normal_Curva_Mdo" xfId="766"/>
-    <cellStyle name="Normal_HOLS" xfId="1843"/>
-    <cellStyle name="Normal1" xfId="767"/>
-    <cellStyle name="Normale 2" xfId="768"/>
-    <cellStyle name="Normale 2 2" xfId="769"/>
-    <cellStyle name="Normale 2 2 2" xfId="2600"/>
-    <cellStyle name="Normalny_Cennik obowiazuje od 06-08-2001 r (1)" xfId="770"/>
-    <cellStyle name="Notas 2" xfId="771"/>
-    <cellStyle name="Notas 2 2" xfId="2601"/>
-    <cellStyle name="Notas 2 3" xfId="2137"/>
-    <cellStyle name="Notas 3" xfId="772"/>
-    <cellStyle name="Notas 3 2" xfId="2602"/>
-    <cellStyle name="Notas 4" xfId="2136"/>
-    <cellStyle name="Note 2" xfId="773"/>
-    <cellStyle name="Note 2 2" xfId="2138"/>
-    <cellStyle name="Note 2 3" xfId="2139"/>
-    <cellStyle name="Note 3" xfId="774"/>
-    <cellStyle name="Note 3 2" xfId="2140"/>
-    <cellStyle name="Note 3 3" xfId="2141"/>
-    <cellStyle name="Note 3 3 2" xfId="2736"/>
-    <cellStyle name="Note 4" xfId="775"/>
-    <cellStyle name="Note 4 2" xfId="2142"/>
-    <cellStyle name="Note 4 2 2" xfId="2143"/>
-    <cellStyle name="Note 4 3" xfId="2737"/>
-    <cellStyle name="Note 4 3 2" xfId="2738"/>
-    <cellStyle name="Note 5" xfId="776"/>
-    <cellStyle name="Note 5 2" xfId="2144"/>
-    <cellStyle name="Note 6" xfId="2145"/>
-    <cellStyle name="Note 6 2" xfId="2146"/>
-    <cellStyle name="Note 7" xfId="2147"/>
-    <cellStyle name="Note 8" xfId="2148"/>
-    <cellStyle name="Notiz" xfId="777"/>
-    <cellStyle name="Notiz 2" xfId="2603"/>
-    <cellStyle name="Number" xfId="778"/>
-    <cellStyle name="NumberFormat" xfId="779"/>
-    <cellStyle name="NumberFormat 2" xfId="2604"/>
-    <cellStyle name="numero" xfId="780"/>
-    <cellStyle name="Œ…?æ맖?e [0.00]_laroux" xfId="781"/>
-    <cellStyle name="Œ…?æ맖?e_laroux" xfId="782"/>
-    <cellStyle name="OLELink" xfId="783"/>
-    <cellStyle name="Operis date" xfId="784"/>
-    <cellStyle name="Operis ratio" xfId="785"/>
-    <cellStyle name="OperisBase" xfId="786"/>
-    <cellStyle name="OperisMoney" xfId="787"/>
-    <cellStyle name="OperisPercent" xfId="788"/>
-    <cellStyle name="OperisRatio" xfId="789"/>
-    <cellStyle name="Output" xfId="790"/>
-    <cellStyle name="Output 2" xfId="2149"/>
-    <cellStyle name="Output 3" xfId="2150"/>
-    <cellStyle name="Output 4" xfId="2151"/>
-    <cellStyle name="Output 5" xfId="2152"/>
-    <cellStyle name="Percent [0%]" xfId="2153"/>
-    <cellStyle name="Percent [0.00%]" xfId="2154"/>
-    <cellStyle name="Percent [2]" xfId="791"/>
-    <cellStyle name="Percent [2] 2" xfId="2155"/>
-    <cellStyle name="Percent 10" xfId="2156"/>
-    <cellStyle name="Percent 10 2" xfId="2157"/>
-    <cellStyle name="Percent 10 3" xfId="2158"/>
-    <cellStyle name="Percent 10 4" xfId="2159"/>
-    <cellStyle name="Percent 11" xfId="2160"/>
-    <cellStyle name="Percent 11 2" xfId="2161"/>
-    <cellStyle name="Percent 11 3" xfId="2162"/>
-    <cellStyle name="Percent 11 4" xfId="2163"/>
-    <cellStyle name="Percent 12" xfId="2164"/>
-    <cellStyle name="Percent 12 2" xfId="2165"/>
-    <cellStyle name="Percent 12 3" xfId="2166"/>
-    <cellStyle name="Percent 12 3 2" xfId="2167"/>
-    <cellStyle name="Percent 12 3 3" xfId="2168"/>
-    <cellStyle name="Percent 12 4" xfId="2169"/>
-    <cellStyle name="Percent 12 5" xfId="2170"/>
-    <cellStyle name="Percent 13" xfId="2171"/>
-    <cellStyle name="Percent 13 2" xfId="2172"/>
-    <cellStyle name="Percent 13 3" xfId="2173"/>
-    <cellStyle name="Percent 14" xfId="2174"/>
-    <cellStyle name="Percent 14 2" xfId="2175"/>
-    <cellStyle name="Percent 14 3" xfId="2176"/>
-    <cellStyle name="Percent 15" xfId="2177"/>
-    <cellStyle name="Percent 15 2" xfId="2178"/>
-    <cellStyle name="Percent 15 3" xfId="2179"/>
-    <cellStyle name="Percent 16" xfId="2180"/>
-    <cellStyle name="Percent 17" xfId="2181"/>
-    <cellStyle name="Percent 18" xfId="2182"/>
-    <cellStyle name="Percent 19" xfId="2183"/>
-    <cellStyle name="Percent 2" xfId="792"/>
-    <cellStyle name="Percent 2 2" xfId="2184"/>
-    <cellStyle name="Percent 2 3" xfId="2185"/>
-    <cellStyle name="Percent 2 3 2" xfId="2739"/>
-    <cellStyle name="Percent 2 4" xfId="2186"/>
-    <cellStyle name="Percent 2 4 2" xfId="2740"/>
-    <cellStyle name="Percent 20" xfId="2187"/>
-    <cellStyle name="Percent 20 2" xfId="2188"/>
-    <cellStyle name="Percent 20 3" xfId="2189"/>
-    <cellStyle name="Percent 21" xfId="2190"/>
-    <cellStyle name="Percent 21 2" xfId="2191"/>
-    <cellStyle name="Percent 21 3" xfId="2192"/>
-    <cellStyle name="Percent 22" xfId="2193"/>
-    <cellStyle name="Percent 22 2" xfId="2194"/>
-    <cellStyle name="Percent 23" xfId="2195"/>
-    <cellStyle name="Percent 24" xfId="2196"/>
-    <cellStyle name="Percent 24 2" xfId="2197"/>
-    <cellStyle name="Percent 25" xfId="2198"/>
-    <cellStyle name="Percent 25 2" xfId="2199"/>
-    <cellStyle name="Percent 26" xfId="2200"/>
-    <cellStyle name="Percent 27" xfId="2201"/>
-    <cellStyle name="Percent 28" xfId="2202"/>
-    <cellStyle name="Percent 29" xfId="2203"/>
-    <cellStyle name="Percent 3" xfId="793"/>
-    <cellStyle name="Percent 3 2" xfId="2204"/>
-    <cellStyle name="Percent 3 3" xfId="2205"/>
-    <cellStyle name="Percent 3 3 2" xfId="2741"/>
-    <cellStyle name="Percent 30" xfId="2206"/>
-    <cellStyle name="Percent 31" xfId="2207"/>
-    <cellStyle name="Percent 32" xfId="2208"/>
-    <cellStyle name="Percent 33" xfId="2209"/>
-    <cellStyle name="Percent 34" xfId="2210"/>
-    <cellStyle name="Percent 35" xfId="2211"/>
-    <cellStyle name="Percent 36" xfId="2212"/>
-    <cellStyle name="Percent 36 2" xfId="2213"/>
-    <cellStyle name="Percent 36 3" xfId="2214"/>
-    <cellStyle name="Percent 37" xfId="2215"/>
-    <cellStyle name="Percent 37 2" xfId="2216"/>
-    <cellStyle name="Percent 37 3" xfId="2217"/>
-    <cellStyle name="Percent 38" xfId="2218"/>
-    <cellStyle name="Percent 38 2" xfId="2219"/>
-    <cellStyle name="Percent 38 3" xfId="2220"/>
-    <cellStyle name="Percent 39" xfId="2221"/>
-    <cellStyle name="Percent 4" xfId="2222"/>
-    <cellStyle name="Percent 4 2" xfId="2223"/>
-    <cellStyle name="Percent 4 3" xfId="2224"/>
-    <cellStyle name="Percent 4 3 2" xfId="2225"/>
-    <cellStyle name="Percent 40" xfId="2226"/>
-    <cellStyle name="Percent 40 2" xfId="2227"/>
-    <cellStyle name="Percent 40 3" xfId="2228"/>
-    <cellStyle name="Percent 41" xfId="2229"/>
-    <cellStyle name="Percent 42" xfId="2230"/>
-    <cellStyle name="Percent 43" xfId="2231"/>
-    <cellStyle name="Percent 43 2" xfId="2232"/>
-    <cellStyle name="Percent 43 2 2" xfId="2233"/>
-    <cellStyle name="Percent 44" xfId="2234"/>
-    <cellStyle name="Percent 45" xfId="2235"/>
-    <cellStyle name="Percent 46" xfId="2236"/>
-    <cellStyle name="Percent 47" xfId="2237"/>
-    <cellStyle name="Percent 48" xfId="2238"/>
-    <cellStyle name="Percent 48 2" xfId="2239"/>
-    <cellStyle name="Percent 49" xfId="2240"/>
-    <cellStyle name="Percent 49 2" xfId="2241"/>
-    <cellStyle name="Percent 5" xfId="2242"/>
-    <cellStyle name="Percent 5 2" xfId="2243"/>
-    <cellStyle name="Percent 5 3" xfId="2244"/>
-    <cellStyle name="Percent 5 3 2" xfId="2245"/>
-    <cellStyle name="Percent 5 4" xfId="2246"/>
-    <cellStyle name="Percent 5 5" xfId="2247"/>
-    <cellStyle name="Percent 50" xfId="2248"/>
-    <cellStyle name="Percent 50 2" xfId="2249"/>
-    <cellStyle name="Percent 50 2 2" xfId="2250"/>
-    <cellStyle name="Percent 51" xfId="2251"/>
-    <cellStyle name="Percent 52" xfId="2252"/>
-    <cellStyle name="Percent 53" xfId="2253"/>
-    <cellStyle name="Percent 54" xfId="2254"/>
-    <cellStyle name="Percent 55" xfId="2255"/>
-    <cellStyle name="Percent 56" xfId="2256"/>
-    <cellStyle name="Percent 57" xfId="2257"/>
-    <cellStyle name="Percent 58" xfId="2258"/>
-    <cellStyle name="Percent 59" xfId="2259"/>
-    <cellStyle name="Percent 6" xfId="2260"/>
-    <cellStyle name="Percent 6 2" xfId="2261"/>
-    <cellStyle name="Percent 6 3" xfId="2262"/>
-    <cellStyle name="Percent 6 3 2" xfId="2263"/>
-    <cellStyle name="Percent 6 4" xfId="2264"/>
-    <cellStyle name="Percent 6 5" xfId="2265"/>
-    <cellStyle name="Percent 60" xfId="2266"/>
-    <cellStyle name="Percent 61" xfId="2267"/>
-    <cellStyle name="Percent 62" xfId="2268"/>
-    <cellStyle name="Percent 63" xfId="2269"/>
-    <cellStyle name="Percent 64" xfId="2270"/>
-    <cellStyle name="Percent 65" xfId="2271"/>
-    <cellStyle name="Percent 66" xfId="2272"/>
-    <cellStyle name="Percent 67" xfId="2273"/>
-    <cellStyle name="Percent 68" xfId="2605"/>
-    <cellStyle name="Percent 69" xfId="2606"/>
-    <cellStyle name="Percent 7" xfId="2274"/>
-    <cellStyle name="Percent 7 2" xfId="2275"/>
-    <cellStyle name="Percent 7 3" xfId="2276"/>
-    <cellStyle name="Percent 7 3 2" xfId="2277"/>
-    <cellStyle name="Percent 7 4" xfId="2278"/>
-    <cellStyle name="Percent 8" xfId="2279"/>
-    <cellStyle name="Percent 8 2" xfId="2280"/>
-    <cellStyle name="Percent 8 3" xfId="2281"/>
-    <cellStyle name="Percent 8 3 2" xfId="2282"/>
-    <cellStyle name="Percent 8 4" xfId="2283"/>
-    <cellStyle name="Percent 8 4 2" xfId="2284"/>
-    <cellStyle name="Percent 8 4 3" xfId="2285"/>
-    <cellStyle name="Percent 9" xfId="2286"/>
-    <cellStyle name="Percent 9 2" xfId="2287"/>
-    <cellStyle name="Percent 9 3" xfId="2288"/>
-    <cellStyle name="Percent 9 3 2" xfId="2289"/>
-    <cellStyle name="Percent 9 4" xfId="2290"/>
-    <cellStyle name="Percent 9 5" xfId="2291"/>
-    <cellStyle name="Percent with ()" xfId="794"/>
-    <cellStyle name="Percent[0]" xfId="795"/>
-    <cellStyle name="Percent[0] 2" xfId="2607"/>
-    <cellStyle name="percnt" xfId="796"/>
-    <cellStyle name="percnt 2" xfId="2608"/>
-    <cellStyle name="Pevný" xfId="797"/>
-    <cellStyle name="Porcentaje 2" xfId="799"/>
-    <cellStyle name="Porcentaje 2 2" xfId="2609"/>
-    <cellStyle name="Porcentaje 3" xfId="800"/>
-    <cellStyle name="Porcentaje 3 2" xfId="2610"/>
-    <cellStyle name="Porcentaje 4" xfId="801"/>
-    <cellStyle name="Porcentaje 4 2" xfId="2611"/>
-    <cellStyle name="Porcentaje 5" xfId="802"/>
-    <cellStyle name="Porcentaje 5 2" xfId="2612"/>
-    <cellStyle name="Porcentaje 6" xfId="798"/>
-    <cellStyle name="Porcentual 2" xfId="803"/>
-    <cellStyle name="Porcentual 2 2" xfId="2292"/>
-    <cellStyle name="Porcentual 3" xfId="804"/>
-    <cellStyle name="prezzo unitario" xfId="805"/>
-    <cellStyle name="Rates" xfId="806"/>
-    <cellStyle name="realtime" xfId="807"/>
-    <cellStyle name="Refreshes real time data links for active sheet" xfId="808"/>
-    <cellStyle name="Refreshes real time data links for active sheet 2" xfId="2613"/>
-    <cellStyle name="result" xfId="809"/>
-    <cellStyle name="ri" xfId="810"/>
-    <cellStyle name="ri 2" xfId="2615"/>
-    <cellStyle name="ri 3" xfId="2614"/>
-    <cellStyle name="rt" xfId="811"/>
-    <cellStyle name="Salida 2" xfId="813"/>
-    <cellStyle name="Salida 3" xfId="814"/>
-    <cellStyle name="Salida 4" xfId="815"/>
-    <cellStyle name="Salida 5" xfId="812"/>
-    <cellStyle name="SAPBEXaggData" xfId="816"/>
-    <cellStyle name="SAPBEXaggDataEmph" xfId="817"/>
-    <cellStyle name="SAPBEXaggItem" xfId="818"/>
-    <cellStyle name="SAPBEXchaText" xfId="819"/>
-    <cellStyle name="SAPBEXexcBad7" xfId="820"/>
-    <cellStyle name="SAPBEXexcBad8" xfId="821"/>
-    <cellStyle name="SAPBEXexcBad9" xfId="822"/>
-    <cellStyle name="SAPBEXexcCritical4" xfId="823"/>
-    <cellStyle name="SAPBEXexcCritical5" xfId="824"/>
-    <cellStyle name="SAPBEXexcCritical6" xfId="825"/>
-    <cellStyle name="SAPBEXexcGood1" xfId="826"/>
-    <cellStyle name="SAPBEXexcGood2" xfId="827"/>
-    <cellStyle name="SAPBEXexcGood3" xfId="828"/>
-    <cellStyle name="SAPBEXfilterDrill" xfId="829"/>
-    <cellStyle name="SAPBEXfilterItem" xfId="830"/>
-    <cellStyle name="SAPBEXfilterText" xfId="831"/>
-    <cellStyle name="SAPBEXformats" xfId="832"/>
-    <cellStyle name="SAPBEXheaderItem" xfId="833"/>
-    <cellStyle name="SAPBEXheaderItem 2" xfId="2616"/>
-    <cellStyle name="SAPBEXheaderText" xfId="834"/>
-    <cellStyle name="SAPBEXheaderText 2" xfId="2617"/>
-    <cellStyle name="SAPBEXresData" xfId="835"/>
-    <cellStyle name="SAPBEXresDataEmph" xfId="836"/>
-    <cellStyle name="SAPBEXresItem" xfId="837"/>
-    <cellStyle name="SAPBEXstdData" xfId="838"/>
-    <cellStyle name="SAPBEXstdDataEmph" xfId="839"/>
-    <cellStyle name="SAPBEXstdItem" xfId="840"/>
-    <cellStyle name="SAPBEXtitle" xfId="841"/>
-    <cellStyle name="SAPBEXundefined" xfId="842"/>
-    <cellStyle name="Satisfaisant" xfId="2742"/>
-    <cellStyle name="Schlecht" xfId="843"/>
-    <cellStyle name="Single Border" xfId="844"/>
-    <cellStyle name="Sortie" xfId="2743"/>
-    <cellStyle name="Standard_~0027840" xfId="845"/>
-    <cellStyle name="static" xfId="846"/>
-    <cellStyle name="static 2" xfId="847"/>
-    <cellStyle name="static 2 2" xfId="2293"/>
-    <cellStyle name="static 2 3" xfId="2294"/>
-    <cellStyle name="static 2 4" xfId="2295"/>
-    <cellStyle name="static 2_BBV" xfId="2296"/>
-    <cellStyle name="static 3" xfId="2297"/>
-    <cellStyle name="static 3 2" xfId="2744"/>
-    <cellStyle name="static 4" xfId="2745"/>
-    <cellStyle name="static 4 2" xfId="2746"/>
-    <cellStyle name="static_AjustesPorColat" xfId="848"/>
-    <cellStyle name="Std_%" xfId="849"/>
-    <cellStyle name="Style 1" xfId="850"/>
-    <cellStyle name="Style 1 2" xfId="2298"/>
-    <cellStyle name="Style 1 2 2" xfId="2299"/>
-    <cellStyle name="Style 1 2 3" xfId="2300"/>
-    <cellStyle name="Style 1 3" xfId="2301"/>
-    <cellStyle name="Style 1 3 2" xfId="2747"/>
-    <cellStyle name="Style 1 3 3" xfId="2748"/>
-    <cellStyle name="Style 1 3 3 2" xfId="2749"/>
-    <cellStyle name="Style 1 4" xfId="2302"/>
-    <cellStyle name="Style 1 4 2" xfId="2750"/>
-    <cellStyle name="Style 1 5" xfId="2303"/>
-    <cellStyle name="Style 1 5 2" xfId="2751"/>
-    <cellStyle name="Style 1_BBV" xfId="2304"/>
-    <cellStyle name="Style 10" xfId="851"/>
-    <cellStyle name="Style 10 2" xfId="2305"/>
-    <cellStyle name="Style 11" xfId="852"/>
-    <cellStyle name="Style 11 2" xfId="2306"/>
-    <cellStyle name="Style 12" xfId="853"/>
-    <cellStyle name="Style 12 2" xfId="854"/>
-    <cellStyle name="Style 12 2 2" xfId="2307"/>
-    <cellStyle name="Style 12 3" xfId="2308"/>
-    <cellStyle name="Style 12_BBGData" xfId="855"/>
-    <cellStyle name="Style 13" xfId="856"/>
-    <cellStyle name="Style 13 2" xfId="857"/>
-    <cellStyle name="Style 13 2 2" xfId="2309"/>
-    <cellStyle name="Style 13 3" xfId="2310"/>
-    <cellStyle name="Style 13_BBGData" xfId="858"/>
-    <cellStyle name="Style 14" xfId="859"/>
-    <cellStyle name="Style 14 2" xfId="2311"/>
-    <cellStyle name="Style 15" xfId="860"/>
-    <cellStyle name="Style 15 2" xfId="861"/>
-    <cellStyle name="Style 15 2 2" xfId="2312"/>
-    <cellStyle name="Style 15 3" xfId="2313"/>
-    <cellStyle name="Style 15_BBGData" xfId="862"/>
-    <cellStyle name="Style 16" xfId="863"/>
-    <cellStyle name="Style 16 2" xfId="864"/>
-    <cellStyle name="Style 16 2 2" xfId="2314"/>
-    <cellStyle name="Style 16 3" xfId="2315"/>
-    <cellStyle name="Style 16_BBGData" xfId="865"/>
-    <cellStyle name="Style 2" xfId="866"/>
-    <cellStyle name="Style 3" xfId="867"/>
-    <cellStyle name="Style 3 2" xfId="2618"/>
-    <cellStyle name="Style 3 3" xfId="2316"/>
-    <cellStyle name="Style 4" xfId="868"/>
-    <cellStyle name="Style 4 2" xfId="2619"/>
-    <cellStyle name="Style 4 3" xfId="2317"/>
-    <cellStyle name="Style 5" xfId="869"/>
-    <cellStyle name="Style 5 2" xfId="2620"/>
-    <cellStyle name="Style 5 3" xfId="2318"/>
-    <cellStyle name="Style 6" xfId="870"/>
-    <cellStyle name="Style 7" xfId="871"/>
-    <cellStyle name="Style 8" xfId="872"/>
-    <cellStyle name="Style 8 2" xfId="2319"/>
-    <cellStyle name="Style 9" xfId="873"/>
-    <cellStyle name="Style 9 2" xfId="874"/>
-    <cellStyle name="Style 9 2 2" xfId="2320"/>
-    <cellStyle name="Style 9 3" xfId="2321"/>
-    <cellStyle name="Style 9_BBGData" xfId="875"/>
-    <cellStyle name="subhead" xfId="876"/>
-    <cellStyle name="swpBody01" xfId="877"/>
-    <cellStyle name="swpBodyClean" xfId="878"/>
-    <cellStyle name="swpBodyClean 2" xfId="879"/>
-    <cellStyle name="swpBodyClean 2 2" xfId="2621"/>
-    <cellStyle name="swpBodyClean 3" xfId="880"/>
-    <cellStyle name="swpBodyClean 3 2" xfId="2622"/>
-    <cellStyle name="swpBodyClean 4" xfId="2623"/>
-    <cellStyle name="swpBodyFirstCol" xfId="881"/>
-    <cellStyle name="swpCaption" xfId="882"/>
-    <cellStyle name="swpClear" xfId="883"/>
-    <cellStyle name="swpClear 2" xfId="884"/>
-    <cellStyle name="swpClear 2 2" xfId="2624"/>
-    <cellStyle name="swpClear 3" xfId="885"/>
-    <cellStyle name="swpClear 3 2" xfId="2625"/>
-    <cellStyle name="swpClear 4" xfId="2626"/>
-    <cellStyle name="swpDatum_english" xfId="886"/>
-    <cellStyle name="swpHBBookTitle" xfId="887"/>
-    <cellStyle name="swpHBChapterTitle" xfId="888"/>
-    <cellStyle name="swpHead01" xfId="889"/>
-    <cellStyle name="swpHead01R" xfId="890"/>
-    <cellStyle name="swpHead02" xfId="891"/>
-    <cellStyle name="swpHead02R" xfId="892"/>
-    <cellStyle name="swpHead03" xfId="893"/>
-    <cellStyle name="swpHead03R" xfId="894"/>
-    <cellStyle name="swpHeadBraL" xfId="895"/>
-    <cellStyle name="swpHeadBraL 2" xfId="896"/>
-    <cellStyle name="swpHeadBraL 2 2" xfId="2627"/>
-    <cellStyle name="swpHeadBraL 3" xfId="897"/>
-    <cellStyle name="swpHeadBraL 3 2" xfId="2628"/>
-    <cellStyle name="swpHeadBraL 4" xfId="2629"/>
-    <cellStyle name="swpHeadBraM" xfId="898"/>
-    <cellStyle name="swpHeadBraM 2" xfId="899"/>
-    <cellStyle name="swpHeadBraM 2 2" xfId="2630"/>
-    <cellStyle name="swpHeadBraM 3" xfId="900"/>
-    <cellStyle name="swpHeadBraM 3 2" xfId="2631"/>
-    <cellStyle name="swpHeadBraM 4" xfId="2632"/>
-    <cellStyle name="swpHeadBraR" xfId="901"/>
-    <cellStyle name="swpHeadBraR 2" xfId="902"/>
-    <cellStyle name="swpHeadBraR 2 2" xfId="2633"/>
-    <cellStyle name="swpHeadBraR 3" xfId="903"/>
-    <cellStyle name="swpHeadBraR 3 2" xfId="2634"/>
-    <cellStyle name="swpHeadBraR 4" xfId="2635"/>
-    <cellStyle name="swpTag" xfId="904"/>
-    <cellStyle name="swpTotals" xfId="905"/>
-    <cellStyle name="swpTotalsNo" xfId="906"/>
-    <cellStyle name="swpTotalsTotal" xfId="907"/>
-    <cellStyle name="SYSTEM" xfId="908"/>
-    <cellStyle name="T" xfId="909"/>
-    <cellStyle name="T 2" xfId="2636"/>
-    <cellStyle name="T 3" xfId="2322"/>
-    <cellStyle name="T_Book1" xfId="910"/>
-    <cellStyle name="T_Book1_1" xfId="911"/>
-    <cellStyle name="T_Book1_1_CPK" xfId="912"/>
-    <cellStyle name="T_Book1_1_CPK_REALTIME_EURUSD" xfId="913"/>
-    <cellStyle name="T_Book1_1_CPK_REALTIME_EURUSD_1" xfId="914"/>
-    <cellStyle name="T_Book1_1_CPK_REALTIME_USDEUR" xfId="915"/>
-    <cellStyle name="T_Book1_1_CPK_REALTIME_USDMXN" xfId="916"/>
-    <cellStyle name="T_Book1_1_REALTIME_EURUSD" xfId="917"/>
-    <cellStyle name="T_Book1_1_REALTIME_EURUSD_1" xfId="918"/>
-    <cellStyle name="T_Book1_1_REALTIME_USDEUR" xfId="919"/>
-    <cellStyle name="T_Book1_1_REALTIME_USDMXN" xfId="920"/>
-    <cellStyle name="T_Book1_1_Thiet bi" xfId="921"/>
-    <cellStyle name="T_Book1_1_Thiet bi_REALTIME_EURUSD" xfId="922"/>
-    <cellStyle name="T_Book1_1_Thiet bi_REALTIME_EURUSD_1" xfId="923"/>
-    <cellStyle name="T_Book1_1_Thiet bi_REALTIME_USDEUR" xfId="924"/>
-    <cellStyle name="T_Book1_1_Thiet bi_REALTIME_USDMXN" xfId="925"/>
-    <cellStyle name="T_Book1_CPK" xfId="926"/>
-    <cellStyle name="T_Book1_CPK_REALTIME_EURUSD" xfId="927"/>
-    <cellStyle name="T_Book1_CPK_REALTIME_EURUSD_1" xfId="928"/>
-    <cellStyle name="T_Book1_CPK_REALTIME_USDEUR" xfId="929"/>
-    <cellStyle name="T_Book1_CPK_REALTIME_USDMXN" xfId="930"/>
-    <cellStyle name="T_Book1_REALTIME_EURUSD" xfId="931"/>
-    <cellStyle name="T_Book1_REALTIME_EURUSD_1" xfId="932"/>
-    <cellStyle name="T_Book1_REALTIME_USDEUR" xfId="933"/>
-    <cellStyle name="T_Book1_REALTIME_USDMXN" xfId="934"/>
-    <cellStyle name="T_Book1_Thiet bi" xfId="935"/>
-    <cellStyle name="T_Book1_Thiet bi_REALTIME_EURUSD" xfId="936"/>
-    <cellStyle name="T_Book1_Thiet bi_REALTIME_EURUSD_1" xfId="937"/>
-    <cellStyle name="T_Book1_Thiet bi_REALTIME_USDEUR" xfId="938"/>
-    <cellStyle name="T_Book1_Thiet bi_REALTIME_USDMXN" xfId="939"/>
-    <cellStyle name="T_CPK" xfId="940"/>
-    <cellStyle name="T_CPK_REALTIME_EURUSD" xfId="941"/>
-    <cellStyle name="T_CPK_REALTIME_EURUSD_1" xfId="942"/>
-    <cellStyle name="T_CPK_REALTIME_USDEUR" xfId="943"/>
-    <cellStyle name="T_CPK_REALTIME_USDMXN" xfId="944"/>
-    <cellStyle name="T_REALTIME_EURUSD" xfId="945"/>
-    <cellStyle name="T_REALTIME_EURUSD_1" xfId="946"/>
-    <cellStyle name="T_REALTIME_USDEUR" xfId="947"/>
-    <cellStyle name="T_REALTIME_USDMXN" xfId="948"/>
-    <cellStyle name="T_Thiet bi" xfId="949"/>
-    <cellStyle name="T_Thiet bi_REALTIME_EURUSD" xfId="950"/>
-    <cellStyle name="T_Thiet bi_REALTIME_EURUSD_1" xfId="951"/>
-    <cellStyle name="T_Thiet bi_REALTIME_USDEUR" xfId="952"/>
-    <cellStyle name="T_Thiet bi_REALTIME_USDMXN" xfId="953"/>
-    <cellStyle name="T1" xfId="954"/>
-    <cellStyle name="text" xfId="955"/>
-    <cellStyle name="Texte explicatif" xfId="2752"/>
-    <cellStyle name="Texto de advertencia 2" xfId="956"/>
-    <cellStyle name="Texto de advertencia 3" xfId="957"/>
-    <cellStyle name="Texto explicativo 2" xfId="959"/>
-    <cellStyle name="Texto explicativo 3" xfId="960"/>
-    <cellStyle name="Texto explicativo 4" xfId="961"/>
-    <cellStyle name="Texto explicativo 5" xfId="958"/>
-    <cellStyle name="th" xfId="962"/>
-    <cellStyle name="TIME Detail" xfId="963"/>
-    <cellStyle name="TIME Period Start" xfId="964"/>
-    <cellStyle name="Title" xfId="965"/>
-    <cellStyle name="Title 2" xfId="2323"/>
-    <cellStyle name="Title 2 2" xfId="2324"/>
-    <cellStyle name="Title 3" xfId="2325"/>
-    <cellStyle name="Title 4" xfId="2326"/>
-    <cellStyle name="Title 5" xfId="2327"/>
-    <cellStyle name="Titre" xfId="2753"/>
-    <cellStyle name="Titre 1" xfId="2754"/>
-    <cellStyle name="Titre 2" xfId="2755"/>
-    <cellStyle name="Titre 3" xfId="2756"/>
-    <cellStyle name="Titre 4" xfId="2757"/>
-    <cellStyle name="TitreRub" xfId="966"/>
-    <cellStyle name="TitreRub 2" xfId="2637"/>
-    <cellStyle name="TitreTab" xfId="967"/>
-    <cellStyle name="TitreTab 2" xfId="2638"/>
-    <cellStyle name="Título 1 2" xfId="970"/>
-    <cellStyle name="Título 1 3" xfId="971"/>
-    <cellStyle name="Título 1 4" xfId="972"/>
-    <cellStyle name="Título 1 5" xfId="969"/>
-    <cellStyle name="Título 2 2" xfId="974"/>
-    <cellStyle name="Título 2 3" xfId="975"/>
-    <cellStyle name="Título 2 4" xfId="976"/>
-    <cellStyle name="Título 2 5" xfId="973"/>
-    <cellStyle name="Título 3 2" xfId="978"/>
-    <cellStyle name="Título 3 3" xfId="979"/>
-    <cellStyle name="Título 3 4" xfId="980"/>
-    <cellStyle name="Título 3 5" xfId="977"/>
-    <cellStyle name="Título 4" xfId="981"/>
-    <cellStyle name="Título 5" xfId="982"/>
-    <cellStyle name="Título 6" xfId="968"/>
-    <cellStyle name="Topheader" xfId="983"/>
-    <cellStyle name="Total 2" xfId="985"/>
-    <cellStyle name="Total 2 2" xfId="2328"/>
-    <cellStyle name="Total 3" xfId="984"/>
-    <cellStyle name="Total 3 2" xfId="2330"/>
-    <cellStyle name="Total 3 3" xfId="2329"/>
-    <cellStyle name="Total 4" xfId="2331"/>
-    <cellStyle name="Total 5" xfId="2332"/>
-    <cellStyle name="toto" xfId="2333"/>
-    <cellStyle name="toto 2" xfId="2334"/>
-    <cellStyle name="toto 2 2" xfId="2335"/>
-    <cellStyle name="toto 2 3" xfId="2336"/>
-    <cellStyle name="toto 2 4" xfId="2337"/>
-    <cellStyle name="toto 2_BBV" xfId="2338"/>
-    <cellStyle name="toto 3" xfId="2339"/>
-    <cellStyle name="toto 3 2" xfId="2340"/>
-    <cellStyle name="toto 3 3" xfId="2341"/>
-    <cellStyle name="toto 4" xfId="2342"/>
-    <cellStyle name="toto 4 2" xfId="2343"/>
-    <cellStyle name="toto 4 3" xfId="2344"/>
-    <cellStyle name="toto_BBV" xfId="2345"/>
-    <cellStyle name="tt1" xfId="986"/>
-    <cellStyle name="u.m. articolo" xfId="987"/>
-    <cellStyle name="Überschrift" xfId="988"/>
-    <cellStyle name="Überschrift 1" xfId="989"/>
-    <cellStyle name="Überschrift 2" xfId="990"/>
-    <cellStyle name="Überschrift 3" xfId="991"/>
-    <cellStyle name="Überschrift 4" xfId="992"/>
-    <cellStyle name="unità di misura" xfId="993"/>
-    <cellStyle name="unità di misura 2" xfId="2639"/>
-    <cellStyle name="UserInput_WillContribute" xfId="994"/>
-    <cellStyle name="ux_3_¼­¿ï-¾È»ê" xfId="995"/>
-    <cellStyle name="Valuta (0)_analisi costi tecnologici e edili  NIGUARDA" xfId="996"/>
-    <cellStyle name="Vérification" xfId="2758"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="997"/>
-    <cellStyle name="viet" xfId="998"/>
-    <cellStyle name="viet 2" xfId="2640"/>
-    <cellStyle name="viet 3" xfId="2346"/>
-    <cellStyle name="viet2" xfId="999"/>
-    <cellStyle name="viet2 2" xfId="2641"/>
-    <cellStyle name="viet2 3" xfId="2347"/>
-    <cellStyle name="vnbo" xfId="1000"/>
-    <cellStyle name="vnbo 2" xfId="2348"/>
-    <cellStyle name="vnhead1" xfId="1001"/>
-    <cellStyle name="vnhead2" xfId="1002"/>
-    <cellStyle name="vnhead2 2" xfId="2349"/>
-    <cellStyle name="vnhead3" xfId="1003"/>
-    <cellStyle name="vnhead3 2" xfId="2350"/>
-    <cellStyle name="vnhead4" xfId="1004"/>
-    <cellStyle name="vntxt1" xfId="1005"/>
-    <cellStyle name="vntxt1 2" xfId="2351"/>
-    <cellStyle name="vntxt2" xfId="1006"/>
-    <cellStyle name="Währung [0]_35ERI8T2gbIEMixb4v26icuOo" xfId="1007"/>
-    <cellStyle name="Währung €" xfId="1008"/>
-    <cellStyle name="Währung € 2" xfId="2642"/>
-    <cellStyle name="Währung DM" xfId="1009"/>
-    <cellStyle name="Währung DM 2" xfId="2643"/>
-    <cellStyle name="Währung_35ERI8T2gbIEMixb4v26icuOo" xfId="1010"/>
-    <cellStyle name="Walutowy [0]_Invoices2001Slovakia" xfId="1011"/>
-    <cellStyle name="Walutowy_Invoices2001Slovakia" xfId="1012"/>
-    <cellStyle name="Warnender Text" xfId="1013"/>
-    <cellStyle name="Warning Text 2" xfId="2352"/>
-    <cellStyle name="Warning Text 3" xfId="2353"/>
-    <cellStyle name="Warning Text 4" xfId="2354"/>
-    <cellStyle name="Warning Text 5" xfId="2355"/>
-    <cellStyle name="x" xfId="2356"/>
-    <cellStyle name="x 10" xfId="2357"/>
-    <cellStyle name="x 2" xfId="2358"/>
-    <cellStyle name="x 2 2" xfId="2359"/>
-    <cellStyle name="x 2 3" xfId="2360"/>
-    <cellStyle name="x 2 4" xfId="2361"/>
-    <cellStyle name="x 3" xfId="2362"/>
-    <cellStyle name="x 3 2" xfId="2363"/>
-    <cellStyle name="x 3 3" xfId="2364"/>
-    <cellStyle name="x 4" xfId="2365"/>
-    <cellStyle name="x 4 2" xfId="2366"/>
-    <cellStyle name="x 5" xfId="2367"/>
-    <cellStyle name="x 6" xfId="2368"/>
-    <cellStyle name="x 6 2" xfId="2369"/>
-    <cellStyle name="x 6 3" xfId="2370"/>
-    <cellStyle name="x 7" xfId="2371"/>
-    <cellStyle name="x 7 2" xfId="2372"/>
-    <cellStyle name="x 7 2 2" xfId="2373"/>
-    <cellStyle name="x 8" xfId="2374"/>
-    <cellStyle name="x 8 2" xfId="2375"/>
-    <cellStyle name="x 9" xfId="2376"/>
-    <cellStyle name="x 9 2" xfId="2377"/>
-    <cellStyle name="xuan" xfId="1014"/>
-    <cellStyle name="Ý kh¸c_B¶ng 1 (2)" xfId="1015"/>
-    <cellStyle name="Záhlaví 1" xfId="1016"/>
-    <cellStyle name="Záhlaví 2" xfId="1017"/>
-    <cellStyle name="Zelle überprüfen" xfId="1018"/>
-    <cellStyle name="Обычный_biadutoan" xfId="1019"/>
-    <cellStyle name=" [0.00]_ Att. 1- Cover" xfId="1020"/>
-    <cellStyle name="_ Att. 1- Cover" xfId="1021"/>
-    <cellStyle name="?_ Att. 1- Cover" xfId="1022"/>
-    <cellStyle name="강조색1" xfId="1023"/>
-    <cellStyle name="강조색2" xfId="1024"/>
-    <cellStyle name="강조색3" xfId="1025"/>
-    <cellStyle name="강조색4" xfId="1026"/>
-    <cellStyle name="강조색5" xfId="1027"/>
-    <cellStyle name="강조색6" xfId="1028"/>
-    <cellStyle name="경고문" xfId="1029"/>
-    <cellStyle name="계산" xfId="1030"/>
-    <cellStyle name="나쁨" xfId="1031"/>
-    <cellStyle name="뒤에 오는 하이퍼링크" xfId="1032"/>
-    <cellStyle name="똿뗦먛귟 [0.00]_PRODUCT DETAIL Q1" xfId="1033"/>
-    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="1034"/>
-    <cellStyle name="메모" xfId="1035"/>
-    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="1036"/>
-    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="1037"/>
-    <cellStyle name="백분율 2" xfId="1038"/>
-    <cellStyle name="버미" xfId="1039"/>
-    <cellStyle name="보통" xfId="1040"/>
-    <cellStyle name="뷭?_BOOKSHIP" xfId="1041"/>
-    <cellStyle name="설명 텍스트" xfId="1042"/>
-    <cellStyle name="셀 확인" xfId="1043"/>
-    <cellStyle name="쉼표 [0] 2" xfId="1044"/>
-    <cellStyle name="쉼표 [0] 2 2" xfId="2644"/>
-    <cellStyle name="쉼표 [0] 2 3" xfId="2378"/>
-    <cellStyle name="스타일 1" xfId="1045"/>
-    <cellStyle name="안건회계법인" xfId="1046"/>
-    <cellStyle name="연결된 셀" xfId="1047"/>
-    <cellStyle name="요약" xfId="1048"/>
-    <cellStyle name="입력" xfId="1049"/>
-    <cellStyle name="제목" xfId="1050"/>
-    <cellStyle name="제목 1" xfId="1051"/>
-    <cellStyle name="제목 2" xfId="1052"/>
-    <cellStyle name="제목 3" xfId="1053"/>
-    <cellStyle name="제목 4" xfId="1054"/>
-    <cellStyle name="좋음" xfId="1055"/>
-    <cellStyle name="출력" xfId="1056"/>
-    <cellStyle name="콤마 [0]_1" xfId="1057"/>
-    <cellStyle name="콤마[0]" xfId="1058"/>
-    <cellStyle name="콤마_1" xfId="1059"/>
-    <cellStyle name="표줠_Sheet1_1_총괄표 (수출입) (2)" xfId="1060"/>
-    <cellStyle name="一般_00Q3902REV.1" xfId="1061"/>
-    <cellStyle name="千分位[0]_00Q3902REV.1" xfId="1062"/>
-    <cellStyle name="千分位_00Q3902REV.1" xfId="1063"/>
-    <cellStyle name="標準_Akia(F）-8" xfId="1064"/>
-    <cellStyle name="貨幣 [0]_00Q3902REV.1" xfId="1065"/>
-    <cellStyle name="貨幣[0]_BRE" xfId="1066"/>
-    <cellStyle name="貨幣_00Q3902REV.1" xfId="1067"/>
+    <cellStyle name="Normal - Style1" xfId="749" xr:uid="{00000000-0005-0000-0000-000085070000}"/>
+    <cellStyle name="Normal - Style1 2" xfId="1952" xr:uid="{00000000-0005-0000-0000-000086070000}"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000087070000}"/>
+    <cellStyle name="Normal 10 2" xfId="1954" xr:uid="{00000000-0005-0000-0000-000088070000}"/>
+    <cellStyle name="Normal 10 3" xfId="1955" xr:uid="{00000000-0005-0000-0000-000089070000}"/>
+    <cellStyle name="Normal 10 3 2" xfId="1956" xr:uid="{00000000-0005-0000-0000-00008A070000}"/>
+    <cellStyle name="Normal 10 4" xfId="1953" xr:uid="{00000000-0005-0000-0000-00008B070000}"/>
+    <cellStyle name="Normal 100" xfId="1957" xr:uid="{00000000-0005-0000-0000-00008C070000}"/>
+    <cellStyle name="Normal 101" xfId="1958" xr:uid="{00000000-0005-0000-0000-00008D070000}"/>
+    <cellStyle name="Normal 101 2" xfId="1959" xr:uid="{00000000-0005-0000-0000-00008E070000}"/>
+    <cellStyle name="Normal 102" xfId="1960" xr:uid="{00000000-0005-0000-0000-00008F070000}"/>
+    <cellStyle name="Normal 103" xfId="1961" xr:uid="{00000000-0005-0000-0000-000090070000}"/>
+    <cellStyle name="Normal 104" xfId="1962" xr:uid="{00000000-0005-0000-0000-000091070000}"/>
+    <cellStyle name="Normal 105" xfId="1963" xr:uid="{00000000-0005-0000-0000-000092070000}"/>
+    <cellStyle name="Normal 106" xfId="1964" xr:uid="{00000000-0005-0000-0000-000093070000}"/>
+    <cellStyle name="Normal 107" xfId="1965" xr:uid="{00000000-0005-0000-0000-000094070000}"/>
+    <cellStyle name="Normal 108" xfId="1966" xr:uid="{00000000-0005-0000-0000-000095070000}"/>
+    <cellStyle name="Normal 109" xfId="1967" xr:uid="{00000000-0005-0000-0000-000096070000}"/>
+    <cellStyle name="Normal 11" xfId="1068" xr:uid="{00000000-0005-0000-0000-000097070000}"/>
+    <cellStyle name="Normal 11 2" xfId="1968" xr:uid="{00000000-0005-0000-0000-000098070000}"/>
+    <cellStyle name="Normal 110" xfId="1969" xr:uid="{00000000-0005-0000-0000-000099070000}"/>
+    <cellStyle name="Normal 111" xfId="1970" xr:uid="{00000000-0005-0000-0000-00009A070000}"/>
+    <cellStyle name="Normal 112" xfId="1971" xr:uid="{00000000-0005-0000-0000-00009B070000}"/>
+    <cellStyle name="Normal 112 2" xfId="750" xr:uid="{00000000-0005-0000-0000-00009C070000}"/>
+    <cellStyle name="Normal 112 2 2" xfId="1972" xr:uid="{00000000-0005-0000-0000-00009D070000}"/>
+    <cellStyle name="Normal 113" xfId="1973" xr:uid="{00000000-0005-0000-0000-00009E070000}"/>
+    <cellStyle name="Normal 114" xfId="1974" xr:uid="{00000000-0005-0000-0000-00009F070000}"/>
+    <cellStyle name="Normal 115" xfId="1975" xr:uid="{00000000-0005-0000-0000-0000A0070000}"/>
+    <cellStyle name="Normal 116" xfId="1976" xr:uid="{00000000-0005-0000-0000-0000A1070000}"/>
+    <cellStyle name="Normal 117" xfId="1977" xr:uid="{00000000-0005-0000-0000-0000A2070000}"/>
+    <cellStyle name="Normal 118" xfId="1978" xr:uid="{00000000-0005-0000-0000-0000A3070000}"/>
+    <cellStyle name="Normal 119" xfId="1979" xr:uid="{00000000-0005-0000-0000-0000A4070000}"/>
+    <cellStyle name="Normal 12" xfId="1980" xr:uid="{00000000-0005-0000-0000-0000A5070000}"/>
+    <cellStyle name="Normal 120" xfId="1981" xr:uid="{00000000-0005-0000-0000-0000A6070000}"/>
+    <cellStyle name="Normal 121" xfId="1982" xr:uid="{00000000-0005-0000-0000-0000A7070000}"/>
+    <cellStyle name="Normal 122" xfId="1983" xr:uid="{00000000-0005-0000-0000-0000A8070000}"/>
+    <cellStyle name="Normal 123" xfId="1984" xr:uid="{00000000-0005-0000-0000-0000A9070000}"/>
+    <cellStyle name="Normal 124" xfId="1985" xr:uid="{00000000-0005-0000-0000-0000AA070000}"/>
+    <cellStyle name="Normal 125" xfId="1986" xr:uid="{00000000-0005-0000-0000-0000AB070000}"/>
+    <cellStyle name="Normal 126" xfId="1987" xr:uid="{00000000-0005-0000-0000-0000AC070000}"/>
+    <cellStyle name="Normal 127" xfId="2590" xr:uid="{00000000-0005-0000-0000-0000AD070000}"/>
+    <cellStyle name="Normal 128" xfId="2591" xr:uid="{00000000-0005-0000-0000-0000AE070000}"/>
+    <cellStyle name="Normal 129" xfId="2728" xr:uid="{00000000-0005-0000-0000-0000AF070000}"/>
+    <cellStyle name="Normal 13" xfId="1988" xr:uid="{00000000-0005-0000-0000-0000B0070000}"/>
+    <cellStyle name="Normal 13 2" xfId="1989" xr:uid="{00000000-0005-0000-0000-0000B1070000}"/>
+    <cellStyle name="Normal 13 3" xfId="1990" xr:uid="{00000000-0005-0000-0000-0000B2070000}"/>
+    <cellStyle name="Normal 13 3 2" xfId="1991" xr:uid="{00000000-0005-0000-0000-0000B3070000}"/>
+    <cellStyle name="Normal 130" xfId="2729" xr:uid="{00000000-0005-0000-0000-0000B4070000}"/>
+    <cellStyle name="Normal 14" xfId="1992" xr:uid="{00000000-0005-0000-0000-0000B5070000}"/>
+    <cellStyle name="Normal 15" xfId="1993" xr:uid="{00000000-0005-0000-0000-0000B6070000}"/>
+    <cellStyle name="Normal 15 2" xfId="1994" xr:uid="{00000000-0005-0000-0000-0000B7070000}"/>
+    <cellStyle name="Normal 15 3" xfId="1995" xr:uid="{00000000-0005-0000-0000-0000B8070000}"/>
+    <cellStyle name="Normal 15 3 2" xfId="1996" xr:uid="{00000000-0005-0000-0000-0000B9070000}"/>
+    <cellStyle name="Normal 16" xfId="1997" xr:uid="{00000000-0005-0000-0000-0000BA070000}"/>
+    <cellStyle name="Normal 17" xfId="1998" xr:uid="{00000000-0005-0000-0000-0000BB070000}"/>
+    <cellStyle name="Normal 17 2" xfId="1999" xr:uid="{00000000-0005-0000-0000-0000BC070000}"/>
+    <cellStyle name="Normal 18" xfId="2000" xr:uid="{00000000-0005-0000-0000-0000BD070000}"/>
+    <cellStyle name="Normal 19" xfId="2001" xr:uid="{00000000-0005-0000-0000-0000BE070000}"/>
+    <cellStyle name="Normal 19 2" xfId="2002" xr:uid="{00000000-0005-0000-0000-0000BF070000}"/>
+    <cellStyle name="Normal 2" xfId="751" xr:uid="{00000000-0005-0000-0000-0000C0070000}"/>
+    <cellStyle name="Normal 2 2" xfId="752" xr:uid="{00000000-0005-0000-0000-0000C1070000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="2003" xr:uid="{00000000-0005-0000-0000-0000C2070000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="2004" xr:uid="{00000000-0005-0000-0000-0000C3070000}"/>
+    <cellStyle name="Normal 2 3" xfId="753" xr:uid="{00000000-0005-0000-0000-0000C4070000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="2592" xr:uid="{00000000-0005-0000-0000-0000C5070000}"/>
+    <cellStyle name="Normal 2 4" xfId="754" xr:uid="{00000000-0005-0000-0000-0000C6070000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="2593" xr:uid="{00000000-0005-0000-0000-0000C7070000}"/>
+    <cellStyle name="Normal 2 4 3" xfId="2005" xr:uid="{00000000-0005-0000-0000-0000C8070000}"/>
+    <cellStyle name="Normal 2 5" xfId="755" xr:uid="{00000000-0005-0000-0000-0000C9070000}"/>
+    <cellStyle name="Normal 2 5 2" xfId="2594" xr:uid="{00000000-0005-0000-0000-0000CA070000}"/>
+    <cellStyle name="Normal 2 5 3" xfId="2006" xr:uid="{00000000-0005-0000-0000-0000CB070000}"/>
+    <cellStyle name="Normal 2 6" xfId="2007" xr:uid="{00000000-0005-0000-0000-0000CC070000}"/>
+    <cellStyle name="Normal 2 6 2" xfId="2595" xr:uid="{00000000-0005-0000-0000-0000CD070000}"/>
+    <cellStyle name="Normal 2_12577900" xfId="756" xr:uid="{00000000-0005-0000-0000-0000CE070000}"/>
+    <cellStyle name="Normal 20" xfId="2008" xr:uid="{00000000-0005-0000-0000-0000CF070000}"/>
+    <cellStyle name="Normal 21" xfId="2009" xr:uid="{00000000-0005-0000-0000-0000D0070000}"/>
+    <cellStyle name="Normal 21 2" xfId="2010" xr:uid="{00000000-0005-0000-0000-0000D1070000}"/>
+    <cellStyle name="Normal 22" xfId="2011" xr:uid="{00000000-0005-0000-0000-0000D2070000}"/>
+    <cellStyle name="Normal 23" xfId="2012" xr:uid="{00000000-0005-0000-0000-0000D3070000}"/>
+    <cellStyle name="Normal 23 2" xfId="2013" xr:uid="{00000000-0005-0000-0000-0000D4070000}"/>
+    <cellStyle name="Normal 24" xfId="2014" xr:uid="{00000000-0005-0000-0000-0000D5070000}"/>
+    <cellStyle name="Normal 25" xfId="2015" xr:uid="{00000000-0005-0000-0000-0000D6070000}"/>
+    <cellStyle name="Normal 25 2" xfId="2016" xr:uid="{00000000-0005-0000-0000-0000D7070000}"/>
+    <cellStyle name="Normal 26" xfId="2017" xr:uid="{00000000-0005-0000-0000-0000D8070000}"/>
+    <cellStyle name="Normal 27" xfId="2018" xr:uid="{00000000-0005-0000-0000-0000D9070000}"/>
+    <cellStyle name="Normal 27 2" xfId="2019" xr:uid="{00000000-0005-0000-0000-0000DA070000}"/>
+    <cellStyle name="Normal 28" xfId="2020" xr:uid="{00000000-0005-0000-0000-0000DB070000}"/>
+    <cellStyle name="Normal 29" xfId="2021" xr:uid="{00000000-0005-0000-0000-0000DC070000}"/>
+    <cellStyle name="Normal 3" xfId="757" xr:uid="{00000000-0005-0000-0000-0000DD070000}"/>
+    <cellStyle name="Normal 3 2" xfId="2022" xr:uid="{00000000-0005-0000-0000-0000DE070000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="2023" xr:uid="{00000000-0005-0000-0000-0000DF070000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="2024" xr:uid="{00000000-0005-0000-0000-0000E0070000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="2025" xr:uid="{00000000-0005-0000-0000-0000E1070000}"/>
+    <cellStyle name="Normal 3 3" xfId="2026" xr:uid="{00000000-0005-0000-0000-0000E2070000}"/>
+    <cellStyle name="Normal 3 4" xfId="2027" xr:uid="{00000000-0005-0000-0000-0000E3070000}"/>
+    <cellStyle name="Normal 30" xfId="2028" xr:uid="{00000000-0005-0000-0000-0000E4070000}"/>
+    <cellStyle name="Normal 31" xfId="2029" xr:uid="{00000000-0005-0000-0000-0000E5070000}"/>
+    <cellStyle name="Normal 32" xfId="2030" xr:uid="{00000000-0005-0000-0000-0000E6070000}"/>
+    <cellStyle name="Normal 33" xfId="2031" xr:uid="{00000000-0005-0000-0000-0000E7070000}"/>
+    <cellStyle name="Normal 34" xfId="2032" xr:uid="{00000000-0005-0000-0000-0000E8070000}"/>
+    <cellStyle name="Normal 35" xfId="2033" xr:uid="{00000000-0005-0000-0000-0000E9070000}"/>
+    <cellStyle name="Normal 36" xfId="2034" xr:uid="{00000000-0005-0000-0000-0000EA070000}"/>
+    <cellStyle name="Normal 37" xfId="758" xr:uid="{00000000-0005-0000-0000-0000EB070000}"/>
+    <cellStyle name="Normal 37 2" xfId="2035" xr:uid="{00000000-0005-0000-0000-0000EC070000}"/>
+    <cellStyle name="Normal 38" xfId="2036" xr:uid="{00000000-0005-0000-0000-0000ED070000}"/>
+    <cellStyle name="Normal 39" xfId="2037" xr:uid="{00000000-0005-0000-0000-0000EE070000}"/>
+    <cellStyle name="Normal 4" xfId="759" xr:uid="{00000000-0005-0000-0000-0000EF070000}"/>
+    <cellStyle name="Normal 4 2" xfId="2039" xr:uid="{00000000-0005-0000-0000-0000F0070000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="2040" xr:uid="{00000000-0005-0000-0000-0000F1070000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="2041" xr:uid="{00000000-0005-0000-0000-0000F2070000}"/>
+    <cellStyle name="Normal 4 2 4" xfId="2042" xr:uid="{00000000-0005-0000-0000-0000F3070000}"/>
+    <cellStyle name="Normal 4 3" xfId="2043" xr:uid="{00000000-0005-0000-0000-0000F4070000}"/>
+    <cellStyle name="Normal 4 4" xfId="2038" xr:uid="{00000000-0005-0000-0000-0000F5070000}"/>
+    <cellStyle name="Normal 40" xfId="2044" xr:uid="{00000000-0005-0000-0000-0000F6070000}"/>
+    <cellStyle name="Normal 41" xfId="2045" xr:uid="{00000000-0005-0000-0000-0000F7070000}"/>
+    <cellStyle name="Normal 42" xfId="2046" xr:uid="{00000000-0005-0000-0000-0000F8070000}"/>
+    <cellStyle name="Normal 43" xfId="2047" xr:uid="{00000000-0005-0000-0000-0000F9070000}"/>
+    <cellStyle name="Normal 44" xfId="2048" xr:uid="{00000000-0005-0000-0000-0000FA070000}"/>
+    <cellStyle name="Normal 45" xfId="2049" xr:uid="{00000000-0005-0000-0000-0000FB070000}"/>
+    <cellStyle name="Normal 46" xfId="2050" xr:uid="{00000000-0005-0000-0000-0000FC070000}"/>
+    <cellStyle name="Normal 47" xfId="2051" xr:uid="{00000000-0005-0000-0000-0000FD070000}"/>
+    <cellStyle name="Normal 48" xfId="2052" xr:uid="{00000000-0005-0000-0000-0000FE070000}"/>
+    <cellStyle name="Normal 49" xfId="2053" xr:uid="{00000000-0005-0000-0000-0000FF070000}"/>
+    <cellStyle name="Normal 5" xfId="760" xr:uid="{00000000-0005-0000-0000-000000080000}"/>
+    <cellStyle name="Normal 5 2" xfId="2055" xr:uid="{00000000-0005-0000-0000-000001080000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="2596" xr:uid="{00000000-0005-0000-0000-000002080000}"/>
+    <cellStyle name="Normal 5 3" xfId="2056" xr:uid="{00000000-0005-0000-0000-000003080000}"/>
+    <cellStyle name="Normal 5 3 2" xfId="2057" xr:uid="{00000000-0005-0000-0000-000004080000}"/>
+    <cellStyle name="Normal 5 4" xfId="2054" xr:uid="{00000000-0005-0000-0000-000005080000}"/>
+    <cellStyle name="Normal 50" xfId="2058" xr:uid="{00000000-0005-0000-0000-000006080000}"/>
+    <cellStyle name="Normal 51" xfId="2059" xr:uid="{00000000-0005-0000-0000-000007080000}"/>
+    <cellStyle name="Normal 52" xfId="2060" xr:uid="{00000000-0005-0000-0000-000008080000}"/>
+    <cellStyle name="Normal 53" xfId="2061" xr:uid="{00000000-0005-0000-0000-000009080000}"/>
+    <cellStyle name="Normal 54" xfId="2062" xr:uid="{00000000-0005-0000-0000-00000A080000}"/>
+    <cellStyle name="Normal 55" xfId="2063" xr:uid="{00000000-0005-0000-0000-00000B080000}"/>
+    <cellStyle name="Normal 56" xfId="2064" xr:uid="{00000000-0005-0000-0000-00000C080000}"/>
+    <cellStyle name="Normal 57" xfId="2065" xr:uid="{00000000-0005-0000-0000-00000D080000}"/>
+    <cellStyle name="Normal 58" xfId="2066" xr:uid="{00000000-0005-0000-0000-00000E080000}"/>
+    <cellStyle name="Normal 59" xfId="2067" xr:uid="{00000000-0005-0000-0000-00000F080000}"/>
+    <cellStyle name="Normal 6" xfId="761" xr:uid="{00000000-0005-0000-0000-000010080000}"/>
+    <cellStyle name="Normal 6 2" xfId="2068" xr:uid="{00000000-0005-0000-0000-000011080000}"/>
+    <cellStyle name="Normal 6 3" xfId="2069" xr:uid="{00000000-0005-0000-0000-000012080000}"/>
+    <cellStyle name="Normal 6 4" xfId="2070" xr:uid="{00000000-0005-0000-0000-000013080000}"/>
+    <cellStyle name="Normal 60" xfId="2071" xr:uid="{00000000-0005-0000-0000-000014080000}"/>
+    <cellStyle name="Normal 61" xfId="2072" xr:uid="{00000000-0005-0000-0000-000015080000}"/>
+    <cellStyle name="Normal 62" xfId="2073" xr:uid="{00000000-0005-0000-0000-000016080000}"/>
+    <cellStyle name="Normal 63" xfId="2074" xr:uid="{00000000-0005-0000-0000-000017080000}"/>
+    <cellStyle name="Normal 64" xfId="2075" xr:uid="{00000000-0005-0000-0000-000018080000}"/>
+    <cellStyle name="Normal 64 2" xfId="2076" xr:uid="{00000000-0005-0000-0000-000019080000}"/>
+    <cellStyle name="Normal 64 3" xfId="2077" xr:uid="{00000000-0005-0000-0000-00001A080000}"/>
+    <cellStyle name="Normal 64 4" xfId="2078" xr:uid="{00000000-0005-0000-0000-00001B080000}"/>
+    <cellStyle name="Normal 65" xfId="2079" xr:uid="{00000000-0005-0000-0000-00001C080000}"/>
+    <cellStyle name="Normal 66" xfId="2080" xr:uid="{00000000-0005-0000-0000-00001D080000}"/>
+    <cellStyle name="Normal 66 2" xfId="2081" xr:uid="{00000000-0005-0000-0000-00001E080000}"/>
+    <cellStyle name="Normal 66 3" xfId="2082" xr:uid="{00000000-0005-0000-0000-00001F080000}"/>
+    <cellStyle name="Normal 67" xfId="2083" xr:uid="{00000000-0005-0000-0000-000020080000}"/>
+    <cellStyle name="Normal 67 2" xfId="2084" xr:uid="{00000000-0005-0000-0000-000021080000}"/>
+    <cellStyle name="Normal 67 3" xfId="2085" xr:uid="{00000000-0005-0000-0000-000022080000}"/>
+    <cellStyle name="Normal 68" xfId="2086" xr:uid="{00000000-0005-0000-0000-000023080000}"/>
+    <cellStyle name="Normal 68 2" xfId="2087" xr:uid="{00000000-0005-0000-0000-000024080000}"/>
+    <cellStyle name="Normal 69" xfId="2088" xr:uid="{00000000-0005-0000-0000-000025080000}"/>
+    <cellStyle name="Normal 7" xfId="762" xr:uid="{00000000-0005-0000-0000-000026080000}"/>
+    <cellStyle name="Normal 7 2" xfId="2090" xr:uid="{00000000-0005-0000-0000-000027080000}"/>
+    <cellStyle name="Normal 7 3" xfId="2091" xr:uid="{00000000-0005-0000-0000-000028080000}"/>
+    <cellStyle name="Normal 7 3 2" xfId="2092" xr:uid="{00000000-0005-0000-0000-000029080000}"/>
+    <cellStyle name="Normal 7 4" xfId="2093" xr:uid="{00000000-0005-0000-0000-00002A080000}"/>
+    <cellStyle name="Normal 7 5" xfId="2094" xr:uid="{00000000-0005-0000-0000-00002B080000}"/>
+    <cellStyle name="Normal 7 6" xfId="2095" xr:uid="{00000000-0005-0000-0000-00002C080000}"/>
+    <cellStyle name="Normal 7 7" xfId="2089" xr:uid="{00000000-0005-0000-0000-00002D080000}"/>
+    <cellStyle name="Normal 70" xfId="2096" xr:uid="{00000000-0005-0000-0000-00002E080000}"/>
+    <cellStyle name="Normal 70 2" xfId="2097" xr:uid="{00000000-0005-0000-0000-00002F080000}"/>
+    <cellStyle name="Normal 71" xfId="2098" xr:uid="{00000000-0005-0000-0000-000030080000}"/>
+    <cellStyle name="Normal 71 2" xfId="2099" xr:uid="{00000000-0005-0000-0000-000031080000}"/>
+    <cellStyle name="Normal 72" xfId="2100" xr:uid="{00000000-0005-0000-0000-000032080000}"/>
+    <cellStyle name="Normal 72 2" xfId="2101" xr:uid="{00000000-0005-0000-0000-000033080000}"/>
+    <cellStyle name="Normal 73" xfId="2102" xr:uid="{00000000-0005-0000-0000-000034080000}"/>
+    <cellStyle name="Normal 74" xfId="2103" xr:uid="{00000000-0005-0000-0000-000035080000}"/>
+    <cellStyle name="Normal 74 2" xfId="2104" xr:uid="{00000000-0005-0000-0000-000036080000}"/>
+    <cellStyle name="Normal 75" xfId="2105" xr:uid="{00000000-0005-0000-0000-000037080000}"/>
+    <cellStyle name="Normal 76" xfId="2106" xr:uid="{00000000-0005-0000-0000-000038080000}"/>
+    <cellStyle name="Normal 77" xfId="2107" xr:uid="{00000000-0005-0000-0000-000039080000}"/>
+    <cellStyle name="Normal 78" xfId="2108" xr:uid="{00000000-0005-0000-0000-00003A080000}"/>
+    <cellStyle name="Normal 79" xfId="2109" xr:uid="{00000000-0005-0000-0000-00003B080000}"/>
+    <cellStyle name="Normal 8" xfId="763" xr:uid="{00000000-0005-0000-0000-00003C080000}"/>
+    <cellStyle name="Normal 8 2" xfId="2111" xr:uid="{00000000-0005-0000-0000-00003D080000}"/>
+    <cellStyle name="Normal 8 2 2" xfId="2597" xr:uid="{00000000-0005-0000-0000-00003E080000}"/>
+    <cellStyle name="Normal 8 3" xfId="2112" xr:uid="{00000000-0005-0000-0000-00003F080000}"/>
+    <cellStyle name="Normal 8 3 2" xfId="2113" xr:uid="{00000000-0005-0000-0000-000040080000}"/>
+    <cellStyle name="Normal 8 4" xfId="2598" xr:uid="{00000000-0005-0000-0000-000041080000}"/>
+    <cellStyle name="Normal 8 5" xfId="2110" xr:uid="{00000000-0005-0000-0000-000042080000}"/>
+    <cellStyle name="Normal 80" xfId="2114" xr:uid="{00000000-0005-0000-0000-000043080000}"/>
+    <cellStyle name="Normal 81" xfId="2115" xr:uid="{00000000-0005-0000-0000-000044080000}"/>
+    <cellStyle name="Normal 82" xfId="2116" xr:uid="{00000000-0005-0000-0000-000045080000}"/>
+    <cellStyle name="Normal 83" xfId="2117" xr:uid="{00000000-0005-0000-0000-000046080000}"/>
+    <cellStyle name="Normal 84" xfId="2118" xr:uid="{00000000-0005-0000-0000-000047080000}"/>
+    <cellStyle name="Normal 85" xfId="2119" xr:uid="{00000000-0005-0000-0000-000048080000}"/>
+    <cellStyle name="Normal 86" xfId="2120" xr:uid="{00000000-0005-0000-0000-000049080000}"/>
+    <cellStyle name="Normal 87" xfId="2121" xr:uid="{00000000-0005-0000-0000-00004A080000}"/>
+    <cellStyle name="Normal 88" xfId="2122" xr:uid="{00000000-0005-0000-0000-00004B080000}"/>
+    <cellStyle name="Normal 89" xfId="2123" xr:uid="{00000000-0005-0000-0000-00004C080000}"/>
+    <cellStyle name="Normal 9" xfId="764" xr:uid="{00000000-0005-0000-0000-00004D080000}"/>
+    <cellStyle name="Normal 9 2" xfId="2125" xr:uid="{00000000-0005-0000-0000-00004E080000}"/>
+    <cellStyle name="Normal 9 3" xfId="2599" xr:uid="{00000000-0005-0000-0000-00004F080000}"/>
+    <cellStyle name="Normal 9 4" xfId="2124" xr:uid="{00000000-0005-0000-0000-000050080000}"/>
+    <cellStyle name="Normal 90" xfId="2126" xr:uid="{00000000-0005-0000-0000-000051080000}"/>
+    <cellStyle name="Normal 90 2" xfId="2730" xr:uid="{00000000-0005-0000-0000-000052080000}"/>
+    <cellStyle name="Normal 90 3" xfId="2731" xr:uid="{00000000-0005-0000-0000-000053080000}"/>
+    <cellStyle name="Normal 90 3 2" xfId="2732" xr:uid="{00000000-0005-0000-0000-000054080000}"/>
+    <cellStyle name="Normal 90 3 3" xfId="2733" xr:uid="{00000000-0005-0000-0000-000055080000}"/>
+    <cellStyle name="Normal 90 3 3 2" xfId="2734" xr:uid="{00000000-0005-0000-0000-000056080000}"/>
+    <cellStyle name="Normal 90 3 4" xfId="2735" xr:uid="{00000000-0005-0000-0000-000057080000}"/>
+    <cellStyle name="Normal 91" xfId="2127" xr:uid="{00000000-0005-0000-0000-000058080000}"/>
+    <cellStyle name="Normal 92" xfId="2128" xr:uid="{00000000-0005-0000-0000-000059080000}"/>
+    <cellStyle name="Normal 93" xfId="2129" xr:uid="{00000000-0005-0000-0000-00005A080000}"/>
+    <cellStyle name="Normal 94" xfId="2130" xr:uid="{00000000-0005-0000-0000-00005B080000}"/>
+    <cellStyle name="Normal 95" xfId="2131" xr:uid="{00000000-0005-0000-0000-00005C080000}"/>
+    <cellStyle name="Normal 96" xfId="2132" xr:uid="{00000000-0005-0000-0000-00005D080000}"/>
+    <cellStyle name="Normal 97" xfId="2133" xr:uid="{00000000-0005-0000-0000-00005E080000}"/>
+    <cellStyle name="Normal 98" xfId="2134" xr:uid="{00000000-0005-0000-0000-00005F080000}"/>
+    <cellStyle name="Normal 99" xfId="2135" xr:uid="{00000000-0005-0000-0000-000060080000}"/>
+    <cellStyle name="Normál_0427_Paks-Szekszárd_építményjegyzék_2007_11_29" xfId="765" xr:uid="{00000000-0005-0000-0000-000061080000}"/>
+    <cellStyle name="Normal_Curva_Mdo" xfId="766" xr:uid="{00000000-0005-0000-0000-000062080000}"/>
+    <cellStyle name="Normal_HOLS" xfId="1843" xr:uid="{00000000-0005-0000-0000-000063080000}"/>
+    <cellStyle name="Normal1" xfId="767" xr:uid="{00000000-0005-0000-0000-000064080000}"/>
+    <cellStyle name="Normale 2" xfId="768" xr:uid="{00000000-0005-0000-0000-000065080000}"/>
+    <cellStyle name="Normale 2 2" xfId="769" xr:uid="{00000000-0005-0000-0000-000066080000}"/>
+    <cellStyle name="Normale 2 2 2" xfId="2600" xr:uid="{00000000-0005-0000-0000-000067080000}"/>
+    <cellStyle name="Normalny_Cennik obowiazuje od 06-08-2001 r (1)" xfId="770" xr:uid="{00000000-0005-0000-0000-000068080000}"/>
+    <cellStyle name="Notas 2" xfId="771" xr:uid="{00000000-0005-0000-0000-000069080000}"/>
+    <cellStyle name="Notas 2 2" xfId="2601" xr:uid="{00000000-0005-0000-0000-00006A080000}"/>
+    <cellStyle name="Notas 2 3" xfId="2137" xr:uid="{00000000-0005-0000-0000-00006B080000}"/>
+    <cellStyle name="Notas 3" xfId="772" xr:uid="{00000000-0005-0000-0000-00006C080000}"/>
+    <cellStyle name="Notas 3 2" xfId="2602" xr:uid="{00000000-0005-0000-0000-00006D080000}"/>
+    <cellStyle name="Notas 4" xfId="2136" xr:uid="{00000000-0005-0000-0000-00006E080000}"/>
+    <cellStyle name="Note 2" xfId="773" xr:uid="{00000000-0005-0000-0000-00006F080000}"/>
+    <cellStyle name="Note 2 2" xfId="2138" xr:uid="{00000000-0005-0000-0000-000070080000}"/>
+    <cellStyle name="Note 2 3" xfId="2139" xr:uid="{00000000-0005-0000-0000-000071080000}"/>
+    <cellStyle name="Note 3" xfId="774" xr:uid="{00000000-0005-0000-0000-000072080000}"/>
+    <cellStyle name="Note 3 2" xfId="2140" xr:uid="{00000000-0005-0000-0000-000073080000}"/>
+    <cellStyle name="Note 3 3" xfId="2141" xr:uid="{00000000-0005-0000-0000-000074080000}"/>
+    <cellStyle name="Note 3 3 2" xfId="2736" xr:uid="{00000000-0005-0000-0000-000075080000}"/>
+    <cellStyle name="Note 4" xfId="775" xr:uid="{00000000-0005-0000-0000-000076080000}"/>
+    <cellStyle name="Note 4 2" xfId="2142" xr:uid="{00000000-0005-0000-0000-000077080000}"/>
+    <cellStyle name="Note 4 2 2" xfId="2143" xr:uid="{00000000-0005-0000-0000-000078080000}"/>
+    <cellStyle name="Note 4 3" xfId="2737" xr:uid="{00000000-0005-0000-0000-000079080000}"/>
+    <cellStyle name="Note 4 3 2" xfId="2738" xr:uid="{00000000-0005-0000-0000-00007A080000}"/>
+    <cellStyle name="Note 5" xfId="776" xr:uid="{00000000-0005-0000-0000-00007B080000}"/>
+    <cellStyle name="Note 5 2" xfId="2144" xr:uid="{00000000-0005-0000-0000-00007C080000}"/>
+    <cellStyle name="Note 6" xfId="2145" xr:uid="{00000000-0005-0000-0000-00007D080000}"/>
+    <cellStyle name="Note 6 2" xfId="2146" xr:uid="{00000000-0005-0000-0000-00007E080000}"/>
+    <cellStyle name="Note 7" xfId="2147" xr:uid="{00000000-0005-0000-0000-00007F080000}"/>
+    <cellStyle name="Note 8" xfId="2148" xr:uid="{00000000-0005-0000-0000-000080080000}"/>
+    <cellStyle name="Notiz" xfId="777" xr:uid="{00000000-0005-0000-0000-000081080000}"/>
+    <cellStyle name="Notiz 2" xfId="2603" xr:uid="{00000000-0005-0000-0000-000082080000}"/>
+    <cellStyle name="Number" xfId="778" xr:uid="{00000000-0005-0000-0000-000083080000}"/>
+    <cellStyle name="NumberFormat" xfId="779" xr:uid="{00000000-0005-0000-0000-000084080000}"/>
+    <cellStyle name="NumberFormat 2" xfId="2604" xr:uid="{00000000-0005-0000-0000-000085080000}"/>
+    <cellStyle name="numero" xfId="780" xr:uid="{00000000-0005-0000-0000-000086080000}"/>
+    <cellStyle name="Œ…?æ맖?e [0.00]_laroux" xfId="781" xr:uid="{00000000-0005-0000-0000-000087080000}"/>
+    <cellStyle name="Œ…?æ맖?e_laroux" xfId="782" xr:uid="{00000000-0005-0000-0000-000088080000}"/>
+    <cellStyle name="OLELink" xfId="783" xr:uid="{00000000-0005-0000-0000-000089080000}"/>
+    <cellStyle name="Operis date" xfId="784" xr:uid="{00000000-0005-0000-0000-00008A080000}"/>
+    <cellStyle name="Operis ratio" xfId="785" xr:uid="{00000000-0005-0000-0000-00008B080000}"/>
+    <cellStyle name="OperisBase" xfId="786" xr:uid="{00000000-0005-0000-0000-00008C080000}"/>
+    <cellStyle name="OperisMoney" xfId="787" xr:uid="{00000000-0005-0000-0000-00008D080000}"/>
+    <cellStyle name="OperisPercent" xfId="788" xr:uid="{00000000-0005-0000-0000-00008E080000}"/>
+    <cellStyle name="OperisRatio" xfId="789" xr:uid="{00000000-0005-0000-0000-00008F080000}"/>
+    <cellStyle name="Output" xfId="790" xr:uid="{00000000-0005-0000-0000-000090080000}"/>
+    <cellStyle name="Output 2" xfId="2149" xr:uid="{00000000-0005-0000-0000-000091080000}"/>
+    <cellStyle name="Output 3" xfId="2150" xr:uid="{00000000-0005-0000-0000-000092080000}"/>
+    <cellStyle name="Output 4" xfId="2151" xr:uid="{00000000-0005-0000-0000-000093080000}"/>
+    <cellStyle name="Output 5" xfId="2152" xr:uid="{00000000-0005-0000-0000-000094080000}"/>
+    <cellStyle name="Percent [0%]" xfId="2153" xr:uid="{00000000-0005-0000-0000-000095080000}"/>
+    <cellStyle name="Percent [0.00%]" xfId="2154" xr:uid="{00000000-0005-0000-0000-000096080000}"/>
+    <cellStyle name="Percent [2]" xfId="791" xr:uid="{00000000-0005-0000-0000-000097080000}"/>
+    <cellStyle name="Percent [2] 2" xfId="2155" xr:uid="{00000000-0005-0000-0000-000098080000}"/>
+    <cellStyle name="Percent 10" xfId="2156" xr:uid="{00000000-0005-0000-0000-000099080000}"/>
+    <cellStyle name="Percent 10 2" xfId="2157" xr:uid="{00000000-0005-0000-0000-00009A080000}"/>
+    <cellStyle name="Percent 10 3" xfId="2158" xr:uid="{00000000-0005-0000-0000-00009B080000}"/>
+    <cellStyle name="Percent 10 4" xfId="2159" xr:uid="{00000000-0005-0000-0000-00009C080000}"/>
+    <cellStyle name="Percent 11" xfId="2160" xr:uid="{00000000-0005-0000-0000-00009D080000}"/>
+    <cellStyle name="Percent 11 2" xfId="2161" xr:uid="{00000000-0005-0000-0000-00009E080000}"/>
+    <cellStyle name="Percent 11 3" xfId="2162" xr:uid="{00000000-0005-0000-0000-00009F080000}"/>
+    <cellStyle name="Percent 11 4" xfId="2163" xr:uid="{00000000-0005-0000-0000-0000A0080000}"/>
+    <cellStyle name="Percent 12" xfId="2164" xr:uid="{00000000-0005-0000-0000-0000A1080000}"/>
+    <cellStyle name="Percent 12 2" xfId="2165" xr:uid="{00000000-0005-0000-0000-0000A2080000}"/>
+    <cellStyle name="Percent 12 3" xfId="2166" xr:uid="{00000000-0005-0000-0000-0000A3080000}"/>
+    <cellStyle name="Percent 12 3 2" xfId="2167" xr:uid="{00000000-0005-0000-0000-0000A4080000}"/>
+    <cellStyle name="Percent 12 3 3" xfId="2168" xr:uid="{00000000-0005-0000-0000-0000A5080000}"/>
+    <cellStyle name="Percent 12 4" xfId="2169" xr:uid="{00000000-0005-0000-0000-0000A6080000}"/>
+    <cellStyle name="Percent 12 5" xfId="2170" xr:uid="{00000000-0005-0000-0000-0000A7080000}"/>
+    <cellStyle name="Percent 13" xfId="2171" xr:uid="{00000000-0005-0000-0000-0000A8080000}"/>
+    <cellStyle name="Percent 13 2" xfId="2172" xr:uid="{00000000-0005-0000-0000-0000A9080000}"/>
+    <cellStyle name="Percent 13 3" xfId="2173" xr:uid="{00000000-0005-0000-0000-0000AA080000}"/>
+    <cellStyle name="Percent 14" xfId="2174" xr:uid="{00000000-0005-0000-0000-0000AB080000}"/>
+    <cellStyle name="Percent 14 2" xfId="2175" xr:uid="{00000000-0005-0000-0000-0000AC080000}"/>
+    <cellStyle name="Percent 14 3" xfId="2176" xr:uid="{00000000-0005-0000-0000-0000AD080000}"/>
+    <cellStyle name="Percent 15" xfId="2177" xr:uid="{00000000-0005-0000-0000-0000AE080000}"/>
+    <cellStyle name="Percent 15 2" xfId="2178" xr:uid="{00000000-0005-0000-0000-0000AF080000}"/>
+    <cellStyle name="Percent 15 3" xfId="2179" xr:uid="{00000000-0005-0000-0000-0000B0080000}"/>
+    <cellStyle name="Percent 16" xfId="2180" xr:uid="{00000000-0005-0000-0000-0000B1080000}"/>
+    <cellStyle name="Percent 17" xfId="2181" xr:uid="{00000000-0005-0000-0000-0000B2080000}"/>
+    <cellStyle name="Percent 18" xfId="2182" xr:uid="{00000000-0005-0000-0000-0000B3080000}"/>
+    <cellStyle name="Percent 19" xfId="2183" xr:uid="{00000000-0005-0000-0000-0000B4080000}"/>
+    <cellStyle name="Percent 2" xfId="792" xr:uid="{00000000-0005-0000-0000-0000B5080000}"/>
+    <cellStyle name="Percent 2 2" xfId="2184" xr:uid="{00000000-0005-0000-0000-0000B6080000}"/>
+    <cellStyle name="Percent 2 3" xfId="2185" xr:uid="{00000000-0005-0000-0000-0000B7080000}"/>
+    <cellStyle name="Percent 2 3 2" xfId="2739" xr:uid="{00000000-0005-0000-0000-0000B8080000}"/>
+    <cellStyle name="Percent 2 4" xfId="2186" xr:uid="{00000000-0005-0000-0000-0000B9080000}"/>
+    <cellStyle name="Percent 2 4 2" xfId="2740" xr:uid="{00000000-0005-0000-0000-0000BA080000}"/>
+    <cellStyle name="Percent 20" xfId="2187" xr:uid="{00000000-0005-0000-0000-0000BB080000}"/>
+    <cellStyle name="Percent 20 2" xfId="2188" xr:uid="{00000000-0005-0000-0000-0000BC080000}"/>
+    <cellStyle name="Percent 20 3" xfId="2189" xr:uid="{00000000-0005-0000-0000-0000BD080000}"/>
+    <cellStyle name="Percent 21" xfId="2190" xr:uid="{00000000-0005-0000-0000-0000BE080000}"/>
+    <cellStyle name="Percent 21 2" xfId="2191" xr:uid="{00000000-0005-0000-0000-0000BF080000}"/>
+    <cellStyle name="Percent 21 3" xfId="2192" xr:uid="{00000000-0005-0000-0000-0000C0080000}"/>
+    <cellStyle name="Percent 22" xfId="2193" xr:uid="{00000000-0005-0000-0000-0000C1080000}"/>
+    <cellStyle name="Percent 22 2" xfId="2194" xr:uid="{00000000-0005-0000-0000-0000C2080000}"/>
+    <cellStyle name="Percent 23" xfId="2195" xr:uid="{00000000-0005-0000-0000-0000C3080000}"/>
+    <cellStyle name="Percent 24" xfId="2196" xr:uid="{00000000-0005-0000-0000-0000C4080000}"/>
+    <cellStyle name="Percent 24 2" xfId="2197" xr:uid="{00000000-0005-0000-0000-0000C5080000}"/>
+    <cellStyle name="Percent 25" xfId="2198" xr:uid="{00000000-0005-0000-0000-0000C6080000}"/>
+    <cellStyle name="Percent 25 2" xfId="2199" xr:uid="{00000000-0005-0000-0000-0000C7080000}"/>
+    <cellStyle name="Percent 26" xfId="2200" xr:uid="{00000000-0005-0000-0000-0000C8080000}"/>
+    <cellStyle name="Percent 27" xfId="2201" xr:uid="{00000000-0005-0000-0000-0000C9080000}"/>
+    <cellStyle name="Percent 28" xfId="2202" xr:uid="{00000000-0005-0000-0000-0000CA080000}"/>
+    <cellStyle name="Percent 29" xfId="2203" xr:uid="{00000000-0005-0000-0000-0000CB080000}"/>
+    <cellStyle name="Percent 3" xfId="793" xr:uid="{00000000-0005-0000-0000-0000CC080000}"/>
+    <cellStyle name="Percent 3 2" xfId="2204" xr:uid="{00000000-0005-0000-0000-0000CD080000}"/>
+    <cellStyle name="Percent 3 3" xfId="2205" xr:uid="{00000000-0005-0000-0000-0000CE080000}"/>
+    <cellStyle name="Percent 3 3 2" xfId="2741" xr:uid="{00000000-0005-0000-0000-0000CF080000}"/>
+    <cellStyle name="Percent 30" xfId="2206" xr:uid="{00000000-0005-0000-0000-0000D0080000}"/>
+    <cellStyle name="Percent 31" xfId="2207" xr:uid="{00000000-0005-0000-0000-0000D1080000}"/>
+    <cellStyle name="Percent 32" xfId="2208" xr:uid="{00000000-0005-0000-0000-0000D2080000}"/>
+    <cellStyle name="Percent 33" xfId="2209" xr:uid="{00000000-0005-0000-0000-0000D3080000}"/>
+    <cellStyle name="Percent 34" xfId="2210" xr:uid="{00000000-0005-0000-0000-0000D4080000}"/>
+    <cellStyle name="Percent 35" xfId="2211" xr:uid="{00000000-0005-0000-0000-0000D5080000}"/>
+    <cellStyle name="Percent 36" xfId="2212" xr:uid="{00000000-0005-0000-0000-0000D6080000}"/>
+    <cellStyle name="Percent 36 2" xfId="2213" xr:uid="{00000000-0005-0000-0000-0000D7080000}"/>
+    <cellStyle name="Percent 36 3" xfId="2214" xr:uid="{00000000-0005-0000-0000-0000D8080000}"/>
+    <cellStyle name="Percent 37" xfId="2215" xr:uid="{00000000-0005-0000-0000-0000D9080000}"/>
+    <cellStyle name="Percent 37 2" xfId="2216" xr:uid="{00000000-0005-0000-0000-0000DA080000}"/>
+    <cellStyle name="Percent 37 3" xfId="2217" xr:uid="{00000000-0005-0000-0000-0000DB080000}"/>
+    <cellStyle name="Percent 38" xfId="2218" xr:uid="{00000000-0005-0000-0000-0000DC080000}"/>
+    <cellStyle name="Percent 38 2" xfId="2219" xr:uid="{00000000-0005-0000-0000-0000DD080000}"/>
+    <cellStyle name="Percent 38 3" xfId="2220" xr:uid="{00000000-0005-0000-0000-0000DE080000}"/>
+    <cellStyle name="Percent 39" xfId="2221" xr:uid="{00000000-0005-0000-0000-0000DF080000}"/>
+    <cellStyle name="Percent 4" xfId="2222" xr:uid="{00000000-0005-0000-0000-0000E0080000}"/>
+    <cellStyle name="Percent 4 2" xfId="2223" xr:uid="{00000000-0005-0000-0000-0000E1080000}"/>
+    <cellStyle name="Percent 4 3" xfId="2224" xr:uid="{00000000-0005-0000-0000-0000E2080000}"/>
+    <cellStyle name="Percent 4 3 2" xfId="2225" xr:uid="{00000000-0005-0000-0000-0000E3080000}"/>
+    <cellStyle name="Percent 40" xfId="2226" xr:uid="{00000000-0005-0000-0000-0000E4080000}"/>
+    <cellStyle name="Percent 40 2" xfId="2227" xr:uid="{00000000-0005-0000-0000-0000E5080000}"/>
+    <cellStyle name="Percent 40 3" xfId="2228" xr:uid="{00000000-0005-0000-0000-0000E6080000}"/>
+    <cellStyle name="Percent 41" xfId="2229" xr:uid="{00000000-0005-0000-0000-0000E7080000}"/>
+    <cellStyle name="Percent 42" xfId="2230" xr:uid="{00000000-0005-0000-0000-0000E8080000}"/>
+    <cellStyle name="Percent 43" xfId="2231" xr:uid="{00000000-0005-0000-0000-0000E9080000}"/>
+    <cellStyle name="Percent 43 2" xfId="2232" xr:uid="{00000000-0005-0000-0000-0000EA080000}"/>
+    <cellStyle name="Percent 43 2 2" xfId="2233" xr:uid="{00000000-0005-0000-0000-0000EB080000}"/>
+    <cellStyle name="Percent 44" xfId="2234" xr:uid="{00000000-0005-0000-0000-0000EC080000}"/>
+    <cellStyle name="Percent 45" xfId="2235" xr:uid="{00000000-0005-0000-0000-0000ED080000}"/>
+    <cellStyle name="Percent 46" xfId="2236" xr:uid="{00000000-0005-0000-0000-0000EE080000}"/>
+    <cellStyle name="Percent 47" xfId="2237" xr:uid="{00000000-0005-0000-0000-0000EF080000}"/>
+    <cellStyle name="Percent 48" xfId="2238" xr:uid="{00000000-0005-0000-0000-0000F0080000}"/>
+    <cellStyle name="Percent 48 2" xfId="2239" xr:uid="{00000000-0005-0000-0000-0000F1080000}"/>
+    <cellStyle name="Percent 49" xfId="2240" xr:uid="{00000000-0005-0000-0000-0000F2080000}"/>
+    <cellStyle name="Percent 49 2" xfId="2241" xr:uid="{00000000-0005-0000-0000-0000F3080000}"/>
+    <cellStyle name="Percent 5" xfId="2242" xr:uid="{00000000-0005-0000-0000-0000F4080000}"/>
+    <cellStyle name="Percent 5 2" xfId="2243" xr:uid="{00000000-0005-0000-0000-0000F5080000}"/>
+    <cellStyle name="Percent 5 3" xfId="2244" xr:uid="{00000000-0005-0000-0000-0000F6080000}"/>
+    <cellStyle name="Percent 5 3 2" xfId="2245" xr:uid="{00000000-0005-0000-0000-0000F7080000}"/>
+    <cellStyle name="Percent 5 4" xfId="2246" xr:uid="{00000000-0005-0000-0000-0000F8080000}"/>
+    <cellStyle name="Percent 5 5" xfId="2247" xr:uid="{00000000-0005-0000-0000-0000F9080000}"/>
+    <cellStyle name="Percent 50" xfId="2248" xr:uid="{00000000-0005-0000-0000-0000FA080000}"/>
+    <cellStyle name="Percent 50 2" xfId="2249" xr:uid="{00000000-0005-0000-0000-0000FB080000}"/>
+    <cellStyle name="Percent 50 2 2" xfId="2250" xr:uid="{00000000-0005-0000-0000-0000FC080000}"/>
+    <cellStyle name="Percent 51" xfId="2251" xr:uid="{00000000-0005-0000-0000-0000FD080000}"/>
+    <cellStyle name="Percent 52" xfId="2252" xr:uid="{00000000-0005-0000-0000-0000FE080000}"/>
+    <cellStyle name="Percent 53" xfId="2253" xr:uid="{00000000-0005-0000-0000-0000FF080000}"/>
+    <cellStyle name="Percent 54" xfId="2254" xr:uid="{00000000-0005-0000-0000-000000090000}"/>
+    <cellStyle name="Percent 55" xfId="2255" xr:uid="{00000000-0005-0000-0000-000001090000}"/>
+    <cellStyle name="Percent 56" xfId="2256" xr:uid="{00000000-0005-0000-0000-000002090000}"/>
+    <cellStyle name="Percent 57" xfId="2257" xr:uid="{00000000-0005-0000-0000-000003090000}"/>
+    <cellStyle name="Percent 58" xfId="2258" xr:uid="{00000000-0005-0000-0000-000004090000}"/>
+    <cellStyle name="Percent 59" xfId="2259" xr:uid="{00000000-0005-0000-0000-000005090000}"/>
+    <cellStyle name="Percent 6" xfId="2260" xr:uid="{00000000-0005-0000-0000-000006090000}"/>
+    <cellStyle name="Percent 6 2" xfId="2261" xr:uid="{00000000-0005-0000-0000-000007090000}"/>
+    <cellStyle name="Percent 6 3" xfId="2262" xr:uid="{00000000-0005-0000-0000-000008090000}"/>
+    <cellStyle name="Percent 6 3 2" xfId="2263" xr:uid="{00000000-0005-0000-0000-000009090000}"/>
+    <cellStyle name="Percent 6 4" xfId="2264" xr:uid="{00000000-0005-0000-0000-00000A090000}"/>
+    <cellStyle name="Percent 6 5" xfId="2265" xr:uid="{00000000-0005-0000-0000-00000B090000}"/>
+    <cellStyle name="Percent 60" xfId="2266" xr:uid="{00000000-0005-0000-0000-00000C090000}"/>
+    <cellStyle name="Percent 61" xfId="2267" xr:uid="{00000000-0005-0000-0000-00000D090000}"/>
+    <cellStyle name="Percent 62" xfId="2268" xr:uid="{00000000-0005-0000-0000-00000E090000}"/>
+    <cellStyle name="Percent 63" xfId="2269" xr:uid="{00000000-0005-0000-0000-00000F090000}"/>
+    <cellStyle name="Percent 64" xfId="2270" xr:uid="{00000000-0005-0000-0000-000010090000}"/>
+    <cellStyle name="Percent 65" xfId="2271" xr:uid="{00000000-0005-0000-0000-000011090000}"/>
+    <cellStyle name="Percent 66" xfId="2272" xr:uid="{00000000-0005-0000-0000-000012090000}"/>
+    <cellStyle name="Percent 67" xfId="2273" xr:uid="{00000000-0005-0000-0000-000013090000}"/>
+    <cellStyle name="Percent 68" xfId="2605" xr:uid="{00000000-0005-0000-0000-000014090000}"/>
+    <cellStyle name="Percent 69" xfId="2606" xr:uid="{00000000-0005-0000-0000-000015090000}"/>
+    <cellStyle name="Percent 7" xfId="2274" xr:uid="{00000000-0005-0000-0000-000016090000}"/>
+    <cellStyle name="Percent 7 2" xfId="2275" xr:uid="{00000000-0005-0000-0000-000017090000}"/>
+    <cellStyle name="Percent 7 3" xfId="2276" xr:uid="{00000000-0005-0000-0000-000018090000}"/>
+    <cellStyle name="Percent 7 3 2" xfId="2277" xr:uid="{00000000-0005-0000-0000-000019090000}"/>
+    <cellStyle name="Percent 7 4" xfId="2278" xr:uid="{00000000-0005-0000-0000-00001A090000}"/>
+    <cellStyle name="Percent 8" xfId="2279" xr:uid="{00000000-0005-0000-0000-00001B090000}"/>
+    <cellStyle name="Percent 8 2" xfId="2280" xr:uid="{00000000-0005-0000-0000-00001C090000}"/>
+    <cellStyle name="Percent 8 3" xfId="2281" xr:uid="{00000000-0005-0000-0000-00001D090000}"/>
+    <cellStyle name="Percent 8 3 2" xfId="2282" xr:uid="{00000000-0005-0000-0000-00001E090000}"/>
+    <cellStyle name="Percent 8 4" xfId="2283" xr:uid="{00000000-0005-0000-0000-00001F090000}"/>
+    <cellStyle name="Percent 8 4 2" xfId="2284" xr:uid="{00000000-0005-0000-0000-000020090000}"/>
+    <cellStyle name="Percent 8 4 3" xfId="2285" xr:uid="{00000000-0005-0000-0000-000021090000}"/>
+    <cellStyle name="Percent 9" xfId="2286" xr:uid="{00000000-0005-0000-0000-000022090000}"/>
+    <cellStyle name="Percent 9 2" xfId="2287" xr:uid="{00000000-0005-0000-0000-000023090000}"/>
+    <cellStyle name="Percent 9 3" xfId="2288" xr:uid="{00000000-0005-0000-0000-000024090000}"/>
+    <cellStyle name="Percent 9 3 2" xfId="2289" xr:uid="{00000000-0005-0000-0000-000025090000}"/>
+    <cellStyle name="Percent 9 4" xfId="2290" xr:uid="{00000000-0005-0000-0000-000026090000}"/>
+    <cellStyle name="Percent 9 5" xfId="2291" xr:uid="{00000000-0005-0000-0000-000027090000}"/>
+    <cellStyle name="Percent with ()" xfId="794" xr:uid="{00000000-0005-0000-0000-000028090000}"/>
+    <cellStyle name="Percent[0]" xfId="795" xr:uid="{00000000-0005-0000-0000-000029090000}"/>
+    <cellStyle name="Percent[0] 2" xfId="2607" xr:uid="{00000000-0005-0000-0000-00002A090000}"/>
+    <cellStyle name="percnt" xfId="796" xr:uid="{00000000-0005-0000-0000-00002B090000}"/>
+    <cellStyle name="percnt 2" xfId="2608" xr:uid="{00000000-0005-0000-0000-00002C090000}"/>
+    <cellStyle name="Pevný" xfId="797" xr:uid="{00000000-0005-0000-0000-00002D090000}"/>
+    <cellStyle name="Porcentaje 2" xfId="799" xr:uid="{00000000-0005-0000-0000-00002E090000}"/>
+    <cellStyle name="Porcentaje 2 2" xfId="2609" xr:uid="{00000000-0005-0000-0000-00002F090000}"/>
+    <cellStyle name="Porcentaje 3" xfId="800" xr:uid="{00000000-0005-0000-0000-000030090000}"/>
+    <cellStyle name="Porcentaje 3 2" xfId="2610" xr:uid="{00000000-0005-0000-0000-000031090000}"/>
+    <cellStyle name="Porcentaje 4" xfId="801" xr:uid="{00000000-0005-0000-0000-000032090000}"/>
+    <cellStyle name="Porcentaje 4 2" xfId="2611" xr:uid="{00000000-0005-0000-0000-000033090000}"/>
+    <cellStyle name="Porcentaje 5" xfId="802" xr:uid="{00000000-0005-0000-0000-000034090000}"/>
+    <cellStyle name="Porcentaje 5 2" xfId="2612" xr:uid="{00000000-0005-0000-0000-000035090000}"/>
+    <cellStyle name="Porcentaje 6" xfId="798" xr:uid="{00000000-0005-0000-0000-000036090000}"/>
+    <cellStyle name="Porcentual 2" xfId="803" xr:uid="{00000000-0005-0000-0000-000037090000}"/>
+    <cellStyle name="Porcentual 2 2" xfId="2292" xr:uid="{00000000-0005-0000-0000-000038090000}"/>
+    <cellStyle name="Porcentual 3" xfId="804" xr:uid="{00000000-0005-0000-0000-000039090000}"/>
+    <cellStyle name="prezzo unitario" xfId="805" xr:uid="{00000000-0005-0000-0000-00003A090000}"/>
+    <cellStyle name="Rates" xfId="806" xr:uid="{00000000-0005-0000-0000-00003B090000}"/>
+    <cellStyle name="realtime" xfId="807" xr:uid="{00000000-0005-0000-0000-00003C090000}"/>
+    <cellStyle name="Refreshes real time data links for active sheet" xfId="808" xr:uid="{00000000-0005-0000-0000-00003D090000}"/>
+    <cellStyle name="Refreshes real time data links for active sheet 2" xfId="2613" xr:uid="{00000000-0005-0000-0000-00003E090000}"/>
+    <cellStyle name="result" xfId="809" xr:uid="{00000000-0005-0000-0000-00003F090000}"/>
+    <cellStyle name="ri" xfId="810" xr:uid="{00000000-0005-0000-0000-000040090000}"/>
+    <cellStyle name="ri 2" xfId="2615" xr:uid="{00000000-0005-0000-0000-000041090000}"/>
+    <cellStyle name="ri 3" xfId="2614" xr:uid="{00000000-0005-0000-0000-000042090000}"/>
+    <cellStyle name="rt" xfId="811" xr:uid="{00000000-0005-0000-0000-000043090000}"/>
+    <cellStyle name="Salida 2" xfId="813" xr:uid="{00000000-0005-0000-0000-000044090000}"/>
+    <cellStyle name="Salida 3" xfId="814" xr:uid="{00000000-0005-0000-0000-000045090000}"/>
+    <cellStyle name="Salida 4" xfId="815" xr:uid="{00000000-0005-0000-0000-000046090000}"/>
+    <cellStyle name="Salida 5" xfId="812" xr:uid="{00000000-0005-0000-0000-000047090000}"/>
+    <cellStyle name="SAPBEXaggData" xfId="816" xr:uid="{00000000-0005-0000-0000-000048090000}"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="817" xr:uid="{00000000-0005-0000-0000-000049090000}"/>
+    <cellStyle name="SAPBEXaggItem" xfId="818" xr:uid="{00000000-0005-0000-0000-00004A090000}"/>
+    <cellStyle name="SAPBEXchaText" xfId="819" xr:uid="{00000000-0005-0000-0000-00004B090000}"/>
+    <cellStyle name="SAPBEXexcBad7" xfId="820" xr:uid="{00000000-0005-0000-0000-00004C090000}"/>
+    <cellStyle name="SAPBEXexcBad8" xfId="821" xr:uid="{00000000-0005-0000-0000-00004D090000}"/>
+    <cellStyle name="SAPBEXexcBad9" xfId="822" xr:uid="{00000000-0005-0000-0000-00004E090000}"/>
+    <cellStyle name="SAPBEXexcCritical4" xfId="823" xr:uid="{00000000-0005-0000-0000-00004F090000}"/>
+    <cellStyle name="SAPBEXexcCritical5" xfId="824" xr:uid="{00000000-0005-0000-0000-000050090000}"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="825" xr:uid="{00000000-0005-0000-0000-000051090000}"/>
+    <cellStyle name="SAPBEXexcGood1" xfId="826" xr:uid="{00000000-0005-0000-0000-000052090000}"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="827" xr:uid="{00000000-0005-0000-0000-000053090000}"/>
+    <cellStyle name="SAPBEXexcGood3" xfId="828" xr:uid="{00000000-0005-0000-0000-000054090000}"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="829" xr:uid="{00000000-0005-0000-0000-000055090000}"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="830" xr:uid="{00000000-0005-0000-0000-000056090000}"/>
+    <cellStyle name="SAPBEXfilterText" xfId="831" xr:uid="{00000000-0005-0000-0000-000057090000}"/>
+    <cellStyle name="SAPBEXformats" xfId="832" xr:uid="{00000000-0005-0000-0000-000058090000}"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="833" xr:uid="{00000000-0005-0000-0000-000059090000}"/>
+    <cellStyle name="SAPBEXheaderItem 2" xfId="2616" xr:uid="{00000000-0005-0000-0000-00005A090000}"/>
+    <cellStyle name="SAPBEXheaderText" xfId="834" xr:uid="{00000000-0005-0000-0000-00005B090000}"/>
+    <cellStyle name="SAPBEXheaderText 2" xfId="2617" xr:uid="{00000000-0005-0000-0000-00005C090000}"/>
+    <cellStyle name="SAPBEXresData" xfId="835" xr:uid="{00000000-0005-0000-0000-00005D090000}"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="836" xr:uid="{00000000-0005-0000-0000-00005E090000}"/>
+    <cellStyle name="SAPBEXresItem" xfId="837" xr:uid="{00000000-0005-0000-0000-00005F090000}"/>
+    <cellStyle name="SAPBEXstdData" xfId="838" xr:uid="{00000000-0005-0000-0000-000060090000}"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="839" xr:uid="{00000000-0005-0000-0000-000061090000}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="840" xr:uid="{00000000-0005-0000-0000-000062090000}"/>
+    <cellStyle name="SAPBEXtitle" xfId="841" xr:uid="{00000000-0005-0000-0000-000063090000}"/>
+    <cellStyle name="SAPBEXundefined" xfId="842" xr:uid="{00000000-0005-0000-0000-000064090000}"/>
+    <cellStyle name="Satisfaisant" xfId="2742" xr:uid="{00000000-0005-0000-0000-000065090000}"/>
+    <cellStyle name="Schlecht" xfId="843" xr:uid="{00000000-0005-0000-0000-000066090000}"/>
+    <cellStyle name="Single Border" xfId="844" xr:uid="{00000000-0005-0000-0000-000067090000}"/>
+    <cellStyle name="Sortie" xfId="2743" xr:uid="{00000000-0005-0000-0000-000068090000}"/>
+    <cellStyle name="Standard_~0027840" xfId="845" xr:uid="{00000000-0005-0000-0000-000069090000}"/>
+    <cellStyle name="static" xfId="846" xr:uid="{00000000-0005-0000-0000-00006A090000}"/>
+    <cellStyle name="static 2" xfId="847" xr:uid="{00000000-0005-0000-0000-00006B090000}"/>
+    <cellStyle name="static 2 2" xfId="2293" xr:uid="{00000000-0005-0000-0000-00006C090000}"/>
+    <cellStyle name="static 2 3" xfId="2294" xr:uid="{00000000-0005-0000-0000-00006D090000}"/>
+    <cellStyle name="static 2 4" xfId="2295" xr:uid="{00000000-0005-0000-0000-00006E090000}"/>
+    <cellStyle name="static 2_BBV" xfId="2296" xr:uid="{00000000-0005-0000-0000-00006F090000}"/>
+    <cellStyle name="static 3" xfId="2297" xr:uid="{00000000-0005-0000-0000-000070090000}"/>
+    <cellStyle name="static 3 2" xfId="2744" xr:uid="{00000000-0005-0000-0000-000071090000}"/>
+    <cellStyle name="static 4" xfId="2745" xr:uid="{00000000-0005-0000-0000-000072090000}"/>
+    <cellStyle name="static 4 2" xfId="2746" xr:uid="{00000000-0005-0000-0000-000073090000}"/>
+    <cellStyle name="static_AjustesPorColat" xfId="848" xr:uid="{00000000-0005-0000-0000-000074090000}"/>
+    <cellStyle name="Std_%" xfId="849" xr:uid="{00000000-0005-0000-0000-000075090000}"/>
+    <cellStyle name="Style 1" xfId="850" xr:uid="{00000000-0005-0000-0000-000076090000}"/>
+    <cellStyle name="Style 1 2" xfId="2298" xr:uid="{00000000-0005-0000-0000-000077090000}"/>
+    <cellStyle name="Style 1 2 2" xfId="2299" xr:uid="{00000000-0005-0000-0000-000078090000}"/>
+    <cellStyle name="Style 1 2 3" xfId="2300" xr:uid="{00000000-0005-0000-0000-000079090000}"/>
+    <cellStyle name="Style 1 3" xfId="2301" xr:uid="{00000000-0005-0000-0000-00007A090000}"/>
+    <cellStyle name="Style 1 3 2" xfId="2747" xr:uid="{00000000-0005-0000-0000-00007B090000}"/>
+    <cellStyle name="Style 1 3 3" xfId="2748" xr:uid="{00000000-0005-0000-0000-00007C090000}"/>
+    <cellStyle name="Style 1 3 3 2" xfId="2749" xr:uid="{00000000-0005-0000-0000-00007D090000}"/>
+    <cellStyle name="Style 1 4" xfId="2302" xr:uid="{00000000-0005-0000-0000-00007E090000}"/>
+    <cellStyle name="Style 1 4 2" xfId="2750" xr:uid="{00000000-0005-0000-0000-00007F090000}"/>
+    <cellStyle name="Style 1 5" xfId="2303" xr:uid="{00000000-0005-0000-0000-000080090000}"/>
+    <cellStyle name="Style 1 5 2" xfId="2751" xr:uid="{00000000-0005-0000-0000-000081090000}"/>
+    <cellStyle name="Style 1_BBV" xfId="2304" xr:uid="{00000000-0005-0000-0000-000082090000}"/>
+    <cellStyle name="Style 10" xfId="851" xr:uid="{00000000-0005-0000-0000-000083090000}"/>
+    <cellStyle name="Style 10 2" xfId="2305" xr:uid="{00000000-0005-0000-0000-000084090000}"/>
+    <cellStyle name="Style 11" xfId="852" xr:uid="{00000000-0005-0000-0000-000085090000}"/>
+    <cellStyle name="Style 11 2" xfId="2306" xr:uid="{00000000-0005-0000-0000-000086090000}"/>
+    <cellStyle name="Style 12" xfId="853" xr:uid="{00000000-0005-0000-0000-000087090000}"/>
+    <cellStyle name="Style 12 2" xfId="854" xr:uid="{00000000-0005-0000-0000-000088090000}"/>
+    <cellStyle name="Style 12 2 2" xfId="2307" xr:uid="{00000000-0005-0000-0000-000089090000}"/>
+    <cellStyle name="Style 12 3" xfId="2308" xr:uid="{00000000-0005-0000-0000-00008A090000}"/>
+    <cellStyle name="Style 12_BBGData" xfId="855" xr:uid="{00000000-0005-0000-0000-00008B090000}"/>
+    <cellStyle name="Style 13" xfId="856" xr:uid="{00000000-0005-0000-0000-00008C090000}"/>
+    <cellStyle name="Style 13 2" xfId="857" xr:uid="{00000000-0005-0000-0000-00008D090000}"/>
+    <cellStyle name="Style 13 2 2" xfId="2309" xr:uid="{00000000-0005-0000-0000-00008E090000}"/>
+    <cellStyle name="Style 13 3" xfId="2310" xr:uid="{00000000-0005-0000-0000-00008F090000}"/>
+    <cellStyle name="Style 13_BBGData" xfId="858" xr:uid="{00000000-0005-0000-0000-000090090000}"/>
+    <cellStyle name="Style 14" xfId="859" xr:uid="{00000000-0005-0000-0000-000091090000}"/>
+    <cellStyle name="Style 14 2" xfId="2311" xr:uid="{00000000-0005-0000-0000-000092090000}"/>
+    <cellStyle name="Style 15" xfId="860" xr:uid="{00000000-0005-0000-0000-000093090000}"/>
+    <cellStyle name="Style 15 2" xfId="861" xr:uid="{00000000-0005-0000-0000-000094090000}"/>
+    <cellStyle name="Style 15 2 2" xfId="2312" xr:uid="{00000000-0005-0000-0000-000095090000}"/>
+    <cellStyle name="Style 15 3" xfId="2313" xr:uid="{00000000-0005-0000-0000-000096090000}"/>
+    <cellStyle name="Style 15_BBGData" xfId="862" xr:uid="{00000000-0005-0000-0000-000097090000}"/>
+    <cellStyle name="Style 16" xfId="863" xr:uid="{00000000-0005-0000-0000-000098090000}"/>
+    <cellStyle name="Style 16 2" xfId="864" xr:uid="{00000000-0005-0000-0000-000099090000}"/>
+    <cellStyle name="Style 16 2 2" xfId="2314" xr:uid="{00000000-0005-0000-0000-00009A090000}"/>
+    <cellStyle name="Style 16 3" xfId="2315" xr:uid="{00000000-0005-0000-0000-00009B090000}"/>
+    <cellStyle name="Style 16_BBGData" xfId="865" xr:uid="{00000000-0005-0000-0000-00009C090000}"/>
+    <cellStyle name="Style 2" xfId="866" xr:uid="{00000000-0005-0000-0000-00009D090000}"/>
+    <cellStyle name="Style 3" xfId="867" xr:uid="{00000000-0005-0000-0000-00009E090000}"/>
+    <cellStyle name="Style 3 2" xfId="2618" xr:uid="{00000000-0005-0000-0000-00009F090000}"/>
+    <cellStyle name="Style 3 3" xfId="2316" xr:uid="{00000000-0005-0000-0000-0000A0090000}"/>
+    <cellStyle name="Style 4" xfId="868" xr:uid="{00000000-0005-0000-0000-0000A1090000}"/>
+    <cellStyle name="Style 4 2" xfId="2619" xr:uid="{00000000-0005-0000-0000-0000A2090000}"/>
+    <cellStyle name="Style 4 3" xfId="2317" xr:uid="{00000000-0005-0000-0000-0000A3090000}"/>
+    <cellStyle name="Style 5" xfId="869" xr:uid="{00000000-0005-0000-0000-0000A4090000}"/>
+    <cellStyle name="Style 5 2" xfId="2620" xr:uid="{00000000-0005-0000-0000-0000A5090000}"/>
+    <cellStyle name="Style 5 3" xfId="2318" xr:uid="{00000000-0005-0000-0000-0000A6090000}"/>
+    <cellStyle name="Style 6" xfId="870" xr:uid="{00000000-0005-0000-0000-0000A7090000}"/>
+    <cellStyle name="Style 7" xfId="871" xr:uid="{00000000-0005-0000-0000-0000A8090000}"/>
+    <cellStyle name="Style 8" xfId="872" xr:uid="{00000000-0005-0000-0000-0000A9090000}"/>
+    <cellStyle name="Style 8 2" xfId="2319" xr:uid="{00000000-0005-0000-0000-0000AA090000}"/>
+    <cellStyle name="Style 9" xfId="873" xr:uid="{00000000-0005-0000-0000-0000AB090000}"/>
+    <cellStyle name="Style 9 2" xfId="874" xr:uid="{00000000-0005-0000-0000-0000AC090000}"/>
+    <cellStyle name="Style 9 2 2" xfId="2320" xr:uid="{00000000-0005-0000-0000-0000AD090000}"/>
+    <cellStyle name="Style 9 3" xfId="2321" xr:uid="{00000000-0005-0000-0000-0000AE090000}"/>
+    <cellStyle name="Style 9_BBGData" xfId="875" xr:uid="{00000000-0005-0000-0000-0000AF090000}"/>
+    <cellStyle name="subhead" xfId="876" xr:uid="{00000000-0005-0000-0000-0000B0090000}"/>
+    <cellStyle name="swpBody01" xfId="877" xr:uid="{00000000-0005-0000-0000-0000B1090000}"/>
+    <cellStyle name="swpBodyClean" xfId="878" xr:uid="{00000000-0005-0000-0000-0000B2090000}"/>
+    <cellStyle name="swpBodyClean 2" xfId="879" xr:uid="{00000000-0005-0000-0000-0000B3090000}"/>
+    <cellStyle name="swpBodyClean 2 2" xfId="2621" xr:uid="{00000000-0005-0000-0000-0000B4090000}"/>
+    <cellStyle name="swpBodyClean 3" xfId="880" xr:uid="{00000000-0005-0000-0000-0000B5090000}"/>
+    <cellStyle name="swpBodyClean 3 2" xfId="2622" xr:uid="{00000000-0005-0000-0000-0000B6090000}"/>
+    <cellStyle name="swpBodyClean 4" xfId="2623" xr:uid="{00000000-0005-0000-0000-0000B7090000}"/>
+    <cellStyle name="swpBodyFirstCol" xfId="881" xr:uid="{00000000-0005-0000-0000-0000B8090000}"/>
+    <cellStyle name="swpCaption" xfId="882" xr:uid="{00000000-0005-0000-0000-0000B9090000}"/>
+    <cellStyle name="swpClear" xfId="883" xr:uid="{00000000-0005-0000-0000-0000BA090000}"/>
+    <cellStyle name="swpClear 2" xfId="884" xr:uid="{00000000-0005-0000-0000-0000BB090000}"/>
+    <cellStyle name="swpClear 2 2" xfId="2624" xr:uid="{00000000-0005-0000-0000-0000BC090000}"/>
+    <cellStyle name="swpClear 3" xfId="885" xr:uid="{00000000-0005-0000-0000-0000BD090000}"/>
+    <cellStyle name="swpClear 3 2" xfId="2625" xr:uid="{00000000-0005-0000-0000-0000BE090000}"/>
+    <cellStyle name="swpClear 4" xfId="2626" xr:uid="{00000000-0005-0000-0000-0000BF090000}"/>
+    <cellStyle name="swpDatum_english" xfId="886" xr:uid="{00000000-0005-0000-0000-0000C0090000}"/>
+    <cellStyle name="swpHBBookTitle" xfId="887" xr:uid="{00000000-0005-0000-0000-0000C1090000}"/>
+    <cellStyle name="swpHBChapterTitle" xfId="888" xr:uid="{00000000-0005-0000-0000-0000C2090000}"/>
+    <cellStyle name="swpHead01" xfId="889" xr:uid="{00000000-0005-0000-0000-0000C3090000}"/>
+    <cellStyle name="swpHead01R" xfId="890" xr:uid="{00000000-0005-0000-0000-0000C4090000}"/>
+    <cellStyle name="swpHead02" xfId="891" xr:uid="{00000000-0005-0000-0000-0000C5090000}"/>
+    <cellStyle name="swpHead02R" xfId="892" xr:uid="{00000000-0005-0000-0000-0000C6090000}"/>
+    <cellStyle name="swpHead03" xfId="893" xr:uid="{00000000-0005-0000-0000-0000C7090000}"/>
+    <cellStyle name="swpHead03R" xfId="894" xr:uid="{00000000-0005-0000-0000-0000C8090000}"/>
+    <cellStyle name="swpHeadBraL" xfId="895" xr:uid="{00000000-0005-0000-0000-0000C9090000}"/>
+    <cellStyle name="swpHeadBraL 2" xfId="896" xr:uid="{00000000-0005-0000-0000-0000CA090000}"/>
+    <cellStyle name="swpHeadBraL 2 2" xfId="2627" xr:uid="{00000000-0005-0000-0000-0000CB090000}"/>
+    <cellStyle name="swpHeadBraL 3" xfId="897" xr:uid="{00000000-0005-0000-0000-0000CC090000}"/>
+    <cellStyle name="swpHeadBraL 3 2" xfId="2628" xr:uid="{00000000-0005-0000-0000-0000CD090000}"/>
+    <cellStyle name="swpHeadBraL 4" xfId="2629" xr:uid="{00000000-0005-0000-0000-0000CE090000}"/>
+    <cellStyle name="swpHeadBraM" xfId="898" xr:uid="{00000000-0005-0000-0000-0000CF090000}"/>
+    <cellStyle name="swpHeadBraM 2" xfId="899" xr:uid="{00000000-0005-0000-0000-0000D0090000}"/>
+    <cellStyle name="swpHeadBraM 2 2" xfId="2630" xr:uid="{00000000-0005-0000-0000-0000D1090000}"/>
+    <cellStyle name="swpHeadBraM 3" xfId="900" xr:uid="{00000000-0005-0000-0000-0000D2090000}"/>
+    <cellStyle name="swpHeadBraM 3 2" xfId="2631" xr:uid="{00000000-0005-0000-0000-0000D3090000}"/>
+    <cellStyle name="swpHeadBraM 4" xfId="2632" xr:uid="{00000000-0005-0000-0000-0000D4090000}"/>
+    <cellStyle name="swpHeadBraR" xfId="901" xr:uid="{00000000-0005-0000-0000-0000D5090000}"/>
+    <cellStyle name="swpHeadBraR 2" xfId="902" xr:uid="{00000000-0005-0000-0000-0000D6090000}"/>
+    <cellStyle name="swpHeadBraR 2 2" xfId="2633" xr:uid="{00000000-0005-0000-0000-0000D7090000}"/>
+    <cellStyle name="swpHeadBraR 3" xfId="903" xr:uid="{00000000-0005-0000-0000-0000D8090000}"/>
+    <cellStyle name="swpHeadBraR 3 2" xfId="2634" xr:uid="{00000000-0005-0000-0000-0000D9090000}"/>
+    <cellStyle name="swpHeadBraR 4" xfId="2635" xr:uid="{00000000-0005-0000-0000-0000DA090000}"/>
+    <cellStyle name="swpTag" xfId="904" xr:uid="{00000000-0005-0000-0000-0000DB090000}"/>
+    <cellStyle name="swpTotals" xfId="905" xr:uid="{00000000-0005-0000-0000-0000DC090000}"/>
+    <cellStyle name="swpTotalsNo" xfId="906" xr:uid="{00000000-0005-0000-0000-0000DD090000}"/>
+    <cellStyle name="swpTotalsTotal" xfId="907" xr:uid="{00000000-0005-0000-0000-0000DE090000}"/>
+    <cellStyle name="SYSTEM" xfId="908" xr:uid="{00000000-0005-0000-0000-0000DF090000}"/>
+    <cellStyle name="T" xfId="909" xr:uid="{00000000-0005-0000-0000-0000E0090000}"/>
+    <cellStyle name="T 2" xfId="2636" xr:uid="{00000000-0005-0000-0000-0000E1090000}"/>
+    <cellStyle name="T 3" xfId="2322" xr:uid="{00000000-0005-0000-0000-0000E2090000}"/>
+    <cellStyle name="T_Book1" xfId="910" xr:uid="{00000000-0005-0000-0000-0000E3090000}"/>
+    <cellStyle name="T_Book1_1" xfId="911" xr:uid="{00000000-0005-0000-0000-0000E4090000}"/>
+    <cellStyle name="T_Book1_1_CPK" xfId="912" xr:uid="{00000000-0005-0000-0000-0000E5090000}"/>
+    <cellStyle name="T_Book1_1_CPK_REALTIME_EURUSD" xfId="913" xr:uid="{00000000-0005-0000-0000-0000E6090000}"/>
+    <cellStyle name="T_Book1_1_CPK_REALTIME_EURUSD_1" xfId="914" xr:uid="{00000000-0005-0000-0000-0000E7090000}"/>
+    <cellStyle name="T_Book1_1_CPK_REALTIME_USDEUR" xfId="915" xr:uid="{00000000-0005-0000-0000-0000E8090000}"/>
+    <cellStyle name="T_Book1_1_CPK_REALTIME_USDMXN" xfId="916" xr:uid="{00000000-0005-0000-0000-0000E9090000}"/>
+    <cellStyle name="T_Book1_1_REALTIME_EURUSD" xfId="917" xr:uid="{00000000-0005-0000-0000-0000EA090000}"/>
+    <cellStyle name="T_Book1_1_REALTIME_EURUSD_1" xfId="918" xr:uid="{00000000-0005-0000-0000-0000EB090000}"/>
+    <cellStyle name="T_Book1_1_REALTIME_USDEUR" xfId="919" xr:uid="{00000000-0005-0000-0000-0000EC090000}"/>
+    <cellStyle name="T_Book1_1_REALTIME_USDMXN" xfId="920" xr:uid="{00000000-0005-0000-0000-0000ED090000}"/>
+    <cellStyle name="T_Book1_1_Thiet bi" xfId="921" xr:uid="{00000000-0005-0000-0000-0000EE090000}"/>
+    <cellStyle name="T_Book1_1_Thiet bi_REALTIME_EURUSD" xfId="922" xr:uid="{00000000-0005-0000-0000-0000EF090000}"/>
+    <cellStyle name="T_Book1_1_Thiet bi_REALTIME_EURUSD_1" xfId="923" xr:uid="{00000000-0005-0000-0000-0000F0090000}"/>
+    <cellStyle name="T_Book1_1_Thiet bi_REALTIME_USDEUR" xfId="924" xr:uid="{00000000-0005-0000-0000-0000F1090000}"/>
+    <cellStyle name="T_Book1_1_Thiet bi_REALTIME_USDMXN" xfId="925" xr:uid="{00000000-0005-0000-0000-0000F2090000}"/>
+    <cellStyle name="T_Book1_CPK" xfId="926" xr:uid="{00000000-0005-0000-0000-0000F3090000}"/>
+    <cellStyle name="T_Book1_CPK_REALTIME_EURUSD" xfId="927" xr:uid="{00000000-0005-0000-0000-0000F4090000}"/>
+    <cellStyle name="T_Book1_CPK_REALTIME_EURUSD_1" xfId="928" xr:uid="{00000000-0005-0000-0000-0000F5090000}"/>
+    <cellStyle name="T_Book1_CPK_REALTIME_USDEUR" xfId="929" xr:uid="{00000000-0005-0000-0000-0000F6090000}"/>
+    <cellStyle name="T_Book1_CPK_REALTIME_USDMXN" xfId="930" xr:uid="{00000000-0005-0000-0000-0000F7090000}"/>
+    <cellStyle name="T_Book1_REALTIME_EURUSD" xfId="931" xr:uid="{00000000-0005-0000-0000-0000F8090000}"/>
+    <cellStyle name="T_Book1_REALTIME_EURUSD_1" xfId="932" xr:uid="{00000000-0005-0000-0000-0000F9090000}"/>
+    <cellStyle name="T_Book1_REALTIME_USDEUR" xfId="933" xr:uid="{00000000-0005-0000-0000-0000FA090000}"/>
+    <cellStyle name="T_Book1_REALTIME_USDMXN" xfId="934" xr:uid="{00000000-0005-0000-0000-0000FB090000}"/>
+    <cellStyle name="T_Book1_Thiet bi" xfId="935" xr:uid="{00000000-0005-0000-0000-0000FC090000}"/>
+    <cellStyle name="T_Book1_Thiet bi_REALTIME_EURUSD" xfId="936" xr:uid="{00000000-0005-0000-0000-0000FD090000}"/>
+    <cellStyle name="T_Book1_Thiet bi_REALTIME_EURUSD_1" xfId="937" xr:uid="{00000000-0005-0000-0000-0000FE090000}"/>
+    <cellStyle name="T_Book1_Thiet bi_REALTIME_USDEUR" xfId="938" xr:uid="{00000000-0005-0000-0000-0000FF090000}"/>
+    <cellStyle name="T_Book1_Thiet bi_REALTIME_USDMXN" xfId="939" xr:uid="{00000000-0005-0000-0000-0000000A0000}"/>
+    <cellStyle name="T_CPK" xfId="940" xr:uid="{00000000-0005-0000-0000-0000010A0000}"/>
+    <cellStyle name="T_CPK_REALTIME_EURUSD" xfId="941" xr:uid="{00000000-0005-0000-0000-0000020A0000}"/>
+    <cellStyle name="T_CPK_REALTIME_EURUSD_1" xfId="942" xr:uid="{00000000-0005-0000-0000-0000030A0000}"/>
+    <cellStyle name="T_CPK_REALTIME_USDEUR" xfId="943" xr:uid="{00000000-0005-0000-0000-0000040A0000}"/>
+    <cellStyle name="T_CPK_REALTIME_USDMXN" xfId="944" xr:uid="{00000000-0005-0000-0000-0000050A0000}"/>
+    <cellStyle name="T_REALTIME_EURUSD" xfId="945" xr:uid="{00000000-0005-0000-0000-0000060A0000}"/>
+    <cellStyle name="T_REALTIME_EURUSD_1" xfId="946" xr:uid="{00000000-0005-0000-0000-0000070A0000}"/>
+    <cellStyle name="T_REALTIME_USDEUR" xfId="947" xr:uid="{00000000-0005-0000-0000-0000080A0000}"/>
+    <cellStyle name="T_REALTIME_USDMXN" xfId="948" xr:uid="{00000000-0005-0000-0000-0000090A0000}"/>
+    <cellStyle name="T_Thiet bi" xfId="949" xr:uid="{00000000-0005-0000-0000-00000A0A0000}"/>
+    <cellStyle name="T_Thiet bi_REALTIME_EURUSD" xfId="950" xr:uid="{00000000-0005-0000-0000-00000B0A0000}"/>
+    <cellStyle name="T_Thiet bi_REALTIME_EURUSD_1" xfId="951" xr:uid="{00000000-0005-0000-0000-00000C0A0000}"/>
+    <cellStyle name="T_Thiet bi_REALTIME_USDEUR" xfId="952" xr:uid="{00000000-0005-0000-0000-00000D0A0000}"/>
+    <cellStyle name="T_Thiet bi_REALTIME_USDMXN" xfId="953" xr:uid="{00000000-0005-0000-0000-00000E0A0000}"/>
+    <cellStyle name="T1" xfId="954" xr:uid="{00000000-0005-0000-0000-00000F0A0000}"/>
+    <cellStyle name="text" xfId="955" xr:uid="{00000000-0005-0000-0000-0000100A0000}"/>
+    <cellStyle name="Texte explicatif" xfId="2752" xr:uid="{00000000-0005-0000-0000-0000110A0000}"/>
+    <cellStyle name="Texto de advertencia 2" xfId="956" xr:uid="{00000000-0005-0000-0000-0000120A0000}"/>
+    <cellStyle name="Texto de advertencia 3" xfId="957" xr:uid="{00000000-0005-0000-0000-0000130A0000}"/>
+    <cellStyle name="Texto explicativo 2" xfId="959" xr:uid="{00000000-0005-0000-0000-0000140A0000}"/>
+    <cellStyle name="Texto explicativo 3" xfId="960" xr:uid="{00000000-0005-0000-0000-0000150A0000}"/>
+    <cellStyle name="Texto explicativo 4" xfId="961" xr:uid="{00000000-0005-0000-0000-0000160A0000}"/>
+    <cellStyle name="Texto explicativo 5" xfId="958" xr:uid="{00000000-0005-0000-0000-0000170A0000}"/>
+    <cellStyle name="th" xfId="962" xr:uid="{00000000-0005-0000-0000-0000180A0000}"/>
+    <cellStyle name="TIME Detail" xfId="963" xr:uid="{00000000-0005-0000-0000-0000190A0000}"/>
+    <cellStyle name="TIME Period Start" xfId="964" xr:uid="{00000000-0005-0000-0000-00001A0A0000}"/>
+    <cellStyle name="Title" xfId="965" xr:uid="{00000000-0005-0000-0000-00001B0A0000}"/>
+    <cellStyle name="Title 2" xfId="2323" xr:uid="{00000000-0005-0000-0000-00001C0A0000}"/>
+    <cellStyle name="Title 2 2" xfId="2324" xr:uid="{00000000-0005-0000-0000-00001D0A0000}"/>
+    <cellStyle name="Title 3" xfId="2325" xr:uid="{00000000-0005-0000-0000-00001E0A0000}"/>
+    <cellStyle name="Title 4" xfId="2326" xr:uid="{00000000-0005-0000-0000-00001F0A0000}"/>
+    <cellStyle name="Title 5" xfId="2327" xr:uid="{00000000-0005-0000-0000-0000200A0000}"/>
+    <cellStyle name="Titre" xfId="2753" xr:uid="{00000000-0005-0000-0000-0000210A0000}"/>
+    <cellStyle name="Titre 1" xfId="2754" xr:uid="{00000000-0005-0000-0000-0000220A0000}"/>
+    <cellStyle name="Titre 2" xfId="2755" xr:uid="{00000000-0005-0000-0000-0000230A0000}"/>
+    <cellStyle name="Titre 3" xfId="2756" xr:uid="{00000000-0005-0000-0000-0000240A0000}"/>
+    <cellStyle name="Titre 4" xfId="2757" xr:uid="{00000000-0005-0000-0000-0000250A0000}"/>
+    <cellStyle name="TitreRub" xfId="966" xr:uid="{00000000-0005-0000-0000-0000260A0000}"/>
+    <cellStyle name="TitreRub 2" xfId="2637" xr:uid="{00000000-0005-0000-0000-0000270A0000}"/>
+    <cellStyle name="TitreTab" xfId="967" xr:uid="{00000000-0005-0000-0000-0000280A0000}"/>
+    <cellStyle name="TitreTab 2" xfId="2638" xr:uid="{00000000-0005-0000-0000-0000290A0000}"/>
+    <cellStyle name="Título 1 2" xfId="970" xr:uid="{00000000-0005-0000-0000-00002A0A0000}"/>
+    <cellStyle name="Título 1 3" xfId="971" xr:uid="{00000000-0005-0000-0000-00002B0A0000}"/>
+    <cellStyle name="Título 1 4" xfId="972" xr:uid="{00000000-0005-0000-0000-00002C0A0000}"/>
+    <cellStyle name="Título 1 5" xfId="969" xr:uid="{00000000-0005-0000-0000-00002D0A0000}"/>
+    <cellStyle name="Título 2 2" xfId="974" xr:uid="{00000000-0005-0000-0000-00002E0A0000}"/>
+    <cellStyle name="Título 2 3" xfId="975" xr:uid="{00000000-0005-0000-0000-00002F0A0000}"/>
+    <cellStyle name="Título 2 4" xfId="976" xr:uid="{00000000-0005-0000-0000-0000300A0000}"/>
+    <cellStyle name="Título 2 5" xfId="973" xr:uid="{00000000-0005-0000-0000-0000310A0000}"/>
+    <cellStyle name="Título 3 2" xfId="978" xr:uid="{00000000-0005-0000-0000-0000320A0000}"/>
+    <cellStyle name="Título 3 3" xfId="979" xr:uid="{00000000-0005-0000-0000-0000330A0000}"/>
+    <cellStyle name="Título 3 4" xfId="980" xr:uid="{00000000-0005-0000-0000-0000340A0000}"/>
+    <cellStyle name="Título 3 5" xfId="977" xr:uid="{00000000-0005-0000-0000-0000350A0000}"/>
+    <cellStyle name="Título 4" xfId="981" xr:uid="{00000000-0005-0000-0000-0000360A0000}"/>
+    <cellStyle name="Título 5" xfId="982" xr:uid="{00000000-0005-0000-0000-0000370A0000}"/>
+    <cellStyle name="Título 6" xfId="968" xr:uid="{00000000-0005-0000-0000-0000380A0000}"/>
+    <cellStyle name="Topheader" xfId="983" xr:uid="{00000000-0005-0000-0000-0000390A0000}"/>
+    <cellStyle name="Total 2" xfId="985" xr:uid="{00000000-0005-0000-0000-00003A0A0000}"/>
+    <cellStyle name="Total 2 2" xfId="2328" xr:uid="{00000000-0005-0000-0000-00003B0A0000}"/>
+    <cellStyle name="Total 3" xfId="984" xr:uid="{00000000-0005-0000-0000-00003C0A0000}"/>
+    <cellStyle name="Total 3 2" xfId="2330" xr:uid="{00000000-0005-0000-0000-00003D0A0000}"/>
+    <cellStyle name="Total 3 3" xfId="2329" xr:uid="{00000000-0005-0000-0000-00003E0A0000}"/>
+    <cellStyle name="Total 4" xfId="2331" xr:uid="{00000000-0005-0000-0000-00003F0A0000}"/>
+    <cellStyle name="Total 5" xfId="2332" xr:uid="{00000000-0005-0000-0000-0000400A0000}"/>
+    <cellStyle name="toto" xfId="2333" xr:uid="{00000000-0005-0000-0000-0000410A0000}"/>
+    <cellStyle name="toto 2" xfId="2334" xr:uid="{00000000-0005-0000-0000-0000420A0000}"/>
+    <cellStyle name="toto 2 2" xfId="2335" xr:uid="{00000000-0005-0000-0000-0000430A0000}"/>
+    <cellStyle name="toto 2 3" xfId="2336" xr:uid="{00000000-0005-0000-0000-0000440A0000}"/>
+    <cellStyle name="toto 2 4" xfId="2337" xr:uid="{00000000-0005-0000-0000-0000450A0000}"/>
+    <cellStyle name="toto 2_BBV" xfId="2338" xr:uid="{00000000-0005-0000-0000-0000460A0000}"/>
+    <cellStyle name="toto 3" xfId="2339" xr:uid="{00000000-0005-0000-0000-0000470A0000}"/>
+    <cellStyle name="toto 3 2" xfId="2340" xr:uid="{00000000-0005-0000-0000-0000480A0000}"/>
+    <cellStyle name="toto 3 3" xfId="2341" xr:uid="{00000000-0005-0000-0000-0000490A0000}"/>
+    <cellStyle name="toto 4" xfId="2342" xr:uid="{00000000-0005-0000-0000-00004A0A0000}"/>
+    <cellStyle name="toto 4 2" xfId="2343" xr:uid="{00000000-0005-0000-0000-00004B0A0000}"/>
+    <cellStyle name="toto 4 3" xfId="2344" xr:uid="{00000000-0005-0000-0000-00004C0A0000}"/>
+    <cellStyle name="toto_BBV" xfId="2345" xr:uid="{00000000-0005-0000-0000-00004D0A0000}"/>
+    <cellStyle name="tt1" xfId="986" xr:uid="{00000000-0005-0000-0000-00004E0A0000}"/>
+    <cellStyle name="u.m. articolo" xfId="987" xr:uid="{00000000-0005-0000-0000-00004F0A0000}"/>
+    <cellStyle name="Überschrift" xfId="988" xr:uid="{00000000-0005-0000-0000-0000500A0000}"/>
+    <cellStyle name="Überschrift 1" xfId="989" xr:uid="{00000000-0005-0000-0000-0000510A0000}"/>
+    <cellStyle name="Überschrift 2" xfId="990" xr:uid="{00000000-0005-0000-0000-0000520A0000}"/>
+    <cellStyle name="Überschrift 3" xfId="991" xr:uid="{00000000-0005-0000-0000-0000530A0000}"/>
+    <cellStyle name="Überschrift 4" xfId="992" xr:uid="{00000000-0005-0000-0000-0000540A0000}"/>
+    <cellStyle name="unità di misura" xfId="993" xr:uid="{00000000-0005-0000-0000-0000550A0000}"/>
+    <cellStyle name="unità di misura 2" xfId="2639" xr:uid="{00000000-0005-0000-0000-0000560A0000}"/>
+    <cellStyle name="UserInput_WillContribute" xfId="994" xr:uid="{00000000-0005-0000-0000-0000570A0000}"/>
+    <cellStyle name="ux_3_¼­¿ï-¾È»ê" xfId="995" xr:uid="{00000000-0005-0000-0000-0000580A0000}"/>
+    <cellStyle name="Valuta (0)_analisi costi tecnologici e edili  NIGUARDA" xfId="996" xr:uid="{00000000-0005-0000-0000-0000590A0000}"/>
+    <cellStyle name="Vérification" xfId="2758" xr:uid="{00000000-0005-0000-0000-00005A0A0000}"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="997" xr:uid="{00000000-0005-0000-0000-00005B0A0000}"/>
+    <cellStyle name="viet" xfId="998" xr:uid="{00000000-0005-0000-0000-00005C0A0000}"/>
+    <cellStyle name="viet 2" xfId="2640" xr:uid="{00000000-0005-0000-0000-00005D0A0000}"/>
+    <cellStyle name="viet 3" xfId="2346" xr:uid="{00000000-0005-0000-0000-00005E0A0000}"/>
+    <cellStyle name="viet2" xfId="999" xr:uid="{00000000-0005-0000-0000-00005F0A0000}"/>
+    <cellStyle name="viet2 2" xfId="2641" xr:uid="{00000000-0005-0000-0000-0000600A0000}"/>
+    <cellStyle name="viet2 3" xfId="2347" xr:uid="{00000000-0005-0000-0000-0000610A0000}"/>
+    <cellStyle name="vnbo" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000620A0000}"/>
+    <cellStyle name="vnbo 2" xfId="2348" xr:uid="{00000000-0005-0000-0000-0000630A0000}"/>
+    <cellStyle name="vnhead1" xfId="1001" xr:uid="{00000000-0005-0000-0000-0000640A0000}"/>
+    <cellStyle name="vnhead2" xfId="1002" xr:uid="{00000000-0005-0000-0000-0000650A0000}"/>
+    <cellStyle name="vnhead2 2" xfId="2349" xr:uid="{00000000-0005-0000-0000-0000660A0000}"/>
+    <cellStyle name="vnhead3" xfId="1003" xr:uid="{00000000-0005-0000-0000-0000670A0000}"/>
+    <cellStyle name="vnhead3 2" xfId="2350" xr:uid="{00000000-0005-0000-0000-0000680A0000}"/>
+    <cellStyle name="vnhead4" xfId="1004" xr:uid="{00000000-0005-0000-0000-0000690A0000}"/>
+    <cellStyle name="vntxt1" xfId="1005" xr:uid="{00000000-0005-0000-0000-00006A0A0000}"/>
+    <cellStyle name="vntxt1 2" xfId="2351" xr:uid="{00000000-0005-0000-0000-00006B0A0000}"/>
+    <cellStyle name="vntxt2" xfId="1006" xr:uid="{00000000-0005-0000-0000-00006C0A0000}"/>
+    <cellStyle name="Währung [0]_35ERI8T2gbIEMixb4v26icuOo" xfId="1007" xr:uid="{00000000-0005-0000-0000-00006D0A0000}"/>
+    <cellStyle name="Währung €" xfId="1008" xr:uid="{00000000-0005-0000-0000-00006E0A0000}"/>
+    <cellStyle name="Währung € 2" xfId="2642" xr:uid="{00000000-0005-0000-0000-00006F0A0000}"/>
+    <cellStyle name="Währung DM" xfId="1009" xr:uid="{00000000-0005-0000-0000-0000700A0000}"/>
+    <cellStyle name="Währung DM 2" xfId="2643" xr:uid="{00000000-0005-0000-0000-0000710A0000}"/>
+    <cellStyle name="Währung_35ERI8T2gbIEMixb4v26icuOo" xfId="1010" xr:uid="{00000000-0005-0000-0000-0000720A0000}"/>
+    <cellStyle name="Walutowy [0]_Invoices2001Slovakia" xfId="1011" xr:uid="{00000000-0005-0000-0000-0000730A0000}"/>
+    <cellStyle name="Walutowy_Invoices2001Slovakia" xfId="1012" xr:uid="{00000000-0005-0000-0000-0000740A0000}"/>
+    <cellStyle name="Warnender Text" xfId="1013" xr:uid="{00000000-0005-0000-0000-0000750A0000}"/>
+    <cellStyle name="Warning Text 2" xfId="2352" xr:uid="{00000000-0005-0000-0000-0000760A0000}"/>
+    <cellStyle name="Warning Text 3" xfId="2353" xr:uid="{00000000-0005-0000-0000-0000770A0000}"/>
+    <cellStyle name="Warning Text 4" xfId="2354" xr:uid="{00000000-0005-0000-0000-0000780A0000}"/>
+    <cellStyle name="Warning Text 5" xfId="2355" xr:uid="{00000000-0005-0000-0000-0000790A0000}"/>
+    <cellStyle name="x" xfId="2356" xr:uid="{00000000-0005-0000-0000-00007A0A0000}"/>
+    <cellStyle name="x 10" xfId="2357" xr:uid="{00000000-0005-0000-0000-00007B0A0000}"/>
+    <cellStyle name="x 2" xfId="2358" xr:uid="{00000000-0005-0000-0000-00007C0A0000}"/>
+    <cellStyle name="x 2 2" xfId="2359" xr:uid="{00000000-0005-0000-0000-00007D0A0000}"/>
+    <cellStyle name="x 2 3" xfId="2360" xr:uid="{00000000-0005-0000-0000-00007E0A0000}"/>
+    <cellStyle name="x 2 4" xfId="2361" xr:uid="{00000000-0005-0000-0000-00007F0A0000}"/>
+    <cellStyle name="x 3" xfId="2362" xr:uid="{00000000-0005-0000-0000-0000800A0000}"/>
+    <cellStyle name="x 3 2" xfId="2363" xr:uid="{00000000-0005-0000-0000-0000810A0000}"/>
+    <cellStyle name="x 3 3" xfId="2364" xr:uid="{00000000-0005-0000-0000-0000820A0000}"/>
+    <cellStyle name="x 4" xfId="2365" xr:uid="{00000000-0005-0000-0000-0000830A0000}"/>
+    <cellStyle name="x 4 2" xfId="2366" xr:uid="{00000000-0005-0000-0000-0000840A0000}"/>
+    <cellStyle name="x 5" xfId="2367" xr:uid="{00000000-0005-0000-0000-0000850A0000}"/>
+    <cellStyle name="x 6" xfId="2368" xr:uid="{00000000-0005-0000-0000-0000860A0000}"/>
+    <cellStyle name="x 6 2" xfId="2369" xr:uid="{00000000-0005-0000-0000-0000870A0000}"/>
+    <cellStyle name="x 6 3" xfId="2370" xr:uid="{00000000-0005-0000-0000-0000880A0000}"/>
+    <cellStyle name="x 7" xfId="2371" xr:uid="{00000000-0005-0000-0000-0000890A0000}"/>
+    <cellStyle name="x 7 2" xfId="2372" xr:uid="{00000000-0005-0000-0000-00008A0A0000}"/>
+    <cellStyle name="x 7 2 2" xfId="2373" xr:uid="{00000000-0005-0000-0000-00008B0A0000}"/>
+    <cellStyle name="x 8" xfId="2374" xr:uid="{00000000-0005-0000-0000-00008C0A0000}"/>
+    <cellStyle name="x 8 2" xfId="2375" xr:uid="{00000000-0005-0000-0000-00008D0A0000}"/>
+    <cellStyle name="x 9" xfId="2376" xr:uid="{00000000-0005-0000-0000-00008E0A0000}"/>
+    <cellStyle name="x 9 2" xfId="2377" xr:uid="{00000000-0005-0000-0000-00008F0A0000}"/>
+    <cellStyle name="xuan" xfId="1014" xr:uid="{00000000-0005-0000-0000-0000900A0000}"/>
+    <cellStyle name="Ý kh¸c_B¶ng 1 (2)" xfId="1015" xr:uid="{00000000-0005-0000-0000-0000910A0000}"/>
+    <cellStyle name="Záhlaví 1" xfId="1016" xr:uid="{00000000-0005-0000-0000-0000920A0000}"/>
+    <cellStyle name="Záhlaví 2" xfId="1017" xr:uid="{00000000-0005-0000-0000-0000930A0000}"/>
+    <cellStyle name="Zelle überprüfen" xfId="1018" xr:uid="{00000000-0005-0000-0000-0000940A0000}"/>
+    <cellStyle name="Обычный_biadutoan" xfId="1019" xr:uid="{00000000-0005-0000-0000-0000950A0000}"/>
+    <cellStyle name=" [0.00]_ Att. 1- Cover" xfId="1020" xr:uid="{00000000-0005-0000-0000-0000960A0000}"/>
+    <cellStyle name="_ Att. 1- Cover" xfId="1021" xr:uid="{00000000-0005-0000-0000-0000970A0000}"/>
+    <cellStyle name="?_ Att. 1- Cover" xfId="1022" xr:uid="{00000000-0005-0000-0000-0000980A0000}"/>
+    <cellStyle name="강조색1" xfId="1023" xr:uid="{00000000-0005-0000-0000-0000990A0000}"/>
+    <cellStyle name="강조색2" xfId="1024" xr:uid="{00000000-0005-0000-0000-00009A0A0000}"/>
+    <cellStyle name="강조색3" xfId="1025" xr:uid="{00000000-0005-0000-0000-00009B0A0000}"/>
+    <cellStyle name="강조색4" xfId="1026" xr:uid="{00000000-0005-0000-0000-00009C0A0000}"/>
+    <cellStyle name="강조색5" xfId="1027" xr:uid="{00000000-0005-0000-0000-00009D0A0000}"/>
+    <cellStyle name="강조색6" xfId="1028" xr:uid="{00000000-0005-0000-0000-00009E0A0000}"/>
+    <cellStyle name="경고문" xfId="1029" xr:uid="{00000000-0005-0000-0000-00009F0A0000}"/>
+    <cellStyle name="계산" xfId="1030" xr:uid="{00000000-0005-0000-0000-0000A00A0000}"/>
+    <cellStyle name="나쁨" xfId="1031" xr:uid="{00000000-0005-0000-0000-0000A10A0000}"/>
+    <cellStyle name="뒤에 오는 하이퍼링크" xfId="1032" xr:uid="{00000000-0005-0000-0000-0000A20A0000}"/>
+    <cellStyle name="똿뗦먛귟 [0.00]_PRODUCT DETAIL Q1" xfId="1033" xr:uid="{00000000-0005-0000-0000-0000A30A0000}"/>
+    <cellStyle name="똿뗦먛귟_PRODUCT DETAIL Q1" xfId="1034" xr:uid="{00000000-0005-0000-0000-0000A40A0000}"/>
+    <cellStyle name="메모" xfId="1035" xr:uid="{00000000-0005-0000-0000-0000A50A0000}"/>
+    <cellStyle name="믅됞 [0.00]_PRODUCT DETAIL Q1" xfId="1036" xr:uid="{00000000-0005-0000-0000-0000A60A0000}"/>
+    <cellStyle name="믅됞_PRODUCT DETAIL Q1" xfId="1037" xr:uid="{00000000-0005-0000-0000-0000A70A0000}"/>
+    <cellStyle name="백분율 2" xfId="1038" xr:uid="{00000000-0005-0000-0000-0000A80A0000}"/>
+    <cellStyle name="버미" xfId="1039" xr:uid="{00000000-0005-0000-0000-0000A90A0000}"/>
+    <cellStyle name="보통" xfId="1040" xr:uid="{00000000-0005-0000-0000-0000AA0A0000}"/>
+    <cellStyle name="뷭?_BOOKSHIP" xfId="1041" xr:uid="{00000000-0005-0000-0000-0000AB0A0000}"/>
+    <cellStyle name="설명 텍스트" xfId="1042" xr:uid="{00000000-0005-0000-0000-0000AC0A0000}"/>
+    <cellStyle name="셀 확인" xfId="1043" xr:uid="{00000000-0005-0000-0000-0000AD0A0000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="1044" xr:uid="{00000000-0005-0000-0000-0000AE0A0000}"/>
+    <cellStyle name="쉼표 [0] 2 2" xfId="2644" xr:uid="{00000000-0005-0000-0000-0000AF0A0000}"/>
+    <cellStyle name="쉼표 [0] 2 3" xfId="2378" xr:uid="{00000000-0005-0000-0000-0000B00A0000}"/>
+    <cellStyle name="스타일 1" xfId="1045" xr:uid="{00000000-0005-0000-0000-0000B10A0000}"/>
+    <cellStyle name="안건회계법인" xfId="1046" xr:uid="{00000000-0005-0000-0000-0000B20A0000}"/>
+    <cellStyle name="연결된 셀" xfId="1047" xr:uid="{00000000-0005-0000-0000-0000B30A0000}"/>
+    <cellStyle name="요약" xfId="1048" xr:uid="{00000000-0005-0000-0000-0000B40A0000}"/>
+    <cellStyle name="입력" xfId="1049" xr:uid="{00000000-0005-0000-0000-0000B50A0000}"/>
+    <cellStyle name="제목" xfId="1050" xr:uid="{00000000-0005-0000-0000-0000B60A0000}"/>
+    <cellStyle name="제목 1" xfId="1051" xr:uid="{00000000-0005-0000-0000-0000B70A0000}"/>
+    <cellStyle name="제목 2" xfId="1052" xr:uid="{00000000-0005-0000-0000-0000B80A0000}"/>
+    <cellStyle name="제목 3" xfId="1053" xr:uid="{00000000-0005-0000-0000-0000B90A0000}"/>
+    <cellStyle name="제목 4" xfId="1054" xr:uid="{00000000-0005-0000-0000-0000BA0A0000}"/>
+    <cellStyle name="좋음" xfId="1055" xr:uid="{00000000-0005-0000-0000-0000BB0A0000}"/>
+    <cellStyle name="출력" xfId="1056" xr:uid="{00000000-0005-0000-0000-0000BC0A0000}"/>
+    <cellStyle name="콤마 [0]_1" xfId="1057" xr:uid="{00000000-0005-0000-0000-0000BD0A0000}"/>
+    <cellStyle name="콤마[0]" xfId="1058" xr:uid="{00000000-0005-0000-0000-0000BE0A0000}"/>
+    <cellStyle name="콤마_1" xfId="1059" xr:uid="{00000000-0005-0000-0000-0000BF0A0000}"/>
+    <cellStyle name="표줠_Sheet1_1_총괄표 (수출입) (2)" xfId="1060" xr:uid="{00000000-0005-0000-0000-0000C00A0000}"/>
+    <cellStyle name="一般_00Q3902REV.1" xfId="1061" xr:uid="{00000000-0005-0000-0000-0000C10A0000}"/>
+    <cellStyle name="千分位[0]_00Q3902REV.1" xfId="1062" xr:uid="{00000000-0005-0000-0000-0000C20A0000}"/>
+    <cellStyle name="千分位_00Q3902REV.1" xfId="1063" xr:uid="{00000000-0005-0000-0000-0000C30A0000}"/>
+    <cellStyle name="標準_Akia(F）-8" xfId="1064" xr:uid="{00000000-0005-0000-0000-0000C40A0000}"/>
+    <cellStyle name="貨幣 [0]_00Q3902REV.1" xfId="1065" xr:uid="{00000000-0005-0000-0000-0000C50A0000}"/>
+    <cellStyle name="貨幣[0]_BRE" xfId="1066" xr:uid="{00000000-0005-0000-0000-0000C60A0000}"/>
+    <cellStyle name="貨幣_00Q3902REV.1" xfId="1067" xr:uid="{00000000-0005-0000-0000-0000C70A0000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -9448,7 +9447,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -9456,6 +9455,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9504,7 +9506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9537,9 +9539,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9572,6 +9591,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9747,10 +9783,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
@@ -9759,7 +9797,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>6.2399999999999997E-2</v>
+        <v>8.3199999999999996E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9767,7 +9805,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>6.2399999999999997E-2</v>
+        <v>8.3199999999999996E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9775,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>6.6549999999999998E-2</v>
+        <v>8.43E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9783,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>7.1800000000000003E-2</v>
+        <v>8.6199999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9791,7 +9829,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>7.6600000000000001E-2</v>
+        <v>8.7099999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9799,7 +9837,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>8.1699999999999995E-2</v>
+        <v>8.7599999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9807,7 +9845,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>8.6400000000000005E-2</v>
+        <v>8.7800000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9815,7 +9853,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>8.6850000000000011E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9823,7 +9861,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>8.6099999999999996E-2</v>
+        <v>8.8400000000000006E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9831,7 +9869,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>8.564999999999999E-2</v>
+        <v>8.8900000000000007E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9839,7 +9877,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>8.564999999999999E-2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9847,7 +9885,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="3">
-        <v>8.5699999999999998E-2</v>
+        <v>9.1800000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9855,7 +9893,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>8.8100000000000012E-2</v>
+        <v>9.3600000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9863,7 +9901,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>8.9700000000000002E-2</v>
+        <v>9.4700000000000006E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9871,7 +9909,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="3">
-        <v>9.0649999999999994E-2</v>
+        <v>9.5699999999999993E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9880,7 +9918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A324"/>
   <sheetViews>
     <sheetView topLeftCell="A175" workbookViewId="0">
@@ -11255,7 +11293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
